--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\整机测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="286">
   <si>
     <t>组序号</t>
   </si>
@@ -2642,32 +2642,41 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2680,15 +2689,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3049,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87:D98"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3388,11 +3388,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="89" t="s">
         <v>112</v>
       </c>
       <c r="D15" s="20">
@@ -3409,9 +3409,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -3426,9 +3426,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -3443,9 +3443,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -3460,9 +3460,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -3523,11 +3523,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="87" t="s">
         <v>129</v>
       </c>
       <c r="D22" s="20">
@@ -3544,9 +3544,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -3561,9 +3561,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -3578,9 +3578,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -3595,9 +3595,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -3654,11 +3654,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="95" t="s">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="101" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -3675,9 +3675,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -3692,9 +3692,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -3709,9 +3709,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -3726,9 +3726,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -3743,11 +3743,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87" t="s">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="90" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -3764,9 +3764,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -3781,11 +3781,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87" t="s">
+      <c r="A36" s="90"/>
+      <c r="B36" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="89" t="s">
         <v>155</v>
       </c>
       <c r="D36" s="20">
@@ -3802,9 +3802,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -3814,16 +3814,16 @@
       <c r="F37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>11</v>
+      <c r="G37" s="4">
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="94" t="s">
+      <c r="A38" s="90"/>
+      <c r="B38" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="91" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -3835,14 +3835,14 @@
       <c r="F38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>11</v>
+      <c r="G38" s="8">
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="87"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -3852,16 +3852,16 @@
       <c r="F39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>11</v>
+      <c r="G39" s="4">
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87" t="s">
+      <c r="A40" s="90"/>
+      <c r="B40" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="91" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -3878,9 +3878,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -3895,9 +3895,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -3912,9 +3912,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="87"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -3929,9 +3929,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="87"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -3946,11 +3946,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="87">
+      <c r="A45" s="90">
         <v>13</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87" t="s">
+      <c r="B45" s="90"/>
+      <c r="C45" s="90" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4030,11 +4030,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="91" t="s">
+      <c r="A49" s="92"/>
+      <c r="B49" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="92" t="s">
         <v>99</v>
       </c>
       <c r="D49" s="20">
@@ -4051,9 +4051,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="87"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -4068,9 +4068,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="87"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -4169,11 +4169,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="88"/>
-      <c r="B56" s="90" t="s">
+      <c r="A56" s="87"/>
+      <c r="B56" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="88" t="s">
+      <c r="C56" s="87" t="s">
         <v>134</v>
       </c>
       <c r="D56" s="20">
@@ -4190,9 +4190,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="89"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -4207,9 +4207,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -4224,9 +4224,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
+      <c r="A59" s="88"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -4241,9 +4241,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -4258,9 +4258,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -4275,9 +4275,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="89"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -4334,11 +4334,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="86"/>
-      <c r="B65" s="91" t="s">
+      <c r="A65" s="92"/>
+      <c r="B65" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="92" t="s">
         <v>99</v>
       </c>
       <c r="D65" s="20">
@@ -4355,9 +4355,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="87"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
+      <c r="A66" s="90"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -4372,9 +4372,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="87"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
+      <c r="A67" s="90"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -4473,11 +4473,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="88"/>
-      <c r="B72" s="90" t="s">
+      <c r="A72" s="87"/>
+      <c r="B72" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="88" t="s">
+      <c r="C72" s="87" t="s">
         <v>134</v>
       </c>
       <c r="D72" s="20">
@@ -4494,9 +4494,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="89"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="89"/>
+      <c r="A73" s="88"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="88"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -4511,9 +4511,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="89"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
+      <c r="A74" s="88"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -4528,9 +4528,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="89"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="89"/>
+      <c r="A75" s="88"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -4545,9 +4545,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="89"/>
-      <c r="B76" s="89"/>
-      <c r="C76" s="89"/>
+      <c r="A76" s="88"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="88"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -4562,9 +4562,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="89"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
+      <c r="A77" s="88"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="88"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -4579,9 +4579,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="89"/>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
+      <c r="A78" s="88"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="88"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -4638,11 +4638,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="94"/>
-      <c r="B81" s="94" t="s">
+      <c r="A81" s="89"/>
+      <c r="B81" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="92" t="s">
+      <c r="C81" s="91" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -4659,9 +4659,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="87"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -4676,9 +4676,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="87"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -4693,9 +4693,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="87"/>
-      <c r="B84" s="87"/>
-      <c r="C84" s="87"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -4962,11 +4962,11 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="99"/>
-      <c r="B97" s="99" t="s">
+      <c r="A97" s="96"/>
+      <c r="B97" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="C97" s="99" t="s">
+      <c r="C97" s="96" t="s">
         <v>284</v>
       </c>
       <c r="D97" s="20">
@@ -4983,9 +4983,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="100"/>
-      <c r="B98" s="100"/>
-      <c r="C98" s="100"/>
+      <c r="A98" s="97"/>
+      <c r="B98" s="97"/>
+      <c r="C98" s="97"/>
       <c r="D98" s="20">
         <v>97</v>
       </c>
@@ -5000,28 +5000,28 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="101"/>
-      <c r="B99" s="101"/>
-      <c r="C99" s="101"/>
-      <c r="D99" s="101"/>
+      <c r="A99" s="86"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="86"/>
       <c r="E99" s="84"/>
       <c r="F99" s="84"/>
       <c r="G99" s="84"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="101"/>
-      <c r="B100" s="101"/>
-      <c r="C100" s="101"/>
-      <c r="D100" s="101"/>
+      <c r="A100" s="86"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="86"/>
       <c r="E100" s="84"/>
       <c r="F100" s="84"/>
       <c r="G100" s="84"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="101"/>
-      <c r="B101" s="101"/>
-      <c r="C101" s="101"/>
-      <c r="D101" s="101"/>
+      <c r="A101" s="86"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
       <c r="E101" s="84"/>
       <c r="F101" s="84"/>
       <c r="G101" s="84"/>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -2399,7 +2399,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2645,50 +2645,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3049,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3388,11 +3397,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="90" t="s">
         <v>112</v>
       </c>
       <c r="D15" s="20">
@@ -3409,9 +3418,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -3426,9 +3435,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -3443,9 +3452,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -3460,9 +3469,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -3523,11 +3532,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87" t="s">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D22" s="20">
@@ -3544,9 +3553,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -3561,9 +3570,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -3578,9 +3587,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -3595,9 +3604,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -3654,11 +3663,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="98" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -3670,14 +3679,14 @@
       <c r="F29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -3687,14 +3696,14 @@
       <c r="F30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -3704,14 +3713,14 @@
       <c r="F31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -3721,14 +3730,14 @@
       <c r="F32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -3738,16 +3747,16 @@
       <c r="F33" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90" t="s">
+      <c r="A34" s="91"/>
+      <c r="B34" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="90" t="s">
+      <c r="C34" s="91" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -3764,9 +3773,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -3781,11 +3790,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="90" t="s">
         <v>155</v>
       </c>
       <c r="D36" s="20">
@@ -3802,9 +3811,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -3819,11 +3828,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
-      <c r="B38" s="89" t="s">
+      <c r="A38" s="91"/>
+      <c r="B38" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="99" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -3840,9 +3849,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -3857,11 +3866,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="90"/>
-      <c r="B40" s="90" t="s">
+      <c r="A40" s="91"/>
+      <c r="B40" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="99" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -3878,9 +3887,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="90"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -3895,9 +3904,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="90"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -3912,9 +3921,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="90"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -3929,9 +3938,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="90"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -3946,11 +3955,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="90">
+      <c r="A45" s="91">
         <v>13</v>
       </c>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90" t="s">
+      <c r="B45" s="91"/>
+      <c r="C45" s="91" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4030,11 +4039,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="92"/>
-      <c r="B49" s="94" t="s">
+      <c r="A49" s="102"/>
+      <c r="B49" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="92" t="s">
+      <c r="C49" s="102" t="s">
         <v>99</v>
       </c>
       <c r="D49" s="20">
@@ -4051,9 +4060,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="90"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -4068,9 +4077,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -4169,11 +4178,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="87"/>
-      <c r="B56" s="93" t="s">
+      <c r="A56" s="92"/>
+      <c r="B56" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="92" t="s">
         <v>134</v>
       </c>
       <c r="D56" s="20">
@@ -4190,9 +4199,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -4207,9 +4216,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -4224,9 +4233,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -4241,9 +4250,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -4258,9 +4267,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -4275,9 +4284,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="88"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -4334,11 +4343,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="92"/>
-      <c r="B65" s="94" t="s">
+      <c r="A65" s="102"/>
+      <c r="B65" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="92" t="s">
+      <c r="C65" s="102" t="s">
         <v>99</v>
       </c>
       <c r="D65" s="20">
@@ -4355,9 +4364,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="90"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -4372,9 +4381,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="90"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -4390,7 +4399,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="57"/>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="103" t="s">
         <v>193</v>
       </c>
       <c r="C68" s="57" t="s">
@@ -4399,7 +4408,7 @@
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="104" t="s">
         <v>195</v>
       </c>
       <c r="F68" s="82" t="s">
@@ -4473,11 +4482,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="87"/>
-      <c r="B72" s="93" t="s">
+      <c r="A72" s="92"/>
+      <c r="B72" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="92" t="s">
         <v>134</v>
       </c>
       <c r="D72" s="20">
@@ -4494,9 +4503,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="88"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
+      <c r="A73" s="93"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="93"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -4511,9 +4520,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="88"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
+      <c r="A74" s="93"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -4528,9 +4537,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="88"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="88"/>
+      <c r="A75" s="93"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="93"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -4545,9 +4554,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="88"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="88"/>
+      <c r="A76" s="93"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -4562,9 +4571,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="88"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="88"/>
+      <c r="A77" s="93"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -4579,9 +4588,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="88"/>
+      <c r="A78" s="93"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -4638,11 +4647,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="89"/>
-      <c r="B81" s="89" t="s">
+      <c r="A81" s="90"/>
+      <c r="B81" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="99" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -4659,9 +4668,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="90"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="90"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -4676,9 +4685,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -4693,9 +4702,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="90"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="90"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="91"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -4962,11 +4971,11 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="96"/>
-      <c r="B97" s="96" t="s">
+      <c r="A97" s="88"/>
+      <c r="B97" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="C97" s="96" t="s">
+      <c r="C97" s="88" t="s">
         <v>284</v>
       </c>
       <c r="D97" s="20">
@@ -4983,9 +4992,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="97"/>
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
+      <c r="A98" s="89"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="89"/>
       <c r="D98" s="20">
         <v>97</v>
       </c>
@@ -5028,6 +5037,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="A97:A98"/>
@@ -5044,29 +5076,6 @@
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,71 +422,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -502,27 +502,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -538,7 +538,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,250 +554,250 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -813,158 +813,158 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -997,7 +997,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1030,7 +1030,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1056,7 +1056,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1082,7 +1082,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1108,7 +1108,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1134,27 +1134,27 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>1枪60A</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>1枪100A</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>1枪120A</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1176,7 +1176,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1192,7 +1192,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1208,7 +1208,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1224,7 +1224,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1240,11 +1240,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1260,7 +1260,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1276,15 +1276,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1300,131 +1300,131 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>0x0160</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>0x1160</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>2枪60A</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>2枪100A</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>2枪120A</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1440,87 +1440,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1536,31 +1536,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1576,31 +1576,38 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>APP测试</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2271,133 +2278,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2406,111 +2413,222 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2519,157 +2637,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2678,26 +2703,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3058,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:G33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3397,11 +3404,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90" t="s">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="92" t="s">
         <v>112</v>
       </c>
       <c r="D15" s="20">
@@ -3418,9 +3425,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -3435,9 +3442,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -3452,9 +3459,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -3469,9 +3476,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -3532,11 +3539,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92" t="s">
+      <c r="A22" s="90"/>
+      <c r="B22" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="90" t="s">
         <v>129</v>
       </c>
       <c r="D22" s="20">
@@ -3553,9 +3560,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -3570,9 +3577,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -3587,9 +3594,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -3604,9 +3611,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -3663,11 +3670,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="98" t="s">
+      <c r="A29" s="101"/>
+      <c r="B29" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="104" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -3684,9 +3691,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -3701,9 +3708,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -3718,9 +3725,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -3735,9 +3742,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -3752,11 +3759,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91" t="s">
+      <c r="A34" s="93"/>
+      <c r="B34" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="91" t="s">
+      <c r="C34" s="93" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -3773,9 +3780,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -3790,11 +3797,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91" t="s">
+      <c r="A36" s="93"/>
+      <c r="B36" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="92" t="s">
         <v>155</v>
       </c>
       <c r="D36" s="20">
@@ -3811,9 +3818,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -3828,11 +3835,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="99" t="s">
+      <c r="A38" s="93"/>
+      <c r="B38" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="99" t="s">
+      <c r="C38" s="94" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -3849,9 +3856,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -3866,11 +3873,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91" t="s">
+      <c r="A40" s="93"/>
+      <c r="B40" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="99" t="s">
+      <c r="C40" s="94" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -3887,9 +3894,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -3904,9 +3911,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -3921,9 +3928,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -3938,9 +3945,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="91"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -3955,11 +3962,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="91">
+      <c r="A45" s="93">
         <v>13</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91" t="s">
+      <c r="B45" s="93"/>
+      <c r="C45" s="93" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4039,11 +4046,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="102"/>
-      <c r="B49" s="101" t="s">
+      <c r="A49" s="95"/>
+      <c r="B49" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="102" t="s">
+      <c r="C49" s="95" t="s">
         <v>99</v>
       </c>
       <c r="D49" s="20">
@@ -4060,9 +4067,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="91"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -4077,9 +4084,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="91"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -4178,11 +4185,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="92"/>
-      <c r="B56" s="100" t="s">
+      <c r="A56" s="90"/>
+      <c r="B56" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="92" t="s">
+      <c r="C56" s="90" t="s">
         <v>134</v>
       </c>
       <c r="D56" s="20">
@@ -4199,9 +4206,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="93"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -4216,9 +4223,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="93"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="93"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -4233,9 +4240,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="93"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -4250,9 +4257,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="93"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="93"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -4267,9 +4274,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="93"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -4284,9 +4291,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="93"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -4343,11 +4350,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="102"/>
-      <c r="B65" s="101" t="s">
+      <c r="A65" s="95"/>
+      <c r="B65" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="102" t="s">
+      <c r="C65" s="95" t="s">
         <v>99</v>
       </c>
       <c r="D65" s="20">
@@ -4364,9 +4371,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="91"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
+      <c r="A66" s="93"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -4381,9 +4388,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="91"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="91"/>
+      <c r="A67" s="93"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -4399,7 +4406,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="57"/>
-      <c r="B68" s="103" t="s">
+      <c r="B68" s="88" t="s">
         <v>193</v>
       </c>
       <c r="C68" s="57" t="s">
@@ -4408,7 +4415,7 @@
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="104" t="s">
+      <c r="E68" s="89" t="s">
         <v>195</v>
       </c>
       <c r="F68" s="82" t="s">
@@ -4482,11 +4489,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="92"/>
-      <c r="B72" s="100" t="s">
+      <c r="A72" s="90"/>
+      <c r="B72" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="92" t="s">
+      <c r="C72" s="90" t="s">
         <v>134</v>
       </c>
       <c r="D72" s="20">
@@ -4503,9 +4510,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="93"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="91"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -4520,9 +4527,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="93"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="91"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -4537,9 +4544,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="93"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -4554,9 +4561,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="93"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="93"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -4571,9 +4578,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="93"/>
-      <c r="B77" s="93"/>
-      <c r="C77" s="93"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -4588,9 +4595,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="93"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="93"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -4647,11 +4654,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="90"/>
-      <c r="B81" s="90" t="s">
+      <c r="A81" s="92"/>
+      <c r="B81" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="99" t="s">
+      <c r="C81" s="94" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -4668,9 +4675,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="91"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="91"/>
+      <c r="A82" s="93"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="93"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -4685,9 +4692,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="91"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
+      <c r="A83" s="93"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -4702,9 +4709,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="91"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="91"/>
+      <c r="A84" s="93"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="93"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -4971,11 +4978,11 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="88"/>
-      <c r="B97" s="88" t="s">
+      <c r="A97" s="99"/>
+      <c r="B97" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="C97" s="88" t="s">
+      <c r="C97" s="99" t="s">
         <v>284</v>
       </c>
       <c r="D97" s="20">
@@ -4992,9 +4999,9 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="89"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="89"/>
+      <c r="A98" s="100"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="100"/>
       <c r="D98" s="20">
         <v>97</v>
       </c>
@@ -5037,29 +5044,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="A97:A98"/>
@@ -5076,8 +5060,31 @@
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -5515,7 +5522,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -5600,7 +5607,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6113,7 +6120,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7156,7 +7163,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7383,7 +7390,7 @@
       <c r="C12" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="287">
   <si>
     <t>组序号</t>
   </si>
@@ -561,10 +561,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>继电器操作掩码</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>组名称</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -680,10 +676,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>0x00000001</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>枪2电池反接告警</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -736,10 +728,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>NONE</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>测试前</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -749,10 +737,6 @@
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00000000</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -1579,15 +1563,35 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>APP测试</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>default</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>急停功能</t>
+    <t>掩码</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFFFFFFFF</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP枪1测试</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP枪2测试</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000000</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>组测试前继电器操作掩码</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>组测试后继电器操作掩码</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -2481,9 +2485,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2661,47 +2662,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3063,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A88" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3109,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>76</v>
@@ -3118,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -3132,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>76</v>
@@ -3141,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -3404,92 +3408,92 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="92" t="s">
+      <c r="A15" s="93"/>
+      <c r="B15" s="93" t="s">
         <v>112</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3539,18 +3543,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>129</v>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>128</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -3560,14 +3564,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -3577,14 +3581,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -3594,43 +3598,43 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="27" t="s">
+      <c r="F25" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>76</v>
@@ -3639,7 +3643,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -3651,7 +3655,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>76</v>
@@ -3660,19 +3664,19 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="97"/>
+      <c r="B29" s="104" t="s">
         <v>119</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
-      <c r="B29" s="104" t="s">
-        <v>120</v>
       </c>
       <c r="C29" s="104" t="s">
         <v>58</v>
@@ -3681,96 +3685,96 @@
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="87" t="s">
+      <c r="G29" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="87" t="s">
+      <c r="G30" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="87" t="s">
+      <c r="G31" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="87" t="s">
+      <c r="G32" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="87" t="s">
+      <c r="E33" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="86" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="93" t="s">
+      <c r="A34" s="92"/>
+      <c r="B34" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="92" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>11</v>
@@ -3780,37 +3784,37 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>155</v>
+      <c r="C36" s="93" t="s">
+        <v>151</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="84" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -3818,14 +3822,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>11</v>
@@ -3835,18 +3839,18 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="94" t="s">
+      <c r="A38" s="92"/>
+      <c r="B38" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="100" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>11</v>
@@ -3856,14 +3860,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>11</v>
@@ -3873,11 +3877,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="93"/>
-      <c r="B40" s="93" t="s">
+      <c r="A40" s="92"/>
+      <c r="B40" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="100" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -3889,14 +3893,14 @@
       <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="73" t="s">
-        <v>252</v>
+      <c r="G40" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="93"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -3906,14 +3910,14 @@
       <c r="F41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="73" t="s">
-        <v>252</v>
+      <c r="G41" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -3923,14 +3927,14 @@
       <c r="F42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="73" t="s">
-        <v>252</v>
+      <c r="G42" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="93"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -3940,14 +3944,14 @@
       <c r="F43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="73" t="s">
-        <v>252</v>
+      <c r="G43" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="93"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -3957,16 +3961,16 @@
       <c r="F44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="73" t="s">
-        <v>252</v>
+      <c r="G44" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="93">
+      <c r="A45" s="92">
         <v>13</v>
       </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93" t="s">
+      <c r="B45" s="92"/>
+      <c r="C45" s="92" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -3978,8 +3982,8 @@
       <c r="F45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="73" t="s">
-        <v>252</v>
+      <c r="G45" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3987,8 +3991,8 @@
       <c r="B46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="50" t="s">
-        <v>172</v>
+      <c r="C46" s="49" t="s">
+        <v>168</v>
       </c>
       <c r="D46" s="20">
         <v>45</v>
@@ -3999,7 +4003,7 @@
       <c r="F46" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="72" t="s">
+      <c r="G46" s="71" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4026,17 +4030,17 @@
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>172</v>
+      <c r="B48" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>168</v>
       </c>
       <c r="D48" s="20">
         <v>47</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>77</v>
@@ -4046,109 +4050,109 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="95"/>
-      <c r="B49" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" s="95" t="s">
+      <c r="A49" s="103"/>
+      <c r="B49" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="103" t="s">
         <v>99</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>225</v>
+      <c r="E49" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>221</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="93"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>226</v>
+      <c r="E50" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>222</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="93"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="92"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>227</v>
+      <c r="E51" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>223</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="64"/>
-      <c r="B52" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" s="60" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="59" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="F52" s="82" t="s">
+      <c r="E52" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="82">
+      <c r="G52" s="81">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
-      <c r="B53" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" s="56" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="55" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="20">
         <v>52</v>
       </c>
-      <c r="E53" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="80">
+      <c r="E53" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="79">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="44" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D54" s="20">
         <v>53</v>
@@ -4165,16 +4169,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="46" t="s">
-        <v>133</v>
+      <c r="C55" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="62" t="s">
+      <c r="E55" s="61" t="s">
         <v>81</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -4185,131 +4189,131 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="90"/>
-      <c r="B56" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="90" t="s">
-        <v>134</v>
+      <c r="A56" s="94"/>
+      <c r="B56" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="94" t="s">
+        <v>132</v>
       </c>
       <c r="D56" s="20">
         <v>55</v>
       </c>
-      <c r="E56" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>136</v>
+      <c r="E56" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
-      <c r="E57" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="29">
+      <c r="E57" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="28">
         <v>2.77</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="91"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="29">
+      <c r="E58" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="28">
         <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="91"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
-      <c r="E59" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="29" t="s">
+      <c r="E59" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="91"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="29">
+      <c r="E60" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="28">
         <v>2.77</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="91"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="91"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
-      <c r="E61" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="29">
+      <c r="E61" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="28">
         <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="91"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
-      <c r="E62" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="29" t="s">
+      <c r="E62" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="75" t="s">
+      <c r="B63" s="74" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -4330,11 +4334,11 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="75" t="s">
+      <c r="B64" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="74" t="s">
-        <v>254</v>
+      <c r="C64" s="73" t="s">
+        <v>250</v>
       </c>
       <c r="D64" s="20">
         <v>63</v>
@@ -4350,120 +4354,120 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="95"/>
-      <c r="B65" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" s="95" t="s">
+      <c r="A65" s="103"/>
+      <c r="B65" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="103" t="s">
         <v>99</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="G65" s="63" t="s">
+      <c r="E65" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G65" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="93"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93"/>
+      <c r="A66" s="92"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="G66" s="63" t="s">
+      <c r="E66" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="G66" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="93"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93"/>
+      <c r="A67" s="92"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="G67" s="63" t="s">
+      <c r="E67" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G67" s="62" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="57"/>
-      <c r="B68" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="57" t="s">
+      <c r="A68" s="56"/>
+      <c r="B68" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="56" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="89" t="s">
-        <v>195</v>
-      </c>
-      <c r="F68" s="82" t="s">
+      <c r="E68" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="82">
+      <c r="G68" s="81">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="57"/>
-      <c r="B69" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="56" t="s">
+      <c r="A69" s="56"/>
+      <c r="B69" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="55" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="F69" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="81">
+      <c r="E69" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="80">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
-      <c r="B70" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>132</v>
+      <c r="A70" s="39"/>
+      <c r="B70" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>130</v>
       </c>
       <c r="D70" s="20">
         <v>69</v>
       </c>
-      <c r="E70" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="F70" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="40" t="s">
+      <c r="E70" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="39" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4472,8 +4476,8 @@
       <c r="B71" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="46" t="s">
-        <v>133</v>
+      <c r="C71" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="D71" s="20">
         <v>70</v>
@@ -4489,131 +4493,131 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="90"/>
-      <c r="B72" s="96" t="s">
+      <c r="A72" s="94"/>
+      <c r="B72" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="90" t="s">
-        <v>134</v>
+      <c r="C72" s="94" t="s">
+        <v>132</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F72" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="38" t="s">
-        <v>136</v>
+      <c r="E72" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="91"/>
-      <c r="B73" s="91"/>
-      <c r="C73" s="91"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
-      <c r="E73" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="39">
+      <c r="E73" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="38">
         <v>2.77</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="91"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
-      <c r="E74" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="39">
+      <c r="E74" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="38">
         <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="91"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
-      <c r="E75" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="F75" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="39" t="s">
+      <c r="E75" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="91"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
+      <c r="A76" s="95"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
-      <c r="E76" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="39">
+      <c r="E76" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="38">
         <v>2.77</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
-      <c r="E77" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="39">
+      <c r="E77" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="38">
         <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="91"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
-      <c r="E78" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="F78" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="39" t="s">
+      <c r="E78" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -4634,11 +4638,11 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="74" t="s">
+      <c r="B80" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="74" t="s">
-        <v>254</v>
+      <c r="C80" s="73" t="s">
+        <v>250</v>
       </c>
       <c r="D80" s="20">
         <v>79</v>
@@ -4654,11 +4658,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="92"/>
-      <c r="B81" s="92" t="s">
+      <c r="A81" s="93"/>
+      <c r="B81" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="100" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -4675,9 +4679,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="93"/>
-      <c r="B82" s="93"/>
-      <c r="C82" s="93"/>
+      <c r="A82" s="92"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -4692,9 +4696,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="93"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
+      <c r="A83" s="92"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -4709,9 +4713,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="93"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="93"/>
+      <c r="A84" s="92"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -4730,7 +4734,7 @@
       <c r="B85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="67" t="s">
+      <c r="C85" s="66" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="20">
@@ -4772,16 +4776,16 @@
       <c r="B87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="D87" s="20">
+      <c r="C87" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="D87" s="91">
         <v>86</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="48" t="s">
+      <c r="F87" s="47" t="s">
         <v>73</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -4790,285 +4794,247 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" s="20">
+      <c r="B88" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" s="91">
         <v>87</v>
       </c>
-      <c r="E88" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F88" s="32">
+      <c r="E88" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="31">
         <v>20</v>
       </c>
-      <c r="G88" s="32" t="s">
+      <c r="G88" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" s="20">
+      <c r="A89" s="32"/>
+      <c r="B89" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="91">
         <v>88</v>
       </c>
-      <c r="E89" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F89" s="33">
+      <c r="E89" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" s="32">
         <v>20</v>
       </c>
-      <c r="G89" s="33" t="s">
+      <c r="G89" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="20">
+      <c r="B90" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="91">
         <v>89</v>
       </c>
-      <c r="E90" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F90" s="31">
+      <c r="E90" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F90" s="30">
         <v>3</v>
       </c>
-      <c r="G90" s="31" t="s">
+      <c r="G90" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
-      <c r="B91" s="73" t="s">
-        <v>249</v>
+      <c r="B91" s="72" t="s">
+        <v>245</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="91">
         <v>90</v>
       </c>
-      <c r="E91" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="F91" s="72" t="s">
+      <c r="E91" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F91" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="73" t="s">
-        <v>252</v>
+      <c r="G91" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="73" t="s">
-        <v>250</v>
+      <c r="B92" s="72" t="s">
+        <v>246</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="20">
+      <c r="D92" s="91">
         <v>91</v>
       </c>
-      <c r="E92" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="F92" s="72" t="s">
+      <c r="E92" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F92" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="73" t="s">
-        <v>252</v>
+      <c r="G92" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="73" t="s">
-        <v>280</v>
+      <c r="B93" s="72" t="s">
+        <v>276</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="20">
+      <c r="D93" s="91">
         <v>92</v>
       </c>
-      <c r="E93" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="F93" s="72" t="s">
+      <c r="E93" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="F93" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="73" t="s">
-        <v>252</v>
+      <c r="G93" s="72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="73" t="s">
-        <v>248</v>
+      <c r="B94" s="72" t="s">
+        <v>244</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="20">
+      <c r="D94" s="91">
         <v>93</v>
       </c>
-      <c r="E94" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="F94" s="72" t="s">
+      <c r="E94" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="73" t="s">
-        <v>253</v>
+      <c r="G94" s="72" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="73" t="s">
-        <v>251</v>
+      <c r="B95" s="72" t="s">
+        <v>247</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="91">
         <v>94</v>
       </c>
-      <c r="E95" s="73" t="s">
-        <v>239</v>
-      </c>
-      <c r="F95" s="72" t="s">
+      <c r="E95" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="F95" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G95" s="73" t="s">
-        <v>253</v>
+      <c r="G95" s="72" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="73" t="s">
-        <v>281</v>
+      <c r="B96" s="72" t="s">
+        <v>277</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="20">
+      <c r="D96" s="91">
         <v>95</v>
       </c>
-      <c r="E96" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="F96" s="72" t="s">
+      <c r="E96" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="F96" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="73" t="s">
-        <v>253</v>
+      <c r="G96" s="72" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="99"/>
-      <c r="B97" s="99" t="s">
+      <c r="A97" s="91"/>
+      <c r="B97" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="91">
+        <v>96</v>
+      </c>
+      <c r="E97" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="F97" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="G97" s="82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="91"/>
+      <c r="B98" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="C97" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D97" s="20">
-        <v>96</v>
-      </c>
-      <c r="E97" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="F97" s="83" t="s">
+      <c r="C98" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" s="91">
+        <v>97</v>
+      </c>
+      <c r="E98" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="F98" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="83" t="s">
+      <c r="G98" s="89" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="100"/>
-      <c r="B98" s="100"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="20">
-        <v>97</v>
-      </c>
-      <c r="E98" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="F98" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="G98" s="83" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="86"/>
-      <c r="B99" s="86"/>
-      <c r="C99" s="86"/>
-      <c r="D99" s="86"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="84"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="86"/>
-      <c r="B100" s="86"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="86"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
-      <c r="G100" s="84"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="86"/>
-      <c r="B101" s="86"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="84"/>
-      <c r="G101" s="84"/>
+      <c r="A99" s="85"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
+  <mergeCells count="36">
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
     <mergeCell ref="C72:C78"/>
     <mergeCell ref="A81:A84"/>
     <mergeCell ref="A38:A39"/>
@@ -5083,6 +5049,27 @@
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5119,10 +5106,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>275</v>
+        <v>103</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5250,275 +5237,275 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>159</v>
+      <c r="B14" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>170</v>
+      <c r="B15" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
-        <v>15</v>
-      </c>
-      <c r="B17" s="76" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
+        <v>16</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>17</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>18</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>19</v>
+      </c>
+      <c r="B21" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C21" s="35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>20</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>21</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>22</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>23</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>24</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>25</v>
+      </c>
+      <c r="B27" s="75" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
-        <v>16</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="C27" s="35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>26</v>
+      </c>
+      <c r="B28" s="75" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
-        <v>17</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
-        <v>18</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
-        <v>19</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="C21" s="36" t="s">
+      <c r="C28" s="35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
+        <v>27</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>28</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>29</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
+        <v>30</v>
+      </c>
+      <c r="B32" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="34">
+        <v>31</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>33</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>34</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <v>35</v>
+      </c>
+      <c r="B37" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <v>36</v>
+      </c>
+      <c r="B38" s="78" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
-        <v>20</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
-        <v>21</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
-        <v>22</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
-        <v>23</v>
-      </c>
-      <c r="B25" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
-        <v>24</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
-        <v>25</v>
-      </c>
-      <c r="B27" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
-        <v>26</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
-        <v>27</v>
-      </c>
-      <c r="B29" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
-        <v>28</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
-        <v>29</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
-        <v>30</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
-        <v>31</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>280</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
-        <v>32</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="73" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="35">
-        <v>34</v>
-      </c>
-      <c r="B36" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
-        <v>35</v>
-      </c>
-      <c r="B37" s="79" t="s">
-        <v>276</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
-        <v>36</v>
-      </c>
-      <c r="B38" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>279</v>
+      <c r="C38" s="35" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5530,80 +5517,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="B3" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>146</v>
+      <c r="C5" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +6224,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -6298,7 +6321,7 @@
       <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -6319,7 +6342,7 @@
       <c r="F9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="30"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -6340,7 +6363,7 @@
       <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="L10" s="30"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -6364,7 +6387,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -6384,7 +6407,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -6404,7 +6427,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -6424,7 +6447,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -6444,7 +6467,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -6464,7 +6487,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -6484,7 +6507,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -6583,7 +6606,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="64" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="17">
@@ -6624,7 +6647,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -6644,7 +6667,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -6664,7 +6687,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -6684,7 +6707,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -6704,7 +6727,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -6724,7 +6747,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="17">
         <v>0</v>
@@ -6744,7 +6767,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -6764,7 +6787,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -6784,7 +6807,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -6823,8 +6846,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68" t="s">
-        <v>183</v>
+      <c r="A35" s="67" t="s">
+        <v>179</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -6843,8 +6866,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55" t="s">
-        <v>184</v>
+      <c r="A36" s="54" t="s">
+        <v>180</v>
       </c>
       <c r="B36" s="17">
         <v>5</v>
@@ -6863,8 +6886,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
-        <v>176</v>
+      <c r="A37" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -6883,8 +6906,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55" t="s">
-        <v>187</v>
+      <c r="A38" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
@@ -6903,8 +6926,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
-        <v>188</v>
+      <c r="A39" s="53" t="s">
+        <v>184</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -6924,7 +6947,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B40" s="17">
         <v>5</v>
@@ -6944,7 +6967,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B41" s="17">
         <v>5</v>
@@ -6964,7 +6987,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
@@ -6983,8 +7006,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="54" t="s">
-        <v>189</v>
+      <c r="A43" s="53" t="s">
+        <v>185</v>
       </c>
       <c r="B43" s="17">
         <v>3</v>
@@ -7003,8 +7026,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="54" t="s">
-        <v>190</v>
+      <c r="A44" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
@@ -7023,8 +7046,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59" t="s">
-        <v>197</v>
+      <c r="A45" s="58" t="s">
+        <v>193</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -7043,8 +7066,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
-        <v>198</v>
+      <c r="A46" s="58" t="s">
+        <v>194</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -7063,8 +7086,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="69" t="s">
-        <v>234</v>
+      <c r="A47" s="68" t="s">
+        <v>230</v>
       </c>
       <c r="B47" s="17">
         <v>3</v>
@@ -7083,8 +7106,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="71" t="s">
-        <v>238</v>
+      <c r="A48" s="70" t="s">
+        <v>234</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -7103,8 +7126,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="71" t="s">
-        <v>239</v>
+      <c r="A49" s="70" t="s">
+        <v>235</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -7123,8 +7146,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="71" t="s">
-        <v>240</v>
+      <c r="A50" s="70" t="s">
+        <v>236</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -7144,7 +7167,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B51" s="16">
         <v>0</v>
@@ -7251,65 +7274,65 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="E2" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="R2" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="E2" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="S2" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>222</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>226</v>
       </c>
       <c r="C3" s="18"/>
       <c r="G3">
@@ -7329,43 +7352,43 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>230</v>
+      <c r="B7" s="34" t="s">
+        <v>226</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="304">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,71 +422,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -502,27 +502,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -538,7 +538,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,234 +554,230 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIBO</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -797,158 +793,158 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -981,7 +977,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1014,7 +1010,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1040,7 +1036,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1066,7 +1062,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1092,7 +1088,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1118,27 +1114,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>1枪60A</t>
-    <phoneticPr fontId="47" type="noConversion"/>
-  </si>
-  <si>
-    <t>1枪100A</t>
-    <phoneticPr fontId="47" type="noConversion"/>
-  </si>
-  <si>
-    <t>1枪120A</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1160,7 +1144,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1176,7 +1160,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1192,7 +1176,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1208,7 +1192,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1224,11 +1208,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1244,7 +1228,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1260,15 +1244,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1284,131 +1268,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="47" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0160</t>
-    <phoneticPr fontId="47" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1160</t>
-    <phoneticPr fontId="47" type="noConversion"/>
-  </si>
-  <si>
-    <t>2枪60A</t>
-    <phoneticPr fontId="47" type="noConversion"/>
-  </si>
-  <si>
-    <t>2枪100A</t>
-    <phoneticPr fontId="47" type="noConversion"/>
-  </si>
-  <si>
-    <t>2枪120A</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1424,87 +1388,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1520,31 +1484,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1560,51 +1524,281 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO整体控制数据</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO单一控制标志</t>
+  </si>
+  <si>
+    <t>交流接触器KM控制</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电枪1的电子锁通电时间控制</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>枪1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K1K2</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>枪1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K3K4</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5K6</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7K8</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电枪2的电子锁通电时间控制</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>枪2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K1K2</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>枪2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K3K4</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9K10</t>
+    </r>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerDistribute</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5K6</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>K7K8</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>K9K10</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1K2</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3K4</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0100</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0800</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IBO</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器BIBO</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2282,411 +2476,435 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2695,19 +2913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3067,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3113,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>76</v>
@@ -3122,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -3136,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>76</v>
@@ -3145,9 +3351,9 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3193,7 +3399,7 @@
       <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3216,7 +3422,7 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3239,7 +3445,7 @@
       <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3262,7 +3468,7 @@
       <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -3285,7 +3491,7 @@
       <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -3308,7 +3514,7 @@
       <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -3331,7 +3537,7 @@
       <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -3354,7 +3560,7 @@
       <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -3377,7 +3583,7 @@
       <c r="E13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -3400,7 +3606,7 @@
       <c r="E14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -3408,92 +3614,92 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="93" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="100" t="s">
         <v>111</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>110</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3512,7 +3718,7 @@
       <c r="E20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="90" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -3535,7 +3741,7 @@
       <c r="E21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="90" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -3543,20 +3749,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>128</v>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="101" t="s">
+        <v>127</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -3564,16 +3770,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -3581,16 +3787,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="90" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -3598,16 +3804,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -3615,16 +3821,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="90" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -3634,7 +3840,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>76</v>
@@ -3643,9 +3849,9 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -3655,7 +3861,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>76</v>
@@ -3664,119 +3870,119 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="108"/>
+      <c r="B29" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="105" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="86" t="s">
+      <c r="E33" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="92" t="s">
+      <c r="A34" s="96"/>
+      <c r="B34" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="96" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -3784,37 +3990,37 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="96"/>
+      <c r="B36" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="93" t="s">
-        <v>151</v>
+      <c r="C36" s="100" t="s">
+        <v>150</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="91" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -3822,16 +4028,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="4">
@@ -3839,20 +4045,20 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="92"/>
-      <c r="B38" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="100" t="s">
+      <c r="A38" s="96"/>
+      <c r="B38" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="95" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="90" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="8">
@@ -3860,16 +4066,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="4">
@@ -3877,11 +4083,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92" t="s">
+      <c r="A40" s="96"/>
+      <c r="B40" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="95" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -3890,87 +4096,87 @@
       <c r="E40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>248</v>
+      <c r="F40" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="72" t="s">
-        <v>248</v>
+      <c r="F41" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="71" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="72" t="s">
-        <v>248</v>
+      <c r="F42" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="71" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="72" t="s">
-        <v>248</v>
+      <c r="F43" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="72" t="s">
-        <v>248</v>
+      <c r="F44" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="71" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="92">
+      <c r="A45" s="96">
         <v>13</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92" t="s">
+      <c r="B45" s="96"/>
+      <c r="C45" s="96" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -3979,11 +4185,11 @@
       <c r="E45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="72" t="s">
-        <v>248</v>
+      <c r="F45" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="71" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3992,7 +4198,7 @@
         <v>78</v>
       </c>
       <c r="C46" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" s="20">
         <v>45</v>
@@ -4000,10 +4206,10 @@
       <c r="E46" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="71" t="s">
+      <c r="G46" s="70" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4021,7 +4227,7 @@
       <c r="E47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="90" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -4030,19 +4236,19 @@
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="77" t="s">
-        <v>272</v>
+      <c r="B48" s="76" t="s">
+        <v>263</v>
       </c>
       <c r="C48" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D48" s="20">
         <v>47</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" s="90" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -4050,99 +4256,99 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="103"/>
-      <c r="B49" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="103" t="s">
-        <v>99</v>
+      <c r="A49" s="102"/>
+      <c r="B49" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>293</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>221</v>
+      <c r="E49" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>217</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>222</v>
+      <c r="E50" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="94" t="s">
+        <v>218</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="92"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>223</v>
+      <c r="E51" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="94" t="s">
+        <v>219</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
-      <c r="B52" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="59" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="81" t="s">
+      <c r="E52" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="81">
+      <c r="G52" s="80">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
-      <c r="B53" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="55" t="s">
+      <c r="A53" s="62"/>
+      <c r="B53" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="54" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="20">
         <v>52</v>
       </c>
-      <c r="E53" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="F53" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="79">
+      <c r="E53" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="78">
         <v>4</v>
       </c>
     </row>
@@ -4152,7 +4358,7 @@
         <v>82</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="20">
         <v>53</v>
@@ -4160,7 +4366,7 @@
       <c r="E54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -4169,19 +4375,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="59" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="61" t="s">
+      <c r="E55" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -4189,37 +4395,37 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="94"/>
-      <c r="B56" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="94" t="s">
+      <c r="A56" s="101"/>
+      <c r="B56" s="97" t="s">
         <v>132</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>131</v>
       </c>
       <c r="D56" s="20">
         <v>55</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="95"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="28">
@@ -4227,16 +4433,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="95"/>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="98"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F58" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="28">
@@ -4244,16 +4450,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="95"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="28" t="s">
@@ -4261,16 +4467,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="95"/>
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="28">
@@ -4278,16 +4484,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="95"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F61" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="28">
@@ -4295,16 +4501,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="95"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F62" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
@@ -4313,7 +4519,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="73" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -4325,7 +4531,7 @@
       <c r="E63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -4334,11 +4540,11 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="73" t="s">
-        <v>250</v>
+      <c r="C64" s="72" t="s">
+        <v>241</v>
       </c>
       <c r="D64" s="20">
         <v>63</v>
@@ -4346,7 +4552,7 @@
       <c r="E64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -4354,117 +4560,117 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="103"/>
-      <c r="B65" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="103" t="s">
-        <v>99</v>
+      <c r="A65" s="102"/>
+      <c r="B65" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="104" t="s">
+        <v>293</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="G65" s="62" t="s">
+      <c r="E65" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="G65" s="61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="G66" s="62" t="s">
+      <c r="E66" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="94" t="s">
+        <v>223</v>
+      </c>
+      <c r="G66" s="61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="92"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="G67" s="62" t="s">
+      <c r="E67" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="G67" s="61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="56"/>
-      <c r="B68" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="56" t="s">
+      <c r="A68" s="55"/>
+      <c r="B68" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="55" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="88" t="s">
+      <c r="E68" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="55"/>
+      <c r="B69" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="56"/>
-      <c r="B69" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="54" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="F69" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="80">
+      <c r="E69" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="79">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="40" t="s">
         <v>129</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>130</v>
       </c>
       <c r="D70" s="20">
         <v>69</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="39" t="s">
@@ -4477,7 +4683,7 @@
         <v>85</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D71" s="20">
         <v>70</v>
@@ -4485,7 +4691,7 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -4493,37 +4699,37 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="94"/>
-      <c r="B72" s="101" t="s">
+      <c r="A72" s="101"/>
+      <c r="B72" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="94" t="s">
-        <v>132</v>
+      <c r="C72" s="101" t="s">
+        <v>131</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="95"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="F73" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F73" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="38">
@@ -4531,16 +4737,16 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="95"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="98"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F74" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="38">
@@ -4548,16 +4754,16 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="95"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="95"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="98"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="38" t="s">
@@ -4565,16 +4771,16 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="95"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="98"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="F76" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="38">
@@ -4582,16 +4788,16 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="95"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95"/>
+      <c r="A77" s="98"/>
+      <c r="B77" s="98"/>
+      <c r="C77" s="98"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="F77" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="38">
@@ -4599,16 +4805,16 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="95"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="98"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="F78" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F78" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="38" t="s">
@@ -4629,7 +4835,7 @@
       <c r="E79" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -4638,11 +4844,11 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="73" t="s">
+      <c r="B80" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="73" t="s">
-        <v>250</v>
+      <c r="C80" s="72" t="s">
+        <v>241</v>
       </c>
       <c r="D80" s="20">
         <v>79</v>
@@ -4650,7 +4856,7 @@
       <c r="E80" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -4658,11 +4864,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="93"/>
-      <c r="B81" s="93" t="s">
+      <c r="A81" s="100"/>
+      <c r="B81" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="100" t="s">
+      <c r="C81" s="95" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -4671,7 +4877,7 @@
       <c r="E81" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -4679,16 +4885,16 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="92"/>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
+      <c r="A82" s="96"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -4696,16 +4902,16 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="92"/>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
+      <c r="A83" s="96"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -4713,16 +4919,16 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="92"/>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
+      <c r="A84" s="96"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -4734,7 +4940,7 @@
       <c r="B85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="66" t="s">
+      <c r="C85" s="65" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="20">
@@ -4743,7 +4949,7 @@
       <c r="E85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="90" t="s">
         <v>91</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -4764,7 +4970,7 @@
       <c r="E86" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -4776,16 +4982,16 @@
       <c r="B87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="D87" s="91">
+      <c r="C87" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="88">
         <v>86</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="47" t="s">
+      <c r="F87" s="91" t="s">
         <v>73</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -4795,18 +5001,18 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D88" s="91">
+        <v>156</v>
+      </c>
+      <c r="D88" s="88">
         <v>87</v>
       </c>
       <c r="E88" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="F88" s="31">
+        <v>166</v>
+      </c>
+      <c r="F88" s="89">
         <v>20</v>
       </c>
       <c r="G88" s="31" t="s">
@@ -4816,18 +5022,18 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D89" s="91">
+        <v>156</v>
+      </c>
+      <c r="D89" s="88">
         <v>88</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F89" s="32">
+        <v>151</v>
+      </c>
+      <c r="F89" s="89">
         <v>20</v>
       </c>
       <c r="G89" s="32" t="s">
@@ -4837,18 +5043,18 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="D90" s="91">
+        <v>155</v>
+      </c>
+      <c r="D90" s="88">
         <v>89</v>
       </c>
       <c r="E90" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="F90" s="30">
+        <v>166</v>
+      </c>
+      <c r="F90" s="90">
         <v>3</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -4857,183 +5063,289 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
-      <c r="B91" s="72" t="s">
-        <v>245</v>
+      <c r="B91" s="71" t="s">
+        <v>236</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="91">
+      <c r="D91" s="88">
         <v>90</v>
       </c>
-      <c r="E91" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="F91" s="71" t="s">
+      <c r="E91" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="F91" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="72" t="s">
-        <v>248</v>
+      <c r="G91" s="71" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="72" t="s">
-        <v>246</v>
+      <c r="B92" s="71" t="s">
+        <v>237</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="91">
+      <c r="D92" s="88">
         <v>91</v>
       </c>
-      <c r="E92" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="F92" s="71" t="s">
+      <c r="E92" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="72" t="s">
-        <v>248</v>
+      <c r="G92" s="71" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="72" t="s">
-        <v>276</v>
+      <c r="B93" s="71" t="s">
+        <v>267</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="91">
+      <c r="D93" s="88">
         <v>92</v>
       </c>
-      <c r="E93" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="F93" s="71" t="s">
+      <c r="E93" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F93" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="72" t="s">
-        <v>248</v>
+      <c r="G93" s="71" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="72" t="s">
-        <v>244</v>
+      <c r="B94" s="71" t="s">
+        <v>235</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="91">
+      <c r="D94" s="88">
         <v>93</v>
       </c>
-      <c r="E94" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="F94" s="71" t="s">
+      <c r="E94" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="F94" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="72" t="s">
-        <v>249</v>
+      <c r="G94" s="71" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="72" t="s">
-        <v>247</v>
+      <c r="B95" s="71" t="s">
+        <v>238</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="91">
+      <c r="D95" s="88">
         <v>94</v>
       </c>
-      <c r="E95" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="F95" s="71" t="s">
+      <c r="E95" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G95" s="72" t="s">
-        <v>249</v>
+      <c r="G95" s="71" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="72" t="s">
-        <v>277</v>
+      <c r="B96" s="71" t="s">
+        <v>268</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="91">
+      <c r="D96" s="88">
         <v>95</v>
       </c>
-      <c r="E96" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="F96" s="71" t="s">
+      <c r="E96" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="72" t="s">
-        <v>249</v>
+      <c r="G96" s="71" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="91"/>
-      <c r="B97" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="C97" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="D97" s="91">
+      <c r="A97" s="88"/>
+      <c r="B97" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="88">
         <v>96</v>
       </c>
-      <c r="E97" s="84" t="s">
-        <v>278</v>
-      </c>
-      <c r="F97" s="82" t="s">
+      <c r="E97" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="F97" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="82" t="s">
+      <c r="G97" s="81" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="91"/>
-      <c r="B98" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="C98" s="91" t="s">
+      <c r="A98" s="88"/>
+      <c r="B98" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="91">
+      <c r="D98" s="88">
         <v>97</v>
       </c>
-      <c r="E98" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="F98" s="89" t="s">
+      <c r="E98" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="F98" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="89" t="s">
+      <c r="G98" s="86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="85"/>
-      <c r="B99" s="85"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="83"/>
+      <c r="A99" s="95"/>
+      <c r="B99" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" s="88">
+        <v>98</v>
+      </c>
+      <c r="E99" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="F99" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" s="92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="96"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="88">
+        <v>99</v>
+      </c>
+      <c r="E100" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="F100" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G100" s="92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="96"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="88">
+        <v>100</v>
+      </c>
+      <c r="E101" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="96"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="98"/>
+      <c r="D102" s="88">
+        <v>101</v>
+      </c>
+      <c r="E102" s="93" t="s">
+        <v>295</v>
+      </c>
+      <c r="F102" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G102" s="92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="96"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="88">
+        <v>102</v>
+      </c>
+      <c r="E103" s="93" t="s">
+        <v>296</v>
+      </c>
+      <c r="F103" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G103" s="92" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="39">
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="C99:C103"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C72:C78"/>
     <mergeCell ref="A81:A84"/>
@@ -5047,31 +5359,8 @@
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="B72:B78"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -5106,10 +5395,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>271</v>
+        <v>102</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5238,10 +5527,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5249,267 +5538,267 @@
         <v>13</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>165</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>187</v>
+      <c r="B16" s="55" t="s">
+        <v>186</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>251</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>252</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>253</v>
+      <c r="B19" s="74" t="s">
+        <v>244</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="75" t="s">
-        <v>254</v>
+      <c r="B20" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>19</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>255</v>
+      <c r="B21" s="74" t="s">
+        <v>246</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>20</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>188</v>
+      <c r="B22" s="55" t="s">
+        <v>187</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>21</v>
       </c>
-      <c r="B23" s="56" t="s">
-        <v>189</v>
+      <c r="B23" s="55" t="s">
+        <v>188</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>22</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>192</v>
+      <c r="B24" s="55" t="s">
+        <v>191</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>23</v>
       </c>
-      <c r="B25" s="75" t="s">
-        <v>262</v>
+      <c r="B25" s="74" t="s">
+        <v>253</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>24</v>
       </c>
-      <c r="B26" s="75" t="s">
-        <v>263</v>
+      <c r="B26" s="74" t="s">
+        <v>254</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
         <v>25</v>
       </c>
-      <c r="B27" s="75" t="s">
-        <v>264</v>
+      <c r="B27" s="74" t="s">
+        <v>255</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>26</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>265</v>
+      <c r="B28" s="74" t="s">
+        <v>256</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>27</v>
       </c>
-      <c r="B29" s="75" t="s">
-        <v>266</v>
+      <c r="B29" s="74" t="s">
+        <v>257</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>28</v>
       </c>
-      <c r="B30" s="69" t="s">
-        <v>230</v>
+      <c r="B30" s="68" t="s">
+        <v>221</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>29</v>
       </c>
-      <c r="B31" s="72" t="s">
-        <v>245</v>
+      <c r="B31" s="71" t="s">
+        <v>236</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>30</v>
       </c>
-      <c r="B32" s="72" t="s">
-        <v>246</v>
+      <c r="B32" s="71" t="s">
+        <v>237</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>31</v>
       </c>
-      <c r="B33" s="72" t="s">
-        <v>276</v>
+      <c r="B33" s="71" t="s">
+        <v>267</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>32</v>
       </c>
-      <c r="B34" s="72" t="s">
-        <v>244</v>
+      <c r="B34" s="71" t="s">
+        <v>235</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>33</v>
       </c>
-      <c r="B35" s="72" t="s">
-        <v>247</v>
+      <c r="B35" s="71" t="s">
+        <v>238</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>34</v>
       </c>
-      <c r="B36" s="72" t="s">
-        <v>277</v>
+      <c r="B36" s="71" t="s">
+        <v>268</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>35</v>
       </c>
-      <c r="B37" s="78" t="s">
-        <v>272</v>
+      <c r="B37" s="77" t="s">
+        <v>263</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>36</v>
       </c>
-      <c r="B38" s="78" t="s">
-        <v>274</v>
+      <c r="B38" s="77" t="s">
+        <v>265</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -5519,7 +5808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5533,104 +5822,104 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>143</v>
-      </c>
       <c r="C2" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>153</v>
-      </c>
       <c r="C4" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="B6" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>176</v>
-      </c>
       <c r="B7" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6143,7 +6432,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6153,8 +6442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6224,7 +6513,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -6387,7 +6676,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -6407,7 +6696,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -6427,7 +6716,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -6447,7 +6736,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -6467,7 +6756,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -6487,7 +6776,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -6507,7 +6796,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -6606,7 +6895,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="63" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="17">
@@ -6647,7 +6936,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -6667,7 +6956,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -6687,7 +6976,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -6707,7 +6996,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -6727,7 +7016,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -6747,7 +7036,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="17">
         <v>0</v>
@@ -6767,7 +7056,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -6787,7 +7076,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -6807,7 +7096,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -6846,8 +7135,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="s">
-        <v>179</v>
+      <c r="A35" s="66" t="s">
+        <v>178</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -6866,8 +7155,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
-        <v>180</v>
+      <c r="A36" s="53" t="s">
+        <v>179</v>
       </c>
       <c r="B36" s="17">
         <v>5</v>
@@ -6886,8 +7175,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
-        <v>172</v>
+      <c r="A37" s="52" t="s">
+        <v>171</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -6906,8 +7195,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
-        <v>183</v>
+      <c r="A38" s="53" t="s">
+        <v>182</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
@@ -6926,8 +7215,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
-        <v>184</v>
+      <c r="A39" s="52" t="s">
+        <v>183</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -6947,7 +7236,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B40" s="17">
         <v>5</v>
@@ -6967,7 +7256,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B41" s="17">
         <v>5</v>
@@ -6987,7 +7276,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
@@ -7006,8 +7295,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
-        <v>185</v>
+      <c r="A43" s="52" t="s">
+        <v>184</v>
       </c>
       <c r="B43" s="17">
         <v>3</v>
@@ -7026,8 +7315,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="53" t="s">
-        <v>186</v>
+      <c r="A44" s="52" t="s">
+        <v>185</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
@@ -7046,8 +7335,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58" t="s">
-        <v>193</v>
+      <c r="A45" s="57" t="s">
+        <v>192</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -7066,8 +7355,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="58" t="s">
-        <v>194</v>
+      <c r="A46" s="57" t="s">
+        <v>193</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -7086,8 +7375,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="68" t="s">
-        <v>230</v>
+      <c r="A47" s="67" t="s">
+        <v>221</v>
       </c>
       <c r="B47" s="17">
         <v>3</v>
@@ -7106,8 +7395,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="70" t="s">
-        <v>234</v>
+      <c r="A48" s="69" t="s">
+        <v>225</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -7126,8 +7415,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="70" t="s">
-        <v>235</v>
+      <c r="A49" s="69" t="s">
+        <v>226</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -7146,8 +7435,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="70" t="s">
-        <v>236</v>
+      <c r="A50" s="69" t="s">
+        <v>227</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -7167,7 +7456,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" s="16">
         <v>0</v>
@@ -7186,7 +7475,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7194,27 +7483,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" customWidth="1"/>
+    <col min="3" max="4" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" customWidth="1"/>
+    <col min="20" max="20" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>96</v>
       </c>
@@ -7224,196 +7515,241 @@
       <c r="C1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>14</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>13</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>12</v>
       </c>
-      <c r="H1">
-        <v>11</v>
-      </c>
       <c r="I1">
+        <v>11</v>
+      </c>
+      <c r="J1">
         <v>10</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>8</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>7</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>6</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>5</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>4</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>3</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>1</v>
       </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="S2" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="E2" s="34" t="s">
+      <c r="T2" s="34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="R3" t="s">
+        <v>283</v>
+      </c>
+      <c r="S3" t="s">
+        <v>282</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>226</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="47" type="noConversion"/>
+  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="344">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,71 +422,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -502,27 +502,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -538,7 +538,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,230 +554,230 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -793,158 +793,158 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -977,7 +977,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1010,7 +1010,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1036,7 +1036,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1062,7 +1062,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1088,7 +1088,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1114,15 +1114,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1144,7 +1144,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1160,7 +1160,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1176,7 +1176,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1192,7 +1192,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1208,11 +1208,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1228,7 +1228,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1244,15 +1244,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1268,111 +1268,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1388,87 +1388,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1484,31 +1484,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1524,43 +1524,43 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1576,7 +1576,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1592,22 +1592,22 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>DO整体控制数据</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1623,7 +1623,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1639,7 +1639,7 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1655,7 +1655,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1671,11 +1671,11 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1691,7 +1691,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1707,7 +1707,7 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1723,43 +1723,43 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1775,23 +1775,182 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>继电器BIBO</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim卡采集</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim卡编号采集</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>铭牌编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示板号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪型号记录</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流挡板</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>铭牌</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗插片</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>K60看门狗</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示盖板</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtrlBoxSet</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制盒编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制盒编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K1K2控制</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K3K4控制</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K5K6控制</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>K7K8控制</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K1K2控制</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K3K4控制</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K9K10控制</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块1</t>
+  </si>
+  <si>
+    <t>电源模块2</t>
+  </si>
+  <si>
+    <t>电源模块3</t>
+  </si>
+  <si>
+    <t>电源模块4</t>
+  </si>
+  <si>
+    <t>电源模块5</t>
+  </si>
+  <si>
+    <t>电源模块6</t>
+  </si>
+  <si>
+    <t>电源模块7</t>
+  </si>
+  <si>
+    <t>电源模块8</t>
+  </si>
+  <si>
+    <t>1枪K1反馈</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K2反馈</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K1反馈</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K2反馈</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM1反馈</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM2反馈</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5K6反馈</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>K9K10反馈</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>K7K8反馈</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>KM控制</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2476,446 +2635,505 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -3273,10 +3491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView topLeftCell="A94" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3614,11 +3832,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="113" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -3635,9 +3853,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -3652,9 +3870,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -3669,9 +3887,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -3686,9 +3904,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -3749,11 +3967,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101" t="s">
+      <c r="A22" s="115"/>
+      <c r="B22" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="115" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -3770,9 +3988,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -3787,9 +4005,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -3804,9 +4022,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -3821,9 +4039,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -3880,11 +4098,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="108"/>
-      <c r="B29" s="105" t="s">
+      <c r="A29" s="118"/>
+      <c r="B29" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="126" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -3901,9 +4119,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -3918,9 +4136,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -3935,9 +4153,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -3952,9 +4170,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -3969,11 +4187,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96" t="s">
+      <c r="A34" s="114"/>
+      <c r="B34" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="114" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -3990,9 +4208,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -4007,11 +4225,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96" t="s">
+      <c r="A36" s="114"/>
+      <c r="B36" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="113" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
@@ -4028,9 +4246,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -4045,11 +4263,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="95" t="s">
+      <c r="A38" s="114"/>
+      <c r="B38" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="C38" s="122" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4066,9 +4284,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -4083,11 +4301,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="96"/>
-      <c r="B40" s="96" t="s">
+      <c r="A40" s="114"/>
+      <c r="B40" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="95" t="s">
+      <c r="C40" s="122" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4104,9 +4322,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="96"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -4121,9 +4339,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="96"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -4138,9 +4356,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -4155,9 +4373,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="96"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -4172,11 +4390,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="96">
+      <c r="A45" s="114">
         <v>13</v>
       </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96" t="s">
+      <c r="B45" s="114"/>
+      <c r="C45" s="114" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4256,11 +4474,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="102"/>
-      <c r="B49" s="103" t="s">
+      <c r="A49" s="127"/>
+      <c r="B49" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="124" t="s">
         <v>293</v>
       </c>
       <c r="D49" s="20">
@@ -4269,7 +4487,7 @@
       <c r="E49" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="94" t="s">
+      <c r="F49" s="92" t="s">
         <v>217</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -4277,16 +4495,16 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
       <c r="E50" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="94" t="s">
+      <c r="F50" s="92" t="s">
         <v>218</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -4294,16 +4512,16 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
       <c r="E51" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="94" t="s">
+      <c r="F51" s="92" t="s">
         <v>219</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -4395,11 +4613,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="101"/>
-      <c r="B56" s="97" t="s">
+      <c r="A56" s="115"/>
+      <c r="B56" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="101" t="s">
+      <c r="C56" s="115" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -4416,9 +4634,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="98"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="98"/>
+      <c r="A57" s="116"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -4433,9 +4651,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="98"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -4450,9 +4668,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="98"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
+      <c r="A59" s="116"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -4467,9 +4685,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="98"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
+      <c r="A60" s="116"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -4484,9 +4702,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="98"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -4501,9 +4719,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="98"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -4560,11 +4778,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="102"/>
-      <c r="B65" s="103" t="s">
+      <c r="A65" s="127"/>
+      <c r="B65" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="104" t="s">
+      <c r="C65" s="124" t="s">
         <v>293</v>
       </c>
       <c r="D65" s="20">
@@ -4573,7 +4791,7 @@
       <c r="E65" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="F65" s="94" t="s">
+      <c r="F65" s="92" t="s">
         <v>220</v>
       </c>
       <c r="G65" s="61" t="s">
@@ -4581,16 +4799,16 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="96"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="96"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
       <c r="E66" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="94" t="s">
+      <c r="F66" s="92" t="s">
         <v>223</v>
       </c>
       <c r="G66" s="61" t="s">
@@ -4598,16 +4816,16 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="96"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="96"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
       <c r="E67" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="94" t="s">
+      <c r="F67" s="92" t="s">
         <v>224</v>
       </c>
       <c r="G67" s="61" t="s">
@@ -4699,11 +4917,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="101"/>
-      <c r="B72" s="97" t="s">
+      <c r="A72" s="115"/>
+      <c r="B72" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="115" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -4720,9 +4938,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="98"/>
-      <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="116"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -4737,9 +4955,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="98"/>
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="116"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -4754,9 +4972,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="98"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="116"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -4771,9 +4989,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="98"/>
-      <c r="B76" s="98"/>
-      <c r="C76" s="98"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="116"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -4788,9 +5006,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="98"/>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
+      <c r="A77" s="116"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="116"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -4805,9 +5023,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="98"/>
-      <c r="B78" s="98"/>
-      <c r="C78" s="98"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="116"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -4864,11 +5082,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="100"/>
-      <c r="B81" s="100" t="s">
+      <c r="A81" s="113"/>
+      <c r="B81" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="95" t="s">
+      <c r="C81" s="122" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -4885,9 +5103,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="96"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -4902,9 +5120,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="96"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -4919,9 +5137,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="96"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="96"/>
+      <c r="A84" s="114"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="114"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -5230,128 +5448,380 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="95"/>
-      <c r="B99" s="95" t="s">
+      <c r="A99" s="125"/>
+      <c r="B99" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" s="109">
+        <v>98</v>
+      </c>
+      <c r="E99" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="F99" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" s="107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="125"/>
+      <c r="B100" s="125"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="109">
+        <v>99</v>
+      </c>
+      <c r="E100" s="108" t="s">
+        <v>308</v>
+      </c>
+      <c r="F100" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="G100" s="107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="125"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="125"/>
+      <c r="D101" s="109">
+        <v>100</v>
+      </c>
+      <c r="E101" s="108" t="s">
+        <v>309</v>
+      </c>
+      <c r="F101" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="111"/>
+      <c r="B102" s="110" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" s="109">
+        <v>101</v>
+      </c>
+      <c r="E102" s="108" t="s">
+        <v>317</v>
+      </c>
+      <c r="F102" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="G102" s="107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="125"/>
+      <c r="B103" s="125" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="101">
+        <v>102</v>
+      </c>
+      <c r="E103" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="G103" s="93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="128"/>
+      <c r="B104" s="128"/>
+      <c r="C104" s="128"/>
+      <c r="D104" s="101">
+        <v>103</v>
+      </c>
+      <c r="E104" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="G104" s="93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="128"/>
+      <c r="B105" s="128"/>
+      <c r="C105" s="128"/>
+      <c r="D105" s="101">
+        <v>104</v>
+      </c>
+      <c r="E105" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="G105" s="93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="97" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="98"/>
+      <c r="B106" s="95" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="101">
+        <v>105</v>
+      </c>
+      <c r="E106" s="95" t="s">
+        <v>307</v>
+      </c>
+      <c r="F106" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="97" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="102"/>
+      <c r="B107" s="101" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" s="101">
+        <v>106</v>
+      </c>
+      <c r="E107" s="101" t="s">
+        <v>310</v>
+      </c>
+      <c r="F107" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="G107" s="99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="102"/>
+      <c r="B108" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="C108" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" s="101">
+        <v>107</v>
+      </c>
+      <c r="E108" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="F108" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="102"/>
+      <c r="B109" s="101" t="s">
+        <v>312</v>
+      </c>
+      <c r="C109" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D109" s="101">
+        <v>108</v>
+      </c>
+      <c r="E109" s="101" t="s">
+        <v>312</v>
+      </c>
+      <c r="F109" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="G109" s="99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="102"/>
+      <c r="B110" s="101" t="s">
+        <v>313</v>
+      </c>
+      <c r="C110" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="101">
+        <v>109</v>
+      </c>
+      <c r="E110" s="101" t="s">
+        <v>313</v>
+      </c>
+      <c r="F110" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="G110" s="99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="97" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="102"/>
+      <c r="B111" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" s="101">
+        <v>110</v>
+      </c>
+      <c r="E111" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="F111" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="G111" s="99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="97" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="105"/>
+      <c r="B112" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" s="104">
+        <v>111</v>
+      </c>
+      <c r="E112" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="F112" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="G112" s="106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="122"/>
+      <c r="B113" s="122" t="s">
         <v>303</v>
       </c>
-      <c r="C99" s="97" t="s">
+      <c r="C113" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="D99" s="88">
-        <v>98</v>
-      </c>
-      <c r="E99" s="93" t="s">
+      <c r="D113" s="104">
+        <v>112</v>
+      </c>
+      <c r="E113" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="F99" s="92" t="s">
+      <c r="F113" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="G99" s="92" t="s">
+      <c r="G113" s="93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="96"/>
-      <c r="B100" s="96"/>
-      <c r="C100" s="98"/>
-      <c r="D100" s="88">
-        <v>99</v>
-      </c>
-      <c r="E100" s="93" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="114"/>
+      <c r="B114" s="114"/>
+      <c r="C114" s="114"/>
+      <c r="D114" s="104">
+        <v>113</v>
+      </c>
+      <c r="E114" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="F100" s="92" t="s">
+      <c r="F114" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="G100" s="92" t="s">
+      <c r="G114" s="93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="96"/>
-      <c r="B101" s="96"/>
-      <c r="C101" s="98"/>
-      <c r="D101" s="88">
-        <v>100</v>
-      </c>
-      <c r="E101" s="93" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="114"/>
+      <c r="B115" s="114"/>
+      <c r="C115" s="114"/>
+      <c r="D115" s="104">
+        <v>114</v>
+      </c>
+      <c r="E115" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="F101" s="92" t="s">
+      <c r="F115" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="92" t="s">
+      <c r="G115" s="93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="96"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="88">
-        <v>101</v>
-      </c>
-      <c r="E102" s="93" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="114"/>
+      <c r="B116" s="114"/>
+      <c r="C116" s="114"/>
+      <c r="D116" s="104">
+        <v>115</v>
+      </c>
+      <c r="E116" s="95" t="s">
         <v>295</v>
       </c>
-      <c r="F102" s="92" t="s">
+      <c r="F116" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="G102" s="92" t="s">
+      <c r="G116" s="93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="96"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="88">
-        <v>102</v>
-      </c>
-      <c r="E103" s="93" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="114"/>
+      <c r="B117" s="114"/>
+      <c r="C117" s="114"/>
+      <c r="D117" s="104">
+        <v>116</v>
+      </c>
+      <c r="E117" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="F103" s="92" t="s">
+      <c r="F117" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="92" t="s">
+      <c r="G117" s="93" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
+  <mergeCells count="45">
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A56:A62"/>
@@ -5359,8 +5829,40 @@
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="B72:B78"/>
     <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
   </mergeCells>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -5798,7 +6300,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -5919,7 +6421,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6432,7 +6934,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="42" type="noConversion"/>
+  <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6440,10 +6942,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6995,7 +7497,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="96" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="17">
@@ -7395,87 +7897,607 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="69" t="s">
-        <v>225</v>
+      <c r="A48" s="129" t="s">
+        <v>343</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
       </c>
       <c r="C48" s="17">
+        <v>1</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16">
         <v>2</v>
       </c>
-      <c r="D48" s="16">
-        <v>0</v>
-      </c>
-      <c r="E48" s="16">
-        <v>1</v>
-      </c>
       <c r="F48" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="69" t="s">
-        <v>226</v>
+      <c r="A49" s="129" t="s">
+        <v>319</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
       </c>
       <c r="C49" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="16">
         <v>0</v>
       </c>
       <c r="E49" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="69" t="s">
-        <v>227</v>
+      <c r="A50" s="129" t="s">
+        <v>320</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
       </c>
       <c r="C50" s="17">
+        <v>1</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
+        <v>5</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="129" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="17">
+        <v>3</v>
+      </c>
+      <c r="C51" s="17">
+        <v>1</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>6</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="129" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" s="17">
+        <v>3</v>
+      </c>
+      <c r="C52" s="17">
+        <v>1</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16">
+        <v>7</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="129" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" s="17">
+        <v>3</v>
+      </c>
+      <c r="C53" s="17">
+        <v>1</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16">
+        <v>9</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="129" t="s">
+        <v>324</v>
+      </c>
+      <c r="B54" s="17">
+        <v>3</v>
+      </c>
+      <c r="C54" s="17">
+        <v>1</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16">
+        <v>10</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="129" t="s">
+        <v>325</v>
+      </c>
+      <c r="B55" s="17">
+        <v>3</v>
+      </c>
+      <c r="C55" s="17">
+        <v>1</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16">
+        <v>11</v>
+      </c>
+      <c r="F55" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="129" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="17">
+        <v>3</v>
+      </c>
+      <c r="C56" s="17">
+        <v>1</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16">
+        <v>17</v>
+      </c>
+      <c r="F56" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="129" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="17">
+        <v>3</v>
+      </c>
+      <c r="C57" s="17">
+        <v>1</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0</v>
+      </c>
+      <c r="E57" s="16">
+        <v>18</v>
+      </c>
+      <c r="F57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="129" t="s">
+        <v>328</v>
+      </c>
+      <c r="B58" s="17">
+        <v>3</v>
+      </c>
+      <c r="C58" s="17">
+        <v>1</v>
+      </c>
+      <c r="D58" s="16">
+        <v>0</v>
+      </c>
+      <c r="E58" s="16">
+        <v>19</v>
+      </c>
+      <c r="F58" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="129" t="s">
+        <v>329</v>
+      </c>
+      <c r="B59" s="17">
+        <v>3</v>
+      </c>
+      <c r="C59" s="17">
+        <v>1</v>
+      </c>
+      <c r="D59" s="16">
+        <v>0</v>
+      </c>
+      <c r="E59" s="16">
+        <v>20</v>
+      </c>
+      <c r="F59" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="129" t="s">
+        <v>330</v>
+      </c>
+      <c r="B60" s="17">
+        <v>3</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1</v>
+      </c>
+      <c r="D60" s="16">
+        <v>0</v>
+      </c>
+      <c r="E60" s="16">
+        <v>21</v>
+      </c>
+      <c r="F60" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="129" t="s">
+        <v>331</v>
+      </c>
+      <c r="B61" s="17">
+        <v>3</v>
+      </c>
+      <c r="C61" s="17">
+        <v>1</v>
+      </c>
+      <c r="D61" s="16">
+        <v>0</v>
+      </c>
+      <c r="E61" s="16">
+        <v>22</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="B62" s="17">
+        <v>3</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="16">
+        <v>0</v>
+      </c>
+      <c r="E62" s="16">
+        <v>23</v>
+      </c>
+      <c r="F62" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="129" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" s="17">
+        <v>3</v>
+      </c>
+      <c r="C63" s="17">
+        <v>1</v>
+      </c>
+      <c r="D63" s="16">
+        <v>0</v>
+      </c>
+      <c r="E63" s="16">
+        <v>24</v>
+      </c>
+      <c r="F63" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="129" t="s">
+        <v>338</v>
+      </c>
+      <c r="B64" s="17">
+        <v>3</v>
+      </c>
+      <c r="C64" s="17">
+        <v>0</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16">
+        <v>1</v>
+      </c>
+      <c r="F64" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="129" t="s">
+        <v>339</v>
+      </c>
+      <c r="B65" s="17">
+        <v>3</v>
+      </c>
+      <c r="C65" s="17">
+        <v>0</v>
+      </c>
+      <c r="D65" s="16">
+        <v>0</v>
+      </c>
+      <c r="E65" s="16">
         <v>2</v>
       </c>
-      <c r="D50" s="16">
-        <v>0</v>
-      </c>
-      <c r="E50" s="16">
+      <c r="F65" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="129" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" s="17">
+        <v>3</v>
+      </c>
+      <c r="C66" s="17">
+        <v>0</v>
+      </c>
+      <c r="D66" s="16">
+        <v>0</v>
+      </c>
+      <c r="E66" s="16">
+        <v>3</v>
+      </c>
+      <c r="F66" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="129" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="17">
+        <v>3</v>
+      </c>
+      <c r="C67" s="17">
+        <v>0</v>
+      </c>
+      <c r="D67" s="16">
+        <v>0</v>
+      </c>
+      <c r="E67" s="16">
+        <v>4</v>
+      </c>
+      <c r="F67" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="129" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="17">
+        <v>3</v>
+      </c>
+      <c r="C68" s="17">
+        <v>0</v>
+      </c>
+      <c r="D68" s="16">
+        <v>0</v>
+      </c>
+      <c r="E68" s="16">
+        <v>5</v>
+      </c>
+      <c r="F68" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="129" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="17">
+        <v>3</v>
+      </c>
+      <c r="C69" s="17">
+        <v>0</v>
+      </c>
+      <c r="D69" s="16">
+        <v>0</v>
+      </c>
+      <c r="E69" s="16">
+        <v>6</v>
+      </c>
+      <c r="F69" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="129" t="s">
+        <v>340</v>
+      </c>
+      <c r="B70" s="17">
+        <v>3</v>
+      </c>
+      <c r="C70" s="17">
+        <v>0</v>
+      </c>
+      <c r="D70" s="16">
+        <v>0</v>
+      </c>
+      <c r="E70" s="16">
+        <v>8</v>
+      </c>
+      <c r="F70" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="129" t="s">
+        <v>341</v>
+      </c>
+      <c r="B71" s="17">
+        <v>3</v>
+      </c>
+      <c r="C71" s="17">
+        <v>0</v>
+      </c>
+      <c r="D71" s="16">
+        <v>0</v>
+      </c>
+      <c r="E71" s="16">
+        <v>9</v>
+      </c>
+      <c r="F71" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="129" t="s">
+        <v>342</v>
+      </c>
+      <c r="B72" s="17">
+        <v>3</v>
+      </c>
+      <c r="C72" s="17">
+        <v>0</v>
+      </c>
+      <c r="D72" s="16">
+        <v>0</v>
+      </c>
+      <c r="E72" s="16">
+        <v>10</v>
+      </c>
+      <c r="F72" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="17">
+        <v>3</v>
+      </c>
+      <c r="C73" s="17">
         <v>2</v>
       </c>
-      <c r="F50" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="D73" s="16">
+        <v>0</v>
+      </c>
+      <c r="E73" s="16">
+        <v>1</v>
+      </c>
+      <c r="F73" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="17">
+        <v>3</v>
+      </c>
+      <c r="C74" s="17">
+        <v>2</v>
+      </c>
+      <c r="D74" s="16">
+        <v>0</v>
+      </c>
+      <c r="E74" s="16">
+        <v>0</v>
+      </c>
+      <c r="F74" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="17">
+        <v>3</v>
+      </c>
+      <c r="C75" s="17">
+        <v>2</v>
+      </c>
+      <c r="D75" s="16">
+        <v>0</v>
+      </c>
+      <c r="E75" s="16">
+        <v>2</v>
+      </c>
+      <c r="F75" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="112" t="s">
+        <v>318</v>
+      </c>
+      <c r="B76" s="17">
+        <v>0</v>
+      </c>
+      <c r="C76" s="17">
+        <v>1</v>
+      </c>
+      <c r="D76" s="16">
+        <v>0</v>
+      </c>
+      <c r="E76" s="16">
+        <v>1</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="16">
-        <v>0</v>
-      </c>
-      <c r="C51" s="16">
+      <c r="B77" s="16">
+        <v>0</v>
+      </c>
+      <c r="C77" s="16">
         <v>2</v>
       </c>
-      <c r="D51" s="16">
-        <v>0</v>
-      </c>
-      <c r="E51" s="16">
+      <c r="D77" s="16">
+        <v>0</v>
+      </c>
+      <c r="E77" s="16">
         <v>8</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F77" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7486,7 +8508,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7571,10 +8593,10 @@
       <c r="A2" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="92" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="34" t="s">
@@ -7630,10 +8652,10 @@
       <c r="A3" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="92" t="s">
         <v>220</v>
       </c>
       <c r="D3" s="34" t="s">
@@ -7680,10 +8702,10 @@
       <c r="A4" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="92" t="s">
         <v>299</v>
       </c>
       <c r="D4" s="18"/>
@@ -7692,10 +8714,10 @@
       <c r="A5" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="92" t="s">
         <v>300</v>
       </c>
       <c r="D5" s="18"/>
@@ -7704,10 +8726,10 @@
       <c r="A6" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="92" t="s">
         <v>301</v>
       </c>
       <c r="D6" s="18"/>
@@ -7749,7 +8771,7 @@
       <c r="D12" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="347">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,71 +422,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -502,27 +502,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -538,7 +538,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,230 +554,230 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -793,158 +793,158 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -977,7 +977,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1010,7 +1010,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1036,7 +1036,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1062,7 +1062,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1088,7 +1088,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1114,15 +1114,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1144,7 +1144,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1160,7 +1160,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1176,7 +1176,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1192,7 +1192,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1208,11 +1208,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1228,7 +1228,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1244,15 +1244,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1268,111 +1268,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1388,87 +1388,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1484,31 +1484,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1524,43 +1524,43 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1576,7 +1576,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1592,22 +1592,22 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>DO整体控制数据</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1623,7 +1623,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1639,7 +1639,7 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1655,7 +1655,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1671,11 +1671,11 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1691,7 +1691,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1707,7 +1707,7 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1723,43 +1723,43 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1775,99 +1775,99 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>继电器BIBO</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>sim卡采集</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>sim卡编号采集</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>设备信息</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>显示板号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>直流挡板</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>看门狗插片</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>显示盖板</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>CtrlBoxSet</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1K2控制</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3K4控制</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪K5K6控制</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>K7K8控制</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1K2控制</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3K4控制</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪K9K10控制</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
@@ -1895,55 +1895,81 @@
   </si>
   <si>
     <t>1枪K1反馈</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2反馈</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1反馈</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2反馈</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>KM1反馈</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>KM2反馈</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>K5K6反馈</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>K9K10反馈</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>K7K8反馈</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>KM控制</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO单一控制标志</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1K1K2</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2K1K2</t>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2635,133 +2661,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2770,370 +2796,370 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -3493,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3571,7 +3597,7 @@
       <c r="E3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3617,7 +3643,7 @@
       <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3640,7 +3666,7 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3663,7 +3689,7 @@
       <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3686,7 +3712,7 @@
       <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="F8" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -3709,7 +3735,7 @@
       <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -3732,7 +3758,7 @@
       <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -3755,7 +3781,7 @@
       <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -3778,7 +3804,7 @@
       <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -3801,7 +3827,7 @@
       <c r="E13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -3824,7 +3850,7 @@
       <c r="E14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="F14" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -3832,11 +3858,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="114"/>
+      <c r="B15" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="114" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -3845,7 +3871,7 @@
       <c r="E15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -3853,16 +3879,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -3870,16 +3896,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="89" t="s">
+      <c r="F17" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -3887,16 +3913,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -3904,16 +3930,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -3936,7 +3962,7 @@
       <c r="E20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="90" t="s">
+      <c r="F20" s="89" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -3959,7 +3985,7 @@
       <c r="E21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="90" t="s">
+      <c r="F21" s="89" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -3967,11 +3993,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="115"/>
-      <c r="B22" s="115" t="s">
+      <c r="A22" s="116"/>
+      <c r="B22" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="116" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -3980,7 +4006,7 @@
       <c r="E22" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F22" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -3988,16 +4014,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -4005,16 +4031,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="90" t="s">
+      <c r="F24" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -4022,16 +4048,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -4039,16 +4065,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="90" t="s">
+      <c r="F26" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -4069,7 +4095,7 @@
       <c r="E27" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -4090,7 +4116,7 @@
       <c r="E28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="89" t="s">
+      <c r="F28" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -4098,11 +4124,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="118"/>
-      <c r="B29" s="126" t="s">
+      <c r="A29" s="119"/>
+      <c r="B29" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="126" t="s">
+      <c r="C29" s="127" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4111,87 +4137,87 @@
       <c r="E29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="83" t="s">
+      <c r="F29" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="82" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="83" t="s">
+      <c r="F30" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="82" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="119"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="83" t="s">
+      <c r="F31" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="82" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="119"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="83" t="s">
+      <c r="F32" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="82" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
       <c r="E33" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="83" t="s">
+      <c r="F33" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="82" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114" t="s">
+      <c r="A34" s="115"/>
+      <c r="B34" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="115" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -4200,7 +4226,7 @@
       <c r="E34" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="89" t="s">
+      <c r="F34" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -4208,16 +4234,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="114"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="89" t="s">
+      <c r="F35" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -4225,11 +4251,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="114" t="s">
+      <c r="A36" s="115"/>
+      <c r="B36" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="113" t="s">
+      <c r="C36" s="114" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
@@ -4238,7 +4264,7 @@
       <c r="E36" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="91" t="s">
+      <c r="F36" s="90" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -4246,16 +4272,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="89" t="s">
+      <c r="F37" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="4">
@@ -4263,11 +4289,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="122" t="s">
+      <c r="A38" s="115"/>
+      <c r="B38" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="122" t="s">
+      <c r="C38" s="123" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4276,7 +4302,7 @@
       <c r="E38" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="90" t="s">
+      <c r="F38" s="89" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="8">
@@ -4284,16 +4310,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="114"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="89" t="s">
+      <c r="F39" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="4">
@@ -4301,11 +4327,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="114"/>
-      <c r="B40" s="114" t="s">
+      <c r="A40" s="115"/>
+      <c r="B40" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="123" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4314,87 +4340,87 @@
       <c r="E40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="71" t="s">
+      <c r="F40" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="70" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="114"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="71" t="s">
+      <c r="F41" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="70" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="114"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="71" t="s">
+      <c r="F42" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="70" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
+      <c r="A43" s="115"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="71" t="s">
+      <c r="F43" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="70" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="114"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="71" t="s">
+      <c r="F44" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="70" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="114">
+      <c r="A45" s="115">
         <v>13</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114" t="s">
+      <c r="B45" s="115"/>
+      <c r="C45" s="115" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4403,10 +4429,10 @@
       <c r="E45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="71" t="s">
+      <c r="F45" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="70" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4424,10 +4450,10 @@
       <c r="E46" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="90" t="s">
+      <c r="F46" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="70" t="s">
+      <c r="G46" s="69" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4445,7 +4471,7 @@
       <c r="E47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="90" t="s">
+      <c r="F47" s="89" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -4454,7 +4480,7 @@
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="75" t="s">
         <v>263</v>
       </c>
       <c r="C48" s="49" t="s">
@@ -4466,7 +4492,7 @@
       <c r="E48" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="90" t="s">
+      <c r="F48" s="89" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -4474,11 +4500,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="127"/>
-      <c r="B49" s="123" t="s">
+      <c r="A49" s="128"/>
+      <c r="B49" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="124" t="s">
+      <c r="C49" s="125" t="s">
         <v>293</v>
       </c>
       <c r="D49" s="20">
@@ -4487,7 +4513,7 @@
       <c r="E49" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="92" t="s">
+      <c r="F49" s="91" t="s">
         <v>217</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -4495,16 +4521,16 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="114"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
       <c r="E50" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="92" t="s">
+      <c r="F50" s="91" t="s">
         <v>218</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -4512,16 +4538,16 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="114"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
       <c r="E51" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="92" t="s">
+      <c r="F51" s="91" t="s">
         <v>219</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -4542,10 +4568,10 @@
       <c r="E52" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="91" t="s">
+      <c r="F52" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="80">
+      <c r="G52" s="79">
         <v>6</v>
       </c>
     </row>
@@ -4563,10 +4589,10 @@
       <c r="E53" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="78">
+      <c r="F53" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="77">
         <v>4</v>
       </c>
     </row>
@@ -4584,7 +4610,7 @@
       <c r="E54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="89" t="s">
+      <c r="F54" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -4605,7 +4631,7 @@
       <c r="E55" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="89" t="s">
+      <c r="F55" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -4613,11 +4639,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="115"/>
-      <c r="B56" s="121" t="s">
+      <c r="A56" s="116"/>
+      <c r="B56" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="115" t="s">
+      <c r="C56" s="116" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -4626,7 +4652,7 @@
       <c r="E56" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="89" t="s">
+      <c r="F56" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -4634,16 +4660,16 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="116"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
+      <c r="A57" s="117"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="89" t="s">
+      <c r="F57" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="28">
@@ -4651,16 +4677,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="116"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="89" t="s">
+      <c r="F58" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="28">
@@ -4668,16 +4694,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="116"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
+      <c r="A59" s="117"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="89" t="s">
+      <c r="F59" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="28" t="s">
@@ -4685,16 +4711,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="116"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
+      <c r="A60" s="117"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="89" t="s">
+      <c r="F60" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="28">
@@ -4702,16 +4728,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="116"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
+      <c r="A61" s="117"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="89" t="s">
+      <c r="F61" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="28">
@@ -4719,16 +4745,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="116"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
+      <c r="A62" s="117"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="89" t="s">
+      <c r="F62" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
@@ -4737,7 +4763,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="72" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -4749,7 +4775,7 @@
       <c r="E63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="89" t="s">
+      <c r="F63" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -4758,10 +4784,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="71" t="s">
         <v>241</v>
       </c>
       <c r="D64" s="20">
@@ -4770,7 +4796,7 @@
       <c r="E64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="89" t="s">
+      <c r="F64" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -4778,11 +4804,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="127"/>
-      <c r="B65" s="123" t="s">
+      <c r="A65" s="128"/>
+      <c r="B65" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="124" t="s">
+      <c r="C65" s="125" t="s">
         <v>293</v>
       </c>
       <c r="D65" s="20">
@@ -4791,7 +4817,7 @@
       <c r="E65" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="F65" s="92" t="s">
+      <c r="F65" s="91" t="s">
         <v>220</v>
       </c>
       <c r="G65" s="61" t="s">
@@ -4799,16 +4825,16 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="114"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="114"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
       <c r="E66" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="92" t="s">
+      <c r="F66" s="91" t="s">
         <v>223</v>
       </c>
       <c r="G66" s="61" t="s">
@@ -4816,16 +4842,16 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="114"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
       <c r="E67" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="92" t="s">
+      <c r="F67" s="91" t="s">
         <v>224</v>
       </c>
       <c r="G67" s="61" t="s">
@@ -4834,7 +4860,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="55"/>
-      <c r="B68" s="84" t="s">
+      <c r="B68" s="83" t="s">
         <v>188</v>
       </c>
       <c r="C68" s="55" t="s">
@@ -4843,13 +4869,13 @@
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="85" t="s">
+      <c r="E68" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="F68" s="91" t="s">
+      <c r="F68" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="80">
+      <c r="G68" s="79">
         <v>6</v>
       </c>
     </row>
@@ -4867,10 +4893,10 @@
       <c r="E69" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="F69" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="79">
+      <c r="F69" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="78">
         <v>4</v>
       </c>
     </row>
@@ -4888,7 +4914,7 @@
       <c r="E70" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="89" t="s">
+      <c r="F70" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="39" t="s">
@@ -4909,7 +4935,7 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="89" t="s">
+      <c r="F71" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -4917,11 +4943,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="115"/>
-      <c r="B72" s="121" t="s">
+      <c r="A72" s="116"/>
+      <c r="B72" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="115" t="s">
+      <c r="C72" s="116" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -4930,7 +4956,7 @@
       <c r="E72" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F72" s="89" t="s">
+      <c r="F72" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="37" t="s">
@@ -4938,16 +4964,16 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="116"/>
-      <c r="B73" s="116"/>
-      <c r="C73" s="116"/>
+      <c r="A73" s="117"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="117"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
       <c r="E73" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F73" s="89" t="s">
+      <c r="F73" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="38">
@@ -4955,16 +4981,16 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="116"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="116"/>
+      <c r="A74" s="117"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="117"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
       <c r="E74" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="89" t="s">
+      <c r="F74" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="38">
@@ -4972,16 +4998,16 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="116"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="116"/>
+      <c r="A75" s="117"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="117"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
       <c r="E75" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="89" t="s">
+      <c r="F75" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="38" t="s">
@@ -4989,16 +5015,16 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="116"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="116"/>
+      <c r="A76" s="117"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="117"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
       <c r="E76" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F76" s="89" t="s">
+      <c r="F76" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="38">
@@ -5006,16 +5032,16 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="116"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="116"/>
+      <c r="A77" s="117"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="117"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="89" t="s">
+      <c r="F77" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="38">
@@ -5023,16 +5049,16 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="116"/>
-      <c r="B78" s="116"/>
-      <c r="C78" s="116"/>
+      <c r="A78" s="117"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
       <c r="E78" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="F78" s="89" t="s">
+      <c r="F78" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="38" t="s">
@@ -5053,7 +5079,7 @@
       <c r="E79" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="89" t="s">
+      <c r="F79" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -5062,10 +5088,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="72" t="s">
+      <c r="C80" s="71" t="s">
         <v>241</v>
       </c>
       <c r="D80" s="20">
@@ -5074,7 +5100,7 @@
       <c r="E80" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="89" t="s">
+      <c r="F80" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -5082,11 +5108,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="113"/>
-      <c r="B81" s="113" t="s">
+      <c r="A81" s="114"/>
+      <c r="B81" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="122" t="s">
+      <c r="C81" s="123" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5095,7 +5121,7 @@
       <c r="E81" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F81" s="89" t="s">
+      <c r="F81" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -5103,16 +5129,16 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="114"/>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
+      <c r="A82" s="115"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="115"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="89" t="s">
+      <c r="F82" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -5120,16 +5146,16 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="114"/>
-      <c r="B83" s="114"/>
-      <c r="C83" s="114"/>
+      <c r="A83" s="115"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="89" t="s">
+      <c r="F83" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -5137,16 +5163,16 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="114"/>
-      <c r="B84" s="114"/>
-      <c r="C84" s="114"/>
+      <c r="A84" s="115"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="115"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="89" t="s">
+      <c r="F84" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -5167,7 +5193,7 @@
       <c r="E85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="90" t="s">
+      <c r="F85" s="89" t="s">
         <v>91</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -5188,7 +5214,7 @@
       <c r="E86" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="89" t="s">
+      <c r="F86" s="88" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -5200,16 +5226,16 @@
       <c r="B87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="69" t="s">
+      <c r="C87" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="D87" s="88">
+      <c r="D87" s="87">
         <v>86</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="91" t="s">
+      <c r="F87" s="90" t="s">
         <v>73</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -5224,13 +5250,13 @@
       <c r="C88" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="88">
+      <c r="D88" s="87">
         <v>87</v>
       </c>
       <c r="E88" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="F88" s="89">
+      <c r="F88" s="88">
         <v>20</v>
       </c>
       <c r="G88" s="31" t="s">
@@ -5245,13 +5271,13 @@
       <c r="C89" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="88">
+      <c r="D89" s="87">
         <v>88</v>
       </c>
       <c r="E89" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="89">
+      <c r="F89" s="88">
         <v>20</v>
       </c>
       <c r="G89" s="32" t="s">
@@ -5266,13 +5292,13 @@
       <c r="C90" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="88">
+      <c r="D90" s="87">
         <v>89</v>
       </c>
       <c r="E90" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="F90" s="90">
+      <c r="F90" s="89">
         <v>3</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -5281,536 +5307,536 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="70" t="s">
         <v>236</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="88">
+      <c r="D91" s="87">
         <v>90</v>
       </c>
-      <c r="E91" s="69" t="s">
+      <c r="E91" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="F91" s="90" t="s">
+      <c r="F91" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="71" t="s">
+      <c r="G91" s="70" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="70" t="s">
         <v>237</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="88">
+      <c r="D92" s="87">
         <v>91</v>
       </c>
-      <c r="E92" s="69" t="s">
+      <c r="E92" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="90" t="s">
+      <c r="F92" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="71" t="s">
+      <c r="G92" s="70" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="71" t="s">
+      <c r="B93" s="70" t="s">
         <v>267</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="88">
+      <c r="D93" s="87">
         <v>92</v>
       </c>
-      <c r="E93" s="69" t="s">
+      <c r="E93" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="F93" s="90" t="s">
+      <c r="F93" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="71" t="s">
+      <c r="G93" s="70" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="70" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="88">
+      <c r="D94" s="87">
         <v>93</v>
       </c>
-      <c r="E94" s="71" t="s">
+      <c r="E94" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="F94" s="90" t="s">
+      <c r="F94" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="71" t="s">
+      <c r="G94" s="70" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="71" t="s">
+      <c r="B95" s="70" t="s">
         <v>238</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="88">
+      <c r="D95" s="87">
         <v>94</v>
       </c>
-      <c r="E95" s="71" t="s">
+      <c r="E95" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="F95" s="90" t="s">
+      <c r="F95" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G95" s="71" t="s">
+      <c r="G95" s="70" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="70" t="s">
         <v>268</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="88">
+      <c r="D96" s="87">
         <v>95</v>
       </c>
-      <c r="E96" s="71" t="s">
+      <c r="E96" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="F96" s="90" t="s">
+      <c r="F96" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="71" t="s">
+      <c r="G96" s="70" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="88"/>
-      <c r="B97" s="88" t="s">
+      <c r="A97" s="87"/>
+      <c r="B97" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="C97" s="88" t="s">
+      <c r="C97" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="D97" s="88">
+      <c r="D97" s="87">
         <v>96</v>
       </c>
-      <c r="E97" s="82" t="s">
+      <c r="E97" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="F97" s="90" t="s">
+      <c r="F97" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="81" t="s">
+      <c r="G97" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="88"/>
-      <c r="B98" s="88" t="s">
+      <c r="A98" s="87"/>
+      <c r="B98" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="88" t="s">
+      <c r="C98" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="88">
+      <c r="D98" s="87">
         <v>97</v>
       </c>
-      <c r="E98" s="87" t="s">
+      <c r="E98" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="F98" s="90" t="s">
+      <c r="F98" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="86" t="s">
+      <c r="G98" s="85" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="125"/>
-      <c r="B99" s="125" t="s">
+      <c r="A99" s="126"/>
+      <c r="B99" s="126" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="125" t="s">
+      <c r="C99" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="D99" s="109">
+      <c r="D99" s="108">
         <v>98</v>
       </c>
-      <c r="E99" s="108" t="s">
+      <c r="E99" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="F99" s="107" t="s">
+      <c r="F99" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G99" s="107" t="s">
+      <c r="G99" s="106" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="125"/>
-      <c r="B100" s="125"/>
-      <c r="C100" s="125"/>
-      <c r="D100" s="109">
+      <c r="A100" s="126"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="126"/>
+      <c r="D100" s="108">
         <v>99</v>
       </c>
-      <c r="E100" s="108" t="s">
+      <c r="E100" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="F100" s="107" t="s">
+      <c r="F100" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G100" s="107" t="s">
+      <c r="G100" s="106" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="125"/>
-      <c r="B101" s="125"/>
-      <c r="C101" s="125"/>
-      <c r="D101" s="109">
+      <c r="A101" s="126"/>
+      <c r="B101" s="126"/>
+      <c r="C101" s="126"/>
+      <c r="D101" s="108">
         <v>100</v>
       </c>
-      <c r="E101" s="108" t="s">
+      <c r="E101" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="F101" s="107" t="s">
+      <c r="F101" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="107" t="s">
+      <c r="G101" s="106" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="111"/>
-      <c r="B102" s="110" t="s">
+      <c r="A102" s="110"/>
+      <c r="B102" s="109" t="s">
         <v>317</v>
       </c>
-      <c r="C102" s="110" t="s">
+      <c r="C102" s="109" t="s">
         <v>316</v>
       </c>
-      <c r="D102" s="109">
+      <c r="D102" s="108">
         <v>101</v>
       </c>
-      <c r="E102" s="108" t="s">
+      <c r="E102" s="107" t="s">
         <v>317</v>
       </c>
-      <c r="F102" s="107" t="s">
+      <c r="F102" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G102" s="107" t="s">
+      <c r="G102" s="106" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="125"/>
-      <c r="B103" s="125" t="s">
+      <c r="A103" s="126"/>
+      <c r="B103" s="126" t="s">
         <v>306</v>
       </c>
-      <c r="C103" s="125" t="s">
+      <c r="C103" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="101">
+      <c r="D103" s="100">
         <v>102</v>
       </c>
-      <c r="E103" s="108" t="s">
+      <c r="E103" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="F103" s="93" t="s">
+      <c r="F103" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="93" t="s">
+      <c r="G103" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="128"/>
-      <c r="B104" s="128"/>
-      <c r="C104" s="128"/>
-      <c r="D104" s="101">
+      <c r="A104" s="129"/>
+      <c r="B104" s="129"/>
+      <c r="C104" s="129"/>
+      <c r="D104" s="100">
         <v>103</v>
       </c>
-      <c r="E104" s="94" t="s">
+      <c r="E104" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="93" t="s">
+      <c r="F104" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G104" s="93" t="s">
+      <c r="G104" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="128"/>
-      <c r="B105" s="128"/>
-      <c r="C105" s="128"/>
-      <c r="D105" s="101">
+      <c r="A105" s="129"/>
+      <c r="B105" s="129"/>
+      <c r="C105" s="129"/>
+      <c r="D105" s="100">
         <v>104</v>
       </c>
-      <c r="E105" s="94" t="s">
+      <c r="E105" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F105" s="93" t="s">
+      <c r="F105" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="93" t="s">
+      <c r="G105" s="92" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="97" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="98"/>
-      <c r="B106" s="95" t="s">
+    <row r="106" spans="1:7" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="97"/>
+      <c r="B106" s="94" t="s">
         <v>307</v>
       </c>
-      <c r="C106" s="88" t="s">
+      <c r="C106" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="D106" s="101">
+      <c r="D106" s="100">
         <v>105</v>
       </c>
-      <c r="E106" s="95" t="s">
+      <c r="E106" s="94" t="s">
         <v>307</v>
       </c>
-      <c r="F106" s="93" t="s">
+      <c r="F106" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G106" s="93" t="s">
+      <c r="G106" s="92" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="97" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="102"/>
-      <c r="B107" s="101" t="s">
+    <row r="107" spans="1:7" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="101"/>
+      <c r="B107" s="100" t="s">
         <v>310</v>
       </c>
-      <c r="C107" s="101" t="s">
+      <c r="C107" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D107" s="101">
+      <c r="D107" s="100">
         <v>106</v>
       </c>
-      <c r="E107" s="101" t="s">
+      <c r="E107" s="100" t="s">
         <v>310</v>
       </c>
-      <c r="F107" s="99" t="s">
+      <c r="F107" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G107" s="99" t="s">
+      <c r="G107" s="98" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="102"/>
-      <c r="B108" s="101" t="s">
+    <row r="108" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="101"/>
+      <c r="B108" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="C108" s="101" t="s">
+      <c r="C108" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D108" s="101">
+      <c r="D108" s="100">
         <v>107</v>
       </c>
-      <c r="E108" s="101" t="s">
+      <c r="E108" s="100" t="s">
         <v>311</v>
       </c>
-      <c r="F108" s="99" t="s">
+      <c r="F108" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G108" s="99" t="s">
+      <c r="G108" s="98" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="102"/>
-      <c r="B109" s="101" t="s">
+    <row r="109" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="101"/>
+      <c r="B109" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="C109" s="101" t="s">
+      <c r="C109" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D109" s="101">
+      <c r="D109" s="100">
         <v>108</v>
       </c>
-      <c r="E109" s="101" t="s">
+      <c r="E109" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="F109" s="99" t="s">
+      <c r="F109" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="99" t="s">
+      <c r="G109" s="98" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="102"/>
-      <c r="B110" s="101" t="s">
+    <row r="110" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="101"/>
+      <c r="B110" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="C110" s="101" t="s">
+      <c r="C110" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="101">
+      <c r="D110" s="100">
         <v>109</v>
       </c>
-      <c r="E110" s="101" t="s">
+      <c r="E110" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="F110" s="99" t="s">
+      <c r="F110" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G110" s="99" t="s">
+      <c r="G110" s="98" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="97" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="102"/>
-      <c r="B111" s="100" t="s">
+    <row r="111" spans="1:7" s="96" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="101"/>
+      <c r="B111" s="99" t="s">
         <v>314</v>
       </c>
-      <c r="C111" s="101" t="s">
+      <c r="C111" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="101">
+      <c r="D111" s="100">
         <v>110</v>
       </c>
-      <c r="E111" s="100" t="s">
+      <c r="E111" s="99" t="s">
         <v>314</v>
       </c>
-      <c r="F111" s="99" t="s">
+      <c r="F111" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G111" s="99" t="s">
+      <c r="G111" s="98" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="97" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="105"/>
-      <c r="B112" s="103" t="s">
+    <row r="112" spans="1:7" s="96" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="104"/>
+      <c r="B112" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="C112" s="104" t="s">
+      <c r="C112" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="D112" s="104">
+      <c r="D112" s="103">
         <v>111</v>
       </c>
-      <c r="E112" s="103" t="s">
+      <c r="E112" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="F112" s="106" t="s">
+      <c r="F112" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="G112" s="106" t="s">
+      <c r="G112" s="105" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="122"/>
-      <c r="B113" s="122" t="s">
+      <c r="A113" s="123"/>
+      <c r="B113" s="123" t="s">
         <v>303</v>
       </c>
-      <c r="C113" s="122" t="s">
+      <c r="C113" s="123" t="s">
         <v>302</v>
       </c>
-      <c r="D113" s="104">
+      <c r="D113" s="103">
         <v>112</v>
       </c>
-      <c r="E113" s="95" t="s">
-        <v>297</v>
-      </c>
-      <c r="F113" s="93" t="s">
+      <c r="E113" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="F113" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G113" s="93" t="s">
+      <c r="G113" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="114"/>
-      <c r="B114" s="114"/>
-      <c r="C114" s="114"/>
-      <c r="D114" s="104">
+      <c r="A114" s="115"/>
+      <c r="B114" s="115"/>
+      <c r="C114" s="115"/>
+      <c r="D114" s="103">
         <v>113</v>
       </c>
-      <c r="E114" s="95" t="s">
-        <v>298</v>
-      </c>
-      <c r="F114" s="93" t="s">
+      <c r="E114" s="94" t="s">
+        <v>346</v>
+      </c>
+      <c r="F114" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G114" s="93" t="s">
+      <c r="G114" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="114"/>
-      <c r="B115" s="114"/>
-      <c r="C115" s="114"/>
-      <c r="D115" s="104">
+      <c r="A115" s="115"/>
+      <c r="B115" s="115"/>
+      <c r="C115" s="115"/>
+      <c r="D115" s="103">
         <v>114</v>
       </c>
-      <c r="E115" s="95" t="s">
+      <c r="E115" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="F115" s="93" t="s">
+      <c r="F115" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G115" s="93" t="s">
+      <c r="G115" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="114"/>
-      <c r="B116" s="114"/>
-      <c r="C116" s="114"/>
-      <c r="D116" s="104">
+      <c r="A116" s="115"/>
+      <c r="B116" s="115"/>
+      <c r="C116" s="115"/>
+      <c r="D116" s="103">
         <v>115</v>
       </c>
-      <c r="E116" s="95" t="s">
+      <c r="E116" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="F116" s="93" t="s">
+      <c r="F116" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G116" s="93" t="s">
+      <c r="G116" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="114"/>
-      <c r="B117" s="114"/>
-      <c r="C117" s="114"/>
-      <c r="D117" s="104">
+      <c r="A117" s="115"/>
+      <c r="B117" s="115"/>
+      <c r="C117" s="115"/>
+      <c r="D117" s="103">
         <v>116</v>
       </c>
-      <c r="E117" s="95" t="s">
+      <c r="E117" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="F117" s="93" t="s">
+      <c r="F117" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G117" s="93" t="s">
+      <c r="G117" s="92" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5862,7 +5888,7 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A29:A33"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -5899,7 +5925,7 @@
       <c r="B2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6061,7 +6087,7 @@
       <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>242</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -6072,7 +6098,7 @@
       <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -6083,7 +6109,7 @@
       <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>244</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -6094,7 +6120,7 @@
       <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>245</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -6105,7 +6131,7 @@
       <c r="A21" s="34">
         <v>19</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="73" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -6149,7 +6175,7 @@
       <c r="A25" s="34">
         <v>23</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="73" t="s">
         <v>253</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -6160,7 +6186,7 @@
       <c r="A26" s="34">
         <v>24</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="73" t="s">
         <v>254</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -6171,7 +6197,7 @@
       <c r="A27" s="34">
         <v>25</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="73" t="s">
         <v>255</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -6182,7 +6208,7 @@
       <c r="A28" s="34">
         <v>26</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="73" t="s">
         <v>256</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -6193,7 +6219,7 @@
       <c r="A29" s="34">
         <v>27</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="73" t="s">
         <v>257</v>
       </c>
       <c r="C29" s="35" t="s">
@@ -6204,7 +6230,7 @@
       <c r="A30" s="34">
         <v>28</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="67" t="s">
         <v>221</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -6215,7 +6241,7 @@
       <c r="A31" s="34">
         <v>29</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="70" t="s">
         <v>236</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -6226,7 +6252,7 @@
       <c r="A32" s="34">
         <v>30</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="70" t="s">
         <v>237</v>
       </c>
       <c r="C32" s="35" t="s">
@@ -6237,7 +6263,7 @@
       <c r="A33" s="34">
         <v>31</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="70" t="s">
         <v>267</v>
       </c>
       <c r="C33" s="35" t="s">
@@ -6248,7 +6274,7 @@
       <c r="A34" s="34">
         <v>32</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="70" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="34" t="s">
@@ -6259,7 +6285,7 @@
       <c r="A35" s="34">
         <v>33</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="70" t="s">
         <v>238</v>
       </c>
       <c r="C35" s="35" t="s">
@@ -6270,7 +6296,7 @@
       <c r="A36" s="34">
         <v>34</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="70" t="s">
         <v>268</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -6281,7 +6307,7 @@
       <c r="A37" s="34">
         <v>35</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="76" t="s">
         <v>263</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -6292,7 +6318,7 @@
       <c r="A38" s="34">
         <v>36</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B38" s="76" t="s">
         <v>265</v>
       </c>
       <c r="C38" s="35" t="s">
@@ -6300,7 +6326,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -6421,7 +6447,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6934,7 +6960,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6942,10 +6968,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7497,7 +7523,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="95" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="17">
@@ -7877,8 +7903,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
-        <v>221</v>
+      <c r="A47" s="113" t="s">
+        <v>90</v>
       </c>
       <c r="B47" s="17">
         <v>3</v>
@@ -7897,8 +7923,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="129" t="s">
-        <v>343</v>
+      <c r="A48" s="113" t="s">
+        <v>344</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -7910,15 +7936,15 @@
         <v>0</v>
       </c>
       <c r="E48" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="129" t="s">
-        <v>319</v>
+      <c r="A49" s="112" t="s">
+        <v>343</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -7930,15 +7956,15 @@
         <v>0</v>
       </c>
       <c r="E49" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="129" t="s">
-        <v>320</v>
+      <c r="A50" s="112" t="s">
+        <v>319</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -7950,15 +7976,15 @@
         <v>0</v>
       </c>
       <c r="E50" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="129" t="s">
-        <v>321</v>
+      <c r="A51" s="112" t="s">
+        <v>320</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
@@ -7970,15 +7996,15 @@
         <v>0</v>
       </c>
       <c r="E51" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="129" t="s">
-        <v>322</v>
+      <c r="A52" s="112" t="s">
+        <v>321</v>
       </c>
       <c r="B52" s="17">
         <v>3</v>
@@ -7990,15 +8016,15 @@
         <v>0</v>
       </c>
       <c r="E52" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="129" t="s">
-        <v>323</v>
+      <c r="A53" s="112" t="s">
+        <v>322</v>
       </c>
       <c r="B53" s="17">
         <v>3</v>
@@ -8010,15 +8036,15 @@
         <v>0</v>
       </c>
       <c r="E53" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F53" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="129" t="s">
-        <v>324</v>
+      <c r="A54" s="112" t="s">
+        <v>323</v>
       </c>
       <c r="B54" s="17">
         <v>3</v>
@@ -8030,15 +8056,15 @@
         <v>0</v>
       </c>
       <c r="E54" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="129" t="s">
-        <v>325</v>
+      <c r="A55" s="112" t="s">
+        <v>324</v>
       </c>
       <c r="B55" s="17">
         <v>3</v>
@@ -8050,15 +8076,15 @@
         <v>0</v>
       </c>
       <c r="E55" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="129" t="s">
-        <v>326</v>
+      <c r="A56" s="112" t="s">
+        <v>325</v>
       </c>
       <c r="B56" s="17">
         <v>3</v>
@@ -8070,15 +8096,15 @@
         <v>0</v>
       </c>
       <c r="E56" s="16">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F56" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="129" t="s">
-        <v>327</v>
+      <c r="A57" s="112" t="s">
+        <v>326</v>
       </c>
       <c r="B57" s="17">
         <v>3</v>
@@ -8090,15 +8116,15 @@
         <v>0</v>
       </c>
       <c r="E57" s="16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="129" t="s">
-        <v>328</v>
+      <c r="A58" s="112" t="s">
+        <v>327</v>
       </c>
       <c r="B58" s="17">
         <v>3</v>
@@ -8110,15 +8136,15 @@
         <v>0</v>
       </c>
       <c r="E58" s="16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="129" t="s">
-        <v>329</v>
+      <c r="A59" s="112" t="s">
+        <v>328</v>
       </c>
       <c r="B59" s="17">
         <v>3</v>
@@ -8130,15 +8156,15 @@
         <v>0</v>
       </c>
       <c r="E59" s="16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F59" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="129" t="s">
-        <v>330</v>
+      <c r="A60" s="112" t="s">
+        <v>329</v>
       </c>
       <c r="B60" s="17">
         <v>3</v>
@@ -8150,15 +8176,15 @@
         <v>0</v>
       </c>
       <c r="E60" s="16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F60" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="129" t="s">
-        <v>331</v>
+      <c r="A61" s="112" t="s">
+        <v>330</v>
       </c>
       <c r="B61" s="17">
         <v>3</v>
@@ -8170,15 +8196,15 @@
         <v>0</v>
       </c>
       <c r="E61" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F61" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="129" t="s">
-        <v>332</v>
+      <c r="A62" s="112" t="s">
+        <v>331</v>
       </c>
       <c r="B62" s="17">
         <v>3</v>
@@ -8190,15 +8216,15 @@
         <v>0</v>
       </c>
       <c r="E62" s="16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="129" t="s">
-        <v>333</v>
+      <c r="A63" s="112" t="s">
+        <v>332</v>
       </c>
       <c r="B63" s="17">
         <v>3</v>
@@ -8210,35 +8236,35 @@
         <v>0</v>
       </c>
       <c r="E63" s="16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F63" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="129" t="s">
-        <v>338</v>
+      <c r="A64" s="112" t="s">
+        <v>333</v>
       </c>
       <c r="B64" s="17">
         <v>3</v>
       </c>
       <c r="C64" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="16">
         <v>0</v>
       </c>
       <c r="E64" s="16">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F64" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="129" t="s">
-        <v>339</v>
+      <c r="A65" s="112" t="s">
+        <v>338</v>
       </c>
       <c r="B65" s="17">
         <v>3</v>
@@ -8250,15 +8276,15 @@
         <v>0</v>
       </c>
       <c r="E65" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="129" t="s">
-        <v>334</v>
+      <c r="A66" s="112" t="s">
+        <v>339</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
@@ -8270,15 +8296,15 @@
         <v>0</v>
       </c>
       <c r="E66" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="129" t="s">
-        <v>335</v>
+      <c r="A67" s="112" t="s">
+        <v>334</v>
       </c>
       <c r="B67" s="17">
         <v>3</v>
@@ -8290,15 +8316,15 @@
         <v>0</v>
       </c>
       <c r="E67" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="129" t="s">
-        <v>336</v>
+      <c r="A68" s="112" t="s">
+        <v>335</v>
       </c>
       <c r="B68" s="17">
         <v>3</v>
@@ -8310,15 +8336,15 @@
         <v>0</v>
       </c>
       <c r="E68" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="129" t="s">
-        <v>337</v>
+      <c r="A69" s="112" t="s">
+        <v>336</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -8330,15 +8356,15 @@
         <v>0</v>
       </c>
       <c r="E69" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="129" t="s">
-        <v>340</v>
+      <c r="A70" s="112" t="s">
+        <v>337</v>
       </c>
       <c r="B70" s="17">
         <v>3</v>
@@ -8350,15 +8376,15 @@
         <v>0</v>
       </c>
       <c r="E70" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F70" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="129" t="s">
-        <v>341</v>
+      <c r="A71" s="112" t="s">
+        <v>340</v>
       </c>
       <c r="B71" s="17">
         <v>3</v>
@@ -8370,15 +8396,15 @@
         <v>0</v>
       </c>
       <c r="E71" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="129" t="s">
-        <v>342</v>
+      <c r="A72" s="112" t="s">
+        <v>341</v>
       </c>
       <c r="B72" s="17">
         <v>3</v>
@@ -8390,35 +8416,35 @@
         <v>0</v>
       </c>
       <c r="E72" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="69" t="s">
-        <v>225</v>
+      <c r="A73" s="112" t="s">
+        <v>342</v>
       </c>
       <c r="B73" s="17">
         <v>3</v>
       </c>
       <c r="C73" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73" s="16">
         <v>0</v>
       </c>
       <c r="E73" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="69" t="s">
-        <v>226</v>
+      <c r="A74" s="68" t="s">
+        <v>225</v>
       </c>
       <c r="B74" s="17">
         <v>3</v>
@@ -8430,15 +8456,15 @@
         <v>0</v>
       </c>
       <c r="E74" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="69" t="s">
-        <v>227</v>
+      <c r="A75" s="68" t="s">
+        <v>226</v>
       </c>
       <c r="B75" s="17">
         <v>3</v>
@@ -8450,54 +8476,74 @@
         <v>0</v>
       </c>
       <c r="E75" s="16">
+        <v>0</v>
+      </c>
+      <c r="F75" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" s="17">
+        <v>3</v>
+      </c>
+      <c r="C76" s="17">
         <v>2</v>
       </c>
-      <c r="F75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="112" t="s">
+      <c r="D76" s="16">
+        <v>0</v>
+      </c>
+      <c r="E76" s="16">
+        <v>2</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="111" t="s">
         <v>318</v>
       </c>
-      <c r="B76" s="17">
-        <v>0</v>
-      </c>
-      <c r="C76" s="17">
+      <c r="B77" s="17">
+        <v>0</v>
+      </c>
+      <c r="C77" s="17">
         <v>1</v>
       </c>
-      <c r="D76" s="16">
-        <v>0</v>
-      </c>
-      <c r="E76" s="16">
+      <c r="D77" s="16">
+        <v>0</v>
+      </c>
+      <c r="E77" s="16">
         <v>1</v>
       </c>
-      <c r="F76" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
+      <c r="F77" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="16">
-        <v>0</v>
-      </c>
-      <c r="C77" s="16">
+      <c r="B78" s="16">
+        <v>0</v>
+      </c>
+      <c r="C78" s="16">
         <v>2</v>
       </c>
-      <c r="D77" s="16">
-        <v>0</v>
-      </c>
-      <c r="E77" s="16">
+      <c r="D78" s="16">
+        <v>0</v>
+      </c>
+      <c r="E78" s="16">
         <v>8</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8593,10 +8639,10 @@
       <c r="A2" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="91" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="34" t="s">
@@ -8652,10 +8698,10 @@
       <c r="A3" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="91" t="s">
         <v>220</v>
       </c>
       <c r="D3" s="34" t="s">
@@ -8702,10 +8748,10 @@
       <c r="A4" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>299</v>
       </c>
       <c r="D4" s="18"/>
@@ -8714,10 +8760,10 @@
       <c r="A5" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="91" t="s">
         <v>300</v>
       </c>
       <c r="D5" s="18"/>
@@ -8726,10 +8772,10 @@
       <c r="A6" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="91" t="s">
         <v>301</v>
       </c>
       <c r="D6" s="18"/>
@@ -8771,7 +8817,7 @@
       <c r="D12" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="353">
   <si>
     <t>组序号</t>
   </si>
@@ -1944,6 +1944,30 @@
   <si>
     <t>枪2K1K2</t>
     <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0200</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0018</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0060</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0100</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0200</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2789,7 +2813,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3112,9 +3136,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3148,18 +3181,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -3517,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3858,11 +3898,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="114" t="s">
+      <c r="A15" s="117"/>
+      <c r="B15" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="117" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -3879,9 +3919,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -3896,9 +3936,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -3913,9 +3953,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -3930,9 +3970,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -3993,11 +4033,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116" t="s">
+      <c r="A22" s="119"/>
+      <c r="B22" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="119" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4014,9 +4054,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4031,9 +4071,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4048,9 +4088,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
+      <c r="A25" s="120"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4065,9 +4105,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="118"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4124,11 +4164,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
-      <c r="B29" s="127" t="s">
+      <c r="A29" s="122"/>
+      <c r="B29" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="129" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4145,9 +4185,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4162,9 +4202,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="120"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4179,9 +4219,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -4196,9 +4236,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -4213,11 +4253,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="115"/>
-      <c r="B34" s="115" t="s">
+      <c r="A34" s="118"/>
+      <c r="B34" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="118" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -4234,9 +4274,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="115"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -4251,11 +4291,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="115" t="s">
+      <c r="A36" s="118"/>
+      <c r="B36" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="114" t="s">
+      <c r="C36" s="117" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
@@ -4272,9 +4312,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
+      <c r="A37" s="118"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -4289,11 +4329,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="115"/>
-      <c r="B38" s="123" t="s">
+      <c r="A38" s="118"/>
+      <c r="B38" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="126" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4310,9 +4350,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
+      <c r="A39" s="118"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -4327,11 +4367,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="115"/>
-      <c r="B40" s="115" t="s">
+      <c r="A40" s="118"/>
+      <c r="B40" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="126" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4348,9 +4388,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="115"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
+      <c r="A41" s="118"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -4365,9 +4405,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
+      <c r="A42" s="118"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -4382,9 +4422,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
+      <c r="A43" s="118"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -4399,9 +4439,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="115"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
+      <c r="A44" s="118"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -4416,11 +4456,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="115">
+      <c r="A45" s="118">
         <v>13</v>
       </c>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115" t="s">
+      <c r="B45" s="118"/>
+      <c r="C45" s="118" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4500,11 +4540,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="128"/>
-      <c r="B49" s="124" t="s">
+      <c r="A49" s="132"/>
+      <c r="B49" s="127" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="125" t="s">
+      <c r="C49" s="128" t="s">
         <v>293</v>
       </c>
       <c r="D49" s="20">
@@ -4521,9 +4561,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="115"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -4538,9 +4578,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="115"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
+      <c r="A51" s="118"/>
+      <c r="B51" s="118"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -4639,11 +4679,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="116"/>
-      <c r="B56" s="122" t="s">
+      <c r="A56" s="119"/>
+      <c r="B56" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="116" t="s">
+      <c r="C56" s="119" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -4660,9 +4700,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="117"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
+      <c r="A57" s="120"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="120"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -4677,9 +4717,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="117"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
+      <c r="A58" s="120"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -4694,9 +4734,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="117"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
+      <c r="A59" s="120"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -4711,9 +4751,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="117"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
+      <c r="A60" s="120"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -4728,9 +4768,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="117"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
+      <c r="A61" s="120"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="120"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -4745,9 +4785,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="117"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="117"/>
+      <c r="A62" s="120"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -4804,11 +4844,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="128"/>
-      <c r="B65" s="124" t="s">
+      <c r="A65" s="132"/>
+      <c r="B65" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="125" t="s">
+      <c r="C65" s="128" t="s">
         <v>293</v>
       </c>
       <c r="D65" s="20">
@@ -4825,9 +4865,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="115"/>
+      <c r="A66" s="118"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -4842,9 +4882,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="115"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="115"/>
+      <c r="A67" s="118"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -4943,11 +4983,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="116"/>
-      <c r="B72" s="122" t="s">
+      <c r="A72" s="119"/>
+      <c r="B72" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="116" t="s">
+      <c r="C72" s="119" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -4964,9 +5004,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="117"/>
-      <c r="B73" s="117"/>
-      <c r="C73" s="117"/>
+      <c r="A73" s="120"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="120"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -4981,9 +5021,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="117"/>
-      <c r="B74" s="117"/>
-      <c r="C74" s="117"/>
+      <c r="A74" s="120"/>
+      <c r="B74" s="120"/>
+      <c r="C74" s="120"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -4998,9 +5038,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="117"/>
-      <c r="B75" s="117"/>
-      <c r="C75" s="117"/>
+      <c r="A75" s="120"/>
+      <c r="B75" s="120"/>
+      <c r="C75" s="120"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5015,9 +5055,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="117"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="117"/>
+      <c r="A76" s="120"/>
+      <c r="B76" s="120"/>
+      <c r="C76" s="120"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5032,9 +5072,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="117"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
+      <c r="A77" s="120"/>
+      <c r="B77" s="120"/>
+      <c r="C77" s="120"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5049,9 +5089,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="117"/>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
+      <c r="A78" s="120"/>
+      <c r="B78" s="120"/>
+      <c r="C78" s="120"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5108,11 +5148,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="114"/>
-      <c r="B81" s="114" t="s">
+      <c r="A81" s="117"/>
+      <c r="B81" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="123" t="s">
+      <c r="C81" s="126" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5129,9 +5169,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="115"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
+      <c r="A82" s="118"/>
+      <c r="B82" s="118"/>
+      <c r="C82" s="118"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5146,9 +5186,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="115"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="115"/>
+      <c r="A83" s="118"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="118"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5163,9 +5203,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="115"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="115"/>
+      <c r="A84" s="118"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -5474,11 +5514,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="126"/>
-      <c r="B99" s="126" t="s">
+      <c r="A99" s="130"/>
+      <c r="B99" s="130" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="126" t="s">
+      <c r="C99" s="130" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="108">
@@ -5495,9 +5535,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="126"/>
-      <c r="B100" s="126"/>
-      <c r="C100" s="126"/>
+      <c r="A100" s="130"/>
+      <c r="B100" s="130"/>
+      <c r="C100" s="130"/>
       <c r="D100" s="108">
         <v>99</v>
       </c>
@@ -5512,9 +5552,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="126"/>
-      <c r="B101" s="126"/>
-      <c r="C101" s="126"/>
+      <c r="A101" s="130"/>
+      <c r="B101" s="130"/>
+      <c r="C101" s="130"/>
       <c r="D101" s="108">
         <v>100</v>
       </c>
@@ -5550,11 +5590,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="126"/>
-      <c r="B103" s="126" t="s">
+      <c r="A103" s="130"/>
+      <c r="B103" s="130" t="s">
         <v>306</v>
       </c>
-      <c r="C103" s="126" t="s">
+      <c r="C103" s="130" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="100">
@@ -5571,9 +5611,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="129"/>
-      <c r="B104" s="129"/>
-      <c r="C104" s="129"/>
+      <c r="A104" s="131"/>
+      <c r="B104" s="131"/>
+      <c r="C104" s="131"/>
       <c r="D104" s="100">
         <v>103</v>
       </c>
@@ -5588,9 +5628,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="129"/>
-      <c r="B105" s="129"/>
-      <c r="C105" s="129"/>
+      <c r="A105" s="131"/>
+      <c r="B105" s="131"/>
+      <c r="C105" s="131"/>
       <c r="D105" s="100">
         <v>104</v>
       </c>
@@ -5751,12 +5791,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="123"/>
-      <c r="B113" s="123" t="s">
+    <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="126"/>
+      <c r="B113" s="126" t="s">
         <v>303</v>
       </c>
-      <c r="C113" s="123" t="s">
+      <c r="C113" s="126" t="s">
         <v>302</v>
       </c>
       <c r="D113" s="103">
@@ -5765,83 +5805,184 @@
       <c r="E113" s="94" t="s">
         <v>345</v>
       </c>
-      <c r="F113" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="G113" s="92" t="s">
-        <v>73</v>
+      <c r="F113" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="G113" s="116" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="115"/>
-      <c r="B114" s="115"/>
-      <c r="C114" s="115"/>
+      <c r="A114" s="118"/>
+      <c r="B114" s="118"/>
+      <c r="C114" s="118"/>
       <c r="D114" s="103">
         <v>113</v>
       </c>
       <c r="E114" s="94" t="s">
         <v>346</v>
       </c>
-      <c r="F114" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="G114" s="92" t="s">
-        <v>73</v>
+      <c r="F114" s="116" t="s">
+        <v>349</v>
+      </c>
+      <c r="G114" s="116" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="115"/>
-      <c r="B115" s="115"/>
-      <c r="C115" s="115"/>
+      <c r="A115" s="118"/>
+      <c r="B115" s="118"/>
+      <c r="C115" s="118"/>
       <c r="D115" s="103">
         <v>114</v>
       </c>
       <c r="E115" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="F115" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="G115" s="92" t="s">
-        <v>73</v>
+      <c r="F115" s="116" t="s">
+        <v>350</v>
+      </c>
+      <c r="G115" s="116" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="115"/>
-      <c r="B116" s="115"/>
-      <c r="C116" s="115"/>
+      <c r="A116" s="118"/>
+      <c r="B116" s="118"/>
+      <c r="C116" s="118"/>
       <c r="D116" s="103">
         <v>115</v>
       </c>
       <c r="E116" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="F116" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="G116" s="92" t="s">
-        <v>73</v>
+      <c r="F116" s="116" t="s">
+        <v>351</v>
+      </c>
+      <c r="G116" s="116" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="115"/>
-      <c r="B117" s="115"/>
-      <c r="C117" s="115"/>
+      <c r="A117" s="118"/>
+      <c r="B117" s="118"/>
+      <c r="C117" s="118"/>
       <c r="D117" s="103">
         <v>116</v>
       </c>
       <c r="E117" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="F117" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="G117" s="92" t="s">
-        <v>73</v>
-      </c>
+      <c r="F117" s="116" t="s">
+        <v>352</v>
+      </c>
+      <c r="G117" s="116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="126"/>
+      <c r="B118" s="126" t="s">
+        <v>303</v>
+      </c>
+      <c r="C118" s="126" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" s="115">
+        <v>112</v>
+      </c>
+      <c r="E118" s="114" t="s">
+        <v>345</v>
+      </c>
+      <c r="F118" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="G118" s="116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="118"/>
+      <c r="B119" s="118"/>
+      <c r="C119" s="118"/>
+      <c r="D119" s="115">
+        <v>113</v>
+      </c>
+      <c r="E119" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="F119" s="116" t="s">
+        <v>349</v>
+      </c>
+      <c r="G119" s="116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="118"/>
+      <c r="B120" s="118"/>
+      <c r="C120" s="118"/>
+      <c r="D120" s="115">
+        <v>114</v>
+      </c>
+      <c r="E120" s="114" t="s">
+        <v>294</v>
+      </c>
+      <c r="F120" s="116" t="s">
+        <v>350</v>
+      </c>
+      <c r="G120" s="116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="118"/>
+      <c r="B121" s="118"/>
+      <c r="C121" s="118"/>
+      <c r="D121" s="115">
+        <v>115</v>
+      </c>
+      <c r="E121" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="F121" s="116" t="s">
+        <v>351</v>
+      </c>
+      <c r="G121" s="116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="118"/>
+      <c r="B122" s="118"/>
+      <c r="C122" s="118"/>
+      <c r="D122" s="115">
+        <v>116</v>
+      </c>
+      <c r="E122" s="114" t="s">
+        <v>296</v>
+      </c>
+      <c r="F122" s="116" t="s">
+        <v>352</v>
+      </c>
+      <c r="G122" s="116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="133"/>
+      <c r="B123" s="133"/>
+      <c r="C123" s="133"/>
+      <c r="D123" s="134"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="48">
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="C118:C122"/>
     <mergeCell ref="B113:B117"/>
     <mergeCell ref="A113:A117"/>
     <mergeCell ref="C113:C117"/>
@@ -6970,8 +7111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7923,7 +8064,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="113" t="s">
+      <c r="A48" s="135" t="s">
         <v>344</v>
       </c>
       <c r="B48" s="17">
@@ -8554,7 +8695,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8773,7 +8914,7 @@
         <v>296</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="C6" s="91" t="s">
         <v>301</v>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="param" sheetId="64" r:id="rId5"/>
     <sheet name="BIBO" sheetId="66" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="393">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,71 +422,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -502,27 +502,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -538,7 +538,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,230 +554,230 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -793,158 +793,158 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -977,7 +977,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1010,7 +1010,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1036,7 +1036,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1062,7 +1062,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1088,7 +1088,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1114,15 +1114,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1144,7 +1144,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1160,7 +1160,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1176,7 +1176,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1192,7 +1192,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1208,11 +1208,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1228,7 +1228,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1244,15 +1244,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1268,111 +1268,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1388,87 +1388,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1484,31 +1484,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1524,43 +1524,43 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1576,7 +1576,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1592,22 +1592,18 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>DO整体控制数据</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1623,7 +1619,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1639,43 +1635,11 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5K6</t>
-    </r>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7K8</t>
-    </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1691,7 +1655,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1707,59 +1671,43 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9K10</t>
-    </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1775,99 +1723,95 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>继电器BIBO</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>sim卡采集</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>sim卡编号采集</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>设备信息</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>显示板号</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>直流挡板</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>看门狗插片</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>显示盖板</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>CtrlBoxSet</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1K2控制</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3K4控制</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪K5K6控制</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>K7K8控制</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1K2控制</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3K4控制</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪K9K10控制</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
@@ -1895,91 +1839,292 @@
   </si>
   <si>
     <t>1枪K1反馈</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2反馈</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1反馈</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2反馈</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>KM1反馈</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>KM2反馈</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>K5K6反馈</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>K9K10反馈</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>K7K8反馈</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>KM控制</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerModule</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块1</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块1</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块4</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块6_1</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块6_2</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块2</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块3</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块5</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器断开K5_K7_K9</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器断开K6_K8_K10</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开K5,K7,K9,闭合K6,K8,K10</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开K6,K8,K10,闭合K5,K7,K9</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器1枪K1K2闭合</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器1枪K1K2断开</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器2枪K1K2闭合</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器2枪K1K2断开</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K5K6_K5断开_K6闭合</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K5K6_K5闭合_K6断开</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K5K6_K5闭合_K6闭合</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K5K6_K5断开_K6断开</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K7K8_K7断开_K8闭合</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K7K8_K7闭合_K8断开</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K7K8_K7闭合_K8闭合</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K7K8_K7断开_K8断开</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K9K10_K9断开_K10断开</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K9K10_K9断开_K10闭合</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K9K10_K9闭合_K10断开</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器K9K10_K9闭合_K10闭合</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块控制</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块1</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块2</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块3</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块4</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块5</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块6</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x010001</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x088103</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x108103</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x208403</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x048023</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01800B</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02800B</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x208063</t>
+    <phoneticPr fontId="54" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2352,7 +2497,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2494,6 +2639,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2685,482 +2848,514 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3169,37 +3364,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -3557,10 +3737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113:B117"/>
+    <sheetView topLeftCell="A124" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3637,7 +3817,7 @@
       <c r="E3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3657,7 +3837,7 @@
       <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="120" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -3680,10 +3860,10 @@
       <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3706,7 +3886,7 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3729,7 +3909,7 @@
       <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3749,10 +3929,10 @@
       <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -3775,7 +3955,7 @@
       <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -3795,10 +3975,10 @@
       <c r="D10" s="20">
         <v>9</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -3821,7 +4001,7 @@
       <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -3841,10 +4021,10 @@
       <c r="D12" s="20">
         <v>11</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -3864,10 +4044,10 @@
       <c r="D13" s="20">
         <v>12</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -3887,10 +4067,10 @@
       <c r="D14" s="20">
         <v>13</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -3898,20 +4078,20 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117" t="s">
+      <c r="A15" s="132"/>
+      <c r="B15" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="132" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -3919,16 +4099,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="118"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -3936,16 +4116,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -3953,16 +4133,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -3970,16 +4150,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -3999,10 +4179,10 @@
       <c r="D20" s="20">
         <v>19</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="84" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -4022,10 +4202,10 @@
       <c r="D21" s="20">
         <v>20</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="89" t="s">
+      <c r="F21" s="84" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -4033,20 +4213,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119" t="s">
+      <c r="A22" s="126"/>
+      <c r="B22" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="126" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -4054,16 +4234,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="120"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -4071,16 +4251,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="89" t="s">
+      <c r="F24" s="84" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -4088,16 +4268,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="120"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="88" t="s">
+      <c r="F25" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -4105,16 +4285,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="84" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -4132,10 +4312,10 @@
       <c r="D27" s="20">
         <v>26</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -4153,10 +4333,10 @@
       <c r="D28" s="20">
         <v>27</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="88" t="s">
+      <c r="F28" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -4164,109 +4344,109 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
-      <c r="B29" s="129" t="s">
+      <c r="A29" s="137"/>
+      <c r="B29" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="129" t="s">
+      <c r="C29" s="134" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
         <v>28</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="82" t="s">
+      <c r="F29" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="82" t="s">
+      <c r="F30" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="82" t="s">
+      <c r="F31" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="123"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="82" t="s">
+      <c r="F32" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="124"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="82" t="s">
+      <c r="F33" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="118"/>
-      <c r="B34" s="118" t="s">
+      <c r="A34" s="124"/>
+      <c r="B34" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="124" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
         <v>33</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="88" t="s">
+      <c r="F34" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -4274,16 +4454,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="118"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="88" t="s">
+      <c r="F35" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -4291,20 +4471,20 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="118"/>
-      <c r="B36" s="118" t="s">
+      <c r="A36" s="124"/>
+      <c r="B36" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="117" t="s">
+      <c r="C36" s="132" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="90" t="s">
+      <c r="F36" s="85" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -4312,16 +4492,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="118"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="88" t="s">
+      <c r="F37" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="4">
@@ -4329,20 +4509,20 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="118"/>
-      <c r="B38" s="126" t="s">
+      <c r="A38" s="124"/>
+      <c r="B38" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="131" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="120" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="89" t="s">
+      <c r="F38" s="84" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="8">
@@ -4350,16 +4530,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="118"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="88" t="s">
+      <c r="F39" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="4">
@@ -4367,11 +4547,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="118"/>
-      <c r="B40" s="118" t="s">
+      <c r="A40" s="124"/>
+      <c r="B40" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="126" t="s">
+      <c r="C40" s="131" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4380,87 +4560,87 @@
       <c r="E40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="70" t="s">
+      <c r="F40" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="118"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="70" t="s">
+      <c r="F41" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="118"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="70" t="s">
+      <c r="F42" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="118"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="70" t="s">
+      <c r="F43" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="118"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="70" t="s">
+      <c r="F44" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="118">
+      <c r="A45" s="124">
         <v>13</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118" t="s">
+      <c r="B45" s="124"/>
+      <c r="C45" s="124" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4469,10 +4649,10 @@
       <c r="E45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="70" t="s">
+      <c r="F45" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="67" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4481,7 +4661,7 @@
       <c r="B46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="48" t="s">
         <v>167</v>
       </c>
       <c r="D46" s="20">
@@ -4490,10 +4670,10 @@
       <c r="E46" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="89" t="s">
+      <c r="F46" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="69" t="s">
+      <c r="G46" s="66" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4511,7 +4691,7 @@
       <c r="E47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="84" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -4520,10 +4700,10 @@
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="48" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="20">
@@ -4532,7 +4712,7 @@
       <c r="E48" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="89" t="s">
+      <c r="F48" s="84" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -4540,20 +4720,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="132"/>
-      <c r="B49" s="127" t="s">
+      <c r="A49" s="125"/>
+      <c r="B49" s="129" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="128" t="s">
-        <v>293</v>
+      <c r="C49" s="130" t="s">
+        <v>289</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="64" t="s">
+      <c r="E49" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="91" t="s">
+      <c r="F49" s="86" t="s">
         <v>217</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -4561,16 +4741,16 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="118"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="91" t="s">
+      <c r="F50" s="86" t="s">
         <v>218</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -4578,16 +4758,16 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="118"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="91" t="s">
+      <c r="F51" s="86" t="s">
         <v>219</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -4595,44 +4775,44 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="62"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="60"/>
+      <c r="B52" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="56" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="56" t="s">
+      <c r="E52" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="90" t="s">
+      <c r="F52" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="79">
+      <c r="G52" s="76">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="62"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="60"/>
+      <c r="B53" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="52" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="20">
         <v>52</v>
       </c>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="77">
+      <c r="F53" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="74">
         <v>4</v>
       </c>
     </row>
@@ -4650,7 +4830,7 @@
       <c r="E54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="88" t="s">
+      <c r="F54" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -4659,7 +4839,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="57" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="45" t="s">
@@ -4668,10 +4848,10 @@
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="88" t="s">
+      <c r="F55" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -4679,11 +4859,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="119"/>
-      <c r="B56" s="125" t="s">
+      <c r="A56" s="126"/>
+      <c r="B56" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="119" t="s">
+      <c r="C56" s="126" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -4692,7 +4872,7 @@
       <c r="E56" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="88" t="s">
+      <c r="F56" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -4700,16 +4880,16 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="120"/>
-      <c r="B57" s="120"/>
-      <c r="C57" s="120"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="127"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="88" t="s">
+      <c r="F57" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="28">
@@ -4717,16 +4897,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="120"/>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="88" t="s">
+      <c r="F58" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="28">
@@ -4734,16 +4914,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="120"/>
-      <c r="B59" s="120"/>
-      <c r="C59" s="120"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="88" t="s">
+      <c r="F59" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="28" t="s">
@@ -4751,16 +4931,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="120"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
+      <c r="A60" s="127"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="88" t="s">
+      <c r="F60" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="28">
@@ -4768,16 +4948,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="120"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="120"/>
+      <c r="A61" s="127"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="127"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="88" t="s">
+      <c r="F61" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="28">
@@ -4785,16 +4965,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="120"/>
-      <c r="B62" s="120"/>
-      <c r="C62" s="120"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="88" t="s">
+      <c r="F62" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
@@ -4803,7 +4983,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="69" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -4815,7 +4995,7 @@
       <c r="E63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="88" t="s">
+      <c r="F63" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -4824,10 +5004,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="68" t="s">
         <v>241</v>
       </c>
       <c r="D64" s="20">
@@ -4836,7 +5016,7 @@
       <c r="E64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="88" t="s">
+      <c r="F64" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -4844,99 +5024,99 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="132"/>
-      <c r="B65" s="127" t="s">
+      <c r="A65" s="125"/>
+      <c r="B65" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="128" t="s">
-        <v>293</v>
+      <c r="C65" s="130" t="s">
+        <v>289</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="64" t="s">
+      <c r="E65" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="F65" s="91" t="s">
+      <c r="F65" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="G65" s="61" t="s">
+      <c r="G65" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="118"/>
-      <c r="B66" s="118"/>
-      <c r="C66" s="118"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="64" t="s">
+      <c r="E66" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="91" t="s">
+      <c r="F66" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="61" t="s">
+      <c r="G66" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="118"/>
-      <c r="B67" s="118"/>
-      <c r="C67" s="118"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="64" t="s">
+      <c r="E67" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="91" t="s">
+      <c r="F67" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="G67" s="61" t="s">
+      <c r="G67" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="55"/>
-      <c r="B68" s="83" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="53" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="84" t="s">
+      <c r="E68" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="F68" s="90" t="s">
+      <c r="F68" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="79">
+      <c r="G68" s="76">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="55"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="52" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="F69" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="78">
+      <c r="F69" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="75">
         <v>4</v>
       </c>
     </row>
@@ -4954,7 +5134,7 @@
       <c r="E70" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="88" t="s">
+      <c r="F70" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="39" t="s">
@@ -4975,7 +5155,7 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="88" t="s">
+      <c r="F71" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -4983,11 +5163,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="119"/>
-      <c r="B72" s="125" t="s">
+      <c r="A72" s="126"/>
+      <c r="B72" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="119" t="s">
+      <c r="C72" s="126" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -4996,7 +5176,7 @@
       <c r="E72" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F72" s="88" t="s">
+      <c r="F72" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="37" t="s">
@@ -5004,16 +5184,16 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="120"/>
-      <c r="B73" s="120"/>
-      <c r="C73" s="120"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="127"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="F73" s="88" t="s">
+      <c r="F73" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="38">
@@ -5021,16 +5201,16 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="120"/>
-      <c r="B74" s="120"/>
-      <c r="C74" s="120"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="127"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
       <c r="E74" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="88" t="s">
+      <c r="F74" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="38">
@@ -5038,16 +5218,16 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="120"/>
-      <c r="B75" s="120"/>
-      <c r="C75" s="120"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="127"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
       <c r="E75" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="88" t="s">
+      <c r="F75" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="38" t="s">
@@ -5055,16 +5235,16 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="120"/>
-      <c r="B76" s="120"/>
-      <c r="C76" s="120"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
       <c r="E76" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F76" s="88" t="s">
+      <c r="F76" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="38">
@@ -5072,16 +5252,16 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="120"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
+      <c r="A77" s="127"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="127"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="88" t="s">
+      <c r="F77" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="38">
@@ -5089,16 +5269,16 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="120"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="120"/>
+      <c r="A78" s="127"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="127"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
       <c r="E78" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="F78" s="88" t="s">
+      <c r="F78" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="38" t="s">
@@ -5119,7 +5299,7 @@
       <c r="E79" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="88" t="s">
+      <c r="F79" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -5128,10 +5308,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="71" t="s">
+      <c r="B80" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="71" t="s">
+      <c r="C80" s="68" t="s">
         <v>241</v>
       </c>
       <c r="D80" s="20">
@@ -5140,7 +5320,7 @@
       <c r="E80" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="88" t="s">
+      <c r="F80" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -5148,11 +5328,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="117"/>
-      <c r="B81" s="117" t="s">
+      <c r="A81" s="132"/>
+      <c r="B81" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="126" t="s">
+      <c r="C81" s="131" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5161,7 +5341,7 @@
       <c r="E81" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F81" s="88" t="s">
+      <c r="F81" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -5169,16 +5349,16 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="118"/>
-      <c r="B82" s="118"/>
-      <c r="C82" s="118"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="88" t="s">
+      <c r="F82" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -5186,16 +5366,16 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="118"/>
-      <c r="B83" s="118"/>
-      <c r="C83" s="118"/>
+      <c r="A83" s="124"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="88" t="s">
+      <c r="F83" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -5203,16 +5383,16 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="118"/>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="88" t="s">
+      <c r="F84" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -5224,16 +5404,16 @@
       <c r="B85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="65" t="s">
+      <c r="C85" s="62" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="20">
         <v>84</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="89" t="s">
+      <c r="F85" s="84" t="s">
         <v>91</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -5251,10 +5431,10 @@
       <c r="D86" s="20">
         <v>85</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="88" t="s">
+      <c r="F86" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -5266,16 +5446,16 @@
       <c r="B87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="68" t="s">
+      <c r="C87" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="D87" s="87">
+      <c r="D87" s="82">
         <v>86</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="90" t="s">
+      <c r="F87" s="85" t="s">
         <v>73</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -5290,13 +5470,13 @@
       <c r="C88" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="87">
+      <c r="D88" s="82">
         <v>87</v>
       </c>
-      <c r="E88" s="47" t="s">
+      <c r="E88" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="F88" s="88">
+      <c r="F88" s="83">
         <v>20</v>
       </c>
       <c r="G88" s="31" t="s">
@@ -5311,13 +5491,13 @@
       <c r="C89" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="87">
+      <c r="D89" s="82">
         <v>88</v>
       </c>
-      <c r="E89" s="33" t="s">
+      <c r="E89" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="88">
+      <c r="F89" s="83">
         <v>20</v>
       </c>
       <c r="G89" s="32" t="s">
@@ -5332,13 +5512,13 @@
       <c r="C90" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="87">
+      <c r="D90" s="82">
         <v>89</v>
       </c>
-      <c r="E90" s="47" t="s">
+      <c r="E90" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="F90" s="89">
+      <c r="F90" s="84">
         <v>3</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -5347,645 +5527,961 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
-      <c r="B91" s="70" t="s">
+      <c r="B91" s="67" t="s">
         <v>236</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="87">
+      <c r="D91" s="82">
         <v>90</v>
       </c>
-      <c r="E91" s="68" t="s">
+      <c r="E91" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="F91" s="89" t="s">
+      <c r="F91" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="70" t="s">
+      <c r="G91" s="67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="70" t="s">
+      <c r="B92" s="67" t="s">
         <v>237</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="87">
+      <c r="D92" s="82">
         <v>91</v>
       </c>
-      <c r="E92" s="68" t="s">
+      <c r="E92" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="89" t="s">
+      <c r="F92" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="70" t="s">
+      <c r="G92" s="67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="70" t="s">
+      <c r="B93" s="67" t="s">
         <v>267</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="87">
+      <c r="D93" s="82">
         <v>92</v>
       </c>
-      <c r="E93" s="68" t="s">
+      <c r="E93" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="F93" s="89" t="s">
+      <c r="F93" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="70" t="s">
+      <c r="G93" s="67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="70" t="s">
+      <c r="B94" s="67" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="87">
+      <c r="D94" s="82">
         <v>93</v>
       </c>
-      <c r="E94" s="70" t="s">
+      <c r="E94" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="F94" s="89" t="s">
+      <c r="F94" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="70" t="s">
+      <c r="G94" s="67" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="70" t="s">
+      <c r="B95" s="67" t="s">
         <v>238</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="87">
+      <c r="D95" s="82">
         <v>94</v>
       </c>
-      <c r="E95" s="70" t="s">
+      <c r="E95" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="F95" s="89" t="s">
+      <c r="F95" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G95" s="70" t="s">
+      <c r="G95" s="67" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="70" t="s">
+      <c r="B96" s="67" t="s">
         <v>268</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="87">
+      <c r="D96" s="82">
         <v>95</v>
       </c>
-      <c r="E96" s="70" t="s">
+      <c r="E96" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="F96" s="89" t="s">
+      <c r="F96" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="70" t="s">
+      <c r="G96" s="67" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="87"/>
-      <c r="B97" s="87" t="s">
+      <c r="A97" s="82"/>
+      <c r="B97" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="C97" s="87" t="s">
+      <c r="C97" s="82" t="s">
         <v>270</v>
       </c>
-      <c r="D97" s="87">
+      <c r="D97" s="82">
         <v>96</v>
       </c>
-      <c r="E97" s="81" t="s">
+      <c r="E97" s="117" t="s">
         <v>269</v>
       </c>
-      <c r="F97" s="89" t="s">
+      <c r="F97" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="80" t="s">
+      <c r="G97" s="77" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="87"/>
-      <c r="B98" s="87" t="s">
+      <c r="A98" s="82"/>
+      <c r="B98" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="87" t="s">
+      <c r="C98" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="87">
+      <c r="D98" s="82">
         <v>97</v>
       </c>
-      <c r="E98" s="86" t="s">
+      <c r="E98" s="117" t="s">
         <v>269</v>
       </c>
-      <c r="F98" s="89" t="s">
+      <c r="F98" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="85" t="s">
+      <c r="G98" s="81" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="130"/>
-      <c r="B99" s="130" t="s">
+      <c r="A99" s="122"/>
+      <c r="B99" s="122" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" s="101">
+        <v>98</v>
+      </c>
+      <c r="E99" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="F99" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" s="100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="122"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="101">
+        <v>99</v>
+      </c>
+      <c r="E100" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="F100" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="G100" s="100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="122"/>
+      <c r="B101" s="122"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="101">
+        <v>100</v>
+      </c>
+      <c r="E101" s="117" t="s">
         <v>304</v>
       </c>
-      <c r="C99" s="130" t="s">
+      <c r="F101" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="103"/>
+      <c r="B102" s="102" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" s="102" t="s">
+        <v>311</v>
+      </c>
+      <c r="D102" s="101">
+        <v>101</v>
+      </c>
+      <c r="E102" s="117" t="s">
+        <v>312</v>
+      </c>
+      <c r="F102" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="G102" s="100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="122"/>
+      <c r="B103" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="94">
+        <v>102</v>
+      </c>
+      <c r="E103" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G103" s="87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="123"/>
+      <c r="B104" s="123"/>
+      <c r="C104" s="123"/>
+      <c r="D104" s="94">
+        <v>103</v>
+      </c>
+      <c r="E104" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G104" s="87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="123"/>
+      <c r="B105" s="123"/>
+      <c r="C105" s="123"/>
+      <c r="D105" s="94">
+        <v>104</v>
+      </c>
+      <c r="E105" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G105" s="87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="91"/>
+      <c r="B106" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="119">
+        <v>105</v>
+      </c>
+      <c r="E106" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="F106" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="95"/>
+      <c r="B107" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="C107" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="D99" s="108">
-        <v>98</v>
-      </c>
-      <c r="E99" s="107" t="s">
+      <c r="D107" s="119">
+        <v>106</v>
+      </c>
+      <c r="E107" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="F99" s="106" t="s">
+      <c r="F107" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G99" s="106" t="s">
+      <c r="G107" s="92" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="130"/>
-      <c r="B100" s="130"/>
-      <c r="C100" s="130"/>
-      <c r="D100" s="108">
-        <v>99</v>
-      </c>
-      <c r="E100" s="107" t="s">
+    <row r="108" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="95"/>
+      <c r="B108" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="C108" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" s="119">
+        <v>107</v>
+      </c>
+      <c r="E108" s="119" t="s">
+        <v>306</v>
+      </c>
+      <c r="F108" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="95"/>
+      <c r="B109" s="94" t="s">
+        <v>307</v>
+      </c>
+      <c r="C109" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D109" s="119">
+        <v>108</v>
+      </c>
+      <c r="E109" s="119" t="s">
+        <v>307</v>
+      </c>
+      <c r="F109" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G109" s="92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="95"/>
+      <c r="B110" s="94" t="s">
         <v>308</v>
       </c>
-      <c r="F100" s="106" t="s">
+      <c r="C110" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="119">
+        <v>109</v>
+      </c>
+      <c r="E110" s="119" t="s">
+        <v>308</v>
+      </c>
+      <c r="F110" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G100" s="106" t="s">
+      <c r="G110" s="92" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="130"/>
-      <c r="B101" s="130"/>
-      <c r="C101" s="130"/>
-      <c r="D101" s="108">
-        <v>100</v>
-      </c>
-      <c r="E101" s="107" t="s">
+    <row r="111" spans="1:7" s="90" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="95"/>
+      <c r="B111" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="F101" s="106" t="s">
+      <c r="C111" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" s="119">
+        <v>110</v>
+      </c>
+      <c r="E111" s="117" t="s">
+        <v>309</v>
+      </c>
+      <c r="F111" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="106" t="s">
+      <c r="G111" s="92" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="110"/>
-      <c r="B102" s="109" t="s">
-        <v>317</v>
-      </c>
-      <c r="C102" s="109" t="s">
-        <v>316</v>
-      </c>
-      <c r="D102" s="108">
-        <v>101</v>
-      </c>
-      <c r="E102" s="107" t="s">
-        <v>317</v>
-      </c>
-      <c r="F102" s="106" t="s">
+    <row r="112" spans="1:7" s="90" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="98"/>
+      <c r="B112" s="96" t="s">
+        <v>310</v>
+      </c>
+      <c r="C112" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" s="119">
+        <v>111</v>
+      </c>
+      <c r="E112" s="117" t="s">
+        <v>310</v>
+      </c>
+      <c r="F112" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="G102" s="106" t="s">
+      <c r="G112" s="99" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="130"/>
-      <c r="B103" s="130" t="s">
-        <v>306</v>
-      </c>
-      <c r="C103" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="D103" s="100">
-        <v>102</v>
-      </c>
-      <c r="E103" s="107" t="s">
+    <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="121"/>
+      <c r="B113" s="121" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D113" s="119">
+        <v>112</v>
+      </c>
+      <c r="E113" s="117" t="s">
+        <v>340</v>
+      </c>
+      <c r="F113" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="G113" s="107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="121"/>
+      <c r="B114" s="121" t="s">
+        <v>363</v>
+      </c>
+      <c r="C114" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D114" s="119">
+        <v>113</v>
+      </c>
+      <c r="E114" s="117" t="s">
+        <v>340</v>
+      </c>
+      <c r="F114" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="G114" s="117" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="121"/>
+      <c r="B115" s="121" t="s">
+        <v>364</v>
+      </c>
+      <c r="C115" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D115" s="119">
         <v>114</v>
       </c>
-      <c r="F103" s="92" t="s">
+      <c r="E115" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="F115" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="G115" s="107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="121"/>
+      <c r="B116" s="121" t="s">
+        <v>365</v>
+      </c>
+      <c r="C116" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D116" s="119">
+        <v>115</v>
+      </c>
+      <c r="E116" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="F116" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="G116" s="107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="121"/>
+      <c r="B117" s="121" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D117" s="119">
+        <v>116</v>
+      </c>
+      <c r="E117" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="F117" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="G117" s="120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="121"/>
+      <c r="B118" s="121" t="s">
+        <v>367</v>
+      </c>
+      <c r="C118" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D118" s="119">
+        <v>117</v>
+      </c>
+      <c r="E118" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="F118" s="120" t="s">
+        <v>345</v>
+      </c>
+      <c r="G118" s="120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="121"/>
+      <c r="B119" s="121" t="s">
+        <v>368</v>
+      </c>
+      <c r="C119" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D119" s="119">
+        <v>118</v>
+      </c>
+      <c r="E119" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="F119" s="120" t="s">
+        <v>345</v>
+      </c>
+      <c r="G119" s="120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="121"/>
+      <c r="B120" s="121" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D120" s="119">
+        <v>119</v>
+      </c>
+      <c r="E120" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="F120" s="120" t="s">
+        <v>345</v>
+      </c>
+      <c r="G120" s="120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="121"/>
+      <c r="B121" s="121" t="s">
+        <v>370</v>
+      </c>
+      <c r="C121" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D121" s="119">
+        <v>120</v>
+      </c>
+      <c r="E121" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F121" s="107" t="s">
+        <v>346</v>
+      </c>
+      <c r="G121" s="120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="121"/>
+      <c r="B122" s="121" t="s">
+        <v>371</v>
+      </c>
+      <c r="C122" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D122" s="119">
+        <v>121</v>
+      </c>
+      <c r="E122" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F122" s="120" t="s">
+        <v>346</v>
+      </c>
+      <c r="G122" s="120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="121"/>
+      <c r="B123" s="121" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D123" s="119">
+        <v>122</v>
+      </c>
+      <c r="E123" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F123" s="120" t="s">
+        <v>346</v>
+      </c>
+      <c r="G123" s="120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="121"/>
+      <c r="B124" s="121" t="s">
+        <v>373</v>
+      </c>
+      <c r="C124" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D124" s="119">
+        <v>123</v>
+      </c>
+      <c r="E124" s="117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F124" s="120" t="s">
+        <v>346</v>
+      </c>
+      <c r="G124" s="120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="121"/>
+      <c r="B125" s="121" t="s">
+        <v>375</v>
+      </c>
+      <c r="C125" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" s="119">
+        <v>124</v>
+      </c>
+      <c r="E125" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F125" s="120" t="s">
+        <v>347</v>
+      </c>
+      <c r="G125" s="120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="121"/>
+      <c r="B126" s="121" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D126" s="119">
+        <v>125</v>
+      </c>
+      <c r="E126" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F126" s="120" t="s">
+        <v>347</v>
+      </c>
+      <c r="G126" s="120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="121"/>
+      <c r="B127" s="121" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D127" s="119">
+        <v>126</v>
+      </c>
+      <c r="E127" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F127" s="120" t="s">
+        <v>347</v>
+      </c>
+      <c r="G127" s="120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="121"/>
+      <c r="B128" s="121" t="s">
+        <v>374</v>
+      </c>
+      <c r="C128" s="121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D128" s="119">
+        <v>127</v>
+      </c>
+      <c r="E128" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="F128" s="120" t="s">
+        <v>347</v>
+      </c>
+      <c r="G128" s="120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="121"/>
+      <c r="B129" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D129" s="119">
+        <v>128</v>
+      </c>
+      <c r="E129" s="117" t="s">
+        <v>350</v>
+      </c>
+      <c r="F129" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="92" t="s">
+      <c r="G129" s="110">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="121"/>
+      <c r="B130" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C130" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D130" s="119">
+        <v>129</v>
+      </c>
+      <c r="E130" s="117" t="s">
+        <v>355</v>
+      </c>
+      <c r="F130" s="110" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="131"/>
-      <c r="B104" s="131"/>
-      <c r="C104" s="131"/>
-      <c r="D104" s="100">
-        <v>103</v>
-      </c>
-      <c r="E104" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="F104" s="92" t="s">
+      <c r="G130" s="110">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="121"/>
+      <c r="B131" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C131" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D131" s="119">
+        <v>130</v>
+      </c>
+      <c r="E131" s="117" t="s">
+        <v>356</v>
+      </c>
+      <c r="F131" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="G104" s="92" t="s">
+      <c r="G131" s="110">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="121"/>
+      <c r="B132" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D132" s="119">
+        <v>131</v>
+      </c>
+      <c r="E132" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="F132" s="110" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="131"/>
-      <c r="B105" s="131"/>
-      <c r="C105" s="131"/>
-      <c r="D105" s="100">
-        <v>104</v>
-      </c>
-      <c r="E105" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="F105" s="92" t="s">
+      <c r="G132" s="110">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="121"/>
+      <c r="B133" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D133" s="119">
+        <v>132</v>
+      </c>
+      <c r="E133" s="117" t="s">
+        <v>357</v>
+      </c>
+      <c r="F133" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="92" t="s">
+      <c r="G133" s="110">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="121"/>
+      <c r="B134" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C134" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D134" s="119">
+        <v>133</v>
+      </c>
+      <c r="E134" s="117" t="s">
+        <v>353</v>
+      </c>
+      <c r="F134" s="110" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
-      <c r="B106" s="94" t="s">
-        <v>307</v>
-      </c>
-      <c r="C106" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D106" s="100">
-        <v>105</v>
-      </c>
-      <c r="E106" s="94" t="s">
-        <v>307</v>
-      </c>
-      <c r="F106" s="92" t="s">
+      <c r="G134" s="110">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="121"/>
+      <c r="B135" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C135" s="121" t="s">
+        <v>349</v>
+      </c>
+      <c r="D135" s="119">
+        <v>134</v>
+      </c>
+      <c r="E135" s="117" t="s">
+        <v>354</v>
+      </c>
+      <c r="F135" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="G106" s="92" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="101"/>
-      <c r="B107" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="C107" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D107" s="100">
-        <v>106</v>
-      </c>
-      <c r="E107" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="F107" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="G107" s="98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="101"/>
-      <c r="B108" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="C108" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D108" s="100">
-        <v>107</v>
-      </c>
-      <c r="E108" s="100" t="s">
-        <v>311</v>
-      </c>
-      <c r="F108" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="G108" s="98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="101"/>
-      <c r="B109" s="100" t="s">
-        <v>312</v>
-      </c>
-      <c r="C109" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D109" s="100">
-        <v>108</v>
-      </c>
-      <c r="E109" s="100" t="s">
-        <v>312</v>
-      </c>
-      <c r="F109" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="G109" s="98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="101"/>
-      <c r="B110" s="100" t="s">
-        <v>313</v>
-      </c>
-      <c r="C110" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D110" s="100">
-        <v>109</v>
-      </c>
-      <c r="E110" s="100" t="s">
-        <v>313</v>
-      </c>
-      <c r="F110" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="G110" s="98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="96" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="101"/>
-      <c r="B111" s="99" t="s">
-        <v>314</v>
-      </c>
-      <c r="C111" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D111" s="100">
-        <v>110</v>
-      </c>
-      <c r="E111" s="99" t="s">
-        <v>314</v>
-      </c>
-      <c r="F111" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="G111" s="98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="96" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="104"/>
-      <c r="B112" s="102" t="s">
-        <v>315</v>
-      </c>
-      <c r="C112" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="D112" s="103">
-        <v>111</v>
-      </c>
-      <c r="E112" s="102" t="s">
-        <v>315</v>
-      </c>
-      <c r="F112" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="G112" s="105" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="126"/>
-      <c r="B113" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="C113" s="126" t="s">
-        <v>302</v>
-      </c>
-      <c r="D113" s="103">
-        <v>112</v>
-      </c>
-      <c r="E113" s="94" t="s">
-        <v>345</v>
-      </c>
-      <c r="F113" s="116" t="s">
-        <v>348</v>
-      </c>
-      <c r="G113" s="116" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="118"/>
-      <c r="B114" s="118"/>
-      <c r="C114" s="118"/>
-      <c r="D114" s="103">
-        <v>113</v>
-      </c>
-      <c r="E114" s="94" t="s">
-        <v>346</v>
-      </c>
-      <c r="F114" s="116" t="s">
-        <v>349</v>
-      </c>
-      <c r="G114" s="116" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="118"/>
-      <c r="B115" s="118"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="103">
-        <v>114</v>
-      </c>
-      <c r="E115" s="94" t="s">
-        <v>294</v>
-      </c>
-      <c r="F115" s="116" t="s">
-        <v>350</v>
-      </c>
-      <c r="G115" s="116" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="118"/>
-      <c r="B116" s="118"/>
-      <c r="C116" s="118"/>
-      <c r="D116" s="103">
-        <v>115</v>
-      </c>
-      <c r="E116" s="94" t="s">
-        <v>295</v>
-      </c>
-      <c r="F116" s="116" t="s">
-        <v>351</v>
-      </c>
-      <c r="G116" s="116" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="118"/>
-      <c r="B117" s="118"/>
-      <c r="C117" s="118"/>
-      <c r="D117" s="103">
-        <v>116</v>
-      </c>
-      <c r="E117" s="94" t="s">
-        <v>296</v>
-      </c>
-      <c r="F117" s="116" t="s">
-        <v>352</v>
-      </c>
-      <c r="G117" s="116" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="126"/>
-      <c r="B118" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="C118" s="126" t="s">
-        <v>302</v>
-      </c>
-      <c r="D118" s="115">
-        <v>112</v>
-      </c>
-      <c r="E118" s="114" t="s">
-        <v>345</v>
-      </c>
-      <c r="F118" s="116" t="s">
-        <v>348</v>
-      </c>
-      <c r="G118" s="116" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="118"/>
-      <c r="B119" s="118"/>
-      <c r="C119" s="118"/>
-      <c r="D119" s="115">
-        <v>113</v>
-      </c>
-      <c r="E119" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="F119" s="116" t="s">
-        <v>349</v>
-      </c>
-      <c r="G119" s="116" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="118"/>
-      <c r="B120" s="118"/>
-      <c r="C120" s="118"/>
-      <c r="D120" s="115">
-        <v>114</v>
-      </c>
-      <c r="E120" s="114" t="s">
-        <v>294</v>
-      </c>
-      <c r="F120" s="116" t="s">
-        <v>350</v>
-      </c>
-      <c r="G120" s="116" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="118"/>
-      <c r="B121" s="118"/>
-      <c r="C121" s="118"/>
-      <c r="D121" s="115">
-        <v>115</v>
-      </c>
-      <c r="E121" s="114" t="s">
-        <v>295</v>
-      </c>
-      <c r="F121" s="116" t="s">
-        <v>351</v>
-      </c>
-      <c r="G121" s="116" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="118"/>
-      <c r="B122" s="118"/>
-      <c r="C122" s="118"/>
-      <c r="D122" s="115">
-        <v>116</v>
-      </c>
-      <c r="E122" s="114" t="s">
-        <v>296</v>
-      </c>
-      <c r="F122" s="116" t="s">
-        <v>352</v>
-      </c>
-      <c r="G122" s="116" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="133"/>
-      <c r="B123" s="133"/>
-      <c r="C123" s="133"/>
-      <c r="D123" s="134"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="91"/>
-      <c r="G123" s="91"/>
+      <c r="G135" s="109">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="C113:C117"/>
+  <mergeCells count="42">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A103:A105"/>
@@ -6002,34 +6498,8 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -6038,10 +6508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6066,7 +6536,7 @@
       <c r="B2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="71" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6217,7 +6687,7 @@
       <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>186</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -6228,7 +6698,7 @@
       <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="70" t="s">
         <v>242</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -6239,7 +6709,7 @@
       <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="70" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -6250,7 +6720,7 @@
       <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="70" t="s">
         <v>244</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -6261,7 +6731,7 @@
       <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="70" t="s">
         <v>245</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -6272,7 +6742,7 @@
       <c r="A21" s="34">
         <v>19</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="70" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -6283,7 +6753,7 @@
       <c r="A22" s="34">
         <v>20</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="53" t="s">
         <v>187</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -6294,7 +6764,7 @@
       <c r="A23" s="34">
         <v>21</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="53" t="s">
         <v>188</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -6305,7 +6775,7 @@
       <c r="A24" s="34">
         <v>22</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="53" t="s">
         <v>191</v>
       </c>
       <c r="C24" s="35" t="s">
@@ -6316,7 +6786,7 @@
       <c r="A25" s="34">
         <v>23</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="70" t="s">
         <v>253</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -6327,7 +6797,7 @@
       <c r="A26" s="34">
         <v>24</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="70" t="s">
         <v>254</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -6338,7 +6808,7 @@
       <c r="A27" s="34">
         <v>25</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="70" t="s">
         <v>255</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -6349,7 +6819,7 @@
       <c r="A28" s="34">
         <v>26</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="70" t="s">
         <v>256</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -6360,7 +6830,7 @@
       <c r="A29" s="34">
         <v>27</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="70" t="s">
         <v>257</v>
       </c>
       <c r="C29" s="35" t="s">
@@ -6371,7 +6841,7 @@
       <c r="A30" s="34">
         <v>28</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="64" t="s">
         <v>221</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -6382,7 +6852,7 @@
       <c r="A31" s="34">
         <v>29</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="67" t="s">
         <v>236</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -6393,7 +6863,7 @@
       <c r="A32" s="34">
         <v>30</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="67" t="s">
         <v>237</v>
       </c>
       <c r="C32" s="35" t="s">
@@ -6404,7 +6874,7 @@
       <c r="A33" s="34">
         <v>31</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="67" t="s">
         <v>267</v>
       </c>
       <c r="C33" s="35" t="s">
@@ -6415,7 +6885,7 @@
       <c r="A34" s="34">
         <v>32</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="67" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="34" t="s">
@@ -6426,7 +6896,7 @@
       <c r="A35" s="34">
         <v>33</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="67" t="s">
         <v>238</v>
       </c>
       <c r="C35" s="35" t="s">
@@ -6437,7 +6907,7 @@
       <c r="A36" s="34">
         <v>34</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="67" t="s">
         <v>268</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -6448,7 +6918,7 @@
       <c r="A37" s="34">
         <v>35</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="73" t="s">
         <v>263</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -6459,15 +6929,37 @@
       <c r="A38" s="34">
         <v>36</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="73" t="s">
         <v>265</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>266</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>37</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <v>38</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -6546,7 +7038,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="49" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="35" t="s">
@@ -6560,7 +7052,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="49" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="35" t="s">
@@ -6574,7 +7066,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
         <v>175</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -6588,7 +7080,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7101,7 +7593,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="45" type="noConversion"/>
+  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7111,8 +7603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7384,7 +7876,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="116" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="17">
@@ -7564,7 +8056,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="111" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="17">
@@ -7584,7 +8076,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="111" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="17">
@@ -7664,7 +8156,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="89" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="17">
@@ -7804,7 +8296,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="63" t="s">
         <v>178</v>
       </c>
       <c r="B35" s="17">
@@ -7824,7 +8316,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="51" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="17">
@@ -7844,7 +8336,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="50" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="17">
@@ -7864,7 +8356,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="51" t="s">
         <v>182</v>
       </c>
       <c r="B38" s="17">
@@ -7884,7 +8376,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="50" t="s">
         <v>183</v>
       </c>
       <c r="B39" s="17">
@@ -7964,7 +8456,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="50" t="s">
         <v>184</v>
       </c>
       <c r="B43" s="17">
@@ -7984,7 +8476,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="50" t="s">
         <v>185</v>
       </c>
       <c r="B44" s="17">
@@ -8004,7 +8496,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="55" t="s">
         <v>192</v>
       </c>
       <c r="B45" s="17">
@@ -8024,7 +8516,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="55" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="17">
@@ -8044,7 +8536,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="113" t="s">
+      <c r="A47" s="106" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="17">
@@ -8064,8 +8556,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="135" t="s">
-        <v>344</v>
+      <c r="A48" s="108" t="s">
+        <v>339</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -8084,8 +8576,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="112" t="s">
-        <v>343</v>
+      <c r="A49" s="138" t="s">
+        <v>338</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -8104,8 +8596,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="112" t="s">
-        <v>319</v>
+      <c r="A50" s="105" t="s">
+        <v>314</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -8124,8 +8616,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="112" t="s">
-        <v>320</v>
+      <c r="A51" s="105" t="s">
+        <v>315</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
@@ -8144,8 +8636,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="112" t="s">
-        <v>321</v>
+      <c r="A52" s="105" t="s">
+        <v>316</v>
       </c>
       <c r="B52" s="17">
         <v>3</v>
@@ -8164,8 +8656,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="112" t="s">
-        <v>322</v>
+      <c r="A53" s="105" t="s">
+        <v>317</v>
       </c>
       <c r="B53" s="17">
         <v>3</v>
@@ -8184,8 +8676,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="112" t="s">
-        <v>323</v>
+      <c r="A54" s="105" t="s">
+        <v>318</v>
       </c>
       <c r="B54" s="17">
         <v>3</v>
@@ -8204,8 +8696,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="112" t="s">
-        <v>324</v>
+      <c r="A55" s="105" t="s">
+        <v>319</v>
       </c>
       <c r="B55" s="17">
         <v>3</v>
@@ -8224,8 +8716,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="112" t="s">
-        <v>325</v>
+      <c r="A56" s="105" t="s">
+        <v>320</v>
       </c>
       <c r="B56" s="17">
         <v>3</v>
@@ -8244,8 +8736,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="112" t="s">
-        <v>326</v>
+      <c r="A57" s="105" t="s">
+        <v>321</v>
       </c>
       <c r="B57" s="17">
         <v>3</v>
@@ -8264,8 +8756,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="112" t="s">
-        <v>327</v>
+      <c r="A58" s="105" t="s">
+        <v>322</v>
       </c>
       <c r="B58" s="17">
         <v>3</v>
@@ -8284,8 +8776,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="112" t="s">
-        <v>328</v>
+      <c r="A59" s="105" t="s">
+        <v>323</v>
       </c>
       <c r="B59" s="17">
         <v>3</v>
@@ -8304,8 +8796,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="112" t="s">
-        <v>329</v>
+      <c r="A60" s="105" t="s">
+        <v>324</v>
       </c>
       <c r="B60" s="17">
         <v>3</v>
@@ -8324,8 +8816,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="112" t="s">
-        <v>330</v>
+      <c r="A61" s="105" t="s">
+        <v>325</v>
       </c>
       <c r="B61" s="17">
         <v>3</v>
@@ -8344,8 +8836,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="112" t="s">
-        <v>331</v>
+      <c r="A62" s="105" t="s">
+        <v>326</v>
       </c>
       <c r="B62" s="17">
         <v>3</v>
@@ -8364,8 +8856,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="112" t="s">
-        <v>332</v>
+      <c r="A63" s="105" t="s">
+        <v>327</v>
       </c>
       <c r="B63" s="17">
         <v>3</v>
@@ -8384,8 +8876,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="112" t="s">
-        <v>333</v>
+      <c r="A64" s="105" t="s">
+        <v>328</v>
       </c>
       <c r="B64" s="17">
         <v>3</v>
@@ -8404,8 +8896,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="112" t="s">
-        <v>338</v>
+      <c r="A65" s="105" t="s">
+        <v>333</v>
       </c>
       <c r="B65" s="17">
         <v>3</v>
@@ -8424,8 +8916,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="112" t="s">
-        <v>339</v>
+      <c r="A66" s="105" t="s">
+        <v>334</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
@@ -8444,8 +8936,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="112" t="s">
-        <v>334</v>
+      <c r="A67" s="105" t="s">
+        <v>329</v>
       </c>
       <c r="B67" s="17">
         <v>3</v>
@@ -8464,8 +8956,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="112" t="s">
-        <v>335</v>
+      <c r="A68" s="105" t="s">
+        <v>330</v>
       </c>
       <c r="B68" s="17">
         <v>3</v>
@@ -8484,8 +8976,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="112" t="s">
-        <v>336</v>
+      <c r="A69" s="105" t="s">
+        <v>331</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -8504,8 +8996,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="112" t="s">
-        <v>337</v>
+      <c r="A70" s="105" t="s">
+        <v>332</v>
       </c>
       <c r="B70" s="17">
         <v>3</v>
@@ -8524,8 +9016,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="112" t="s">
-        <v>340</v>
+      <c r="A71" s="105" t="s">
+        <v>335</v>
       </c>
       <c r="B71" s="17">
         <v>3</v>
@@ -8544,8 +9036,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="112" t="s">
-        <v>341</v>
+      <c r="A72" s="105" t="s">
+        <v>336</v>
       </c>
       <c r="B72" s="17">
         <v>3</v>
@@ -8564,8 +9056,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="112" t="s">
-        <v>342</v>
+      <c r="A73" s="105" t="s">
+        <v>337</v>
       </c>
       <c r="B73" s="17">
         <v>3</v>
@@ -8584,7 +9076,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="68" t="s">
+      <c r="A74" s="65" t="s">
         <v>225</v>
       </c>
       <c r="B74" s="17">
@@ -8604,7 +9096,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="65" t="s">
         <v>226</v>
       </c>
       <c r="B75" s="17">
@@ -8624,7 +9116,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="65" t="s">
         <v>227</v>
       </c>
       <c r="B76" s="17">
@@ -8644,8 +9136,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="111" t="s">
-        <v>318</v>
+      <c r="A77" s="104" t="s">
+        <v>313</v>
       </c>
       <c r="B77" s="17">
         <v>0</v>
@@ -8684,7 +9176,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8692,273 +9184,872 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="4" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" customWidth="1"/>
-    <col min="19" max="19" width="15.7265625" customWidth="1"/>
-    <col min="20" max="20" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" style="1" customWidth="1"/>
+    <col min="4" max="12" width="13.90625" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" customWidth="1"/>
+    <col min="15" max="15" width="18.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1"/>
+    <col min="18" max="18" width="11.6328125" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" customWidth="1"/>
+    <col min="21" max="21" width="23.36328125" customWidth="1"/>
+    <col min="24" max="24" width="13.54296875" customWidth="1"/>
+    <col min="25" max="25" width="18.90625" customWidth="1"/>
+    <col min="26" max="26" width="15.90625" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" customWidth="1"/>
+    <col min="28" max="28" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="34">
+        <v>23</v>
+      </c>
+      <c r="F1" s="34">
+        <v>22</v>
+      </c>
+      <c r="G1" s="34">
+        <v>21</v>
+      </c>
+      <c r="H1" s="34">
+        <v>20</v>
+      </c>
+      <c r="I1" s="34">
+        <v>19</v>
+      </c>
+      <c r="J1" s="34">
+        <v>18</v>
+      </c>
+      <c r="K1" s="34">
+        <v>17</v>
+      </c>
+      <c r="L1">
+        <v>16</v>
+      </c>
+      <c r="M1">
         <v>15</v>
       </c>
-      <c r="F1">
+      <c r="N1">
         <v>14</v>
       </c>
-      <c r="G1">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="H1">
+      <c r="P1">
         <v>12</v>
       </c>
-      <c r="I1">
-        <v>11</v>
-      </c>
-      <c r="J1">
+      <c r="Q1">
+        <v>11</v>
+      </c>
+      <c r="R1">
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="S1">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="T1">
         <v>8</v>
       </c>
-      <c r="M1">
+      <c r="U1">
         <v>7</v>
       </c>
-      <c r="N1">
+      <c r="V1">
         <v>6</v>
       </c>
-      <c r="O1">
+      <c r="W1">
         <v>5</v>
       </c>
-      <c r="P1">
+      <c r="X1">
         <v>4</v>
       </c>
-      <c r="Q1">
+      <c r="Y1">
         <v>3</v>
       </c>
-      <c r="R1">
+      <c r="Z1">
         <v>2</v>
       </c>
-      <c r="S1">
+      <c r="AA1">
         <v>1</v>
       </c>
-      <c r="T1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AB1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="86" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="O2" s="141" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="P2" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="Q2" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="R2" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="S2" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="T2" s="141" t="s">
         <v>210</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="U2" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="V2" s="141" t="s">
         <v>208</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="W2" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="X2" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Y2" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="Z2" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="AA2" s="141" t="s">
         <v>203</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="AB2" s="141" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="91" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="86" t="s">
         <v>220</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>280</v>
       </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>383</v>
+      </c>
       <c r="I3" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z3" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="R3" t="s">
-        <v>283</v>
-      </c>
-      <c r="S3" t="s">
-        <v>282</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="91" t="s">
-        <v>347</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>301</v>
+      <c r="B6" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>297</v>
       </c>
       <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:28" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="112" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="113"/>
+      <c r="E7" s="140">
+        <v>0</v>
+      </c>
+      <c r="F7" s="113">
+        <v>0</v>
+      </c>
+      <c r="G7" s="113">
+        <v>0</v>
+      </c>
+      <c r="H7" s="113">
+        <v>0</v>
+      </c>
+      <c r="I7" s="140">
+        <v>0</v>
+      </c>
+      <c r="J7" s="113">
+        <v>0</v>
+      </c>
+      <c r="K7" s="113">
+        <v>0</v>
+      </c>
+      <c r="L7" s="113">
+        <v>1</v>
+      </c>
+      <c r="M7" s="139">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="139">
+        <v>0</v>
+      </c>
+      <c r="R7" s="114">
+        <v>0</v>
+      </c>
+      <c r="S7" s="114">
+        <v>0</v>
+      </c>
+      <c r="T7" s="114">
+        <v>0</v>
+      </c>
+      <c r="U7" s="139">
+        <v>0</v>
+      </c>
+      <c r="V7" s="114">
+        <v>0</v>
+      </c>
+      <c r="W7" s="114">
+        <v>0</v>
+      </c>
+      <c r="X7" s="114">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="114">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="114">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>391</v>
+      </c>
       <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="E8" s="140">
+        <v>0</v>
+      </c>
+      <c r="F8" s="113">
+        <v>0</v>
+      </c>
+      <c r="G8" s="113">
+        <v>0</v>
+      </c>
+      <c r="H8" s="113">
+        <v>0</v>
+      </c>
+      <c r="I8" s="140">
+        <v>0</v>
+      </c>
+      <c r="J8" s="113">
+        <v>0</v>
+      </c>
+      <c r="K8" s="113">
+        <v>1</v>
+      </c>
+      <c r="L8" s="113">
+        <v>0</v>
+      </c>
+      <c r="M8" s="139">
+        <v>1</v>
+      </c>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="139">
+        <v>0</v>
+      </c>
+      <c r="R8" s="114">
+        <v>0</v>
+      </c>
+      <c r="S8" s="114">
+        <v>0</v>
+      </c>
+      <c r="T8" s="114">
+        <v>0</v>
+      </c>
+      <c r="U8" s="139">
+        <v>0</v>
+      </c>
+      <c r="V8" s="114">
+        <v>0</v>
+      </c>
+      <c r="W8" s="114">
+        <v>0</v>
+      </c>
+      <c r="X8" s="114">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="139">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="114">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="114">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="18">
+        <v>294947</v>
+      </c>
+      <c r="E9" s="140">
+        <v>0</v>
+      </c>
+      <c r="F9" s="113">
+        <v>0</v>
+      </c>
+      <c r="G9" s="113">
+        <v>0</v>
+      </c>
+      <c r="H9" s="113">
+        <v>0</v>
+      </c>
+      <c r="I9" s="140">
+        <v>0</v>
+      </c>
+      <c r="J9" s="113">
+        <v>1</v>
+      </c>
+      <c r="K9" s="113">
+        <v>0</v>
+      </c>
+      <c r="L9" s="113">
+        <v>0</v>
+      </c>
+      <c r="M9" s="139">
+        <v>1</v>
+      </c>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="139">
+        <v>0</v>
+      </c>
+      <c r="R9" s="114">
+        <v>0</v>
+      </c>
+      <c r="S9" s="114">
+        <v>0</v>
+      </c>
+      <c r="T9" s="114">
+        <v>0</v>
+      </c>
+      <c r="U9" s="139">
+        <v>0</v>
+      </c>
+      <c r="V9" s="114">
+        <v>0</v>
+      </c>
+      <c r="W9" s="114">
+        <v>1</v>
+      </c>
+      <c r="X9" s="114">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="114">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="114">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="18">
+        <v>557315</v>
+      </c>
+      <c r="E10" s="140">
+        <v>0</v>
+      </c>
+      <c r="F10" s="113">
+        <v>0</v>
+      </c>
+      <c r="G10" s="113">
+        <v>0</v>
+      </c>
+      <c r="H10" s="113">
+        <v>0</v>
+      </c>
+      <c r="I10" s="140">
+        <v>1</v>
+      </c>
+      <c r="J10" s="113">
+        <v>0</v>
+      </c>
+      <c r="K10" s="113">
+        <v>0</v>
+      </c>
+      <c r="L10" s="113">
+        <v>0</v>
+      </c>
+      <c r="M10" s="139">
+        <v>1</v>
+      </c>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="139">
+        <v>0</v>
+      </c>
+      <c r="R10" s="114">
+        <v>0</v>
+      </c>
+      <c r="S10" s="114">
+        <v>0</v>
+      </c>
+      <c r="T10" s="114">
+        <v>1</v>
+      </c>
+      <c r="U10" s="139">
+        <v>0</v>
+      </c>
+      <c r="V10" s="114">
+        <v>0</v>
+      </c>
+      <c r="W10" s="114">
+        <v>0</v>
+      </c>
+      <c r="X10" s="114">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="114">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="114">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1081603</v>
+      </c>
+      <c r="E11" s="140">
+        <v>0</v>
+      </c>
+      <c r="F11" s="113">
+        <v>0</v>
+      </c>
+      <c r="G11" s="113">
+        <v>0</v>
+      </c>
+      <c r="H11" s="113">
+        <v>0</v>
+      </c>
+      <c r="I11" s="140">
+        <v>0</v>
+      </c>
+      <c r="J11" s="113">
+        <v>0</v>
+      </c>
+      <c r="K11" s="113">
+        <v>0</v>
+      </c>
+      <c r="L11" s="113">
+        <v>0</v>
+      </c>
+      <c r="M11" s="139">
+        <v>1</v>
+      </c>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="139">
+        <v>0</v>
+      </c>
+      <c r="R11" s="114">
+        <v>0</v>
+      </c>
+      <c r="S11" s="114">
+        <v>0</v>
+      </c>
+      <c r="T11" s="114">
+        <v>0</v>
+      </c>
+      <c r="U11" s="139">
+        <v>0</v>
+      </c>
+      <c r="V11" s="114">
+        <v>0</v>
+      </c>
+      <c r="W11" s="114">
+        <v>0</v>
+      </c>
+      <c r="X11" s="114">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="114">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="114">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="34">
+        <v>2130019</v>
+      </c>
+      <c r="E12" s="140">
+        <v>0</v>
+      </c>
+      <c r="F12" s="113">
+        <v>0</v>
+      </c>
+      <c r="G12" s="113">
+        <v>1</v>
+      </c>
+      <c r="H12" s="113">
+        <v>0</v>
+      </c>
+      <c r="I12" s="140">
+        <v>0</v>
+      </c>
+      <c r="J12" s="113">
+        <v>0</v>
+      </c>
+      <c r="K12" s="113">
+        <v>0</v>
+      </c>
+      <c r="L12" s="113">
+        <v>0</v>
+      </c>
+      <c r="M12" s="139">
+        <v>1</v>
+      </c>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="139">
+        <v>0</v>
+      </c>
+      <c r="R12" s="114">
+        <v>0</v>
+      </c>
+      <c r="S12" s="114">
+        <v>0</v>
+      </c>
+      <c r="T12" s="114">
+        <v>0</v>
+      </c>
+      <c r="U12" s="139">
+        <v>0</v>
+      </c>
+      <c r="V12" s="114">
+        <v>1</v>
+      </c>
+      <c r="W12" s="114">
+        <v>1</v>
+      </c>
+      <c r="X12" s="114">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="114">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="114">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2130947</v>
+      </c>
+      <c r="E13" s="140">
+        <v>0</v>
+      </c>
+      <c r="F13" s="113">
+        <v>0</v>
+      </c>
+      <c r="G13" s="113">
+        <v>0</v>
+      </c>
+      <c r="H13" s="113">
+        <v>0</v>
+      </c>
+      <c r="I13" s="140">
+        <v>0</v>
+      </c>
+      <c r="J13" s="113">
+        <v>0</v>
+      </c>
+      <c r="K13" s="113">
+        <v>0</v>
+      </c>
+      <c r="L13" s="113">
+        <v>0</v>
+      </c>
+      <c r="M13" s="139">
+        <v>1</v>
+      </c>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="139">
+        <v>0</v>
+      </c>
+      <c r="R13" s="114">
+        <v>1</v>
+      </c>
+      <c r="S13" s="114">
+        <v>0</v>
+      </c>
+      <c r="T13" s="114">
+        <v>0</v>
+      </c>
+      <c r="U13" s="139">
+        <v>0</v>
+      </c>
+      <c r="V13" s="114">
+        <v>0</v>
+      </c>
+      <c r="W13" s="114">
+        <v>0</v>
+      </c>
+      <c r="X13" s="114">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="114">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="114">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="114">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="51" type="noConversion"/>
+  <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="402">
   <si>
     <t>组序号</t>
   </si>
@@ -2091,6 +2091,54 @@
   </si>
   <si>
     <t>0x208063</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1绝缘检测</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2绝缘检测</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪绝缘检测控制</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪绝缘检测控制</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0001</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>080B</t>
+    </r>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2103</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1泄放</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2泄放</t>
     <phoneticPr fontId="54" type="noConversion"/>
   </si>
 </sst>
@@ -3141,244 +3189,244 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3739,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView topLeftCell="A52" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3817,7 +3865,7 @@
       <c r="E3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3837,7 +3885,7 @@
       <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="119" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -3860,10 +3908,10 @@
       <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3886,7 +3934,7 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3909,7 +3957,7 @@
       <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3929,10 +3977,10 @@
       <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -3955,7 +4003,7 @@
       <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -3975,10 +4023,10 @@
       <c r="D10" s="20">
         <v>9</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -4001,7 +4049,7 @@
       <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -4021,10 +4069,10 @@
       <c r="D12" s="20">
         <v>11</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -4044,10 +4092,10 @@
       <c r="D13" s="20">
         <v>12</v>
       </c>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -4067,10 +4115,10 @@
       <c r="D14" s="20">
         <v>13</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -4078,20 +4126,20 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="132" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="126" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -4099,16 +4147,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
-      <c r="E16" s="120" t="s">
+      <c r="E16" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -4116,16 +4164,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
-      <c r="E17" s="120" t="s">
+      <c r="E17" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -4133,16 +4181,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
-      <c r="E18" s="120" t="s">
+      <c r="E18" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -4150,16 +4198,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
-      <c r="E19" s="120" t="s">
+      <c r="E19" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -4179,10 +4227,10 @@
       <c r="D20" s="20">
         <v>19</v>
       </c>
-      <c r="E20" s="120" t="s">
+      <c r="E20" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="83" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -4202,10 +4250,10 @@
       <c r="D21" s="20">
         <v>20</v>
       </c>
-      <c r="E21" s="120" t="s">
+      <c r="E21" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="84" t="s">
+      <c r="F21" s="83" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -4213,20 +4261,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="126" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="133" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
-      <c r="E22" s="120" t="s">
+      <c r="E22" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -4234,16 +4282,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
-      <c r="E23" s="120" t="s">
+      <c r="E23" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -4251,16 +4299,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
-      <c r="E24" s="120" t="s">
+      <c r="E24" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -4268,16 +4316,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -4285,16 +4333,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="133"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="118" t="s">
+      <c r="E26" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="84" t="s">
+      <c r="F26" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -4312,10 +4360,10 @@
       <c r="D27" s="20">
         <v>26</v>
       </c>
-      <c r="E27" s="120" t="s">
+      <c r="E27" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -4333,10 +4381,10 @@
       <c r="D28" s="20">
         <v>27</v>
       </c>
-      <c r="E28" s="120" t="s">
+      <c r="E28" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -4344,109 +4392,109 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="137"/>
-      <c r="B29" s="134" t="s">
+      <c r="A29" s="135"/>
+      <c r="B29" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="138" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
         <v>28</v>
       </c>
-      <c r="E29" s="120" t="s">
+      <c r="E29" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="78" t="s">
+      <c r="F29" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="135"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
-      <c r="E30" s="120" t="s">
+      <c r="E30" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="78" t="s">
+      <c r="F30" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
-      <c r="E31" s="120" t="s">
+      <c r="E31" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="78" t="s">
+      <c r="F31" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
-      <c r="E32" s="120" t="s">
+      <c r="E32" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="78" t="s">
+      <c r="F32" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="117" t="s">
+      <c r="E33" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="78" t="s">
+      <c r="F33" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="77" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124" t="s">
+      <c r="A34" s="127"/>
+      <c r="B34" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="127" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
         <v>33</v>
       </c>
-      <c r="E34" s="120" t="s">
+      <c r="E34" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -4454,16 +4502,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
-      <c r="E35" s="120" t="s">
+      <c r="E35" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -4471,20 +4519,20 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="124"/>
-      <c r="B36" s="124" t="s">
+      <c r="A36" s="127"/>
+      <c r="B36" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="132" t="s">
+      <c r="C36" s="126" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
-      <c r="E36" s="120" t="s">
+      <c r="E36" s="119" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="85" t="s">
+      <c r="F36" s="84" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -4492,16 +4540,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
-      <c r="E37" s="120" t="s">
+      <c r="E37" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="4">
@@ -4509,20 +4557,20 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="124"/>
-      <c r="B38" s="131" t="s">
+      <c r="A38" s="127"/>
+      <c r="B38" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="130" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
-      <c r="E38" s="120" t="s">
+      <c r="E38" s="119" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="83" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="8">
@@ -4530,16 +4578,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="124"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
-      <c r="E39" s="120" t="s">
+      <c r="E39" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="4">
@@ -4547,11 +4595,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="124"/>
-      <c r="B40" s="124" t="s">
+      <c r="A40" s="127"/>
+      <c r="B40" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="131" t="s">
+      <c r="C40" s="130" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4560,87 +4608,87 @@
       <c r="E40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="67" t="s">
+      <c r="F40" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="66" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="124"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="127"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="67" t="s">
+      <c r="F41" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="66" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="124"/>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="127"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="67" t="s">
+      <c r="F42" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="66" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="124"/>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="67" t="s">
+      <c r="F43" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="66" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="67" t="s">
+      <c r="F44" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="66" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="124">
+      <c r="A45" s="127">
         <v>13</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124" t="s">
+      <c r="B45" s="127"/>
+      <c r="C45" s="127" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4649,10 +4697,10 @@
       <c r="E45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="67" t="s">
+      <c r="F45" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="66" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4670,10 +4718,10 @@
       <c r="E46" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="84" t="s">
+      <c r="F46" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="66" t="s">
+      <c r="G46" s="65" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4691,7 +4739,7 @@
       <c r="E47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="F47" s="83" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -4700,7 +4748,7 @@
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="71" t="s">
         <v>263</v>
       </c>
       <c r="C48" s="48" t="s">
@@ -4712,7 +4760,7 @@
       <c r="E48" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="84" t="s">
+      <c r="F48" s="83" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -4720,20 +4768,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="129" t="s">
+      <c r="A49" s="141"/>
+      <c r="B49" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="130" t="s">
+      <c r="C49" s="132" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="61" t="s">
+      <c r="E49" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="86" t="s">
+      <c r="F49" s="85" t="s">
         <v>217</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -4741,16 +4789,16 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="124"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="127"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="61" t="s">
+      <c r="E50" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="86" t="s">
+      <c r="F50" s="85" t="s">
         <v>218</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -4758,16 +4806,16 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="124"/>
-      <c r="B51" s="124"/>
-      <c r="C51" s="124"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="127"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="61" t="s">
+      <c r="E51" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="86" t="s">
+      <c r="F51" s="85" t="s">
         <v>219</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -4775,7 +4823,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="60"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="53" t="s">
         <v>186</v>
       </c>
@@ -4788,15 +4836,15 @@
       <c r="E52" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="85" t="s">
+      <c r="F52" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="76">
+      <c r="G52" s="75">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="53" t="s">
         <v>187</v>
       </c>
@@ -4809,10 +4857,10 @@
       <c r="E53" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="74">
+      <c r="F53" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="73">
         <v>4</v>
       </c>
     </row>
@@ -4830,7 +4878,7 @@
       <c r="E54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="83" t="s">
+      <c r="F54" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -4848,10 +4896,10 @@
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="58" t="s">
+      <c r="E55" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="83" t="s">
+      <c r="F55" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -4859,11 +4907,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="126"/>
+      <c r="A56" s="133"/>
       <c r="B56" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="126" t="s">
+      <c r="C56" s="133" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -4872,7 +4920,7 @@
       <c r="E56" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="83" t="s">
+      <c r="F56" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -4880,16 +4928,16 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="127"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
+      <c r="A57" s="129"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="83" t="s">
+      <c r="F57" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="28">
@@ -4897,16 +4945,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="127"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="127"/>
+      <c r="A58" s="129"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="83" t="s">
+      <c r="F58" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="28">
@@ -4914,16 +4962,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="127"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="127"/>
+      <c r="A59" s="129"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="83" t="s">
+      <c r="F59" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="28" t="s">
@@ -4931,16 +4979,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="127"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="127"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="83" t="s">
+      <c r="F60" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="28">
@@ -4948,16 +4996,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="127"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="127"/>
+      <c r="A61" s="129"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="83" t="s">
+      <c r="F61" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="28">
@@ -4965,16 +5013,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="127"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="83" t="s">
+      <c r="F62" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
@@ -4983,7 +5031,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="69" t="s">
+      <c r="B63" s="68" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -4995,7 +5043,7 @@
       <c r="E63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="83" t="s">
+      <c r="F63" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -5004,10 +5052,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="69" t="s">
+      <c r="B64" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="67" t="s">
         <v>241</v>
       </c>
       <c r="D64" s="20">
@@ -5016,7 +5064,7 @@
       <c r="E64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="83" t="s">
+      <c r="F64" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -5024,63 +5072,63 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="125"/>
-      <c r="B65" s="129" t="s">
+      <c r="A65" s="141"/>
+      <c r="B65" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="130" t="s">
+      <c r="C65" s="132" t="s">
         <v>289</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="61" t="s">
+      <c r="E65" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="F65" s="86" t="s">
+      <c r="F65" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="G65" s="59" t="s">
+      <c r="G65" s="58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="124"/>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="127"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="86" t="s">
+      <c r="F66" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="59" t="s">
+      <c r="G66" s="58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="124"/>
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
+      <c r="A67" s="127"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="127"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="86" t="s">
+      <c r="F67" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="G67" s="59" t="s">
+      <c r="G67" s="58" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="53"/>
-      <c r="B68" s="79" t="s">
+      <c r="B68" s="78" t="s">
         <v>188</v>
       </c>
       <c r="C68" s="53" t="s">
@@ -5089,13 +5137,13 @@
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="80" t="s">
+      <c r="E68" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="F68" s="85" t="s">
+      <c r="F68" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="76">
+      <c r="G68" s="75">
         <v>6</v>
       </c>
     </row>
@@ -5113,10 +5161,10 @@
       <c r="E69" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="F69" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="75">
+      <c r="F69" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="74">
         <v>4</v>
       </c>
     </row>
@@ -5134,7 +5182,7 @@
       <c r="E70" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="83" t="s">
+      <c r="F70" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="39" t="s">
@@ -5155,7 +5203,7 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="83" t="s">
+      <c r="F71" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -5163,11 +5211,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="126"/>
+      <c r="A72" s="133"/>
       <c r="B72" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="126" t="s">
+      <c r="C72" s="133" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5176,7 +5224,7 @@
       <c r="E72" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F72" s="83" t="s">
+      <c r="F72" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="37" t="s">
@@ -5184,16 +5232,16 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="127"/>
-      <c r="B73" s="127"/>
-      <c r="C73" s="127"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
       <c r="E73" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="F73" s="83" t="s">
+      <c r="F73" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="38">
@@ -5201,16 +5249,16 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="127"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
       <c r="E74" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="83" t="s">
+      <c r="F74" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="38">
@@ -5218,16 +5266,16 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="127"/>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
+      <c r="A75" s="129"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
       <c r="E75" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="83" t="s">
+      <c r="F75" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="38" t="s">
@@ -5235,16 +5283,16 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="127"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="127"/>
+      <c r="A76" s="129"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="129"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
       <c r="E76" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F76" s="83" t="s">
+      <c r="F76" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="38">
@@ -5252,16 +5300,16 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="127"/>
-      <c r="B77" s="127"/>
-      <c r="C77" s="127"/>
+      <c r="A77" s="129"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="129"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="83" t="s">
+      <c r="F77" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="38">
@@ -5269,16 +5317,16 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="127"/>
-      <c r="B78" s="127"/>
-      <c r="C78" s="127"/>
+      <c r="A78" s="129"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="129"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
       <c r="E78" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="F78" s="83" t="s">
+      <c r="F78" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="38" t="s">
@@ -5299,7 +5347,7 @@
       <c r="E79" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="83" t="s">
+      <c r="F79" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -5308,10 +5356,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="68" t="s">
+      <c r="C80" s="67" t="s">
         <v>241</v>
       </c>
       <c r="D80" s="20">
@@ -5320,7 +5368,7 @@
       <c r="E80" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="83" t="s">
+      <c r="F80" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -5328,11 +5376,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="132"/>
-      <c r="B81" s="132" t="s">
+      <c r="A81" s="126"/>
+      <c r="B81" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="131" t="s">
+      <c r="C81" s="130" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5341,7 +5389,7 @@
       <c r="E81" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F81" s="83" t="s">
+      <c r="F81" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -5349,16 +5397,16 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="124"/>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
+      <c r="A82" s="127"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="127"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="83" t="s">
+      <c r="F82" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -5366,16 +5414,16 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="124"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
+      <c r="A83" s="127"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="83" t="s">
+      <c r="F83" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -5383,16 +5431,16 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="124"/>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
+      <c r="A84" s="127"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="83" t="s">
+      <c r="F84" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -5404,16 +5452,16 @@
       <c r="B85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="61" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="20">
         <v>84</v>
       </c>
-      <c r="E85" s="120" t="s">
+      <c r="E85" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="84" t="s">
+      <c r="F85" s="83" t="s">
         <v>91</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -5431,10 +5479,10 @@
       <c r="D86" s="20">
         <v>85</v>
       </c>
-      <c r="E86" s="120" t="s">
+      <c r="E86" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="83" t="s">
+      <c r="F86" s="82" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -5446,16 +5494,16 @@
       <c r="B87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="65" t="s">
+      <c r="C87" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="D87" s="82">
+      <c r="D87" s="81">
         <v>86</v>
       </c>
-      <c r="E87" s="120" t="s">
+      <c r="E87" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="85" t="s">
+      <c r="F87" s="84" t="s">
         <v>73</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -5470,13 +5518,13 @@
       <c r="C88" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="82">
+      <c r="D88" s="81">
         <v>87</v>
       </c>
-      <c r="E88" s="117" t="s">
+      <c r="E88" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="F88" s="83">
+      <c r="F88" s="82">
         <v>20</v>
       </c>
       <c r="G88" s="31" t="s">
@@ -5491,13 +5539,13 @@
       <c r="C89" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="82">
+      <c r="D89" s="81">
         <v>88</v>
       </c>
-      <c r="E89" s="117" t="s">
+      <c r="E89" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="83">
+      <c r="F89" s="82">
         <v>20</v>
       </c>
       <c r="G89" s="32" t="s">
@@ -5512,13 +5560,13 @@
       <c r="C90" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="82">
+      <c r="D90" s="81">
         <v>89</v>
       </c>
-      <c r="E90" s="117" t="s">
+      <c r="E90" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="F90" s="84">
+      <c r="F90" s="83">
         <v>3</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -5527,961 +5575,935 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="66" t="s">
         <v>236</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="82">
+      <c r="D91" s="81">
         <v>90</v>
       </c>
-      <c r="E91" s="117" t="s">
+      <c r="E91" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="F91" s="84" t="s">
+      <c r="F91" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="67" t="s">
+      <c r="G91" s="66" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="67" t="s">
+      <c r="B92" s="66" t="s">
         <v>237</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="82">
+      <c r="D92" s="81">
         <v>91</v>
       </c>
-      <c r="E92" s="117" t="s">
+      <c r="E92" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="84" t="s">
+      <c r="F92" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="67" t="s">
+      <c r="G92" s="66" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="67" t="s">
+      <c r="B93" s="66" t="s">
         <v>267</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="82">
+      <c r="D93" s="81">
         <v>92</v>
       </c>
-      <c r="E93" s="117" t="s">
+      <c r="E93" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="F93" s="84" t="s">
+      <c r="F93" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="67" t="s">
+      <c r="G93" s="66" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="67" t="s">
+      <c r="B94" s="66" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="82">
+      <c r="D94" s="81">
         <v>93</v>
       </c>
-      <c r="E94" s="117" t="s">
+      <c r="E94" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="F94" s="84" t="s">
+      <c r="F94" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="67" t="s">
+      <c r="G94" s="66" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="67" t="s">
+      <c r="B95" s="66" t="s">
         <v>238</v>
       </c>
       <c r="C95" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="82">
+      <c r="D95" s="81">
         <v>94</v>
       </c>
-      <c r="E95" s="117" t="s">
+      <c r="E95" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="F95" s="84" t="s">
+      <c r="F95" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G95" s="67" t="s">
+      <c r="G95" s="66" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="67" t="s">
+      <c r="B96" s="66" t="s">
         <v>268</v>
       </c>
       <c r="C96" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="82">
+      <c r="D96" s="81">
         <v>95</v>
       </c>
-      <c r="E96" s="117" t="s">
+      <c r="E96" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="F96" s="84" t="s">
+      <c r="F96" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="67" t="s">
+      <c r="G96" s="66" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="82"/>
-      <c r="B97" s="82" t="s">
+      <c r="A97" s="81"/>
+      <c r="B97" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="C97" s="82" t="s">
+      <c r="C97" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="D97" s="82">
+      <c r="D97" s="81">
         <v>96</v>
       </c>
-      <c r="E97" s="117" t="s">
+      <c r="E97" s="116" t="s">
         <v>269</v>
       </c>
-      <c r="F97" s="84" t="s">
+      <c r="F97" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="77" t="s">
+      <c r="G97" s="76" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="82"/>
-      <c r="B98" s="82" t="s">
+      <c r="A98" s="81"/>
+      <c r="B98" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="82" t="s">
+      <c r="C98" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="82">
+      <c r="D98" s="81">
         <v>97</v>
       </c>
-      <c r="E98" s="117" t="s">
+      <c r="E98" s="116" t="s">
         <v>269</v>
       </c>
-      <c r="F98" s="84" t="s">
+      <c r="F98" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="81" t="s">
+      <c r="G98" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="122"/>
-      <c r="B99" s="122" t="s">
+      <c r="A99" s="139"/>
+      <c r="B99" s="139" t="s">
         <v>299</v>
       </c>
-      <c r="C99" s="122" t="s">
+      <c r="C99" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="D99" s="101">
+      <c r="D99" s="100">
         <v>98</v>
       </c>
-      <c r="E99" s="117" t="s">
+      <c r="E99" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="F99" s="100" t="s">
+      <c r="F99" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="G99" s="100" t="s">
+      <c r="G99" s="99" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="122"/>
-      <c r="B100" s="122"/>
-      <c r="C100" s="122"/>
-      <c r="D100" s="101">
+      <c r="A100" s="139"/>
+      <c r="B100" s="139"/>
+      <c r="C100" s="139"/>
+      <c r="D100" s="100">
         <v>99</v>
       </c>
-      <c r="E100" s="117" t="s">
+      <c r="E100" s="116" t="s">
         <v>303</v>
       </c>
-      <c r="F100" s="100" t="s">
+      <c r="F100" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="G100" s="100" t="s">
+      <c r="G100" s="99" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="122"/>
-      <c r="B101" s="122"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="101">
+      <c r="A101" s="139"/>
+      <c r="B101" s="139"/>
+      <c r="C101" s="139"/>
+      <c r="D101" s="100">
         <v>100</v>
       </c>
-      <c r="E101" s="117" t="s">
+      <c r="E101" s="116" t="s">
         <v>304</v>
       </c>
-      <c r="F101" s="100" t="s">
+      <c r="F101" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="100" t="s">
+      <c r="G101" s="99" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="103"/>
-      <c r="B102" s="102" t="s">
+      <c r="A102" s="102"/>
+      <c r="B102" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="102" t="s">
+      <c r="C102" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="D102" s="101">
+      <c r="D102" s="100">
         <v>101</v>
       </c>
-      <c r="E102" s="117" t="s">
+      <c r="E102" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="F102" s="100" t="s">
+      <c r="F102" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="G102" s="100" t="s">
+      <c r="G102" s="99" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="122"/>
-      <c r="B103" s="122" t="s">
+      <c r="A103" s="139"/>
+      <c r="B103" s="139" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="122" t="s">
+      <c r="C103" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="94">
+      <c r="D103" s="93">
         <v>102</v>
       </c>
-      <c r="E103" s="117" t="s">
+      <c r="E103" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="F103" s="87" t="s">
+      <c r="F103" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="87" t="s">
+      <c r="G103" s="86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="123"/>
-      <c r="B104" s="123"/>
-      <c r="C104" s="123"/>
-      <c r="D104" s="94">
+      <c r="A104" s="140"/>
+      <c r="B104" s="140"/>
+      <c r="C104" s="140"/>
+      <c r="D104" s="93">
         <v>103</v>
       </c>
-      <c r="E104" s="118" t="s">
+      <c r="E104" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="87" t="s">
+      <c r="F104" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="G104" s="87" t="s">
+      <c r="G104" s="86" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="123"/>
-      <c r="B105" s="123"/>
-      <c r="C105" s="123"/>
-      <c r="D105" s="94">
+      <c r="A105" s="140"/>
+      <c r="B105" s="140"/>
+      <c r="C105" s="140"/>
+      <c r="D105" s="93">
         <v>104</v>
       </c>
-      <c r="E105" s="118" t="s">
+      <c r="E105" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F105" s="87" t="s">
+      <c r="F105" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="87" t="s">
+      <c r="G105" s="86" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="91"/>
-      <c r="B106" s="88" t="s">
+    <row r="106" spans="1:7" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="90"/>
+      <c r="B106" s="87" t="s">
         <v>302</v>
       </c>
-      <c r="C106" s="82" t="s">
+      <c r="C106" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="D106" s="119">
+      <c r="D106" s="118">
         <v>105</v>
       </c>
-      <c r="E106" s="117" t="s">
+      <c r="E106" s="116" t="s">
         <v>302</v>
       </c>
-      <c r="F106" s="87" t="s">
+      <c r="F106" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="G106" s="87" t="s">
+      <c r="G106" s="86" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="95"/>
-      <c r="B107" s="94" t="s">
+    <row r="107" spans="1:7" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="94"/>
+      <c r="B107" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="C107" s="94" t="s">
+      <c r="C107" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D107" s="119">
+      <c r="D107" s="118">
         <v>106</v>
       </c>
-      <c r="E107" s="119" t="s">
+      <c r="E107" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="F107" s="92" t="s">
+      <c r="F107" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G107" s="92" t="s">
+      <c r="G107" s="91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="95"/>
-      <c r="B108" s="94" t="s">
+    <row r="108" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="94"/>
+      <c r="B108" s="93" t="s">
         <v>306</v>
       </c>
-      <c r="C108" s="94" t="s">
+      <c r="C108" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D108" s="119">
+      <c r="D108" s="118">
         <v>107</v>
       </c>
-      <c r="E108" s="119" t="s">
+      <c r="E108" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="F108" s="92" t="s">
+      <c r="F108" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G108" s="92" t="s">
+      <c r="G108" s="91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="95"/>
-      <c r="B109" s="94" t="s">
+    <row r="109" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="94"/>
+      <c r="B109" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="C109" s="94" t="s">
+      <c r="C109" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D109" s="119">
+      <c r="D109" s="118">
         <v>108</v>
       </c>
-      <c r="E109" s="119" t="s">
+      <c r="E109" s="118" t="s">
         <v>307</v>
       </c>
-      <c r="F109" s="92" t="s">
+      <c r="F109" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="92" t="s">
+      <c r="G109" s="91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="95"/>
-      <c r="B110" s="94" t="s">
+    <row r="110" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="94"/>
+      <c r="B110" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="C110" s="94" t="s">
+      <c r="C110" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="119">
+      <c r="D110" s="118">
         <v>109</v>
       </c>
-      <c r="E110" s="119" t="s">
+      <c r="E110" s="118" t="s">
         <v>308</v>
       </c>
-      <c r="F110" s="92" t="s">
+      <c r="F110" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G110" s="92" t="s">
+      <c r="G110" s="91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="90" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="95"/>
-      <c r="B111" s="93" t="s">
+    <row r="111" spans="1:7" s="89" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="94"/>
+      <c r="B111" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="C111" s="94" t="s">
+      <c r="C111" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="119">
+      <c r="D111" s="118">
         <v>110</v>
       </c>
-      <c r="E111" s="117" t="s">
+      <c r="E111" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="F111" s="92" t="s">
+      <c r="F111" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G111" s="92" t="s">
+      <c r="G111" s="91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="90" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="98"/>
-      <c r="B112" s="96" t="s">
+    <row r="112" spans="1:7" s="89" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="97"/>
+      <c r="B112" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="97" t="s">
+      <c r="C112" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D112" s="119">
+      <c r="D112" s="118">
         <v>111</v>
       </c>
-      <c r="E112" s="117" t="s">
+      <c r="E112" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="F112" s="99" t="s">
+      <c r="F112" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G112" s="99" t="s">
+      <c r="G112" s="98" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="121"/>
-      <c r="B113" s="121" t="s">
+      <c r="A113" s="120"/>
+      <c r="B113" s="120" t="s">
         <v>362</v>
       </c>
-      <c r="C113" s="121" t="s">
+      <c r="C113" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D113" s="119">
+      <c r="D113" s="118">
         <v>112</v>
       </c>
-      <c r="E113" s="117" t="s">
+      <c r="E113" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="F113" s="107" t="s">
+      <c r="F113" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="G113" s="107" t="s">
+      <c r="G113" s="106" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="121"/>
-      <c r="B114" s="121" t="s">
+      <c r="A114" s="120"/>
+      <c r="B114" s="120" t="s">
         <v>363</v>
       </c>
-      <c r="C114" s="121" t="s">
+      <c r="C114" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D114" s="119">
+      <c r="D114" s="118">
         <v>113</v>
       </c>
-      <c r="E114" s="117" t="s">
+      <c r="E114" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="F114" s="120" t="s">
+      <c r="F114" s="119" t="s">
         <v>343</v>
       </c>
-      <c r="G114" s="117" t="s">
+      <c r="G114" s="116" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="121"/>
-      <c r="B115" s="121" t="s">
+      <c r="A115" s="120"/>
+      <c r="B115" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="C115" s="121" t="s">
+      <c r="C115" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D115" s="119">
+      <c r="D115" s="118">
         <v>114</v>
       </c>
-      <c r="E115" s="117" t="s">
+      <c r="E115" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="F115" s="107" t="s">
+      <c r="F115" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="G115" s="107" t="s">
+      <c r="G115" s="106" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="121"/>
-      <c r="B116" s="121" t="s">
+      <c r="A116" s="120"/>
+      <c r="B116" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="C116" s="121" t="s">
+      <c r="C116" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D116" s="119">
+      <c r="D116" s="118">
         <v>115</v>
       </c>
-      <c r="E116" s="117" t="s">
+      <c r="E116" s="116" t="s">
         <v>341</v>
       </c>
-      <c r="F116" s="107" t="s">
+      <c r="F116" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="G116" s="107" t="s">
+      <c r="G116" s="106" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="121"/>
-      <c r="B117" s="121" t="s">
+      <c r="A117" s="120"/>
+      <c r="B117" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="121" t="s">
+      <c r="C117" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D117" s="119">
+      <c r="D117" s="118">
         <v>116</v>
       </c>
-      <c r="E117" s="117" t="s">
+      <c r="E117" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="F117" s="107" t="s">
+      <c r="F117" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="G117" s="120" t="s">
+      <c r="G117" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="121"/>
-      <c r="B118" s="121" t="s">
+      <c r="A118" s="120"/>
+      <c r="B118" s="120" t="s">
         <v>367</v>
       </c>
-      <c r="C118" s="121" t="s">
+      <c r="C118" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D118" s="119">
+      <c r="D118" s="118">
         <v>117</v>
       </c>
-      <c r="E118" s="117" t="s">
+      <c r="E118" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="F118" s="120" t="s">
+      <c r="F118" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="G118" s="120" t="s">
+      <c r="G118" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="121"/>
-      <c r="B119" s="121" t="s">
+      <c r="A119" s="120"/>
+      <c r="B119" s="120" t="s">
         <v>368</v>
       </c>
-      <c r="C119" s="121" t="s">
+      <c r="C119" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D119" s="119">
+      <c r="D119" s="118">
         <v>118</v>
       </c>
-      <c r="E119" s="117" t="s">
+      <c r="E119" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="F119" s="120" t="s">
+      <c r="F119" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="G119" s="120" t="s">
+      <c r="G119" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="121"/>
-      <c r="B120" s="121" t="s">
+      <c r="A120" s="120"/>
+      <c r="B120" s="120" t="s">
         <v>369</v>
       </c>
-      <c r="C120" s="121" t="s">
+      <c r="C120" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D120" s="119">
+      <c r="D120" s="118">
         <v>119</v>
       </c>
-      <c r="E120" s="117" t="s">
+      <c r="E120" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="F120" s="120" t="s">
+      <c r="F120" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="G120" s="120" t="s">
+      <c r="G120" s="119" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="121"/>
-      <c r="B121" s="121" t="s">
+      <c r="A121" s="120"/>
+      <c r="B121" s="120" t="s">
         <v>370</v>
       </c>
-      <c r="C121" s="121" t="s">
+      <c r="C121" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D121" s="119">
+      <c r="D121" s="118">
         <v>120</v>
       </c>
-      <c r="E121" s="117" t="s">
+      <c r="E121" s="116" t="s">
         <v>291</v>
       </c>
-      <c r="F121" s="107" t="s">
+      <c r="F121" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="G121" s="120" t="s">
+      <c r="G121" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="121"/>
-      <c r="B122" s="121" t="s">
+      <c r="A122" s="120"/>
+      <c r="B122" s="120" t="s">
         <v>371</v>
       </c>
-      <c r="C122" s="121" t="s">
+      <c r="C122" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D122" s="119">
+      <c r="D122" s="118">
         <v>121</v>
       </c>
-      <c r="E122" s="117" t="s">
+      <c r="E122" s="116" t="s">
         <v>291</v>
       </c>
-      <c r="F122" s="120" t="s">
+      <c r="F122" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="G122" s="120" t="s">
+      <c r="G122" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="121"/>
-      <c r="B123" s="121" t="s">
+      <c r="A123" s="120"/>
+      <c r="B123" s="120" t="s">
         <v>372</v>
       </c>
-      <c r="C123" s="121" t="s">
+      <c r="C123" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D123" s="119">
+      <c r="D123" s="118">
         <v>122</v>
       </c>
-      <c r="E123" s="117" t="s">
+      <c r="E123" s="116" t="s">
         <v>291</v>
       </c>
-      <c r="F123" s="120" t="s">
+      <c r="F123" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="G123" s="120" t="s">
+      <c r="G123" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="121"/>
-      <c r="B124" s="121" t="s">
+      <c r="A124" s="120"/>
+      <c r="B124" s="120" t="s">
         <v>373</v>
       </c>
-      <c r="C124" s="121" t="s">
+      <c r="C124" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D124" s="119">
+      <c r="D124" s="118">
         <v>123</v>
       </c>
-      <c r="E124" s="117" t="s">
+      <c r="E124" s="116" t="s">
         <v>291</v>
       </c>
-      <c r="F124" s="120" t="s">
+      <c r="F124" s="119" t="s">
         <v>346</v>
       </c>
-      <c r="G124" s="120" t="s">
+      <c r="G124" s="119" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="121"/>
-      <c r="B125" s="121" t="s">
+      <c r="A125" s="120"/>
+      <c r="B125" s="120" t="s">
         <v>375</v>
       </c>
-      <c r="C125" s="121" t="s">
+      <c r="C125" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D125" s="119">
+      <c r="D125" s="118">
         <v>124</v>
       </c>
-      <c r="E125" s="117" t="s">
+      <c r="E125" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="F125" s="120" t="s">
+      <c r="F125" s="119" t="s">
         <v>347</v>
       </c>
-      <c r="G125" s="120" t="s">
+      <c r="G125" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="121"/>
-      <c r="B126" s="121" t="s">
+      <c r="A126" s="120"/>
+      <c r="B126" s="120" t="s">
         <v>376</v>
       </c>
-      <c r="C126" s="121" t="s">
+      <c r="C126" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D126" s="119">
+      <c r="D126" s="118">
         <v>125</v>
       </c>
-      <c r="E126" s="117" t="s">
+      <c r="E126" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="F126" s="120" t="s">
+      <c r="F126" s="119" t="s">
         <v>347</v>
       </c>
-      <c r="G126" s="120" t="s">
+      <c r="G126" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="121"/>
-      <c r="B127" s="121" t="s">
+      <c r="A127" s="120"/>
+      <c r="B127" s="120" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="121" t="s">
+      <c r="C127" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D127" s="119">
+      <c r="D127" s="118">
         <v>126</v>
       </c>
-      <c r="E127" s="117" t="s">
+      <c r="E127" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="F127" s="120" t="s">
+      <c r="F127" s="119" t="s">
         <v>347</v>
       </c>
-      <c r="G127" s="120" t="s">
+      <c r="G127" s="119" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="121"/>
-      <c r="B128" s="121" t="s">
+      <c r="A128" s="120"/>
+      <c r="B128" s="120" t="s">
         <v>374</v>
       </c>
-      <c r="C128" s="121" t="s">
+      <c r="C128" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="D128" s="119">
+      <c r="D128" s="118">
         <v>127</v>
       </c>
-      <c r="E128" s="117" t="s">
+      <c r="E128" s="116" t="s">
         <v>292</v>
       </c>
-      <c r="F128" s="120" t="s">
+      <c r="F128" s="119" t="s">
         <v>347</v>
       </c>
-      <c r="G128" s="120" t="s">
+      <c r="G128" s="119" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="121"/>
-      <c r="B129" s="121" t="s">
+      <c r="A129" s="120"/>
+      <c r="B129" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="C129" s="121" t="s">
+      <c r="C129" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="D129" s="119">
+      <c r="D129" s="118">
         <v>128</v>
       </c>
-      <c r="E129" s="117" t="s">
+      <c r="E129" s="116" t="s">
         <v>350</v>
       </c>
-      <c r="F129" s="110" t="s">
+      <c r="F129" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="G129" s="110">
+      <c r="G129" s="109">
         <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="121"/>
-      <c r="B130" s="121" t="s">
+      <c r="A130" s="120"/>
+      <c r="B130" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="C130" s="121" t="s">
+      <c r="C130" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="D130" s="119">
+      <c r="D130" s="118">
         <v>129</v>
       </c>
-      <c r="E130" s="117" t="s">
+      <c r="E130" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="F130" s="110" t="s">
+      <c r="F130" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="G130" s="110">
+      <c r="G130" s="109">
         <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="121"/>
-      <c r="B131" s="121" t="s">
+      <c r="A131" s="120"/>
+      <c r="B131" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="C131" s="121" t="s">
+      <c r="C131" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="D131" s="119">
+      <c r="D131" s="118">
         <v>130</v>
       </c>
-      <c r="E131" s="117" t="s">
+      <c r="E131" s="116" t="s">
         <v>356</v>
       </c>
-      <c r="F131" s="110" t="s">
+      <c r="F131" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="G131" s="110">
+      <c r="G131" s="109">
         <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="121"/>
-      <c r="B132" s="121" t="s">
+      <c r="A132" s="120"/>
+      <c r="B132" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="C132" s="121" t="s">
+      <c r="C132" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="D132" s="119">
+      <c r="D132" s="118">
         <v>131</v>
       </c>
-      <c r="E132" s="117" t="s">
+      <c r="E132" s="116" t="s">
         <v>352</v>
       </c>
-      <c r="F132" s="110" t="s">
+      <c r="F132" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="G132" s="110">
+      <c r="G132" s="109">
         <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="121"/>
-      <c r="B133" s="121" t="s">
+      <c r="A133" s="120"/>
+      <c r="B133" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="C133" s="121" t="s">
+      <c r="C133" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="D133" s="119">
+      <c r="D133" s="118">
         <v>132</v>
       </c>
-      <c r="E133" s="117" t="s">
+      <c r="E133" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="F133" s="110" t="s">
+      <c r="F133" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="G133" s="110">
+      <c r="G133" s="109">
         <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="121"/>
-      <c r="B134" s="121" t="s">
+      <c r="A134" s="120"/>
+      <c r="B134" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="C134" s="121" t="s">
+      <c r="C134" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="D134" s="119">
+      <c r="D134" s="118">
         <v>133</v>
       </c>
-      <c r="E134" s="117" t="s">
+      <c r="E134" s="116" t="s">
         <v>353</v>
       </c>
-      <c r="F134" s="110" t="s">
+      <c r="F134" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="G134" s="110">
+      <c r="G134" s="109">
         <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="121"/>
-      <c r="B135" s="121" t="s">
+      <c r="A135" s="120"/>
+      <c r="B135" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="C135" s="121" t="s">
+      <c r="C135" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="D135" s="119">
+      <c r="D135" s="118">
         <v>134</v>
       </c>
-      <c r="E135" s="117" t="s">
+      <c r="E135" s="116" t="s">
         <v>354</v>
       </c>
-      <c r="F135" s="110" t="s">
+      <c r="F135" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="G135" s="109">
+      <c r="G135" s="108">
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A103:A105"/>
@@ -6498,6 +6520,32 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6536,7 +6584,7 @@
       <c r="B2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6698,7 +6746,7 @@
       <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>242</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -6709,7 +6757,7 @@
       <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="69" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -6720,7 +6768,7 @@
       <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>244</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -6731,7 +6779,7 @@
       <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="69" t="s">
         <v>245</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -6742,7 +6790,7 @@
       <c r="A21" s="34">
         <v>19</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="69" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -6786,7 +6834,7 @@
       <c r="A25" s="34">
         <v>23</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="69" t="s">
         <v>253</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -6797,7 +6845,7 @@
       <c r="A26" s="34">
         <v>24</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="69" t="s">
         <v>254</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -6808,7 +6856,7 @@
       <c r="A27" s="34">
         <v>25</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="69" t="s">
         <v>255</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -6819,7 +6867,7 @@
       <c r="A28" s="34">
         <v>26</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="69" t="s">
         <v>256</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -6830,7 +6878,7 @@
       <c r="A29" s="34">
         <v>27</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="69" t="s">
         <v>257</v>
       </c>
       <c r="C29" s="35" t="s">
@@ -6841,7 +6889,7 @@
       <c r="A30" s="34">
         <v>28</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -6852,7 +6900,7 @@
       <c r="A31" s="34">
         <v>29</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="66" t="s">
         <v>236</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -6863,7 +6911,7 @@
       <c r="A32" s="34">
         <v>30</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="66" t="s">
         <v>237</v>
       </c>
       <c r="C32" s="35" t="s">
@@ -6874,7 +6922,7 @@
       <c r="A33" s="34">
         <v>31</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="66" t="s">
         <v>267</v>
       </c>
       <c r="C33" s="35" t="s">
@@ -6885,7 +6933,7 @@
       <c r="A34" s="34">
         <v>32</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="66" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="34" t="s">
@@ -6896,7 +6944,7 @@
       <c r="A35" s="34">
         <v>33</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="66" t="s">
         <v>238</v>
       </c>
       <c r="C35" s="35" t="s">
@@ -6907,7 +6955,7 @@
       <c r="A36" s="34">
         <v>34</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="66" t="s">
         <v>268</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -6918,7 +6966,7 @@
       <c r="A37" s="34">
         <v>35</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="72" t="s">
         <v>263</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -6929,7 +6977,7 @@
       <c r="A38" s="34">
         <v>36</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="72" t="s">
         <v>265</v>
       </c>
       <c r="C38" s="35" t="s">
@@ -6940,7 +6988,7 @@
       <c r="A39" s="34">
         <v>37</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="72" t="s">
         <v>358</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -6951,7 +6999,7 @@
       <c r="A40" s="34">
         <v>38</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="72" t="s">
         <v>359</v>
       </c>
       <c r="C40" s="35" t="s">
@@ -7876,7 +7924,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="115" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="17">
@@ -8056,7 +8104,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="110" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="17">
@@ -8076,7 +8124,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="110" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="17">
@@ -8156,7 +8204,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="88" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="17">
@@ -8296,7 +8344,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="62" t="s">
         <v>178</v>
       </c>
       <c r="B35" s="17">
@@ -8536,7 +8584,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="105" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="17">
@@ -8556,7 +8604,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="107" t="s">
         <v>339</v>
       </c>
       <c r="B48" s="17">
@@ -8576,7 +8624,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="121" t="s">
         <v>338</v>
       </c>
       <c r="B49" s="17">
@@ -8596,7 +8644,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="105" t="s">
+      <c r="A50" s="104" t="s">
         <v>314</v>
       </c>
       <c r="B50" s="17">
@@ -8616,7 +8664,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="104" t="s">
         <v>315</v>
       </c>
       <c r="B51" s="17">
@@ -8636,7 +8684,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="105" t="s">
+      <c r="A52" s="104" t="s">
         <v>316</v>
       </c>
       <c r="B52" s="17">
@@ -8656,7 +8704,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="105" t="s">
+      <c r="A53" s="104" t="s">
         <v>317</v>
       </c>
       <c r="B53" s="17">
@@ -8676,7 +8724,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="105" t="s">
+      <c r="A54" s="104" t="s">
         <v>318</v>
       </c>
       <c r="B54" s="17">
@@ -8696,7 +8744,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="105" t="s">
+      <c r="A55" s="104" t="s">
         <v>319</v>
       </c>
       <c r="B55" s="17">
@@ -8716,7 +8764,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="105" t="s">
+      <c r="A56" s="104" t="s">
         <v>320</v>
       </c>
       <c r="B56" s="17">
@@ -8736,7 +8784,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="105" t="s">
+      <c r="A57" s="104" t="s">
         <v>321</v>
       </c>
       <c r="B57" s="17">
@@ -8756,7 +8804,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="104" t="s">
         <v>322</v>
       </c>
       <c r="B58" s="17">
@@ -8776,7 +8824,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="105" t="s">
+      <c r="A59" s="104" t="s">
         <v>323</v>
       </c>
       <c r="B59" s="17">
@@ -8796,7 +8844,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="105" t="s">
+      <c r="A60" s="104" t="s">
         <v>324</v>
       </c>
       <c r="B60" s="17">
@@ -8816,7 +8864,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="105" t="s">
+      <c r="A61" s="104" t="s">
         <v>325</v>
       </c>
       <c r="B61" s="17">
@@ -8836,7 +8884,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="105" t="s">
+      <c r="A62" s="104" t="s">
         <v>326</v>
       </c>
       <c r="B62" s="17">
@@ -8856,7 +8904,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="105" t="s">
+      <c r="A63" s="104" t="s">
         <v>327</v>
       </c>
       <c r="B63" s="17">
@@ -8876,7 +8924,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="105" t="s">
+      <c r="A64" s="104" t="s">
         <v>328</v>
       </c>
       <c r="B64" s="17">
@@ -8896,7 +8944,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="105" t="s">
+      <c r="A65" s="104" t="s">
         <v>333</v>
       </c>
       <c r="B65" s="17">
@@ -8916,7 +8964,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="105" t="s">
+      <c r="A66" s="104" t="s">
         <v>334</v>
       </c>
       <c r="B66" s="17">
@@ -8936,7 +8984,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="105" t="s">
+      <c r="A67" s="104" t="s">
         <v>329</v>
       </c>
       <c r="B67" s="17">
@@ -8956,7 +9004,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="105" t="s">
+      <c r="A68" s="104" t="s">
         <v>330</v>
       </c>
       <c r="B68" s="17">
@@ -8976,7 +9024,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="105" t="s">
+      <c r="A69" s="104" t="s">
         <v>331</v>
       </c>
       <c r="B69" s="17">
@@ -8996,7 +9044,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="105" t="s">
+      <c r="A70" s="104" t="s">
         <v>332</v>
       </c>
       <c r="B70" s="17">
@@ -9016,7 +9064,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="105" t="s">
+      <c r="A71" s="104" t="s">
         <v>335</v>
       </c>
       <c r="B71" s="17">
@@ -9036,7 +9084,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="105" t="s">
+      <c r="A72" s="104" t="s">
         <v>336</v>
       </c>
       <c r="B72" s="17">
@@ -9056,7 +9104,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="105" t="s">
+      <c r="A73" s="104" t="s">
         <v>337</v>
       </c>
       <c r="B73" s="17">
@@ -9076,7 +9124,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="64" t="s">
         <v>225</v>
       </c>
       <c r="B74" s="17">
@@ -9096,7 +9144,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="64" t="s">
         <v>226</v>
       </c>
       <c r="B75" s="17">
@@ -9116,7 +9164,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="65" t="s">
+      <c r="A76" s="64" t="s">
         <v>227</v>
       </c>
       <c r="B76" s="17">
@@ -9136,7 +9184,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="104" t="s">
+      <c r="A77" s="103" t="s">
         <v>313</v>
       </c>
       <c r="B77" s="17">
@@ -9184,10 +9232,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9300,67 +9348,67 @@
       <c r="A2" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="85" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="141" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="124" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="141" t="s">
+      <c r="O2" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="P2" s="141" t="s">
+      <c r="P2" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" s="141" t="s">
+      <c r="Q2" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="R2" s="141" t="s">
+      <c r="R2" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="S2" s="141" t="s">
+      <c r="S2" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="T2" s="141" t="s">
+      <c r="T2" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="U2" s="141" t="s">
+      <c r="U2" s="124" t="s">
         <v>209</v>
       </c>
-      <c r="V2" s="141" t="s">
+      <c r="V2" s="124" t="s">
         <v>208</v>
       </c>
-      <c r="W2" s="141" t="s">
+      <c r="W2" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="X2" s="141" t="s">
+      <c r="X2" s="124" t="s">
         <v>206</v>
       </c>
-      <c r="Y2" s="141" t="s">
+      <c r="Y2" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="Z2" s="141" t="s">
+      <c r="Z2" s="124" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="141" t="s">
+      <c r="AA2" s="124" t="s">
         <v>203</v>
       </c>
-      <c r="AB2" s="141" t="s">
+      <c r="AB2" s="124" t="s">
         <v>202</v>
       </c>
     </row>
@@ -9368,10 +9416,10 @@
       <c r="A3" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="85" t="s">
         <v>220</v>
       </c>
       <c r="D3" s="34" t="s">
@@ -9400,7 +9448,12 @@
       <c r="M3" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="Q3" s="34"/>
+      <c r="O3" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>395</v>
+      </c>
       <c r="R3" s="34" t="s">
         <v>211</v>
       </c>
@@ -9439,10 +9492,10 @@
       <c r="A4" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="85" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="85" t="s">
         <v>295</v>
       </c>
       <c r="D4" s="18"/>
@@ -9459,10 +9512,10 @@
       <c r="A5" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="18"/>
@@ -9479,10 +9532,10 @@
       <c r="A6" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>297</v>
       </c>
       <c r="D6" s="18"/>
@@ -9495,78 +9548,78 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:28" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
+    <row r="7" spans="1:28" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="114" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="140">
-        <v>0</v>
-      </c>
-      <c r="F7" s="113">
-        <v>0</v>
-      </c>
-      <c r="G7" s="113">
-        <v>0</v>
-      </c>
-      <c r="H7" s="113">
-        <v>0</v>
-      </c>
-      <c r="I7" s="140">
-        <v>0</v>
-      </c>
-      <c r="J7" s="113">
-        <v>0</v>
-      </c>
-      <c r="K7" s="113">
-        <v>0</v>
-      </c>
-      <c r="L7" s="113">
-        <v>1</v>
-      </c>
-      <c r="M7" s="139">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="139">
-        <v>0</v>
-      </c>
-      <c r="R7" s="114">
-        <v>0</v>
-      </c>
-      <c r="S7" s="114">
-        <v>0</v>
-      </c>
-      <c r="T7" s="114">
-        <v>0</v>
-      </c>
-      <c r="U7" s="139">
-        <v>0</v>
-      </c>
-      <c r="V7" s="114">
-        <v>0</v>
-      </c>
-      <c r="W7" s="114">
-        <v>0</v>
-      </c>
-      <c r="X7" s="114">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="139">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="114">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="114">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="114">
+      <c r="D7" s="112"/>
+      <c r="E7" s="123">
+        <v>0</v>
+      </c>
+      <c r="F7" s="112">
+        <v>0</v>
+      </c>
+      <c r="G7" s="112">
+        <v>0</v>
+      </c>
+      <c r="H7" s="112">
+        <v>0</v>
+      </c>
+      <c r="I7" s="123">
+        <v>0</v>
+      </c>
+      <c r="J7" s="112">
+        <v>0</v>
+      </c>
+      <c r="K7" s="112">
+        <v>0</v>
+      </c>
+      <c r="L7" s="112">
+        <v>1</v>
+      </c>
+      <c r="M7" s="122">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="122">
+        <v>0</v>
+      </c>
+      <c r="R7" s="113">
+        <v>0</v>
+      </c>
+      <c r="S7" s="113">
+        <v>0</v>
+      </c>
+      <c r="T7" s="113">
+        <v>0</v>
+      </c>
+      <c r="U7" s="122">
+        <v>0</v>
+      </c>
+      <c r="V7" s="113">
+        <v>0</v>
+      </c>
+      <c r="W7" s="113">
+        <v>0</v>
+      </c>
+      <c r="X7" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="122">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="113">
         <v>1</v>
       </c>
     </row>
@@ -9574,77 +9627,77 @@
       <c r="A8" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>391</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="140">
-        <v>0</v>
-      </c>
-      <c r="F8" s="113">
-        <v>0</v>
-      </c>
-      <c r="G8" s="113">
-        <v>0</v>
-      </c>
-      <c r="H8" s="113">
-        <v>0</v>
-      </c>
-      <c r="I8" s="140">
-        <v>0</v>
-      </c>
-      <c r="J8" s="113">
-        <v>0</v>
-      </c>
-      <c r="K8" s="113">
-        <v>1</v>
-      </c>
-      <c r="L8" s="113">
-        <v>0</v>
-      </c>
-      <c r="M8" s="139">
-        <v>1</v>
-      </c>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="139">
-        <v>0</v>
-      </c>
-      <c r="R8" s="114">
-        <v>0</v>
-      </c>
-      <c r="S8" s="114">
-        <v>0</v>
-      </c>
-      <c r="T8" s="114">
-        <v>0</v>
-      </c>
-      <c r="U8" s="139">
-        <v>0</v>
-      </c>
-      <c r="V8" s="114">
-        <v>0</v>
-      </c>
-      <c r="W8" s="114">
-        <v>0</v>
-      </c>
-      <c r="X8" s="114">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="139">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="114">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="114">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="114">
+      <c r="E8" s="123">
+        <v>0</v>
+      </c>
+      <c r="F8" s="112">
+        <v>0</v>
+      </c>
+      <c r="G8" s="112">
+        <v>0</v>
+      </c>
+      <c r="H8" s="112">
+        <v>0</v>
+      </c>
+      <c r="I8" s="123">
+        <v>0</v>
+      </c>
+      <c r="J8" s="112">
+        <v>0</v>
+      </c>
+      <c r="K8" s="112">
+        <v>1</v>
+      </c>
+      <c r="L8" s="112">
+        <v>0</v>
+      </c>
+      <c r="M8" s="122">
+        <v>1</v>
+      </c>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="122">
+        <v>0</v>
+      </c>
+      <c r="R8" s="113">
+        <v>0</v>
+      </c>
+      <c r="S8" s="113">
+        <v>0</v>
+      </c>
+      <c r="T8" s="113">
+        <v>0</v>
+      </c>
+      <c r="U8" s="122">
+        <v>0</v>
+      </c>
+      <c r="V8" s="113">
+        <v>0</v>
+      </c>
+      <c r="W8" s="113">
+        <v>0</v>
+      </c>
+      <c r="X8" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="122">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="113">
         <v>1</v>
       </c>
     </row>
@@ -9652,79 +9705,79 @@
       <c r="A9" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>389</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
       </c>
-      <c r="E9" s="140">
-        <v>0</v>
-      </c>
-      <c r="F9" s="113">
-        <v>0</v>
-      </c>
-      <c r="G9" s="113">
-        <v>0</v>
-      </c>
-      <c r="H9" s="113">
-        <v>0</v>
-      </c>
-      <c r="I9" s="140">
-        <v>0</v>
-      </c>
-      <c r="J9" s="113">
-        <v>1</v>
-      </c>
-      <c r="K9" s="113">
-        <v>0</v>
-      </c>
-      <c r="L9" s="113">
-        <v>0</v>
-      </c>
-      <c r="M9" s="139">
-        <v>1</v>
-      </c>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="139">
-        <v>0</v>
-      </c>
-      <c r="R9" s="114">
-        <v>0</v>
-      </c>
-      <c r="S9" s="114">
-        <v>0</v>
-      </c>
-      <c r="T9" s="114">
-        <v>0</v>
-      </c>
-      <c r="U9" s="139">
-        <v>0</v>
-      </c>
-      <c r="V9" s="114">
-        <v>0</v>
-      </c>
-      <c r="W9" s="114">
-        <v>1</v>
-      </c>
-      <c r="X9" s="114">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="114">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="114">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="114">
+      <c r="E9" s="123">
+        <v>0</v>
+      </c>
+      <c r="F9" s="112">
+        <v>0</v>
+      </c>
+      <c r="G9" s="112">
+        <v>0</v>
+      </c>
+      <c r="H9" s="112">
+        <v>0</v>
+      </c>
+      <c r="I9" s="123">
+        <v>0</v>
+      </c>
+      <c r="J9" s="112">
+        <v>1</v>
+      </c>
+      <c r="K9" s="112">
+        <v>0</v>
+      </c>
+      <c r="L9" s="112">
+        <v>0</v>
+      </c>
+      <c r="M9" s="122">
+        <v>1</v>
+      </c>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="122">
+        <v>0</v>
+      </c>
+      <c r="R9" s="113">
+        <v>0</v>
+      </c>
+      <c r="S9" s="113">
+        <v>0</v>
+      </c>
+      <c r="T9" s="113">
+        <v>0</v>
+      </c>
+      <c r="U9" s="122">
+        <v>0</v>
+      </c>
+      <c r="V9" s="113">
+        <v>0</v>
+      </c>
+      <c r="W9" s="113">
+        <v>1</v>
+      </c>
+      <c r="X9" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="113">
         <v>1</v>
       </c>
     </row>
@@ -9732,79 +9785,79 @@
       <c r="A10" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="85" t="s">
         <v>386</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
       </c>
-      <c r="E10" s="140">
-        <v>0</v>
-      </c>
-      <c r="F10" s="113">
-        <v>0</v>
-      </c>
-      <c r="G10" s="113">
-        <v>0</v>
-      </c>
-      <c r="H10" s="113">
-        <v>0</v>
-      </c>
-      <c r="I10" s="140">
-        <v>1</v>
-      </c>
-      <c r="J10" s="113">
-        <v>0</v>
-      </c>
-      <c r="K10" s="113">
-        <v>0</v>
-      </c>
-      <c r="L10" s="113">
-        <v>0</v>
-      </c>
-      <c r="M10" s="139">
-        <v>1</v>
-      </c>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="139">
-        <v>0</v>
-      </c>
-      <c r="R10" s="114">
-        <v>0</v>
-      </c>
-      <c r="S10" s="114">
-        <v>0</v>
-      </c>
-      <c r="T10" s="114">
-        <v>1</v>
-      </c>
-      <c r="U10" s="139">
-        <v>0</v>
-      </c>
-      <c r="V10" s="114">
-        <v>0</v>
-      </c>
-      <c r="W10" s="114">
-        <v>0</v>
-      </c>
-      <c r="X10" s="114">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="114">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="114">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="114">
+      <c r="E10" s="123">
+        <v>0</v>
+      </c>
+      <c r="F10" s="112">
+        <v>0</v>
+      </c>
+      <c r="G10" s="112">
+        <v>0</v>
+      </c>
+      <c r="H10" s="112">
+        <v>0</v>
+      </c>
+      <c r="I10" s="123">
+        <v>1</v>
+      </c>
+      <c r="J10" s="112">
+        <v>0</v>
+      </c>
+      <c r="K10" s="112">
+        <v>0</v>
+      </c>
+      <c r="L10" s="112">
+        <v>0</v>
+      </c>
+      <c r="M10" s="122">
+        <v>1</v>
+      </c>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="122">
+        <v>0</v>
+      </c>
+      <c r="R10" s="113">
+        <v>0</v>
+      </c>
+      <c r="S10" s="113">
+        <v>0</v>
+      </c>
+      <c r="T10" s="113">
+        <v>1</v>
+      </c>
+      <c r="U10" s="122">
+        <v>0</v>
+      </c>
+      <c r="V10" s="113">
+        <v>0</v>
+      </c>
+      <c r="W10" s="113">
+        <v>0</v>
+      </c>
+      <c r="X10" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="113">
         <v>1</v>
       </c>
     </row>
@@ -9812,79 +9865,79 @@
       <c r="A11" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="85" t="s">
         <v>387</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
       </c>
-      <c r="E11" s="140">
-        <v>0</v>
-      </c>
-      <c r="F11" s="113">
-        <v>0</v>
-      </c>
-      <c r="G11" s="113">
-        <v>0</v>
-      </c>
-      <c r="H11" s="113">
-        <v>0</v>
-      </c>
-      <c r="I11" s="140">
-        <v>0</v>
-      </c>
-      <c r="J11" s="113">
-        <v>0</v>
-      </c>
-      <c r="K11" s="113">
-        <v>0</v>
-      </c>
-      <c r="L11" s="113">
-        <v>0</v>
-      </c>
-      <c r="M11" s="139">
-        <v>1</v>
-      </c>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="139">
-        <v>0</v>
-      </c>
-      <c r="R11" s="114">
-        <v>0</v>
-      </c>
-      <c r="S11" s="114">
-        <v>0</v>
-      </c>
-      <c r="T11" s="114">
-        <v>0</v>
-      </c>
-      <c r="U11" s="139">
-        <v>0</v>
-      </c>
-      <c r="V11" s="114">
-        <v>0</v>
-      </c>
-      <c r="W11" s="114">
-        <v>0</v>
-      </c>
-      <c r="X11" s="114">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="114">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="114">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="114">
+      <c r="E11" s="123">
+        <v>0</v>
+      </c>
+      <c r="F11" s="112">
+        <v>0</v>
+      </c>
+      <c r="G11" s="112">
+        <v>0</v>
+      </c>
+      <c r="H11" s="112">
+        <v>0</v>
+      </c>
+      <c r="I11" s="123">
+        <v>0</v>
+      </c>
+      <c r="J11" s="112">
+        <v>0</v>
+      </c>
+      <c r="K11" s="112">
+        <v>0</v>
+      </c>
+      <c r="L11" s="112">
+        <v>0</v>
+      </c>
+      <c r="M11" s="122">
+        <v>1</v>
+      </c>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="122">
+        <v>0</v>
+      </c>
+      <c r="R11" s="113">
+        <v>0</v>
+      </c>
+      <c r="S11" s="113">
+        <v>0</v>
+      </c>
+      <c r="T11" s="113">
+        <v>0</v>
+      </c>
+      <c r="U11" s="122">
+        <v>0</v>
+      </c>
+      <c r="V11" s="113">
+        <v>0</v>
+      </c>
+      <c r="W11" s="113">
+        <v>0</v>
+      </c>
+      <c r="X11" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="113">
         <v>1</v>
       </c>
     </row>
@@ -9892,79 +9945,79 @@
       <c r="A12" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="114" t="s">
         <v>392</v>
       </c>
       <c r="D12" s="34">
         <v>2130019</v>
       </c>
-      <c r="E12" s="140">
-        <v>0</v>
-      </c>
-      <c r="F12" s="113">
-        <v>0</v>
-      </c>
-      <c r="G12" s="113">
-        <v>1</v>
-      </c>
-      <c r="H12" s="113">
-        <v>0</v>
-      </c>
-      <c r="I12" s="140">
-        <v>0</v>
-      </c>
-      <c r="J12" s="113">
-        <v>0</v>
-      </c>
-      <c r="K12" s="113">
-        <v>0</v>
-      </c>
-      <c r="L12" s="113">
-        <v>0</v>
-      </c>
-      <c r="M12" s="139">
-        <v>1</v>
-      </c>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="139">
-        <v>0</v>
-      </c>
-      <c r="R12" s="114">
-        <v>0</v>
-      </c>
-      <c r="S12" s="114">
-        <v>0</v>
-      </c>
-      <c r="T12" s="114">
-        <v>0</v>
-      </c>
-      <c r="U12" s="139">
-        <v>0</v>
-      </c>
-      <c r="V12" s="114">
-        <v>1</v>
-      </c>
-      <c r="W12" s="114">
-        <v>1</v>
-      </c>
-      <c r="X12" s="114">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="114">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="114">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="114">
+      <c r="E12" s="123">
+        <v>0</v>
+      </c>
+      <c r="F12" s="112">
+        <v>0</v>
+      </c>
+      <c r="G12" s="112">
+        <v>1</v>
+      </c>
+      <c r="H12" s="112">
+        <v>0</v>
+      </c>
+      <c r="I12" s="123">
+        <v>0</v>
+      </c>
+      <c r="J12" s="112">
+        <v>0</v>
+      </c>
+      <c r="K12" s="112">
+        <v>0</v>
+      </c>
+      <c r="L12" s="112">
+        <v>0</v>
+      </c>
+      <c r="M12" s="122">
+        <v>1</v>
+      </c>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="122">
+        <v>0</v>
+      </c>
+      <c r="R12" s="113">
+        <v>0</v>
+      </c>
+      <c r="S12" s="113">
+        <v>0</v>
+      </c>
+      <c r="T12" s="113">
+        <v>0</v>
+      </c>
+      <c r="U12" s="122">
+        <v>0</v>
+      </c>
+      <c r="V12" s="113">
+        <v>1</v>
+      </c>
+      <c r="W12" s="113">
+        <v>1</v>
+      </c>
+      <c r="X12" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="113">
         <v>1</v>
       </c>
     </row>
@@ -9972,79 +10025,403 @@
       <c r="A13" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="114" t="s">
         <v>385</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="114" t="s">
         <v>388</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
       </c>
-      <c r="E13" s="140">
-        <v>0</v>
-      </c>
-      <c r="F13" s="113">
-        <v>0</v>
-      </c>
-      <c r="G13" s="113">
-        <v>0</v>
-      </c>
-      <c r="H13" s="113">
-        <v>0</v>
-      </c>
-      <c r="I13" s="140">
-        <v>0</v>
-      </c>
-      <c r="J13" s="113">
-        <v>0</v>
-      </c>
-      <c r="K13" s="113">
-        <v>0</v>
-      </c>
-      <c r="L13" s="113">
-        <v>0</v>
-      </c>
-      <c r="M13" s="139">
-        <v>1</v>
-      </c>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="139">
-        <v>0</v>
-      </c>
-      <c r="R13" s="114">
-        <v>1</v>
-      </c>
-      <c r="S13" s="114">
-        <v>0</v>
-      </c>
-      <c r="T13" s="114">
-        <v>0</v>
-      </c>
-      <c r="U13" s="139">
-        <v>0</v>
-      </c>
-      <c r="V13" s="114">
-        <v>0</v>
-      </c>
-      <c r="W13" s="114">
-        <v>0</v>
-      </c>
-      <c r="X13" s="114">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="114">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="114">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="114">
+      <c r="E13" s="123">
+        <v>0</v>
+      </c>
+      <c r="F13" s="112">
+        <v>0</v>
+      </c>
+      <c r="G13" s="112">
+        <v>0</v>
+      </c>
+      <c r="H13" s="112">
+        <v>0</v>
+      </c>
+      <c r="I13" s="123">
+        <v>0</v>
+      </c>
+      <c r="J13" s="112">
+        <v>0</v>
+      </c>
+      <c r="K13" s="112">
+        <v>0</v>
+      </c>
+      <c r="L13" s="112">
+        <v>0</v>
+      </c>
+      <c r="M13" s="122">
+        <v>1</v>
+      </c>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="122">
+        <v>0</v>
+      </c>
+      <c r="R13" s="113">
+        <v>1</v>
+      </c>
+      <c r="S13" s="113">
+        <v>0</v>
+      </c>
+      <c r="T13" s="113">
+        <v>0</v>
+      </c>
+      <c r="U13" s="122">
+        <v>0</v>
+      </c>
+      <c r="V13" s="113">
+        <v>0</v>
+      </c>
+      <c r="W13" s="113">
+        <v>0</v>
+      </c>
+      <c r="X13" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" s="114" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>398</v>
+      </c>
+      <c r="D14" s="34">
+        <v>2059</v>
+      </c>
+      <c r="E14" s="123">
+        <v>0</v>
+      </c>
+      <c r="F14" s="112">
+        <v>0</v>
+      </c>
+      <c r="G14" s="112">
+        <v>1</v>
+      </c>
+      <c r="H14" s="112">
+        <v>0</v>
+      </c>
+      <c r="I14" s="123">
+        <v>0</v>
+      </c>
+      <c r="J14" s="112">
+        <v>0</v>
+      </c>
+      <c r="K14" s="112">
+        <v>0</v>
+      </c>
+      <c r="L14" s="112">
+        <v>0</v>
+      </c>
+      <c r="M14" s="122">
+        <v>0</v>
+      </c>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="122">
+        <v>1</v>
+      </c>
+      <c r="R14" s="113">
+        <v>0</v>
+      </c>
+      <c r="S14" s="113">
+        <v>0</v>
+      </c>
+      <c r="T14" s="113">
+        <v>0</v>
+      </c>
+      <c r="U14" s="122">
+        <v>0</v>
+      </c>
+      <c r="V14" s="113">
+        <v>0</v>
+      </c>
+      <c r="W14" s="113">
+        <v>0</v>
+      </c>
+      <c r="X14" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="34">
+        <v>8451</v>
+      </c>
+      <c r="E15" s="123">
+        <v>0</v>
+      </c>
+      <c r="F15" s="112">
+        <v>0</v>
+      </c>
+      <c r="G15" s="112">
+        <v>0</v>
+      </c>
+      <c r="H15" s="112">
+        <v>0</v>
+      </c>
+      <c r="I15" s="123">
+        <v>0</v>
+      </c>
+      <c r="J15" s="112">
+        <v>0</v>
+      </c>
+      <c r="K15" s="112">
+        <v>0</v>
+      </c>
+      <c r="L15" s="112">
+        <v>0</v>
+      </c>
+      <c r="M15" s="122">
+        <v>1</v>
+      </c>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113">
+        <v>1</v>
+      </c>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="122">
+        <v>0</v>
+      </c>
+      <c r="R15" s="113">
+        <v>0</v>
+      </c>
+      <c r="S15" s="113">
+        <v>0</v>
+      </c>
+      <c r="T15" s="113">
+        <v>1</v>
+      </c>
+      <c r="U15" s="122">
+        <v>0</v>
+      </c>
+      <c r="V15" s="113">
+        <v>0</v>
+      </c>
+      <c r="W15" s="113">
+        <v>0</v>
+      </c>
+      <c r="X15" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="114" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="34">
+        <v>2059</v>
+      </c>
+      <c r="E16" s="123">
+        <v>0</v>
+      </c>
+      <c r="F16" s="112">
+        <v>0</v>
+      </c>
+      <c r="G16" s="112">
+        <v>1</v>
+      </c>
+      <c r="H16" s="112">
+        <v>0</v>
+      </c>
+      <c r="I16" s="123">
+        <v>0</v>
+      </c>
+      <c r="J16" s="112">
+        <v>0</v>
+      </c>
+      <c r="K16" s="112">
+        <v>0</v>
+      </c>
+      <c r="L16" s="112">
+        <v>0</v>
+      </c>
+      <c r="M16" s="122">
+        <v>0</v>
+      </c>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="122">
+        <v>1</v>
+      </c>
+      <c r="R16" s="113">
+        <v>0</v>
+      </c>
+      <c r="S16" s="113">
+        <v>0</v>
+      </c>
+      <c r="T16" s="113">
+        <v>0</v>
+      </c>
+      <c r="U16" s="122">
+        <v>0</v>
+      </c>
+      <c r="V16" s="113">
+        <v>0</v>
+      </c>
+      <c r="W16" s="113">
+        <v>0</v>
+      </c>
+      <c r="X16" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="114" t="s">
+        <v>397</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="D17" s="34">
+        <v>8451</v>
+      </c>
+      <c r="E17" s="123">
+        <v>0</v>
+      </c>
+      <c r="F17" s="112">
+        <v>0</v>
+      </c>
+      <c r="G17" s="112">
+        <v>0</v>
+      </c>
+      <c r="H17" s="112">
+        <v>0</v>
+      </c>
+      <c r="I17" s="123">
+        <v>0</v>
+      </c>
+      <c r="J17" s="112">
+        <v>0</v>
+      </c>
+      <c r="K17" s="112">
+        <v>0</v>
+      </c>
+      <c r="L17" s="112">
+        <v>0</v>
+      </c>
+      <c r="M17" s="122">
+        <v>1</v>
+      </c>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113">
+        <v>1</v>
+      </c>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="122">
+        <v>0</v>
+      </c>
+      <c r="R17" s="113">
+        <v>0</v>
+      </c>
+      <c r="S17" s="113">
+        <v>0</v>
+      </c>
+      <c r="T17" s="113">
+        <v>1</v>
+      </c>
+      <c r="U17" s="122">
+        <v>0</v>
+      </c>
+      <c r="V17" s="113">
+        <v>0</v>
+      </c>
+      <c r="W17" s="113">
+        <v>0</v>
+      </c>
+      <c r="X17" s="113">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="113">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="113">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="113">
         <v>1</v>
       </c>
     </row>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="409">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,71 +422,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -502,27 +502,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -538,7 +538,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,230 +554,230 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -793,158 +793,158 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -977,7 +977,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1010,7 +1010,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1036,7 +1036,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1062,7 +1062,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1088,7 +1088,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1114,15 +1114,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1144,7 +1144,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1160,7 +1160,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1176,7 +1176,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1192,7 +1192,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1208,11 +1208,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1228,7 +1228,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1244,15 +1244,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1268,111 +1268,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1388,87 +1388,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1484,31 +1484,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1524,43 +1524,43 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1576,7 +1576,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1592,18 +1592,18 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1619,7 +1619,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1635,11 +1635,11 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1655,7 +1655,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1671,43 +1671,43 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1723,95 +1723,95 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>sim卡采集</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>sim卡编号采集</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>设备信息</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>显示板号</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>直流挡板</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>看门狗插片</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>显示盖板</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>CtrlBoxSet</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1K2控制</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3K4控制</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪K5K6控制</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>K7K8控制</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1K2控制</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3K4控制</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪K9K10控制</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
@@ -1839,279 +1839,275 @@
   </si>
   <si>
     <t>1枪K1反馈</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2反馈</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1反馈</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2反馈</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>KM1反馈</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>KM2反馈</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>K5K6反馈</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>K9K10反馈</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>K7K8反馈</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>KM控制</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>电源模块</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>PowerModule</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>电源模块4</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>电源模块2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>电源模块3</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>电源模块5</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K5_K7_K9</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K6_K8_K10</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>断开K5,K7,K9,闭合K6,K8,K10</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>断开K6,K8,K10,闭合K5,K7,K9</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2闭合</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2断开</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2闭合</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2断开</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6闭合</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6断开</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6闭合</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6断开</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8闭合</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8断开</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8闭合</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8断开</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10断开</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10闭合</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10断开</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10闭合</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块控制</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块1</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块2</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块3</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块4</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块5</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块6</t>
-    <phoneticPr fontId="54" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x010001</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x208403</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x048023</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x208063</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测控制</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测控制</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2127,31 +2123,106 @@
       </rPr>
       <t>080B</t>
     </r>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>0x2103</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>枪1泄放</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>枪2泄放</t>
-    <phoneticPr fontId="54" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭合交流接触器</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开交流接触器</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IBO</t>
+    </r>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开交流接触器</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0003</t>
+    </r>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0001</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x010003</t>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2896,515 +2967,521 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3413,20 +3490,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3785,17 +3853,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
     <col min="2" max="2" width="34.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="57.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
@@ -3833,7 +3901,7 @@
       <c r="B2" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="20">
@@ -3856,7 +3924,7 @@
       <c r="B3" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="20">
@@ -3865,7 +3933,7 @@
       <c r="E3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3879,13 +3947,13 @@
       <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="119" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="112" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -3902,16 +3970,16 @@
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="119" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3925,7 +3993,7 @@
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="20">
@@ -3934,7 +4002,7 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3948,7 +4016,7 @@
       <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="20">
@@ -3957,7 +4025,7 @@
       <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3971,16 +4039,16 @@
       <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -3994,7 +4062,7 @@
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20">
@@ -4003,7 +4071,7 @@
       <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -4017,16 +4085,16 @@
       <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20">
         <v>9</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -4040,7 +4108,7 @@
       <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="20">
@@ -4049,7 +4117,7 @@
       <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -4063,16 +4131,16 @@
       <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="20">
         <v>11</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -4086,16 +4154,16 @@
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="20">
         <v>12</v>
       </c>
-      <c r="E13" s="119" t="s">
+      <c r="E13" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -4109,16 +4177,16 @@
       <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="20">
         <v>13</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -4126,20 +4194,20 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126" t="s">
+      <c r="A15" s="135"/>
+      <c r="B15" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="135" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -4153,10 +4221,10 @@
       <c r="D16" s="20">
         <v>15</v>
       </c>
-      <c r="E16" s="119" t="s">
+      <c r="E16" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -4170,10 +4238,10 @@
       <c r="D17" s="20">
         <v>16</v>
       </c>
-      <c r="E17" s="119" t="s">
+      <c r="E17" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -4187,10 +4255,10 @@
       <c r="D18" s="20">
         <v>17</v>
       </c>
-      <c r="E18" s="119" t="s">
+      <c r="E18" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -4204,10 +4272,10 @@
       <c r="D19" s="20">
         <v>18</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -4221,16 +4289,16 @@
       <c r="B20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="119" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="20">
         <v>19</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="83" t="s">
+      <c r="F20" s="77" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -4244,16 +4312,16 @@
       <c r="B21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="119" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="20">
         <v>20</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="77" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -4261,20 +4329,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
-      <c r="B22" s="133" t="s">
+      <c r="A22" s="129"/>
+      <c r="B22" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="129" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="82" t="s">
+      <c r="F22" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -4282,16 +4350,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="129"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="82" t="s">
+      <c r="F23" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -4299,16 +4367,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
-      <c r="E24" s="119" t="s">
+      <c r="E24" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="F24" s="77" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -4316,16 +4384,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="117" t="s">
+      <c r="E25" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -4333,16 +4401,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="134"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="117" t="s">
+      <c r="E26" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="F26" s="77" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -4354,16 +4422,16 @@
       <c r="B27" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="119" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="20">
         <v>26</v>
       </c>
-      <c r="E27" s="119" t="s">
+      <c r="E27" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="82" t="s">
+      <c r="F27" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -4375,16 +4443,16 @@
       <c r="B28" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="119" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="20">
         <v>27</v>
       </c>
-      <c r="E28" s="119" t="s">
+      <c r="E28" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="82" t="s">
+      <c r="F28" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -4392,91 +4460,91 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="135"/>
-      <c r="B29" s="138" t="s">
+      <c r="A29" s="140"/>
+      <c r="B29" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="138" t="s">
+      <c r="C29" s="137" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
         <v>28</v>
       </c>
-      <c r="E29" s="119" t="s">
+      <c r="E29" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="77" t="s">
+      <c r="F29" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
-      <c r="E30" s="119" t="s">
+      <c r="E30" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="77" t="s">
+      <c r="F30" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="136"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
-      <c r="E31" s="119" t="s">
+      <c r="E31" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="77" t="s">
+      <c r="F31" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
+      <c r="A32" s="138"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
-      <c r="E32" s="119" t="s">
+      <c r="E32" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="77" t="s">
+      <c r="F32" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="116" t="s">
+      <c r="E33" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="77" t="s">
+      <c r="F33" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="71" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4491,10 +4559,10 @@
       <c r="D34" s="20">
         <v>33</v>
       </c>
-      <c r="E34" s="119" t="s">
+      <c r="E34" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="82" t="s">
+      <c r="F34" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -4508,10 +4576,10 @@
       <c r="D35" s="20">
         <v>34</v>
       </c>
-      <c r="E35" s="119" t="s">
+      <c r="E35" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="82" t="s">
+      <c r="F35" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -4523,16 +4591,16 @@
       <c r="B36" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="135" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
-      <c r="E36" s="119" t="s">
+      <c r="E36" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="78" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -4546,10 +4614,10 @@
       <c r="D37" s="20">
         <v>36</v>
       </c>
-      <c r="E37" s="119" t="s">
+      <c r="E37" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="82" t="s">
+      <c r="F37" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="4">
@@ -4558,19 +4626,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="127"/>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="130" t="s">
+      <c r="C38" s="134" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
-      <c r="E38" s="119" t="s">
+      <c r="E38" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="83" t="s">
+      <c r="F38" s="77" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="8">
@@ -4584,10 +4652,10 @@
       <c r="D39" s="20">
         <v>38</v>
       </c>
-      <c r="E39" s="119" t="s">
+      <c r="E39" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="82" t="s">
+      <c r="F39" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="4">
@@ -4599,7 +4667,7 @@
       <c r="B40" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="130" t="s">
+      <c r="C40" s="134" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4608,10 +4676,10 @@
       <c r="E40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="66" t="s">
+      <c r="F40" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="60" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4625,10 +4693,10 @@
       <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="66" t="s">
+      <c r="F41" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="60" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4642,10 +4710,10 @@
       <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="66" t="s">
+      <c r="F42" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="60" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4659,10 +4727,10 @@
       <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="66" t="s">
+      <c r="F43" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="60" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4676,10 +4744,10 @@
       <c r="E44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="66" t="s">
+      <c r="F44" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="60" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4697,10 +4765,10 @@
       <c r="E45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="66" t="s">
+      <c r="F45" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="60" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4709,7 +4777,7 @@
       <c r="B46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="121" t="s">
         <v>167</v>
       </c>
       <c r="D46" s="20">
@@ -4718,10 +4786,10 @@
       <c r="E46" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="83" t="s">
+      <c r="F46" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="65" t="s">
+      <c r="G46" s="59" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4730,7 +4798,7 @@
       <c r="B47" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="119" t="s">
         <v>76</v>
       </c>
       <c r="D47" s="20">
@@ -4739,7 +4807,7 @@
       <c r="E47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="83" t="s">
+      <c r="F47" s="77" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -4748,10 +4816,10 @@
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="121" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="20">
@@ -4760,7 +4828,7 @@
       <c r="E48" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="83" t="s">
+      <c r="F48" s="77" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -4768,20 +4836,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="141"/>
-      <c r="B49" s="131" t="s">
+      <c r="A49" s="128"/>
+      <c r="B49" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="132" t="s">
+      <c r="C49" s="133" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="85" t="s">
+      <c r="F49" s="79" t="s">
         <v>217</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -4795,10 +4863,10 @@
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F50" s="79" t="s">
         <v>218</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -4812,10 +4880,10 @@
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="85" t="s">
+      <c r="F51" s="79" t="s">
         <v>219</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -4823,53 +4891,53 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="54"/>
+      <c r="B52" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="119" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="84" t="s">
+      <c r="F52" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="75">
+      <c r="G52" s="69">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="121" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="20">
         <v>52</v>
       </c>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="73">
+      <c r="F53" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="67">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="119" t="s">
         <v>129</v>
       </c>
       <c r="D54" s="20">
@@ -4878,7 +4946,7 @@
       <c r="E54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="82" t="s">
+      <c r="F54" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -4887,19 +4955,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="121" t="s">
         <v>130</v>
       </c>
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="142" t="s">
+      <c r="E55" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="82" t="s">
+      <c r="F55" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -4907,11 +4975,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="133"/>
-      <c r="B56" s="128" t="s">
+      <c r="A56" s="129"/>
+      <c r="B56" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="133" t="s">
+      <c r="C56" s="129" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -4920,7 +4988,7 @@
       <c r="E56" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="82" t="s">
+      <c r="F56" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -4928,16 +4996,16 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="129"/>
-      <c r="B57" s="129"/>
-      <c r="C57" s="129"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="82" t="s">
+      <c r="F57" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="28">
@@ -4945,16 +5013,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="129"/>
-      <c r="B58" s="129"/>
-      <c r="C58" s="129"/>
+      <c r="A58" s="130"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="82" t="s">
+      <c r="F58" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="28">
@@ -4962,16 +5030,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="129"/>
-      <c r="B59" s="129"/>
-      <c r="C59" s="129"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="82" t="s">
+      <c r="F59" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="28" t="s">
@@ -4979,16 +5047,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="129"/>
-      <c r="B60" s="129"/>
-      <c r="C60" s="129"/>
+      <c r="A60" s="130"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="82" t="s">
+      <c r="F60" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="28">
@@ -4996,16 +5064,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="129"/>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
+      <c r="A61" s="130"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="130"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="82" t="s">
+      <c r="F61" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="28">
@@ -5013,16 +5081,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="129"/>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
+      <c r="A62" s="130"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="82" t="s">
+      <c r="F62" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
@@ -5031,10 +5099,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="119" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="20">
@@ -5043,7 +5111,7 @@
       <c r="E63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="82" t="s">
+      <c r="F63" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -5052,10 +5120,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="121" t="s">
         <v>241</v>
       </c>
       <c r="D64" s="20">
@@ -5064,7 +5132,7 @@
       <c r="E64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="82" t="s">
+      <c r="F64" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -5072,23 +5140,23 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="141"/>
-      <c r="B65" s="131" t="s">
+      <c r="A65" s="128"/>
+      <c r="B65" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="132" t="s">
+      <c r="C65" s="133" t="s">
         <v>289</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="F65" s="85" t="s">
+      <c r="F65" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="G65" s="58" t="s">
+      <c r="G65" s="53" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5099,13 +5167,13 @@
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="60" t="s">
+      <c r="E66" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="85" t="s">
+      <c r="F66" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="58" t="s">
+      <c r="G66" s="53" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5116,73 +5184,73 @@
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="E67" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="85" t="s">
+      <c r="F67" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="G67" s="58" t="s">
+      <c r="G67" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="53"/>
-      <c r="B68" s="78" t="s">
+      <c r="A68" s="49"/>
+      <c r="B68" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="49" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="79" t="s">
+      <c r="E68" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="F68" s="84" t="s">
+      <c r="F68" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="75">
+      <c r="G68" s="69">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="49"/>
+      <c r="B69" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="121" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="54" t="s">
+      <c r="E69" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="F69" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="74">
+      <c r="F69" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="68">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="119" t="s">
         <v>129</v>
       </c>
       <c r="D70" s="20">
         <v>69</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="82" t="s">
+      <c r="F70" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="39" t="s">
@@ -5194,7 +5262,7 @@
       <c r="B71" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="121" t="s">
         <v>130</v>
       </c>
       <c r="D71" s="20">
@@ -5203,7 +5271,7 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="82" t="s">
+      <c r="F71" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -5211,20 +5279,20 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="133"/>
-      <c r="B72" s="128" t="s">
+      <c r="A72" s="129"/>
+      <c r="B72" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="133" t="s">
+      <c r="C72" s="129" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="41" t="s">
+      <c r="E72" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="F72" s="82" t="s">
+      <c r="F72" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="37" t="s">
@@ -5232,16 +5300,16 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="129"/>
-      <c r="B73" s="129"/>
-      <c r="C73" s="129"/>
+      <c r="A73" s="130"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
-      <c r="E73" s="47" t="s">
+      <c r="E73" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="F73" s="82" t="s">
+      <c r="F73" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="38">
@@ -5249,16 +5317,16 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="129"/>
-      <c r="B74" s="129"/>
-      <c r="C74" s="129"/>
+      <c r="A74" s="130"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="130"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
-      <c r="E74" s="41" t="s">
+      <c r="E74" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="82" t="s">
+      <c r="F74" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="38">
@@ -5266,16 +5334,16 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="129"/>
-      <c r="B75" s="129"/>
-      <c r="C75" s="129"/>
+      <c r="A75" s="130"/>
+      <c r="B75" s="130"/>
+      <c r="C75" s="130"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="82" t="s">
+      <c r="F75" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="38" t="s">
@@ -5283,16 +5351,16 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="129"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="129"/>
+      <c r="A76" s="130"/>
+      <c r="B76" s="130"/>
+      <c r="C76" s="130"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
-      <c r="E76" s="41" t="s">
+      <c r="E76" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F76" s="82" t="s">
+      <c r="F76" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="38">
@@ -5300,16 +5368,16 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="129"/>
-      <c r="B77" s="129"/>
-      <c r="C77" s="129"/>
+      <c r="A77" s="130"/>
+      <c r="B77" s="130"/>
+      <c r="C77" s="130"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
-      <c r="E77" s="41" t="s">
+      <c r="E77" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="82" t="s">
+      <c r="F77" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="38">
@@ -5317,16 +5385,16 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="129"/>
-      <c r="B78" s="129"/>
-      <c r="C78" s="129"/>
+      <c r="A78" s="130"/>
+      <c r="B78" s="130"/>
+      <c r="C78" s="130"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="F78" s="82" t="s">
+      <c r="F78" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="38" t="s">
@@ -5338,7 +5406,7 @@
       <c r="B79" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="119" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="20">
@@ -5347,7 +5415,7 @@
       <c r="E79" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="82" t="s">
+      <c r="F79" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -5356,10 +5424,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="67" t="s">
+      <c r="B80" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="67" t="s">
+      <c r="C80" s="121" t="s">
         <v>241</v>
       </c>
       <c r="D80" s="20">
@@ -5368,7 +5436,7 @@
       <c r="E80" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="82" t="s">
+      <c r="F80" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -5376,11 +5444,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="126"/>
-      <c r="B81" s="126" t="s">
+      <c r="A81" s="135"/>
+      <c r="B81" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="130" t="s">
+      <c r="C81" s="134" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5389,7 +5457,7 @@
       <c r="E81" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F81" s="82" t="s">
+      <c r="F81" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -5406,7 +5474,7 @@
       <c r="E82" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="82" t="s">
+      <c r="F82" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -5423,7 +5491,7 @@
       <c r="E83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="82" t="s">
+      <c r="F83" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -5440,7 +5508,7 @@
       <c r="E84" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="82" t="s">
+      <c r="F84" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -5452,16 +5520,16 @@
       <c r="B85" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="61" t="s">
+      <c r="C85" s="121" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="20">
         <v>84</v>
       </c>
-      <c r="E85" s="119" t="s">
+      <c r="E85" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="83" t="s">
+      <c r="F85" s="77" t="s">
         <v>91</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -5473,16 +5541,16 @@
       <c r="B86" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="119" t="s">
         <v>76</v>
       </c>
       <c r="D86" s="20">
         <v>85</v>
       </c>
-      <c r="E86" s="119" t="s">
+      <c r="E86" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="82" t="s">
+      <c r="F86" s="76" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -5494,16 +5562,16 @@
       <c r="B87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="64" t="s">
+      <c r="C87" s="121" t="s">
         <v>228</v>
       </c>
-      <c r="D87" s="81">
+      <c r="D87" s="75">
         <v>86</v>
       </c>
-      <c r="E87" s="119" t="s">
+      <c r="E87" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="84" t="s">
+      <c r="F87" s="78" t="s">
         <v>73</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -5512,19 +5580,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C88" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="81">
+      <c r="D88" s="75">
         <v>87</v>
       </c>
-      <c r="E88" s="116" t="s">
+      <c r="E88" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="F88" s="82">
+      <c r="F88" s="76">
         <v>20</v>
       </c>
       <c r="G88" s="31" t="s">
@@ -5536,16 +5604,16 @@
       <c r="B89" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="81">
+      <c r="D89" s="75">
         <v>88</v>
       </c>
-      <c r="E89" s="116" t="s">
+      <c r="E89" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="82">
+      <c r="F89" s="76">
         <v>20</v>
       </c>
       <c r="G89" s="32" t="s">
@@ -5554,19 +5622,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="33" t="s">
+      <c r="C90" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="81">
+      <c r="D90" s="75">
         <v>89</v>
       </c>
-      <c r="E90" s="116" t="s">
+      <c r="E90" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="F90" s="83">
+      <c r="F90" s="77">
         <v>3</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -5575,935 +5643,982 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
-      <c r="B91" s="66" t="s">
+      <c r="B91" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="81">
+      <c r="D91" s="75">
         <v>90</v>
       </c>
-      <c r="E91" s="116" t="s">
+      <c r="E91" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="F91" s="83" t="s">
+      <c r="F91" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="66" t="s">
+      <c r="G91" s="60" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="66" t="s">
+      <c r="B92" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="81">
+      <c r="D92" s="75">
         <v>91</v>
       </c>
-      <c r="E92" s="116" t="s">
+      <c r="E92" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="83" t="s">
+      <c r="F92" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="66" t="s">
+      <c r="G92" s="60" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="66" t="s">
+      <c r="B93" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="81">
+      <c r="D93" s="75">
         <v>92</v>
       </c>
-      <c r="E93" s="116" t="s">
+      <c r="E93" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F93" s="83" t="s">
+      <c r="F93" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="66" t="s">
+      <c r="G93" s="60" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="66" t="s">
+      <c r="B94" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="81">
+      <c r="D94" s="75">
         <v>93</v>
       </c>
-      <c r="E94" s="116" t="s">
+      <c r="E94" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="F94" s="83" t="s">
+      <c r="F94" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="66" t="s">
+      <c r="G94" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="66" t="s">
+      <c r="B95" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="81">
+      <c r="D95" s="75">
         <v>94</v>
       </c>
-      <c r="E95" s="116" t="s">
+      <c r="E95" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="F95" s="83" t="s">
+      <c r="F95" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="66" t="s">
+      <c r="B96" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="81">
+      <c r="D96" s="75">
         <v>95</v>
       </c>
-      <c r="E96" s="116" t="s">
+      <c r="E96" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F96" s="83" t="s">
+      <c r="F96" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="66" t="s">
+      <c r="G96" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="81"/>
-      <c r="B97" s="81" t="s">
+      <c r="A97" s="75"/>
+      <c r="B97" s="75" t="s">
         <v>273</v>
       </c>
-      <c r="C97" s="81" t="s">
+      <c r="C97" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="D97" s="81">
+      <c r="D97" s="75">
         <v>96</v>
       </c>
-      <c r="E97" s="116" t="s">
+      <c r="E97" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="F97" s="83" t="s">
+      <c r="F97" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="76" t="s">
+      <c r="G97" s="70" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="81"/>
-      <c r="B98" s="81" t="s">
+      <c r="A98" s="75"/>
+      <c r="B98" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="81" t="s">
+      <c r="C98" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="81">
+      <c r="D98" s="75">
         <v>97</v>
       </c>
-      <c r="E98" s="116" t="s">
+      <c r="E98" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="F98" s="83" t="s">
+      <c r="F98" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="80" t="s">
+      <c r="G98" s="74" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="139"/>
-      <c r="B99" s="139" t="s">
+      <c r="A99" s="125"/>
+      <c r="B99" s="125" t="s">
         <v>299</v>
       </c>
-      <c r="C99" s="139" t="s">
+      <c r="C99" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="D99" s="100">
+      <c r="D99" s="93">
         <v>98</v>
       </c>
-      <c r="E99" s="116" t="s">
+      <c r="E99" s="109" t="s">
         <v>300</v>
       </c>
-      <c r="F99" s="99" t="s">
+      <c r="F99" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G99" s="99" t="s">
+      <c r="G99" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="139"/>
-      <c r="B100" s="139"/>
-      <c r="C100" s="139"/>
-      <c r="D100" s="100">
+      <c r="A100" s="125"/>
+      <c r="B100" s="125"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="93">
         <v>99</v>
       </c>
-      <c r="E100" s="116" t="s">
+      <c r="E100" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="F100" s="99" t="s">
+      <c r="F100" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G100" s="99" t="s">
+      <c r="G100" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="139"/>
-      <c r="B101" s="139"/>
-      <c r="C101" s="139"/>
-      <c r="D101" s="100">
+      <c r="A101" s="125"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="125"/>
+      <c r="D101" s="93">
         <v>100</v>
       </c>
-      <c r="E101" s="116" t="s">
+      <c r="E101" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="F101" s="99" t="s">
+      <c r="F101" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="99" t="s">
+      <c r="G101" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="102"/>
-      <c r="B102" s="101" t="s">
+      <c r="A102" s="95"/>
+      <c r="B102" s="94" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="101" t="s">
+      <c r="C102" s="123" t="s">
         <v>311</v>
       </c>
-      <c r="D102" s="100">
+      <c r="D102" s="93">
         <v>101</v>
       </c>
-      <c r="E102" s="116" t="s">
+      <c r="E102" s="109" t="s">
         <v>312</v>
       </c>
-      <c r="F102" s="99" t="s">
+      <c r="F102" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G102" s="99" t="s">
+      <c r="G102" s="92" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="139"/>
-      <c r="B103" s="139" t="s">
+      <c r="A103" s="125"/>
+      <c r="B103" s="125" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="139" t="s">
+      <c r="C103" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="93">
+      <c r="D103" s="87">
         <v>102</v>
       </c>
-      <c r="E103" s="116" t="s">
+      <c r="E103" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="F103" s="86" t="s">
+      <c r="F103" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="86" t="s">
+      <c r="G103" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="140"/>
-      <c r="B104" s="140"/>
-      <c r="C104" s="140"/>
-      <c r="D104" s="93">
+      <c r="A104" s="126"/>
+      <c r="B104" s="126"/>
+      <c r="C104" s="126"/>
+      <c r="D104" s="87">
         <v>103</v>
       </c>
-      <c r="E104" s="117" t="s">
+      <c r="E104" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="86" t="s">
+      <c r="F104" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G104" s="86" t="s">
+      <c r="G104" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="140"/>
-      <c r="B105" s="140"/>
-      <c r="C105" s="140"/>
-      <c r="D105" s="93">
+      <c r="A105" s="126"/>
+      <c r="B105" s="126"/>
+      <c r="C105" s="126"/>
+      <c r="D105" s="87">
         <v>104</v>
       </c>
-      <c r="E105" s="117" t="s">
+      <c r="E105" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="F105" s="86" t="s">
+      <c r="F105" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="86" t="s">
+      <c r="G105" s="80" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="90"/>
-      <c r="B106" s="87" t="s">
+    <row r="106" spans="1:7" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="84"/>
+      <c r="B106" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="C106" s="81" t="s">
+      <c r="C106" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D106" s="118">
+      <c r="D106" s="111">
         <v>105</v>
       </c>
-      <c r="E106" s="116" t="s">
+      <c r="E106" s="109" t="s">
         <v>302</v>
       </c>
-      <c r="F106" s="86" t="s">
+      <c r="F106" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="G106" s="86" t="s">
+      <c r="G106" s="80" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="89" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="94"/>
-      <c r="B107" s="93" t="s">
+    <row r="107" spans="1:7" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="88"/>
+      <c r="B107" s="87" t="s">
         <v>305</v>
       </c>
-      <c r="C107" s="93" t="s">
+      <c r="C107" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D107" s="118">
+      <c r="D107" s="111">
         <v>106</v>
       </c>
-      <c r="E107" s="118" t="s">
+      <c r="E107" s="111" t="s">
         <v>305</v>
       </c>
-      <c r="F107" s="91" t="s">
+      <c r="F107" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G107" s="91" t="s">
+      <c r="G107" s="85" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94"/>
-      <c r="B108" s="93" t="s">
+    <row r="108" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="88"/>
+      <c r="B108" s="87" t="s">
         <v>306</v>
       </c>
-      <c r="C108" s="93" t="s">
+      <c r="C108" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D108" s="118">
+      <c r="D108" s="111">
         <v>107</v>
       </c>
-      <c r="E108" s="118" t="s">
+      <c r="E108" s="111" t="s">
         <v>306</v>
       </c>
-      <c r="F108" s="91" t="s">
+      <c r="F108" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G108" s="91" t="s">
+      <c r="G108" s="85" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="94"/>
-      <c r="B109" s="93" t="s">
+    <row r="109" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="88"/>
+      <c r="B109" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="C109" s="93" t="s">
+      <c r="C109" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D109" s="118">
+      <c r="D109" s="111">
         <v>108</v>
       </c>
-      <c r="E109" s="118" t="s">
+      <c r="E109" s="111" t="s">
         <v>307</v>
       </c>
-      <c r="F109" s="91" t="s">
+      <c r="F109" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="91" t="s">
+      <c r="G109" s="85" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="94"/>
-      <c r="B110" s="93" t="s">
+    <row r="110" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="88"/>
+      <c r="B110" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="C110" s="93" t="s">
+      <c r="C110" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="118">
+      <c r="D110" s="111">
         <v>109</v>
       </c>
-      <c r="E110" s="118" t="s">
+      <c r="E110" s="111" t="s">
         <v>308</v>
       </c>
-      <c r="F110" s="91" t="s">
+      <c r="F110" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G110" s="91" t="s">
+      <c r="G110" s="85" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="89" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="94"/>
-      <c r="B111" s="92" t="s">
+    <row r="111" spans="1:7" s="83" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="88"/>
+      <c r="B111" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="C111" s="93" t="s">
+      <c r="C111" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="118">
+      <c r="D111" s="111">
         <v>110</v>
       </c>
-      <c r="E111" s="116" t="s">
+      <c r="E111" s="109" t="s">
         <v>309</v>
       </c>
-      <c r="F111" s="91" t="s">
+      <c r="F111" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G111" s="91" t="s">
+      <c r="G111" s="85" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="89" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="97"/>
-      <c r="B112" s="95" t="s">
+    <row r="112" spans="1:7" s="83" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="90"/>
+      <c r="B112" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="96" t="s">
+      <c r="C112" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D112" s="118">
+      <c r="D112" s="111">
         <v>111</v>
       </c>
-      <c r="E112" s="116" t="s">
+      <c r="E112" s="109" t="s">
         <v>310</v>
       </c>
-      <c r="F112" s="98" t="s">
+      <c r="F112" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G112" s="98" t="s">
+      <c r="G112" s="91" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="120"/>
-      <c r="B113" s="120" t="s">
+      <c r="A113" s="113"/>
+      <c r="B113" s="113" t="s">
         <v>362</v>
       </c>
-      <c r="C113" s="120" t="s">
+      <c r="C113" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D113" s="118">
+      <c r="D113" s="111">
         <v>112</v>
       </c>
-      <c r="E113" s="116" t="s">
+      <c r="E113" s="109" t="s">
         <v>340</v>
       </c>
-      <c r="F113" s="106" t="s">
+      <c r="F113" s="99" t="s">
         <v>343</v>
       </c>
-      <c r="G113" s="106" t="s">
+      <c r="G113" s="99" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="120"/>
-      <c r="B114" s="120" t="s">
+      <c r="A114" s="113"/>
+      <c r="B114" s="113" t="s">
         <v>363</v>
       </c>
-      <c r="C114" s="120" t="s">
+      <c r="C114" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D114" s="118">
+      <c r="D114" s="111">
         <v>113</v>
       </c>
-      <c r="E114" s="116" t="s">
+      <c r="E114" s="109" t="s">
         <v>340</v>
       </c>
-      <c r="F114" s="119" t="s">
+      <c r="F114" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="G114" s="116" t="s">
+      <c r="G114" s="109" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="120"/>
-      <c r="B115" s="120" t="s">
+      <c r="A115" s="113"/>
+      <c r="B115" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="C115" s="120" t="s">
+      <c r="C115" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D115" s="118">
+      <c r="D115" s="111">
         <v>114</v>
       </c>
-      <c r="E115" s="116" t="s">
+      <c r="E115" s="109" t="s">
         <v>341</v>
       </c>
-      <c r="F115" s="106" t="s">
+      <c r="F115" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="G115" s="106" t="s">
+      <c r="G115" s="99" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="120"/>
-      <c r="B116" s="120" t="s">
+      <c r="A116" s="113"/>
+      <c r="B116" s="113" t="s">
         <v>365</v>
       </c>
-      <c r="C116" s="120" t="s">
+      <c r="C116" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D116" s="118">
+      <c r="D116" s="111">
         <v>115</v>
       </c>
-      <c r="E116" s="116" t="s">
+      <c r="E116" s="109" t="s">
         <v>341</v>
       </c>
-      <c r="F116" s="106" t="s">
+      <c r="F116" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="G116" s="106" t="s">
+      <c r="G116" s="99" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="120"/>
-      <c r="B117" s="120" t="s">
+      <c r="A117" s="113"/>
+      <c r="B117" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="120" t="s">
+      <c r="C117" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D117" s="118">
+      <c r="D117" s="111">
         <v>116</v>
       </c>
-      <c r="E117" s="116" t="s">
+      <c r="E117" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="F117" s="106" t="s">
+      <c r="F117" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="G117" s="119" t="s">
+      <c r="G117" s="112" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="120"/>
-      <c r="B118" s="120" t="s">
+      <c r="A118" s="113"/>
+      <c r="B118" s="113" t="s">
         <v>367</v>
       </c>
-      <c r="C118" s="120" t="s">
+      <c r="C118" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D118" s="118">
+      <c r="D118" s="111">
         <v>117</v>
       </c>
-      <c r="E118" s="116" t="s">
+      <c r="E118" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="F118" s="119" t="s">
+      <c r="F118" s="112" t="s">
         <v>345</v>
       </c>
-      <c r="G118" s="119" t="s">
+      <c r="G118" s="112" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="120"/>
-      <c r="B119" s="120" t="s">
+      <c r="A119" s="113"/>
+      <c r="B119" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="C119" s="120" t="s">
+      <c r="C119" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D119" s="118">
+      <c r="D119" s="111">
         <v>118</v>
       </c>
-      <c r="E119" s="116" t="s">
+      <c r="E119" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="F119" s="119" t="s">
+      <c r="F119" s="112" t="s">
         <v>345</v>
       </c>
-      <c r="G119" s="119" t="s">
+      <c r="G119" s="112" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="120"/>
-      <c r="B120" s="120" t="s">
+      <c r="A120" s="113"/>
+      <c r="B120" s="113" t="s">
         <v>369</v>
       </c>
-      <c r="C120" s="120" t="s">
+      <c r="C120" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D120" s="118">
+      <c r="D120" s="111">
         <v>119</v>
       </c>
-      <c r="E120" s="116" t="s">
+      <c r="E120" s="109" t="s">
         <v>290</v>
       </c>
-      <c r="F120" s="119" t="s">
+      <c r="F120" s="112" t="s">
         <v>345</v>
       </c>
-      <c r="G120" s="119" t="s">
+      <c r="G120" s="112" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="120"/>
-      <c r="B121" s="120" t="s">
+      <c r="A121" s="113"/>
+      <c r="B121" s="113" t="s">
         <v>370</v>
       </c>
-      <c r="C121" s="120" t="s">
+      <c r="C121" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D121" s="118">
+      <c r="D121" s="111">
         <v>120</v>
       </c>
-      <c r="E121" s="116" t="s">
+      <c r="E121" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="F121" s="106" t="s">
+      <c r="F121" s="99" t="s">
         <v>346</v>
       </c>
-      <c r="G121" s="119" t="s">
+      <c r="G121" s="112" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="120"/>
-      <c r="B122" s="120" t="s">
+      <c r="A122" s="113"/>
+      <c r="B122" s="113" t="s">
         <v>371</v>
       </c>
-      <c r="C122" s="120" t="s">
+      <c r="C122" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D122" s="118">
+      <c r="D122" s="111">
         <v>121</v>
       </c>
-      <c r="E122" s="116" t="s">
+      <c r="E122" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="F122" s="119" t="s">
+      <c r="F122" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="G122" s="119" t="s">
+      <c r="G122" s="112" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="120"/>
-      <c r="B123" s="120" t="s">
+      <c r="A123" s="113"/>
+      <c r="B123" s="113" t="s">
         <v>372</v>
       </c>
-      <c r="C123" s="120" t="s">
+      <c r="C123" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D123" s="118">
+      <c r="D123" s="111">
         <v>122</v>
       </c>
-      <c r="E123" s="116" t="s">
+      <c r="E123" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="F123" s="119" t="s">
+      <c r="F123" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="G123" s="119" t="s">
+      <c r="G123" s="112" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="120"/>
-      <c r="B124" s="120" t="s">
+      <c r="A124" s="113"/>
+      <c r="B124" s="113" t="s">
         <v>373</v>
       </c>
-      <c r="C124" s="120" t="s">
+      <c r="C124" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D124" s="118">
+      <c r="D124" s="111">
         <v>123</v>
       </c>
-      <c r="E124" s="116" t="s">
+      <c r="E124" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="F124" s="119" t="s">
+      <c r="F124" s="112" t="s">
         <v>346</v>
       </c>
-      <c r="G124" s="119" t="s">
+      <c r="G124" s="112" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="120"/>
-      <c r="B125" s="120" t="s">
+      <c r="A125" s="113"/>
+      <c r="B125" s="113" t="s">
         <v>375</v>
       </c>
-      <c r="C125" s="120" t="s">
+      <c r="C125" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D125" s="118">
+      <c r="D125" s="111">
         <v>124</v>
       </c>
-      <c r="E125" s="116" t="s">
+      <c r="E125" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="F125" s="119" t="s">
+      <c r="F125" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="G125" s="119" t="s">
+      <c r="G125" s="112" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="120"/>
-      <c r="B126" s="120" t="s">
+      <c r="A126" s="113"/>
+      <c r="B126" s="113" t="s">
         <v>376</v>
       </c>
-      <c r="C126" s="120" t="s">
+      <c r="C126" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D126" s="118">
+      <c r="D126" s="111">
         <v>125</v>
       </c>
-      <c r="E126" s="116" t="s">
+      <c r="E126" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="F126" s="119" t="s">
+      <c r="F126" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="G126" s="119" t="s">
+      <c r="G126" s="112" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="120"/>
-      <c r="B127" s="120" t="s">
+      <c r="A127" s="113"/>
+      <c r="B127" s="113" t="s">
         <v>377</v>
       </c>
-      <c r="C127" s="120" t="s">
+      <c r="C127" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D127" s="118">
+      <c r="D127" s="111">
         <v>126</v>
       </c>
-      <c r="E127" s="116" t="s">
+      <c r="E127" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="F127" s="119" t="s">
+      <c r="F127" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="G127" s="119" t="s">
+      <c r="G127" s="112" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="120"/>
-      <c r="B128" s="120" t="s">
+      <c r="A128" s="113"/>
+      <c r="B128" s="113" t="s">
         <v>374</v>
       </c>
-      <c r="C128" s="120" t="s">
+      <c r="C128" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="D128" s="118">
+      <c r="D128" s="111">
         <v>127</v>
       </c>
-      <c r="E128" s="116" t="s">
+      <c r="E128" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="F128" s="119" t="s">
+      <c r="F128" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="G128" s="119" t="s">
+      <c r="G128" s="112" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="120"/>
-      <c r="B129" s="120" t="s">
+      <c r="A129" s="113"/>
+      <c r="B129" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="C129" s="120" t="s">
+      <c r="C129" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="D129" s="118">
+      <c r="D129" s="111">
         <v>128</v>
       </c>
-      <c r="E129" s="116" t="s">
+      <c r="E129" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="F129" s="109" t="s">
+      <c r="F129" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G129" s="109">
+      <c r="G129" s="102">
         <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="120"/>
-      <c r="B130" s="120" t="s">
+      <c r="A130" s="113"/>
+      <c r="B130" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="C130" s="120" t="s">
+      <c r="C130" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="D130" s="118">
+      <c r="D130" s="111">
         <v>129</v>
       </c>
-      <c r="E130" s="116" t="s">
+      <c r="E130" s="109" t="s">
         <v>355</v>
       </c>
-      <c r="F130" s="109" t="s">
+      <c r="F130" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G130" s="109">
+      <c r="G130" s="102">
         <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="120"/>
-      <c r="B131" s="120" t="s">
+      <c r="A131" s="113"/>
+      <c r="B131" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="C131" s="120" t="s">
+      <c r="C131" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="D131" s="118">
+      <c r="D131" s="111">
         <v>130</v>
       </c>
-      <c r="E131" s="116" t="s">
+      <c r="E131" s="109" t="s">
         <v>356</v>
       </c>
-      <c r="F131" s="109" t="s">
+      <c r="F131" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G131" s="109">
+      <c r="G131" s="102">
         <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="120"/>
-      <c r="B132" s="120" t="s">
+      <c r="A132" s="113"/>
+      <c r="B132" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="C132" s="120" t="s">
+      <c r="C132" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="D132" s="118">
+      <c r="D132" s="111">
         <v>131</v>
       </c>
-      <c r="E132" s="116" t="s">
+      <c r="E132" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="F132" s="109" t="s">
+      <c r="F132" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G132" s="109">
+      <c r="G132" s="102">
         <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="120"/>
-      <c r="B133" s="120" t="s">
+      <c r="A133" s="113"/>
+      <c r="B133" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="C133" s="120" t="s">
+      <c r="C133" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="D133" s="118">
+      <c r="D133" s="111">
         <v>132</v>
       </c>
-      <c r="E133" s="116" t="s">
+      <c r="E133" s="109" t="s">
         <v>357</v>
       </c>
-      <c r="F133" s="109" t="s">
+      <c r="F133" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G133" s="109">
+      <c r="G133" s="102">
         <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="120"/>
-      <c r="B134" s="120" t="s">
+      <c r="A134" s="113"/>
+      <c r="B134" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="C134" s="120" t="s">
+      <c r="C134" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="D134" s="118">
+      <c r="D134" s="111">
         <v>133</v>
       </c>
-      <c r="E134" s="116" t="s">
+      <c r="E134" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="F134" s="109" t="s">
+      <c r="F134" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G134" s="109">
+      <c r="G134" s="102">
         <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="120"/>
-      <c r="B135" s="120" t="s">
+      <c r="A135" s="113"/>
+      <c r="B135" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="C135" s="120" t="s">
+      <c r="C135" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="D135" s="118">
+      <c r="D135" s="111">
         <v>134</v>
       </c>
-      <c r="E135" s="116" t="s">
+      <c r="E135" s="109" t="s">
         <v>354</v>
       </c>
-      <c r="F135" s="109" t="s">
+      <c r="F135" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G135" s="108">
+      <c r="G135" s="101">
         <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="121"/>
+      <c r="B136" s="141" t="s">
+        <v>405</v>
+      </c>
+      <c r="C136" s="121" t="s">
+        <v>403</v>
+      </c>
+      <c r="D136" s="122">
+        <v>135</v>
+      </c>
+      <c r="E136" s="121" t="s">
+        <v>405</v>
+      </c>
+      <c r="F136" s="121" t="s">
+        <v>404</v>
+      </c>
+      <c r="G136" s="121" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A103:A105"/>
@@ -6520,34 +6635,8 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
-  <phoneticPr fontId="54" type="noConversion"/>
+  <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -6584,7 +6673,7 @@
       <c r="B2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="64" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6735,7 +6824,7 @@
       <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="49" t="s">
         <v>186</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -6746,7 +6835,7 @@
       <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="63" t="s">
         <v>242</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -6757,7 +6846,7 @@
       <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="63" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -6768,7 +6857,7 @@
       <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="63" t="s">
         <v>244</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -6779,7 +6868,7 @@
       <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="63" t="s">
         <v>245</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -6790,7 +6879,7 @@
       <c r="A21" s="34">
         <v>19</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="63" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -6801,7 +6890,7 @@
       <c r="A22" s="34">
         <v>20</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="49" t="s">
         <v>187</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -6812,7 +6901,7 @@
       <c r="A23" s="34">
         <v>21</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="49" t="s">
         <v>188</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -6823,7 +6912,7 @@
       <c r="A24" s="34">
         <v>22</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="49" t="s">
         <v>191</v>
       </c>
       <c r="C24" s="35" t="s">
@@ -6834,7 +6923,7 @@
       <c r="A25" s="34">
         <v>23</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="63" t="s">
         <v>253</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -6845,7 +6934,7 @@
       <c r="A26" s="34">
         <v>24</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="63" t="s">
         <v>254</v>
       </c>
       <c r="C26" s="35" t="s">
@@ -6856,7 +6945,7 @@
       <c r="A27" s="34">
         <v>25</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -6867,7 +6956,7 @@
       <c r="A28" s="34">
         <v>26</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="63" t="s">
         <v>256</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -6878,7 +6967,7 @@
       <c r="A29" s="34">
         <v>27</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="63" t="s">
         <v>257</v>
       </c>
       <c r="C29" s="35" t="s">
@@ -6889,7 +6978,7 @@
       <c r="A30" s="34">
         <v>28</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="57" t="s">
         <v>221</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -6900,7 +6989,7 @@
       <c r="A31" s="34">
         <v>29</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="60" t="s">
         <v>236</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -6911,7 +7000,7 @@
       <c r="A32" s="34">
         <v>30</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="60" t="s">
         <v>237</v>
       </c>
       <c r="C32" s="35" t="s">
@@ -6922,7 +7011,7 @@
       <c r="A33" s="34">
         <v>31</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="60" t="s">
         <v>267</v>
       </c>
       <c r="C33" s="35" t="s">
@@ -6933,7 +7022,7 @@
       <c r="A34" s="34">
         <v>32</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="60" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="34" t="s">
@@ -6944,7 +7033,7 @@
       <c r="A35" s="34">
         <v>33</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="60" t="s">
         <v>238</v>
       </c>
       <c r="C35" s="35" t="s">
@@ -6955,7 +7044,7 @@
       <c r="A36" s="34">
         <v>34</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="60" t="s">
         <v>268</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -6966,7 +7055,7 @@
       <c r="A37" s="34">
         <v>35</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="66" t="s">
         <v>263</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -6977,7 +7066,7 @@
       <c r="A38" s="34">
         <v>36</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C38" s="35" t="s">
@@ -6988,7 +7077,7 @@
       <c r="A39" s="34">
         <v>37</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="66" t="s">
         <v>358</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -6999,7 +7088,7 @@
       <c r="A40" s="34">
         <v>38</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="66" t="s">
         <v>359</v>
       </c>
       <c r="C40" s="35" t="s">
@@ -7007,7 +7096,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -7086,7 +7175,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="46" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="35" t="s">
@@ -7100,7 +7189,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>174</v>
       </c>
       <c r="B6" s="35" t="s">
@@ -7114,7 +7203,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="46" t="s">
         <v>175</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -7128,7 +7217,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7641,7 +7730,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7651,7 +7740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -7924,7 +8013,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="108" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="17">
@@ -8104,7 +8193,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="103" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="17">
@@ -8124,7 +8213,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="103" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="17">
@@ -8204,7 +8293,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="82" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="17">
@@ -8344,7 +8433,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="56" t="s">
         <v>178</v>
       </c>
       <c r="B35" s="17">
@@ -8364,7 +8453,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="48" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="17">
@@ -8384,7 +8473,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="17">
@@ -8404,7 +8493,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="48" t="s">
         <v>182</v>
       </c>
       <c r="B38" s="17">
@@ -8424,7 +8513,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="47" t="s">
         <v>183</v>
       </c>
       <c r="B39" s="17">
@@ -8504,7 +8593,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="47" t="s">
         <v>184</v>
       </c>
       <c r="B43" s="17">
@@ -8524,7 +8613,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="47" t="s">
         <v>185</v>
       </c>
       <c r="B44" s="17">
@@ -8544,7 +8633,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="51" t="s">
         <v>192</v>
       </c>
       <c r="B45" s="17">
@@ -8564,7 +8653,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="51" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="17">
@@ -8584,7 +8673,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="105" t="s">
+      <c r="A47" s="98" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="17">
@@ -8604,7 +8693,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="100" t="s">
         <v>339</v>
       </c>
       <c r="B48" s="17">
@@ -8624,7 +8713,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="114" t="s">
         <v>338</v>
       </c>
       <c r="B49" s="17">
@@ -8644,7 +8733,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="104" t="s">
+      <c r="A50" s="97" t="s">
         <v>314</v>
       </c>
       <c r="B50" s="17">
@@ -8664,7 +8753,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="97" t="s">
         <v>315</v>
       </c>
       <c r="B51" s="17">
@@ -8684,7 +8773,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="104" t="s">
+      <c r="A52" s="97" t="s">
         <v>316</v>
       </c>
       <c r="B52" s="17">
@@ -8704,7 +8793,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="97" t="s">
         <v>317</v>
       </c>
       <c r="B53" s="17">
@@ -8724,7 +8813,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="97" t="s">
         <v>318</v>
       </c>
       <c r="B54" s="17">
@@ -8744,7 +8833,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="104" t="s">
+      <c r="A55" s="97" t="s">
         <v>319</v>
       </c>
       <c r="B55" s="17">
@@ -8764,7 +8853,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="104" t="s">
+      <c r="A56" s="97" t="s">
         <v>320</v>
       </c>
       <c r="B56" s="17">
@@ -8784,7 +8873,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="97" t="s">
         <v>321</v>
       </c>
       <c r="B57" s="17">
@@ -8804,7 +8893,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="97" t="s">
         <v>322</v>
       </c>
       <c r="B58" s="17">
@@ -8824,7 +8913,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="104" t="s">
+      <c r="A59" s="97" t="s">
         <v>323</v>
       </c>
       <c r="B59" s="17">
@@ -8844,7 +8933,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="104" t="s">
+      <c r="A60" s="97" t="s">
         <v>324</v>
       </c>
       <c r="B60" s="17">
@@ -8864,7 +8953,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="97" t="s">
         <v>325</v>
       </c>
       <c r="B61" s="17">
@@ -8884,7 +8973,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="97" t="s">
         <v>326</v>
       </c>
       <c r="B62" s="17">
@@ -8904,7 +8993,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="104" t="s">
+      <c r="A63" s="97" t="s">
         <v>327</v>
       </c>
       <c r="B63" s="17">
@@ -8924,7 +9013,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="104" t="s">
+      <c r="A64" s="97" t="s">
         <v>328</v>
       </c>
       <c r="B64" s="17">
@@ -8944,7 +9033,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="104" t="s">
+      <c r="A65" s="97" t="s">
         <v>333</v>
       </c>
       <c r="B65" s="17">
@@ -8964,7 +9053,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="97" t="s">
         <v>334</v>
       </c>
       <c r="B66" s="17">
@@ -8984,7 +9073,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="97" t="s">
         <v>329</v>
       </c>
       <c r="B67" s="17">
@@ -9004,7 +9093,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="104" t="s">
+      <c r="A68" s="97" t="s">
         <v>330</v>
       </c>
       <c r="B68" s="17">
@@ -9024,7 +9113,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="97" t="s">
         <v>331</v>
       </c>
       <c r="B69" s="17">
@@ -9044,7 +9133,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="97" t="s">
         <v>332</v>
       </c>
       <c r="B70" s="17">
@@ -9064,7 +9153,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="104" t="s">
+      <c r="A71" s="97" t="s">
         <v>335</v>
       </c>
       <c r="B71" s="17">
@@ -9084,7 +9173,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="104" t="s">
+      <c r="A72" s="97" t="s">
         <v>336</v>
       </c>
       <c r="B72" s="17">
@@ -9104,7 +9193,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="104" t="s">
+      <c r="A73" s="97" t="s">
         <v>337</v>
       </c>
       <c r="B73" s="17">
@@ -9124,7 +9213,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="58" t="s">
         <v>225</v>
       </c>
       <c r="B74" s="17">
@@ -9144,7 +9233,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="58" t="s">
         <v>226</v>
       </c>
       <c r="B75" s="17">
@@ -9164,7 +9253,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="58" t="s">
         <v>227</v>
       </c>
       <c r="B76" s="17">
@@ -9184,7 +9273,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="103" t="s">
+      <c r="A77" s="96" t="s">
         <v>313</v>
       </c>
       <c r="B77" s="17">
@@ -9224,7 +9313,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9232,10 +9321,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A4" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9348,67 +9437,67 @@
       <c r="A2" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="79" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="124" t="s">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="124" t="s">
+      <c r="O2" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="P2" s="124" t="s">
+      <c r="P2" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" s="124" t="s">
+      <c r="Q2" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="R2" s="124" t="s">
+      <c r="R2" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="S2" s="124" t="s">
+      <c r="S2" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="T2" s="124" t="s">
+      <c r="T2" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="U2" s="124" t="s">
+      <c r="U2" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="V2" s="124" t="s">
+      <c r="V2" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="W2" s="124" t="s">
+      <c r="W2" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="X2" s="124" t="s">
+      <c r="X2" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="Y2" s="124" t="s">
+      <c r="Y2" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="Z2" s="124" t="s">
+      <c r="Z2" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="124" t="s">
+      <c r="AA2" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="AB2" s="124" t="s">
+      <c r="AB2" s="117" t="s">
         <v>202</v>
       </c>
     </row>
@@ -9416,10 +9505,10 @@
       <c r="A3" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="79" t="s">
         <v>220</v>
       </c>
       <c r="D3" s="34" t="s">
@@ -9449,10 +9538,10 @@
         <v>378</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R3" s="34" t="s">
         <v>211</v>
@@ -9492,10 +9581,10 @@
       <c r="A4" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="79" t="s">
         <v>295</v>
       </c>
       <c r="D4" s="18"/>
@@ -9512,10 +9601,10 @@
       <c r="A5" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="79" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="18"/>
@@ -9532,10 +9621,10 @@
       <c r="A6" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="79" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="79" t="s">
         <v>297</v>
       </c>
       <c r="D6" s="18"/>
@@ -9548,78 +9637,78 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:28" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+    <row r="7" spans="1:28" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="114" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>390</v>
-      </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="123">
-        <v>0</v>
-      </c>
-      <c r="F7" s="112">
-        <v>0</v>
-      </c>
-      <c r="G7" s="112">
-        <v>0</v>
-      </c>
-      <c r="H7" s="112">
-        <v>0</v>
-      </c>
-      <c r="I7" s="123">
-        <v>0</v>
-      </c>
-      <c r="J7" s="112">
-        <v>0</v>
-      </c>
-      <c r="K7" s="112">
-        <v>0</v>
-      </c>
-      <c r="L7" s="112">
-        <v>1</v>
-      </c>
-      <c r="M7" s="122">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="122">
-        <v>0</v>
-      </c>
-      <c r="R7" s="113">
-        <v>0</v>
-      </c>
-      <c r="S7" s="113">
-        <v>0</v>
-      </c>
-      <c r="T7" s="113">
-        <v>0</v>
-      </c>
-      <c r="U7" s="122">
-        <v>0</v>
-      </c>
-      <c r="V7" s="113">
-        <v>0</v>
-      </c>
-      <c r="W7" s="113">
-        <v>0</v>
-      </c>
-      <c r="X7" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="122">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="113">
+      <c r="B7" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="116">
+        <v>0</v>
+      </c>
+      <c r="F7" s="105">
+        <v>0</v>
+      </c>
+      <c r="G7" s="105">
+        <v>0</v>
+      </c>
+      <c r="H7" s="105">
+        <v>0</v>
+      </c>
+      <c r="I7" s="116">
+        <v>0</v>
+      </c>
+      <c r="J7" s="105">
+        <v>0</v>
+      </c>
+      <c r="K7" s="105">
+        <v>0</v>
+      </c>
+      <c r="L7" s="105">
+        <v>1</v>
+      </c>
+      <c r="M7" s="115">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="115">
+        <v>0</v>
+      </c>
+      <c r="R7" s="106">
+        <v>0</v>
+      </c>
+      <c r="S7" s="106">
+        <v>0</v>
+      </c>
+      <c r="T7" s="106">
+        <v>0</v>
+      </c>
+      <c r="U7" s="115">
+        <v>0</v>
+      </c>
+      <c r="V7" s="106">
+        <v>0</v>
+      </c>
+      <c r="W7" s="106">
+        <v>0</v>
+      </c>
+      <c r="X7" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="115">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="106">
         <v>1</v>
       </c>
     </row>
@@ -9627,77 +9716,77 @@
       <c r="A8" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="114" t="s">
-        <v>385</v>
-      </c>
-      <c r="C8" s="114" t="s">
-        <v>391</v>
+      <c r="B8" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>390</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="123">
-        <v>0</v>
-      </c>
-      <c r="F8" s="112">
-        <v>0</v>
-      </c>
-      <c r="G8" s="112">
-        <v>0</v>
-      </c>
-      <c r="H8" s="112">
-        <v>0</v>
-      </c>
-      <c r="I8" s="123">
-        <v>0</v>
-      </c>
-      <c r="J8" s="112">
-        <v>0</v>
-      </c>
-      <c r="K8" s="112">
-        <v>1</v>
-      </c>
-      <c r="L8" s="112">
-        <v>0</v>
-      </c>
-      <c r="M8" s="122">
-        <v>1</v>
-      </c>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="122">
-        <v>0</v>
-      </c>
-      <c r="R8" s="113">
-        <v>0</v>
-      </c>
-      <c r="S8" s="113">
-        <v>0</v>
-      </c>
-      <c r="T8" s="113">
-        <v>0</v>
-      </c>
-      <c r="U8" s="122">
-        <v>0</v>
-      </c>
-      <c r="V8" s="113">
-        <v>0</v>
-      </c>
-      <c r="W8" s="113">
-        <v>0</v>
-      </c>
-      <c r="X8" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="122">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="113">
+      <c r="E8" s="116">
+        <v>0</v>
+      </c>
+      <c r="F8" s="105">
+        <v>0</v>
+      </c>
+      <c r="G8" s="105">
+        <v>0</v>
+      </c>
+      <c r="H8" s="105">
+        <v>0</v>
+      </c>
+      <c r="I8" s="116">
+        <v>0</v>
+      </c>
+      <c r="J8" s="105">
+        <v>0</v>
+      </c>
+      <c r="K8" s="105">
+        <v>1</v>
+      </c>
+      <c r="L8" s="105">
+        <v>0</v>
+      </c>
+      <c r="M8" s="115">
+        <v>1</v>
+      </c>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="115">
+        <v>0</v>
+      </c>
+      <c r="R8" s="106">
+        <v>0</v>
+      </c>
+      <c r="S8" s="106">
+        <v>0</v>
+      </c>
+      <c r="T8" s="106">
+        <v>0</v>
+      </c>
+      <c r="U8" s="115">
+        <v>0</v>
+      </c>
+      <c r="V8" s="106">
+        <v>0</v>
+      </c>
+      <c r="W8" s="106">
+        <v>0</v>
+      </c>
+      <c r="X8" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="115">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="106">
         <v>1</v>
       </c>
     </row>
@@ -9705,79 +9794,79 @@
       <c r="A9" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="B9" s="114" t="s">
-        <v>385</v>
-      </c>
-      <c r="C9" s="114" t="s">
-        <v>389</v>
+      <c r="B9" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>388</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
       </c>
-      <c r="E9" s="123">
-        <v>0</v>
-      </c>
-      <c r="F9" s="112">
-        <v>0</v>
-      </c>
-      <c r="G9" s="112">
-        <v>0</v>
-      </c>
-      <c r="H9" s="112">
-        <v>0</v>
-      </c>
-      <c r="I9" s="123">
-        <v>0</v>
-      </c>
-      <c r="J9" s="112">
-        <v>1</v>
-      </c>
-      <c r="K9" s="112">
-        <v>0</v>
-      </c>
-      <c r="L9" s="112">
-        <v>0</v>
-      </c>
-      <c r="M9" s="122">
-        <v>1</v>
-      </c>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="122">
-        <v>0</v>
-      </c>
-      <c r="R9" s="113">
-        <v>0</v>
-      </c>
-      <c r="S9" s="113">
-        <v>0</v>
-      </c>
-      <c r="T9" s="113">
-        <v>0</v>
-      </c>
-      <c r="U9" s="122">
-        <v>0</v>
-      </c>
-      <c r="V9" s="113">
-        <v>0</v>
-      </c>
-      <c r="W9" s="113">
-        <v>1</v>
-      </c>
-      <c r="X9" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="113">
+      <c r="E9" s="116">
+        <v>0</v>
+      </c>
+      <c r="F9" s="105">
+        <v>0</v>
+      </c>
+      <c r="G9" s="105">
+        <v>0</v>
+      </c>
+      <c r="H9" s="105">
+        <v>0</v>
+      </c>
+      <c r="I9" s="116">
+        <v>0</v>
+      </c>
+      <c r="J9" s="105">
+        <v>1</v>
+      </c>
+      <c r="K9" s="105">
+        <v>0</v>
+      </c>
+      <c r="L9" s="105">
+        <v>0</v>
+      </c>
+      <c r="M9" s="115">
+        <v>1</v>
+      </c>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="115">
+        <v>0</v>
+      </c>
+      <c r="R9" s="106">
+        <v>0</v>
+      </c>
+      <c r="S9" s="106">
+        <v>0</v>
+      </c>
+      <c r="T9" s="106">
+        <v>0</v>
+      </c>
+      <c r="U9" s="115">
+        <v>0</v>
+      </c>
+      <c r="V9" s="106">
+        <v>0</v>
+      </c>
+      <c r="W9" s="106">
+        <v>1</v>
+      </c>
+      <c r="X9" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="106">
         <v>1</v>
       </c>
     </row>
@@ -9785,79 +9874,79 @@
       <c r="A10" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="79" t="s">
         <v>385</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>386</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
       </c>
-      <c r="E10" s="123">
-        <v>0</v>
-      </c>
-      <c r="F10" s="112">
-        <v>0</v>
-      </c>
-      <c r="G10" s="112">
-        <v>0</v>
-      </c>
-      <c r="H10" s="112">
-        <v>0</v>
-      </c>
-      <c r="I10" s="123">
-        <v>1</v>
-      </c>
-      <c r="J10" s="112">
-        <v>0</v>
-      </c>
-      <c r="K10" s="112">
-        <v>0</v>
-      </c>
-      <c r="L10" s="112">
-        <v>0</v>
-      </c>
-      <c r="M10" s="122">
-        <v>1</v>
-      </c>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="122">
-        <v>0</v>
-      </c>
-      <c r="R10" s="113">
-        <v>0</v>
-      </c>
-      <c r="S10" s="113">
-        <v>0</v>
-      </c>
-      <c r="T10" s="113">
-        <v>1</v>
-      </c>
-      <c r="U10" s="122">
-        <v>0</v>
-      </c>
-      <c r="V10" s="113">
-        <v>0</v>
-      </c>
-      <c r="W10" s="113">
-        <v>0</v>
-      </c>
-      <c r="X10" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="113">
+      <c r="E10" s="116">
+        <v>0</v>
+      </c>
+      <c r="F10" s="105">
+        <v>0</v>
+      </c>
+      <c r="G10" s="105">
+        <v>0</v>
+      </c>
+      <c r="H10" s="105">
+        <v>0</v>
+      </c>
+      <c r="I10" s="116">
+        <v>1</v>
+      </c>
+      <c r="J10" s="105">
+        <v>0</v>
+      </c>
+      <c r="K10" s="105">
+        <v>0</v>
+      </c>
+      <c r="L10" s="105">
+        <v>0</v>
+      </c>
+      <c r="M10" s="115">
+        <v>1</v>
+      </c>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="115">
+        <v>0</v>
+      </c>
+      <c r="R10" s="106">
+        <v>0</v>
+      </c>
+      <c r="S10" s="106">
+        <v>0</v>
+      </c>
+      <c r="T10" s="106">
+        <v>1</v>
+      </c>
+      <c r="U10" s="115">
+        <v>0</v>
+      </c>
+      <c r="V10" s="106">
+        <v>0</v>
+      </c>
+      <c r="W10" s="106">
+        <v>0</v>
+      </c>
+      <c r="X10" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="106">
         <v>1</v>
       </c>
     </row>
@@ -9865,79 +9954,79 @@
       <c r="A11" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="114" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>387</v>
+      <c r="B11" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>386</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
       </c>
-      <c r="E11" s="123">
-        <v>0</v>
-      </c>
-      <c r="F11" s="112">
-        <v>0</v>
-      </c>
-      <c r="G11" s="112">
-        <v>0</v>
-      </c>
-      <c r="H11" s="112">
-        <v>0</v>
-      </c>
-      <c r="I11" s="123">
-        <v>0</v>
-      </c>
-      <c r="J11" s="112">
-        <v>0</v>
-      </c>
-      <c r="K11" s="112">
-        <v>0</v>
-      </c>
-      <c r="L11" s="112">
-        <v>0</v>
-      </c>
-      <c r="M11" s="122">
-        <v>1</v>
-      </c>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="122">
-        <v>0</v>
-      </c>
-      <c r="R11" s="113">
-        <v>0</v>
-      </c>
-      <c r="S11" s="113">
-        <v>0</v>
-      </c>
-      <c r="T11" s="113">
-        <v>0</v>
-      </c>
-      <c r="U11" s="122">
-        <v>0</v>
-      </c>
-      <c r="V11" s="113">
-        <v>0</v>
-      </c>
-      <c r="W11" s="113">
-        <v>0</v>
-      </c>
-      <c r="X11" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="113">
+      <c r="E11" s="116">
+        <v>0</v>
+      </c>
+      <c r="F11" s="105">
+        <v>0</v>
+      </c>
+      <c r="G11" s="105">
+        <v>0</v>
+      </c>
+      <c r="H11" s="105">
+        <v>0</v>
+      </c>
+      <c r="I11" s="116">
+        <v>0</v>
+      </c>
+      <c r="J11" s="105">
+        <v>0</v>
+      </c>
+      <c r="K11" s="105">
+        <v>0</v>
+      </c>
+      <c r="L11" s="105">
+        <v>0</v>
+      </c>
+      <c r="M11" s="115">
+        <v>1</v>
+      </c>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="115">
+        <v>0</v>
+      </c>
+      <c r="R11" s="106">
+        <v>0</v>
+      </c>
+      <c r="S11" s="106">
+        <v>0</v>
+      </c>
+      <c r="T11" s="106">
+        <v>0</v>
+      </c>
+      <c r="U11" s="115">
+        <v>0</v>
+      </c>
+      <c r="V11" s="106">
+        <v>0</v>
+      </c>
+      <c r="W11" s="106">
+        <v>0</v>
+      </c>
+      <c r="X11" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="106">
         <v>1</v>
       </c>
     </row>
@@ -9945,79 +10034,79 @@
       <c r="A12" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="114" t="s">
-        <v>385</v>
-      </c>
-      <c r="C12" s="114" t="s">
-        <v>392</v>
+      <c r="B12" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>391</v>
       </c>
       <c r="D12" s="34">
         <v>2130019</v>
       </c>
-      <c r="E12" s="123">
-        <v>0</v>
-      </c>
-      <c r="F12" s="112">
-        <v>0</v>
-      </c>
-      <c r="G12" s="112">
-        <v>1</v>
-      </c>
-      <c r="H12" s="112">
-        <v>0</v>
-      </c>
-      <c r="I12" s="123">
-        <v>0</v>
-      </c>
-      <c r="J12" s="112">
-        <v>0</v>
-      </c>
-      <c r="K12" s="112">
-        <v>0</v>
-      </c>
-      <c r="L12" s="112">
-        <v>0</v>
-      </c>
-      <c r="M12" s="122">
-        <v>1</v>
-      </c>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="122">
-        <v>0</v>
-      </c>
-      <c r="R12" s="113">
-        <v>0</v>
-      </c>
-      <c r="S12" s="113">
-        <v>0</v>
-      </c>
-      <c r="T12" s="113">
-        <v>0</v>
-      </c>
-      <c r="U12" s="122">
-        <v>0</v>
-      </c>
-      <c r="V12" s="113">
-        <v>1</v>
-      </c>
-      <c r="W12" s="113">
-        <v>1</v>
-      </c>
-      <c r="X12" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="113">
+      <c r="E12" s="116">
+        <v>0</v>
+      </c>
+      <c r="F12" s="105">
+        <v>0</v>
+      </c>
+      <c r="G12" s="105">
+        <v>1</v>
+      </c>
+      <c r="H12" s="105">
+        <v>0</v>
+      </c>
+      <c r="I12" s="116">
+        <v>0</v>
+      </c>
+      <c r="J12" s="105">
+        <v>0</v>
+      </c>
+      <c r="K12" s="105">
+        <v>0</v>
+      </c>
+      <c r="L12" s="105">
+        <v>0</v>
+      </c>
+      <c r="M12" s="115">
+        <v>1</v>
+      </c>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="115">
+        <v>0</v>
+      </c>
+      <c r="R12" s="106">
+        <v>0</v>
+      </c>
+      <c r="S12" s="106">
+        <v>0</v>
+      </c>
+      <c r="T12" s="106">
+        <v>0</v>
+      </c>
+      <c r="U12" s="115">
+        <v>0</v>
+      </c>
+      <c r="V12" s="106">
+        <v>1</v>
+      </c>
+      <c r="W12" s="106">
+        <v>1</v>
+      </c>
+      <c r="X12" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="106">
         <v>1</v>
       </c>
     </row>
@@ -10025,408 +10114,430 @@
       <c r="A13" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="114" t="s">
-        <v>385</v>
-      </c>
-      <c r="C13" s="114" t="s">
-        <v>388</v>
+      <c r="B13" s="107" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>387</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
       </c>
-      <c r="E13" s="123">
-        <v>0</v>
-      </c>
-      <c r="F13" s="112">
-        <v>0</v>
-      </c>
-      <c r="G13" s="112">
-        <v>0</v>
-      </c>
-      <c r="H13" s="112">
-        <v>0</v>
-      </c>
-      <c r="I13" s="123">
-        <v>0</v>
-      </c>
-      <c r="J13" s="112">
-        <v>0</v>
-      </c>
-      <c r="K13" s="112">
-        <v>0</v>
-      </c>
-      <c r="L13" s="112">
-        <v>0</v>
-      </c>
-      <c r="M13" s="122">
-        <v>1</v>
-      </c>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="122">
-        <v>0</v>
-      </c>
-      <c r="R13" s="113">
-        <v>1</v>
-      </c>
-      <c r="S13" s="113">
-        <v>0</v>
-      </c>
-      <c r="T13" s="113">
-        <v>0</v>
-      </c>
-      <c r="U13" s="122">
-        <v>0</v>
-      </c>
-      <c r="V13" s="113">
-        <v>0</v>
-      </c>
-      <c r="W13" s="113">
-        <v>0</v>
-      </c>
-      <c r="X13" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="113">
+      <c r="E13" s="116">
+        <v>0</v>
+      </c>
+      <c r="F13" s="105">
+        <v>0</v>
+      </c>
+      <c r="G13" s="105">
+        <v>0</v>
+      </c>
+      <c r="H13" s="105">
+        <v>0</v>
+      </c>
+      <c r="I13" s="116">
+        <v>0</v>
+      </c>
+      <c r="J13" s="105">
+        <v>0</v>
+      </c>
+      <c r="K13" s="105">
+        <v>0</v>
+      </c>
+      <c r="L13" s="105">
+        <v>0</v>
+      </c>
+      <c r="M13" s="115">
+        <v>1</v>
+      </c>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="115">
+        <v>0</v>
+      </c>
+      <c r="R13" s="106">
+        <v>1</v>
+      </c>
+      <c r="S13" s="106">
+        <v>0</v>
+      </c>
+      <c r="T13" s="106">
+        <v>0</v>
+      </c>
+      <c r="U13" s="115">
+        <v>0</v>
+      </c>
+      <c r="V13" s="106">
+        <v>0</v>
+      </c>
+      <c r="W13" s="106">
+        <v>0</v>
+      </c>
+      <c r="X13" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" s="114" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="79" t="s">
         <v>397</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>398</v>
       </c>
       <c r="D14" s="34">
         <v>2059</v>
       </c>
-      <c r="E14" s="123">
-        <v>0</v>
-      </c>
-      <c r="F14" s="112">
-        <v>0</v>
-      </c>
-      <c r="G14" s="112">
-        <v>1</v>
-      </c>
-      <c r="H14" s="112">
-        <v>0</v>
-      </c>
-      <c r="I14" s="123">
-        <v>0</v>
-      </c>
-      <c r="J14" s="112">
-        <v>0</v>
-      </c>
-      <c r="K14" s="112">
-        <v>0</v>
-      </c>
-      <c r="L14" s="112">
-        <v>0</v>
-      </c>
-      <c r="M14" s="122">
-        <v>0</v>
-      </c>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="122">
-        <v>1</v>
-      </c>
-      <c r="R14" s="113">
-        <v>0</v>
-      </c>
-      <c r="S14" s="113">
-        <v>0</v>
-      </c>
-      <c r="T14" s="113">
-        <v>0</v>
-      </c>
-      <c r="U14" s="122">
-        <v>0</v>
-      </c>
-      <c r="V14" s="113">
-        <v>0</v>
-      </c>
-      <c r="W14" s="113">
-        <v>0</v>
-      </c>
-      <c r="X14" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="113">
+      <c r="E14" s="116">
+        <v>0</v>
+      </c>
+      <c r="F14" s="105">
+        <v>0</v>
+      </c>
+      <c r="G14" s="105">
+        <v>1</v>
+      </c>
+      <c r="H14" s="105">
+        <v>0</v>
+      </c>
+      <c r="I14" s="116">
+        <v>0</v>
+      </c>
+      <c r="J14" s="105">
+        <v>0</v>
+      </c>
+      <c r="K14" s="105">
+        <v>0</v>
+      </c>
+      <c r="L14" s="105">
+        <v>0</v>
+      </c>
+      <c r="M14" s="115">
+        <v>0</v>
+      </c>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="115">
+        <v>1</v>
+      </c>
+      <c r="R14" s="106">
+        <v>0</v>
+      </c>
+      <c r="S14" s="106">
+        <v>0</v>
+      </c>
+      <c r="T14" s="106">
+        <v>0</v>
+      </c>
+      <c r="U14" s="115">
+        <v>0</v>
+      </c>
+      <c r="V14" s="106">
+        <v>0</v>
+      </c>
+      <c r="W14" s="106">
+        <v>0</v>
+      </c>
+      <c r="X14" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="B15" s="114" t="s">
-        <v>397</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>399</v>
+        <v>393</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>398</v>
       </c>
       <c r="D15" s="34">
         <v>8451</v>
       </c>
-      <c r="E15" s="123">
-        <v>0</v>
-      </c>
-      <c r="F15" s="112">
-        <v>0</v>
-      </c>
-      <c r="G15" s="112">
-        <v>0</v>
-      </c>
-      <c r="H15" s="112">
-        <v>0</v>
-      </c>
-      <c r="I15" s="123">
-        <v>0</v>
-      </c>
-      <c r="J15" s="112">
-        <v>0</v>
-      </c>
-      <c r="K15" s="112">
-        <v>0</v>
-      </c>
-      <c r="L15" s="112">
-        <v>0</v>
-      </c>
-      <c r="M15" s="122">
-        <v>1</v>
-      </c>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113">
-        <v>1</v>
-      </c>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="122">
-        <v>0</v>
-      </c>
-      <c r="R15" s="113">
-        <v>0</v>
-      </c>
-      <c r="S15" s="113">
-        <v>0</v>
-      </c>
-      <c r="T15" s="113">
-        <v>1</v>
-      </c>
-      <c r="U15" s="122">
-        <v>0</v>
-      </c>
-      <c r="V15" s="113">
-        <v>0</v>
-      </c>
-      <c r="W15" s="113">
-        <v>0</v>
-      </c>
-      <c r="X15" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="113">
+      <c r="E15" s="116">
+        <v>0</v>
+      </c>
+      <c r="F15" s="105">
+        <v>0</v>
+      </c>
+      <c r="G15" s="105">
+        <v>0</v>
+      </c>
+      <c r="H15" s="105">
+        <v>0</v>
+      </c>
+      <c r="I15" s="116">
+        <v>0</v>
+      </c>
+      <c r="J15" s="105">
+        <v>0</v>
+      </c>
+      <c r="K15" s="105">
+        <v>0</v>
+      </c>
+      <c r="L15" s="105">
+        <v>0</v>
+      </c>
+      <c r="M15" s="115">
+        <v>1</v>
+      </c>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106">
+        <v>1</v>
+      </c>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="115">
+        <v>0</v>
+      </c>
+      <c r="R15" s="106">
+        <v>0</v>
+      </c>
+      <c r="S15" s="106">
+        <v>0</v>
+      </c>
+      <c r="T15" s="106">
+        <v>1</v>
+      </c>
+      <c r="U15" s="115">
+        <v>0</v>
+      </c>
+      <c r="V15" s="106">
+        <v>0</v>
+      </c>
+      <c r="W15" s="106">
+        <v>0</v>
+      </c>
+      <c r="X15" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="B16" s="114" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" s="107" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="79" t="s">
         <v>397</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>398</v>
       </c>
       <c r="D16" s="34">
         <v>2059</v>
       </c>
-      <c r="E16" s="123">
-        <v>0</v>
-      </c>
-      <c r="F16" s="112">
-        <v>0</v>
-      </c>
-      <c r="G16" s="112">
-        <v>1</v>
-      </c>
-      <c r="H16" s="112">
-        <v>0</v>
-      </c>
-      <c r="I16" s="123">
-        <v>0</v>
-      </c>
-      <c r="J16" s="112">
-        <v>0</v>
-      </c>
-      <c r="K16" s="112">
-        <v>0</v>
-      </c>
-      <c r="L16" s="112">
-        <v>0</v>
-      </c>
-      <c r="M16" s="122">
-        <v>0</v>
-      </c>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="122">
-        <v>1</v>
-      </c>
-      <c r="R16" s="113">
-        <v>0</v>
-      </c>
-      <c r="S16" s="113">
-        <v>0</v>
-      </c>
-      <c r="T16" s="113">
-        <v>0</v>
-      </c>
-      <c r="U16" s="122">
-        <v>0</v>
-      </c>
-      <c r="V16" s="113">
-        <v>0</v>
-      </c>
-      <c r="W16" s="113">
-        <v>0</v>
-      </c>
-      <c r="X16" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="113">
+      <c r="E16" s="116">
+        <v>0</v>
+      </c>
+      <c r="F16" s="105">
+        <v>0</v>
+      </c>
+      <c r="G16" s="105">
+        <v>1</v>
+      </c>
+      <c r="H16" s="105">
+        <v>0</v>
+      </c>
+      <c r="I16" s="116">
+        <v>0</v>
+      </c>
+      <c r="J16" s="105">
+        <v>0</v>
+      </c>
+      <c r="K16" s="105">
+        <v>0</v>
+      </c>
+      <c r="L16" s="105">
+        <v>0</v>
+      </c>
+      <c r="M16" s="115">
+        <v>0</v>
+      </c>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="115">
+        <v>1</v>
+      </c>
+      <c r="R16" s="106">
+        <v>0</v>
+      </c>
+      <c r="S16" s="106">
+        <v>0</v>
+      </c>
+      <c r="T16" s="106">
+        <v>0</v>
+      </c>
+      <c r="U16" s="115">
+        <v>0</v>
+      </c>
+      <c r="V16" s="106">
+        <v>0</v>
+      </c>
+      <c r="W16" s="106">
+        <v>0</v>
+      </c>
+      <c r="X16" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="106">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="B17" s="114" t="s">
-        <v>397</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>398</v>
       </c>
       <c r="D17" s="34">
         <v>8451</v>
       </c>
-      <c r="E17" s="123">
-        <v>0</v>
-      </c>
-      <c r="F17" s="112">
-        <v>0</v>
-      </c>
-      <c r="G17" s="112">
-        <v>0</v>
-      </c>
-      <c r="H17" s="112">
-        <v>0</v>
-      </c>
-      <c r="I17" s="123">
-        <v>0</v>
-      </c>
-      <c r="J17" s="112">
-        <v>0</v>
-      </c>
-      <c r="K17" s="112">
-        <v>0</v>
-      </c>
-      <c r="L17" s="112">
-        <v>0</v>
-      </c>
-      <c r="M17" s="122">
-        <v>1</v>
-      </c>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113">
-        <v>1</v>
-      </c>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="122">
-        <v>0</v>
-      </c>
-      <c r="R17" s="113">
-        <v>0</v>
-      </c>
-      <c r="S17" s="113">
-        <v>0</v>
-      </c>
-      <c r="T17" s="113">
-        <v>1</v>
-      </c>
-      <c r="U17" s="122">
-        <v>0</v>
-      </c>
-      <c r="V17" s="113">
-        <v>0</v>
-      </c>
-      <c r="W17" s="113">
-        <v>0</v>
-      </c>
-      <c r="X17" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="122">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="113">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="113">
-        <v>1</v>
+      <c r="E17" s="116">
+        <v>0</v>
+      </c>
+      <c r="F17" s="105">
+        <v>0</v>
+      </c>
+      <c r="G17" s="105">
+        <v>0</v>
+      </c>
+      <c r="H17" s="105">
+        <v>0</v>
+      </c>
+      <c r="I17" s="116">
+        <v>0</v>
+      </c>
+      <c r="J17" s="105">
+        <v>0</v>
+      </c>
+      <c r="K17" s="105">
+        <v>0</v>
+      </c>
+      <c r="L17" s="105">
+        <v>0</v>
+      </c>
+      <c r="M17" s="115">
+        <v>1</v>
+      </c>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106">
+        <v>1</v>
+      </c>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="115">
+        <v>0</v>
+      </c>
+      <c r="R17" s="106">
+        <v>0</v>
+      </c>
+      <c r="S17" s="106">
+        <v>0</v>
+      </c>
+      <c r="T17" s="106">
+        <v>1</v>
+      </c>
+      <c r="U17" s="115">
+        <v>0</v>
+      </c>
+      <c r="V17" s="106">
+        <v>0</v>
+      </c>
+      <c r="W17" s="106">
+        <v>0</v>
+      </c>
+      <c r="X17" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="106">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="106">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="54" type="noConversion"/>
+  <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -13,18 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
-    <sheet name="提示" sheetId="37" r:id="rId2"/>
-    <sheet name="继电器" sheetId="67" r:id="rId3"/>
-    <sheet name="resistance" sheetId="63" r:id="rId4"/>
-    <sheet name="param" sheetId="64" r:id="rId5"/>
-    <sheet name="BIBO" sheetId="66" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="68" r:id="rId2"/>
+    <sheet name="提示" sheetId="37" r:id="rId3"/>
+    <sheet name="继电器" sheetId="67" r:id="rId4"/>
+    <sheet name="resistance" sheetId="63" r:id="rId5"/>
+    <sheet name="param" sheetId="64" r:id="rId6"/>
+    <sheet name="BIBO" sheetId="66" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="448">
   <si>
     <t>组序号</t>
   </si>
@@ -2138,11 +2139,151 @@
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
-    <t>闭合交流接触器</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
     <t>断开交流接触器</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开交流接触器</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0001</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x010003</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1029</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4501</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K6</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K7</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K8</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K9</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K10</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0009</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0101</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K1</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K2</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K1</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K2</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0008</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0021</t>
+    </r>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0041</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0401</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K3</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K4</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K3</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K4</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0020</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0040</t>
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
@@ -2162,47 +2303,63 @@
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>断开交流接触器</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0003</t>
-    </r>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0001</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x010003</t>
+    <t>1枪K1-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K2-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K1-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K2-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K3-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K4-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K3-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K4-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K6-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K7-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K8-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K9-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K10-触电</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
 </sst>
@@ -3095,7 +3252,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3191,9 +3348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3215,17 +3369,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3242,9 +3387,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3267,67 +3409,58 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
@@ -3340,18 +3473,12 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3362,9 +3489,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3445,12 +3569,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3492,9 +3640,6 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3853,16 +3998,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="57.54296875" style="1" customWidth="1"/>
@@ -3898,10 +4043,10 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="111" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="20">
@@ -3921,10 +4066,10 @@
       <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="111" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="20">
@@ -3933,7 +4078,7 @@
       <c r="E3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3944,16 +4089,16 @@
       <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="101" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -3967,19 +4112,19 @@
       <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3993,7 +4138,7 @@
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="20">
@@ -4002,7 +4147,7 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -4016,7 +4161,7 @@
       <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="20">
@@ -4025,7 +4170,7 @@
       <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -4036,19 +4181,19 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -4062,7 +4207,7 @@
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20">
@@ -4071,7 +4216,7 @@
       <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -4082,19 +4227,19 @@
       <c r="A10" s="19">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20">
         <v>9</v>
       </c>
-      <c r="E10" s="112" t="s">
+      <c r="E10" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -4108,7 +4253,7 @@
       <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="20">
@@ -4117,7 +4262,7 @@
       <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -4128,19 +4273,19 @@
       <c r="A12" s="19">
         <v>1</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="20">
         <v>11</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -4151,19 +4296,19 @@
       <c r="A13" s="19">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="20">
         <v>12</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -4174,19 +4319,19 @@
       <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="20">
         <v>13</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -4194,20 +4339,20 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135" t="s">
+      <c r="A15" s="132"/>
+      <c r="B15" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="132" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
-      <c r="E15" s="112" t="s">
+      <c r="E15" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -4215,16 +4360,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -4232,16 +4377,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
-      <c r="E17" s="112" t="s">
+      <c r="E17" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -4249,16 +4394,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="E18" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -4266,16 +4411,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -4286,19 +4431,19 @@
       <c r="A20" s="19">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="108" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="20">
         <v>19</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -4309,19 +4454,19 @@
       <c r="A21" s="19">
         <v>1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="108" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="20">
         <v>20</v>
       </c>
-      <c r="E21" s="112" t="s">
+      <c r="E21" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="70" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -4329,20 +4474,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
-      <c r="B22" s="129" t="s">
+      <c r="A22" s="126"/>
+      <c r="B22" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="126" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
-      <c r="E22" s="112" t="s">
+      <c r="E22" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -4350,16 +4495,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
-      <c r="E23" s="112" t="s">
+      <c r="E23" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -4367,16 +4512,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="E24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -4384,16 +4529,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="110" t="s">
+      <c r="E25" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -4401,16 +4546,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="136"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="77" t="s">
+      <c r="F26" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -4419,19 +4564,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="108" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="20">
         <v>26</v>
       </c>
-      <c r="E27" s="112" t="s">
+      <c r="E27" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -4443,16 +4588,16 @@
       <c r="B28" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="108" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="20">
         <v>27</v>
       </c>
-      <c r="E28" s="112" t="s">
+      <c r="E28" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="76" t="s">
+      <c r="F28" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -4460,109 +4605,109 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="140"/>
-      <c r="B29" s="137" t="s">
+      <c r="A29" s="137"/>
+      <c r="B29" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="134" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
         <v>28</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="E29" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="71" t="s">
+      <c r="F29" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="138"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
-      <c r="E30" s="112" t="s">
+      <c r="E30" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="71" t="s">
+      <c r="F30" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="138"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
-      <c r="E31" s="112" t="s">
+      <c r="E31" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="71" t="s">
+      <c r="F31" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="138"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
-      <c r="E32" s="112" t="s">
+      <c r="E32" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="71" t="s">
+      <c r="F32" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="139"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="109" t="s">
+      <c r="E33" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="71" t="s">
+      <c r="F33" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="64" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
-      <c r="B34" s="127" t="s">
+      <c r="A34" s="124"/>
+      <c r="B34" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="124" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
         <v>33</v>
       </c>
-      <c r="E34" s="112" t="s">
+      <c r="E34" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="76" t="s">
+      <c r="F34" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -4570,16 +4715,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
-      <c r="E35" s="112" t="s">
+      <c r="E35" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="76" t="s">
+      <c r="F35" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -4587,20 +4732,20 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="127"/>
-      <c r="B36" s="127" t="s">
+      <c r="A36" s="124"/>
+      <c r="B36" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="132" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
-      <c r="E36" s="112" t="s">
+      <c r="E36" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="71" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -4608,16 +4753,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="127"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
-      <c r="E37" s="112" t="s">
+      <c r="E37" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="76" t="s">
+      <c r="F37" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="4">
@@ -4625,20 +4770,20 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="127"/>
-      <c r="B38" s="134" t="s">
+      <c r="A38" s="124"/>
+      <c r="B38" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="131" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
-      <c r="E38" s="112" t="s">
+      <c r="E38" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="77" t="s">
+      <c r="F38" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="8">
@@ -4646,16 +4791,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="76" t="s">
+      <c r="F39" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="4">
@@ -4663,11 +4808,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="127"/>
-      <c r="B40" s="127" t="s">
+      <c r="A40" s="124"/>
+      <c r="B40" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="131" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4676,87 +4821,87 @@
       <c r="E40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="60" t="s">
+      <c r="F40" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="127"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="60" t="s">
+      <c r="F41" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="127"/>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="60" t="s">
+      <c r="F42" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="127"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="60" t="s">
+      <c r="F43" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="127"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="60" t="s">
+      <c r="F44" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="127">
+      <c r="A45" s="124">
         <v>13</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127" t="s">
+      <c r="B45" s="124"/>
+      <c r="C45" s="124" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4765,19 +4910,19 @@
       <c r="E45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="60" t="s">
+      <c r="F45" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="121" t="s">
+      <c r="C46" s="110" t="s">
         <v>167</v>
       </c>
       <c r="D46" s="20">
@@ -4786,19 +4931,19 @@
       <c r="E46" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="77" t="s">
+      <c r="F46" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="G46" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="119" t="s">
+      <c r="C47" s="108" t="s">
         <v>76</v>
       </c>
       <c r="D47" s="20">
@@ -4807,7 +4952,7 @@
       <c r="E47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="70" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -4816,10 +4961,10 @@
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="121" t="s">
+      <c r="C48" s="110" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="20">
@@ -4828,7 +4973,7 @@
       <c r="E48" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="77" t="s">
+      <c r="F48" s="70" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -4836,20 +4981,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="128"/>
-      <c r="B49" s="132" t="s">
+      <c r="A49" s="125"/>
+      <c r="B49" s="129" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="133" t="s">
+      <c r="C49" s="130" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="79" t="s">
+      <c r="F49" s="72" t="s">
         <v>217</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -4857,16 +5002,16 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="127"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E50" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="79" t="s">
+      <c r="F50" s="72" t="s">
         <v>218</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -4874,16 +5019,16 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="127"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F51" s="72" t="s">
         <v>219</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -4891,53 +5036,53 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="49"/>
+      <c r="B52" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="119" t="s">
+      <c r="C52" s="108" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="78" t="s">
+      <c r="F52" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="69">
+      <c r="G52" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
-      <c r="B53" s="49" t="s">
+      <c r="A53" s="49"/>
+      <c r="B53" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="121" t="s">
+      <c r="C53" s="110" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="20">
         <v>52</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="67">
+      <c r="F53" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="60">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="119" t="s">
+      <c r="C54" s="108" t="s">
         <v>129</v>
       </c>
       <c r="D54" s="20">
@@ -4946,7 +5091,7 @@
       <c r="E54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="76" t="s">
+      <c r="F54" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -4955,19 +5100,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="121" t="s">
+      <c r="C55" s="110" t="s">
         <v>130</v>
       </c>
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="124" t="s">
+      <c r="E55" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="76" t="s">
+      <c r="F55" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -4975,11 +5120,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="129"/>
-      <c r="B56" s="131" t="s">
+      <c r="A56" s="126"/>
+      <c r="B56" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="129" t="s">
+      <c r="C56" s="126" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -4988,7 +5133,7 @@
       <c r="E56" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="76" t="s">
+      <c r="F56" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -4996,16 +5141,16 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="130"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="127"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F57" s="76" t="s">
+      <c r="F57" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="28">
@@ -5013,16 +5158,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="130"/>
-      <c r="B58" s="130"/>
-      <c r="C58" s="130"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F58" s="76" t="s">
+      <c r="F58" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="28">
@@ -5030,16 +5175,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="130"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="130"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="76" t="s">
+      <c r="F59" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="28" t="s">
@@ -5047,16 +5192,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="130"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="130"/>
+      <c r="A60" s="127"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="76" t="s">
+      <c r="F60" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="28">
@@ -5064,16 +5209,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="130"/>
-      <c r="B61" s="130"/>
-      <c r="C61" s="130"/>
+      <c r="A61" s="127"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="127"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="76" t="s">
+      <c r="F61" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="28">
@@ -5081,16 +5226,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="130"/>
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="76" t="s">
+      <c r="F62" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
@@ -5099,10 +5244,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="119" t="s">
+      <c r="C63" s="108" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="20">
@@ -5111,7 +5256,7 @@
       <c r="E63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="76" t="s">
+      <c r="F63" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -5120,10 +5265,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="121" t="s">
+      <c r="C64" s="110" t="s">
         <v>241</v>
       </c>
       <c r="D64" s="20">
@@ -5132,7 +5277,7 @@
       <c r="E64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="76" t="s">
+      <c r="F64" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -5140,129 +5285,129 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="128"/>
-      <c r="B65" s="132" t="s">
+      <c r="A65" s="125"/>
+      <c r="B65" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="133" t="s">
+      <c r="C65" s="130" t="s">
         <v>289</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="55" t="s">
+      <c r="E65" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="F65" s="79" t="s">
+      <c r="F65" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="G65" s="53" t="s">
+      <c r="G65" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="127"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="127"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="79" t="s">
+      <c r="F66" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="53" t="s">
+      <c r="G66" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="127"/>
-      <c r="B67" s="127"/>
-      <c r="C67" s="127"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="55" t="s">
+      <c r="E67" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="79" t="s">
+      <c r="F67" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="G67" s="53" t="s">
+      <c r="G67" s="48" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="49"/>
-      <c r="B68" s="72" t="s">
+      <c r="A68" s="45"/>
+      <c r="B68" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="45" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="73" t="s">
+      <c r="E68" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="F68" s="78" t="s">
+      <c r="F68" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="69">
+      <c r="G68" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="49"/>
-      <c r="B69" s="49" t="s">
+      <c r="A69" s="45"/>
+      <c r="B69" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C69" s="121" t="s">
+      <c r="C69" s="110" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="50" t="s">
+      <c r="E69" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="F69" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="68">
+      <c r="F69" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="61">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
-      <c r="B70" s="41" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="119" t="s">
+      <c r="C70" s="108" t="s">
         <v>129</v>
       </c>
       <c r="D70" s="20">
         <v>69</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="39" t="s">
+      <c r="F70" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="121" t="s">
+      <c r="C71" s="110" t="s">
         <v>130</v>
       </c>
       <c r="D71" s="20">
@@ -5271,7 +5416,7 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="76" t="s">
+      <c r="F71" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -5279,134 +5424,134 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="129"/>
-      <c r="B72" s="131" t="s">
+      <c r="A72" s="126"/>
+      <c r="B72" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="129" t="s">
+      <c r="C72" s="126" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E72" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F72" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="37" t="s">
+      <c r="F72" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="36" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="130"/>
-      <c r="B73" s="130"/>
-      <c r="C73" s="130"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="127"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E73" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F73" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="38">
+      <c r="F73" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="37">
         <v>2.77</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="130"/>
-      <c r="B74" s="130"/>
-      <c r="C74" s="130"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="127"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="F74" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="38">
+      <c r="F74" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="37">
         <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="130"/>
-      <c r="B75" s="130"/>
-      <c r="C75" s="130"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="127"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="38" t="s">
+      <c r="F75" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="130"/>
-      <c r="B76" s="130"/>
-      <c r="C76" s="130"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="F76" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="38">
+      <c r="F76" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="37">
         <v>2.77</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="130"/>
-      <c r="B77" s="130"/>
-      <c r="C77" s="130"/>
+      <c r="A77" s="127"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="127"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="38">
+      <c r="F77" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="37">
         <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="130"/>
-      <c r="B78" s="130"/>
-      <c r="C78" s="130"/>
+      <c r="A78" s="127"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="127"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
-      <c r="E78" s="40" t="s">
+      <c r="E78" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="F78" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="38" t="s">
+      <c r="F78" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="119" t="s">
+      <c r="C79" s="108" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="20">
@@ -5415,7 +5560,7 @@
       <c r="E79" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="76" t="s">
+      <c r="F79" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -5424,10 +5569,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="121" t="s">
+      <c r="C80" s="110" t="s">
         <v>241</v>
       </c>
       <c r="D80" s="20">
@@ -5436,7 +5581,7 @@
       <c r="E80" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="76" t="s">
+      <c r="F80" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -5444,11 +5589,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="135"/>
-      <c r="B81" s="135" t="s">
+      <c r="A81" s="132"/>
+      <c r="B81" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="134" t="s">
+      <c r="C81" s="131" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5457,7 +5602,7 @@
       <c r="E81" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F81" s="76" t="s">
+      <c r="F81" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -5465,16 +5610,16 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="127"/>
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="76" t="s">
+      <c r="F82" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -5482,16 +5627,16 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="127"/>
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
+      <c r="A83" s="124"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="76" t="s">
+      <c r="F83" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -5499,16 +5644,16 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="127"/>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="76" t="s">
+      <c r="F84" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -5517,19 +5662,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="121" t="s">
+      <c r="C85" s="110" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="20">
         <v>84</v>
       </c>
-      <c r="E85" s="112" t="s">
+      <c r="E85" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="77" t="s">
+      <c r="F85" s="70" t="s">
         <v>91</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -5538,19 +5683,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="119" t="s">
+      <c r="C86" s="108" t="s">
         <v>76</v>
       </c>
       <c r="D86" s="20">
         <v>85</v>
       </c>
-      <c r="E86" s="112" t="s">
+      <c r="E86" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="76" t="s">
+      <c r="F86" s="69" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -5559,19 +5704,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="121" t="s">
+      <c r="C87" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="D87" s="75">
+      <c r="D87" s="68">
         <v>86</v>
       </c>
-      <c r="E87" s="112" t="s">
+      <c r="E87" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="78" t="s">
+      <c r="F87" s="71" t="s">
         <v>73</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -5580,19 +5725,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="121" t="s">
+      <c r="C88" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="D88" s="75">
+      <c r="D88" s="68">
         <v>87</v>
       </c>
-      <c r="E88" s="109" t="s">
+      <c r="E88" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="F88" s="76">
+      <c r="F88" s="69">
         <v>20</v>
       </c>
       <c r="G88" s="31" t="s">
@@ -5601,19 +5746,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="121" t="s">
+      <c r="C89" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="75">
+      <c r="D89" s="68">
         <v>88</v>
       </c>
-      <c r="E89" s="109" t="s">
+      <c r="E89" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="76">
+      <c r="F89" s="69">
         <v>20</v>
       </c>
       <c r="G89" s="32" t="s">
@@ -5622,19 +5767,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="121" t="s">
+      <c r="C90" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="75">
+      <c r="D90" s="68">
         <v>89</v>
       </c>
-      <c r="E90" s="109" t="s">
+      <c r="E90" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="F90" s="77">
+      <c r="F90" s="70">
         <v>3</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -5643,952 +5788,1246 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
-      <c r="B91" s="60" t="s">
+      <c r="B91" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="C91" s="122" t="s">
+      <c r="C91" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="75">
+      <c r="D91" s="68">
         <v>90</v>
       </c>
-      <c r="E91" s="109" t="s">
+      <c r="E91" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="F91" s="77" t="s">
+      <c r="F91" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G91" s="60" t="s">
+      <c r="G91" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="60" t="s">
+      <c r="B92" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="C92" s="122" t="s">
+      <c r="C92" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="75">
+      <c r="D92" s="68">
         <v>91</v>
       </c>
-      <c r="E92" s="109" t="s">
+      <c r="E92" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="77" t="s">
+      <c r="F92" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G92" s="60" t="s">
+      <c r="G92" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="60" t="s">
+      <c r="B93" s="116" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="122" t="s">
+      <c r="C93" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="75">
+      <c r="D93" s="68">
         <v>92</v>
       </c>
-      <c r="E93" s="109" t="s">
+      <c r="E93" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="F93" s="77" t="s">
+      <c r="F93" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G93" s="60" t="s">
+      <c r="G93" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="60" t="s">
+      <c r="B94" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="C94" s="122" t="s">
+      <c r="C94" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="75">
+      <c r="D94" s="68">
         <v>93</v>
       </c>
-      <c r="E94" s="109" t="s">
+      <c r="E94" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="F94" s="77" t="s">
+      <c r="F94" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="60" t="s">
+      <c r="G94" s="55" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="C95" s="122" t="s">
+      <c r="C95" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="75">
+      <c r="D95" s="68">
         <v>94</v>
       </c>
-      <c r="E95" s="109" t="s">
+      <c r="E95" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="F95" s="77" t="s">
+      <c r="F95" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G95" s="60" t="s">
+      <c r="G95" s="55" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="60" t="s">
+      <c r="B96" s="116" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="122" t="s">
+      <c r="C96" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="75">
+      <c r="D96" s="68">
         <v>95</v>
       </c>
-      <c r="E96" s="109" t="s">
+      <c r="E96" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="F96" s="77" t="s">
+      <c r="F96" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G96" s="60" t="s">
+      <c r="G96" s="55" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="75"/>
-      <c r="B97" s="75" t="s">
+      <c r="A97" s="68"/>
+      <c r="B97" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="C97" s="122" t="s">
+      <c r="C97" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="D97" s="75">
+      <c r="D97" s="68">
         <v>96</v>
       </c>
-      <c r="E97" s="109" t="s">
+      <c r="E97" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="F97" s="77" t="s">
+      <c r="F97" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="70" t="s">
+      <c r="G97" s="63" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="75"/>
-      <c r="B98" s="75" t="s">
+      <c r="A98" s="68"/>
+      <c r="B98" s="117" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="122" t="s">
+      <c r="C98" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="75">
+      <c r="D98" s="68">
         <v>97</v>
       </c>
-      <c r="E98" s="109" t="s">
+      <c r="E98" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="F98" s="77" t="s">
+      <c r="F98" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="74" t="s">
+      <c r="G98" s="67" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="125"/>
-      <c r="B99" s="125" t="s">
+      <c r="A99" s="122"/>
+      <c r="B99" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="C99" s="125" t="s">
+      <c r="C99" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="D99" s="93">
+      <c r="D99" s="83">
         <v>98</v>
       </c>
-      <c r="E99" s="109" t="s">
+      <c r="E99" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="F99" s="92" t="s">
+      <c r="F99" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="G99" s="92" t="s">
+      <c r="G99" s="82" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="125"/>
-      <c r="B100" s="125"/>
-      <c r="C100" s="125"/>
-      <c r="D100" s="93">
+      <c r="A100" s="122"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="83">
         <v>99</v>
       </c>
-      <c r="E100" s="109" t="s">
+      <c r="E100" s="98" t="s">
         <v>303</v>
       </c>
-      <c r="F100" s="92" t="s">
+      <c r="F100" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="G100" s="92" t="s">
+      <c r="G100" s="82" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="125"/>
-      <c r="B101" s="125"/>
-      <c r="C101" s="125"/>
-      <c r="D101" s="93">
+      <c r="A101" s="122"/>
+      <c r="B101" s="122"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="83">
         <v>100</v>
       </c>
-      <c r="E101" s="109" t="s">
+      <c r="E101" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="F101" s="92" t="s">
+      <c r="F101" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="92" t="s">
+      <c r="G101" s="82" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="95"/>
-      <c r="B102" s="94" t="s">
+      <c r="A102" s="84"/>
+      <c r="B102" s="118" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="123" t="s">
+      <c r="C102" s="112" t="s">
         <v>311</v>
       </c>
-      <c r="D102" s="93">
+      <c r="D102" s="83">
         <v>101</v>
       </c>
-      <c r="E102" s="109" t="s">
+      <c r="E102" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="F102" s="92" t="s">
+      <c r="F102" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="G102" s="92" t="s">
+      <c r="G102" s="82" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="125"/>
-      <c r="B103" s="125" t="s">
+      <c r="A103" s="122"/>
+      <c r="B103" s="122" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="125" t="s">
+      <c r="C103" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="87">
+      <c r="D103" s="78">
         <v>102</v>
       </c>
-      <c r="E103" s="109" t="s">
+      <c r="E103" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="F103" s="80" t="s">
+      <c r="F103" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="80" t="s">
+      <c r="G103" s="73" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="126"/>
-      <c r="B104" s="126"/>
-      <c r="C104" s="126"/>
-      <c r="D104" s="87">
+      <c r="A104" s="123"/>
+      <c r="B104" s="123"/>
+      <c r="C104" s="123"/>
+      <c r="D104" s="78">
         <v>103</v>
       </c>
-      <c r="E104" s="110" t="s">
+      <c r="E104" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="80" t="s">
+      <c r="F104" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="G104" s="80" t="s">
+      <c r="G104" s="73" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="126"/>
-      <c r="B105" s="126"/>
-      <c r="C105" s="126"/>
-      <c r="D105" s="87">
+      <c r="A105" s="123"/>
+      <c r="B105" s="123"/>
+      <c r="C105" s="123"/>
+      <c r="D105" s="78">
         <v>104</v>
       </c>
-      <c r="E105" s="110" t="s">
+      <c r="E105" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F105" s="80" t="s">
+      <c r="F105" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="80" t="s">
+      <c r="G105" s="73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="84"/>
-      <c r="B106" s="81" t="s">
+    <row r="106" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="76"/>
+      <c r="B106" s="116" t="s">
         <v>302</v>
       </c>
-      <c r="C106" s="122" t="s">
+      <c r="C106" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D106" s="111">
+      <c r="D106" s="100">
         <v>105</v>
       </c>
-      <c r="E106" s="109" t="s">
+      <c r="E106" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="F106" s="80" t="s">
+      <c r="F106" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="G106" s="80" t="s">
+      <c r="G106" s="73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="88"/>
-      <c r="B107" s="87" t="s">
+    <row r="107" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="79"/>
+      <c r="B107" s="117" t="s">
         <v>305</v>
       </c>
-      <c r="C107" s="122" t="s">
+      <c r="C107" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D107" s="111">
+      <c r="D107" s="100">
         <v>106</v>
       </c>
-      <c r="E107" s="111" t="s">
+      <c r="E107" s="100" t="s">
         <v>305</v>
       </c>
-      <c r="F107" s="85" t="s">
+      <c r="F107" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G107" s="85" t="s">
+      <c r="G107" s="77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="88"/>
-      <c r="B108" s="87" t="s">
+    <row r="108" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="79"/>
+      <c r="B108" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="C108" s="122" t="s">
+      <c r="C108" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D108" s="111">
+      <c r="D108" s="100">
         <v>107</v>
       </c>
-      <c r="E108" s="111" t="s">
+      <c r="E108" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="F108" s="85" t="s">
+      <c r="F108" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G108" s="85" t="s">
+      <c r="G108" s="77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="88"/>
-      <c r="B109" s="87" t="s">
+    <row r="109" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="79"/>
+      <c r="B109" s="117" t="s">
         <v>307</v>
       </c>
-      <c r="C109" s="122" t="s">
+      <c r="C109" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D109" s="111">
+      <c r="D109" s="100">
         <v>108</v>
       </c>
-      <c r="E109" s="111" t="s">
+      <c r="E109" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="F109" s="85" t="s">
+      <c r="F109" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="85" t="s">
+      <c r="G109" s="77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="88"/>
-      <c r="B110" s="87" t="s">
+    <row r="110" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="79"/>
+      <c r="B110" s="117" t="s">
         <v>308</v>
       </c>
-      <c r="C110" s="122" t="s">
+      <c r="C110" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="111">
+      <c r="D110" s="100">
         <v>109</v>
       </c>
-      <c r="E110" s="111" t="s">
+      <c r="E110" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="F110" s="85" t="s">
+      <c r="F110" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G110" s="85" t="s">
+      <c r="G110" s="77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="83" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="88"/>
-      <c r="B111" s="86" t="s">
+    <row r="111" spans="1:7" s="75" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="79"/>
+      <c r="B111" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="C111" s="122" t="s">
+      <c r="C111" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="111">
+      <c r="D111" s="100">
         <v>110</v>
       </c>
-      <c r="E111" s="109" t="s">
+      <c r="E111" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="F111" s="85" t="s">
+      <c r="F111" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="G111" s="85" t="s">
+      <c r="G111" s="77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="83" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="90"/>
-      <c r="B112" s="89" t="s">
+    <row r="112" spans="1:7" s="75" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="80"/>
+      <c r="B112" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="122" t="s">
+      <c r="C112" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D112" s="111">
+      <c r="D112" s="100">
         <v>111</v>
       </c>
-      <c r="E112" s="109" t="s">
+      <c r="E112" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="F112" s="91" t="s">
+      <c r="F112" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="G112" s="91" t="s">
+      <c r="G112" s="81" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="113"/>
-      <c r="B113" s="113" t="s">
-        <v>362</v>
-      </c>
-      <c r="C113" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D113" s="111">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="102"/>
+      <c r="B113" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D113" s="117">
         <v>112</v>
       </c>
-      <c r="E113" s="109" t="s">
-        <v>340</v>
-      </c>
-      <c r="F113" s="99" t="s">
-        <v>343</v>
-      </c>
-      <c r="G113" s="99" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="113"/>
-      <c r="B114" s="113" t="s">
-        <v>363</v>
-      </c>
-      <c r="C114" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D114" s="111">
+      <c r="E113" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="F113" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" s="91">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="102"/>
+      <c r="B114" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C114" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D114" s="117">
         <v>113</v>
       </c>
-      <c r="E114" s="109" t="s">
-        <v>340</v>
-      </c>
-      <c r="F114" s="112" t="s">
-        <v>343</v>
-      </c>
-      <c r="G114" s="109" t="s">
-        <v>240</v>
+      <c r="E114" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="F114" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G114" s="91">
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="113"/>
-      <c r="B115" s="113" t="s">
-        <v>364</v>
-      </c>
-      <c r="C115" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D115" s="111">
+      <c r="A115" s="102"/>
+      <c r="B115" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D115" s="117">
         <v>114</v>
       </c>
-      <c r="E115" s="109" t="s">
-        <v>341</v>
-      </c>
-      <c r="F115" s="99" t="s">
-        <v>344</v>
-      </c>
-      <c r="G115" s="99" t="s">
-        <v>239</v>
+      <c r="E115" s="98" t="s">
+        <v>356</v>
+      </c>
+      <c r="F115" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G115" s="91">
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="113"/>
-      <c r="B116" s="113" t="s">
-        <v>365</v>
-      </c>
-      <c r="C116" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D116" s="111">
+      <c r="A116" s="102"/>
+      <c r="B116" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D116" s="117">
         <v>115</v>
       </c>
-      <c r="E116" s="109" t="s">
-        <v>341</v>
-      </c>
-      <c r="F116" s="99" t="s">
-        <v>344</v>
-      </c>
-      <c r="G116" s="99" t="s">
-        <v>240</v>
+      <c r="E116" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="F116" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G116" s="91">
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="113"/>
-      <c r="B117" s="113" t="s">
-        <v>366</v>
-      </c>
-      <c r="C117" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D117" s="111">
+      <c r="A117" s="102"/>
+      <c r="B117" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D117" s="117">
         <v>116</v>
       </c>
-      <c r="E117" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F117" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="G117" s="112" t="s">
-        <v>239</v>
+      <c r="E117" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="F117" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G117" s="91">
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="113"/>
-      <c r="B118" s="113" t="s">
-        <v>367</v>
-      </c>
-      <c r="C118" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D118" s="111">
+      <c r="A118" s="102"/>
+      <c r="B118" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D118" s="117">
         <v>117</v>
       </c>
-      <c r="E118" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F118" s="112" t="s">
-        <v>345</v>
-      </c>
-      <c r="G118" s="112" t="s">
-        <v>239</v>
+      <c r="E118" s="98" t="s">
+        <v>353</v>
+      </c>
+      <c r="F118" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G118" s="91">
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="113"/>
-      <c r="B119" s="113" t="s">
-        <v>368</v>
-      </c>
-      <c r="C119" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D119" s="111">
+      <c r="A119" s="102"/>
+      <c r="B119" s="116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C119" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D119" s="117">
         <v>118</v>
       </c>
-      <c r="E119" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F119" s="112" t="s">
-        <v>345</v>
-      </c>
-      <c r="G119" s="112" t="s">
-        <v>239</v>
+      <c r="E119" s="98" t="s">
+        <v>354</v>
+      </c>
+      <c r="F119" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" s="90">
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="113"/>
-      <c r="B120" s="113" t="s">
-        <v>369</v>
-      </c>
-      <c r="C120" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D120" s="111">
+      <c r="A120" s="110"/>
+      <c r="B120" s="116" t="s">
+        <v>401</v>
+      </c>
+      <c r="C120" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D120" s="117">
         <v>119</v>
       </c>
-      <c r="E120" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F120" s="112" t="s">
-        <v>345</v>
-      </c>
-      <c r="G120" s="112" t="s">
-        <v>240</v>
+      <c r="E120" s="110" t="s">
+        <v>403</v>
+      </c>
+      <c r="F120" s="110" t="s">
+        <v>402</v>
+      </c>
+      <c r="G120" s="110" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="113"/>
-      <c r="B121" s="113" t="s">
-        <v>370</v>
-      </c>
-      <c r="C121" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D121" s="111">
+      <c r="A121" s="114"/>
+      <c r="B121" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="C121" s="114" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" s="117">
         <v>120</v>
       </c>
-      <c r="E121" s="109" t="s">
-        <v>291</v>
-      </c>
-      <c r="F121" s="99" t="s">
-        <v>346</v>
-      </c>
-      <c r="G121" s="112" t="s">
-        <v>239</v>
+      <c r="E121" s="114" t="s">
+        <v>399</v>
+      </c>
+      <c r="F121" s="114" t="s">
+        <v>402</v>
+      </c>
+      <c r="G121" s="114" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="113"/>
-      <c r="B122" s="113" t="s">
-        <v>371</v>
-      </c>
-      <c r="C122" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D122" s="111">
+      <c r="A122" s="114"/>
+      <c r="B122" s="116" t="s">
+        <v>400</v>
+      </c>
+      <c r="C122" s="114" t="s">
+        <v>349</v>
+      </c>
+      <c r="D122" s="117">
         <v>121</v>
       </c>
-      <c r="E122" s="109" t="s">
-        <v>291</v>
-      </c>
-      <c r="F122" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="G122" s="112" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="113"/>
-      <c r="B123" s="113" t="s">
-        <v>372</v>
-      </c>
-      <c r="C123" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D123" s="111">
+      <c r="E122" s="114" t="s">
+        <v>400</v>
+      </c>
+      <c r="F122" s="114" t="s">
+        <v>402</v>
+      </c>
+      <c r="G122" s="114" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="120"/>
+      <c r="B123" s="120" t="s">
+        <v>416</v>
+      </c>
+      <c r="C123" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D123" s="119">
         <v>122</v>
       </c>
-      <c r="E123" s="109" t="s">
-        <v>291</v>
-      </c>
-      <c r="F123" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="G123" s="112" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="113"/>
-      <c r="B124" s="113" t="s">
-        <v>373</v>
-      </c>
-      <c r="C124" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D124" s="111">
+      <c r="E123" s="120" t="s">
+        <v>416</v>
+      </c>
+      <c r="F123" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G123" s="120" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="120"/>
+      <c r="B124" s="120" t="s">
+        <v>417</v>
+      </c>
+      <c r="C124" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D124" s="119">
         <v>123</v>
       </c>
-      <c r="E124" s="109" t="s">
-        <v>291</v>
-      </c>
-      <c r="F124" s="112" t="s">
-        <v>346</v>
-      </c>
-      <c r="G124" s="112" t="s">
-        <v>240</v>
+      <c r="E124" s="120" t="s">
+        <v>417</v>
+      </c>
+      <c r="F124" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G124" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="113"/>
-      <c r="B125" s="113" t="s">
-        <v>375</v>
-      </c>
-      <c r="C125" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D125" s="111">
+      <c r="A125" s="120"/>
+      <c r="B125" s="120" t="s">
+        <v>418</v>
+      </c>
+      <c r="C125" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D125" s="119">
         <v>124</v>
       </c>
-      <c r="E125" s="109" t="s">
-        <v>292</v>
-      </c>
-      <c r="F125" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="G125" s="112" t="s">
-        <v>239</v>
+      <c r="E125" s="120" t="s">
+        <v>418</v>
+      </c>
+      <c r="F125" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G125" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="113"/>
-      <c r="B126" s="113" t="s">
-        <v>376</v>
-      </c>
-      <c r="C126" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D126" s="111">
+      <c r="A126" s="120"/>
+      <c r="B126" s="120" t="s">
+        <v>419</v>
+      </c>
+      <c r="C126" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D126" s="119">
         <v>125</v>
       </c>
-      <c r="E126" s="109" t="s">
-        <v>292</v>
-      </c>
-      <c r="F126" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="G126" s="112" t="s">
-        <v>239</v>
+      <c r="E126" s="120" t="s">
+        <v>419</v>
+      </c>
+      <c r="F126" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G126" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="113"/>
-      <c r="B127" s="113" t="s">
-        <v>377</v>
-      </c>
-      <c r="C127" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D127" s="111">
+      <c r="A127" s="120"/>
+      <c r="B127" s="120" t="s">
+        <v>426</v>
+      </c>
+      <c r="C127" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D127" s="119">
         <v>126</v>
       </c>
-      <c r="E127" s="109" t="s">
-        <v>292</v>
-      </c>
-      <c r="F127" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="G127" s="112" t="s">
-        <v>239</v>
+      <c r="E127" s="120" t="s">
+        <v>426</v>
+      </c>
+      <c r="F127" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G127" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="113"/>
-      <c r="B128" s="113" t="s">
-        <v>374</v>
-      </c>
-      <c r="C128" s="121" t="s">
-        <v>298</v>
-      </c>
-      <c r="D128" s="111">
+      <c r="A128" s="120"/>
+      <c r="B128" s="120" t="s">
+        <v>427</v>
+      </c>
+      <c r="C128" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D128" s="119">
         <v>127</v>
       </c>
-      <c r="E128" s="109" t="s">
-        <v>292</v>
-      </c>
-      <c r="F128" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="G128" s="112" t="s">
-        <v>240</v>
+      <c r="E128" s="120" t="s">
+        <v>427</v>
+      </c>
+      <c r="F128" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G128" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="113"/>
-      <c r="B129" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="C129" s="121" t="s">
-        <v>349</v>
-      </c>
-      <c r="D129" s="111">
+      <c r="A129" s="120"/>
+      <c r="B129" s="120" t="s">
+        <v>428</v>
+      </c>
+      <c r="C129" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D129" s="119">
         <v>128</v>
       </c>
-      <c r="E129" s="109" t="s">
-        <v>350</v>
-      </c>
-      <c r="F129" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="G129" s="102">
-        <v>300</v>
+      <c r="E129" s="120" t="s">
+        <v>428</v>
+      </c>
+      <c r="F129" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G129" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="113"/>
-      <c r="B130" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="C130" s="121" t="s">
-        <v>349</v>
-      </c>
-      <c r="D130" s="111">
+      <c r="A130" s="120"/>
+      <c r="B130" s="120" t="s">
+        <v>429</v>
+      </c>
+      <c r="C130" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D130" s="119">
         <v>129</v>
       </c>
-      <c r="E130" s="109" t="s">
-        <v>355</v>
-      </c>
-      <c r="F130" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="G130" s="102">
-        <v>300</v>
+      <c r="E130" s="120" t="s">
+        <v>429</v>
+      </c>
+      <c r="F130" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G130" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="113"/>
-      <c r="B131" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="C131" s="121" t="s">
-        <v>349</v>
-      </c>
-      <c r="D131" s="111">
+      <c r="A131" s="120"/>
+      <c r="B131" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C131" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D131" s="119">
         <v>130</v>
       </c>
-      <c r="E131" s="109" t="s">
-        <v>356</v>
-      </c>
-      <c r="F131" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="G131" s="102">
-        <v>300</v>
+      <c r="E131" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="F131" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G131" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="113"/>
-      <c r="B132" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="C132" s="121" t="s">
-        <v>349</v>
-      </c>
-      <c r="D132" s="111">
+      <c r="A132" s="120"/>
+      <c r="B132" s="120" t="s">
+        <v>409</v>
+      </c>
+      <c r="C132" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D132" s="119">
         <v>131</v>
       </c>
-      <c r="E132" s="109" t="s">
-        <v>352</v>
-      </c>
-      <c r="F132" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="G132" s="102">
-        <v>300</v>
+      <c r="E132" s="120" t="s">
+        <v>409</v>
+      </c>
+      <c r="F132" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G132" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="113"/>
-      <c r="B133" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="C133" s="121" t="s">
-        <v>349</v>
-      </c>
-      <c r="D133" s="111">
+      <c r="A133" s="120"/>
+      <c r="B133" s="120" t="s">
+        <v>410</v>
+      </c>
+      <c r="C133" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D133" s="119">
         <v>132</v>
       </c>
-      <c r="E133" s="109" t="s">
-        <v>357</v>
-      </c>
-      <c r="F133" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="G133" s="102">
-        <v>300</v>
+      <c r="E133" s="120" t="s">
+        <v>410</v>
+      </c>
+      <c r="F133" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G133" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="113"/>
-      <c r="B134" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="C134" s="121" t="s">
-        <v>349</v>
-      </c>
-      <c r="D134" s="111">
+      <c r="A134" s="120"/>
+      <c r="B134" s="120" t="s">
+        <v>411</v>
+      </c>
+      <c r="C134" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D134" s="119">
         <v>133</v>
       </c>
-      <c r="E134" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="F134" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="G134" s="102">
-        <v>300</v>
+      <c r="E134" s="120" t="s">
+        <v>411</v>
+      </c>
+      <c r="F134" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G134" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="113"/>
-      <c r="B135" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="C135" s="121" t="s">
-        <v>349</v>
-      </c>
-      <c r="D135" s="111">
+      <c r="A135" s="120"/>
+      <c r="B135" s="120" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D135" s="119">
         <v>134</v>
       </c>
-      <c r="E135" s="109" t="s">
-        <v>354</v>
-      </c>
-      <c r="F135" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="G135" s="101">
-        <v>300</v>
+      <c r="E135" s="120" t="s">
+        <v>412</v>
+      </c>
+      <c r="F135" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G135" s="120" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="121"/>
-      <c r="B136" s="141" t="s">
-        <v>405</v>
-      </c>
-      <c r="C136" s="121" t="s">
-        <v>403</v>
-      </c>
-      <c r="D136" s="122">
+      <c r="A136" s="120"/>
+      <c r="B136" s="120" t="s">
+        <v>413</v>
+      </c>
+      <c r="C136" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D136" s="119">
         <v>135</v>
       </c>
-      <c r="E136" s="121" t="s">
-        <v>405</v>
-      </c>
-      <c r="F136" s="121" t="s">
-        <v>404</v>
-      </c>
-      <c r="G136" s="121" t="s">
-        <v>404</v>
+      <c r="E136" s="120" t="s">
+        <v>413</v>
+      </c>
+      <c r="F136" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="G136" s="120" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="121"/>
+      <c r="B137" s="121" t="s">
+        <v>433</v>
+      </c>
+      <c r="C137" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D137" s="121">
+        <v>136</v>
+      </c>
+      <c r="E137" s="121" t="s">
+        <v>433</v>
+      </c>
+      <c r="F137" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G137" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="121"/>
+      <c r="B138" s="121" t="s">
+        <v>434</v>
+      </c>
+      <c r="C138" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D138" s="121">
+        <v>137</v>
+      </c>
+      <c r="E138" s="121" t="s">
+        <v>434</v>
+      </c>
+      <c r="F138" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G138" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="121"/>
+      <c r="B139" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="C139" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D139" s="121">
+        <v>138</v>
+      </c>
+      <c r="E139" s="121" t="s">
+        <v>435</v>
+      </c>
+      <c r="F139" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G139" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="121"/>
+      <c r="B140" s="121" t="s">
+        <v>436</v>
+      </c>
+      <c r="C140" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D140" s="121">
+        <v>139</v>
+      </c>
+      <c r="E140" s="121" t="s">
+        <v>436</v>
+      </c>
+      <c r="F140" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G140" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="121"/>
+      <c r="B141" s="121" t="s">
+        <v>437</v>
+      </c>
+      <c r="C141" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D141" s="121">
+        <v>140</v>
+      </c>
+      <c r="E141" s="121" t="s">
+        <v>437</v>
+      </c>
+      <c r="F141" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G141" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="121"/>
+      <c r="B142" s="121" t="s">
+        <v>438</v>
+      </c>
+      <c r="C142" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D142" s="121">
+        <v>141</v>
+      </c>
+      <c r="E142" s="121" t="s">
+        <v>438</v>
+      </c>
+      <c r="F142" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G142" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="121"/>
+      <c r="B143" s="121" t="s">
+        <v>439</v>
+      </c>
+      <c r="C143" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D143" s="121">
+        <v>142</v>
+      </c>
+      <c r="E143" s="121" t="s">
+        <v>439</v>
+      </c>
+      <c r="F143" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G143" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="121"/>
+      <c r="B144" s="121" t="s">
+        <v>440</v>
+      </c>
+      <c r="C144" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D144" s="121">
+        <v>143</v>
+      </c>
+      <c r="E144" s="121" t="s">
+        <v>440</v>
+      </c>
+      <c r="F144" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G144" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="121"/>
+      <c r="B145" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="C145" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D145" s="121">
+        <v>144</v>
+      </c>
+      <c r="E145" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="F145" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G145" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="121"/>
+      <c r="B146" s="121" t="s">
+        <v>442</v>
+      </c>
+      <c r="C146" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D146" s="121">
+        <v>145</v>
+      </c>
+      <c r="E146" s="121" t="s">
+        <v>442</v>
+      </c>
+      <c r="F146" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G146" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="121"/>
+      <c r="B147" s="121" t="s">
+        <v>443</v>
+      </c>
+      <c r="C147" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D147" s="121">
+        <v>146</v>
+      </c>
+      <c r="E147" s="121" t="s">
+        <v>443</v>
+      </c>
+      <c r="F147" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G147" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="121"/>
+      <c r="B148" s="121" t="s">
+        <v>444</v>
+      </c>
+      <c r="C148" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D148" s="121">
+        <v>147</v>
+      </c>
+      <c r="E148" s="121" t="s">
+        <v>444</v>
+      </c>
+      <c r="F148" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G148" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="121"/>
+      <c r="B149" s="121" t="s">
+        <v>445</v>
+      </c>
+      <c r="C149" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D149" s="121">
+        <v>148</v>
+      </c>
+      <c r="E149" s="121" t="s">
+        <v>445</v>
+      </c>
+      <c r="F149" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G149" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="121"/>
+      <c r="B150" s="121" t="s">
+        <v>446</v>
+      </c>
+      <c r="C150" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D150" s="121">
+        <v>149</v>
+      </c>
+      <c r="E150" s="121" t="s">
+        <v>446</v>
+      </c>
+      <c r="F150" s="121" t="s">
+        <v>402</v>
+      </c>
+      <c r="G150" s="121" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -6645,6 +7084,358 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="102"/>
+      <c r="B1" s="116" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="117">
+        <v>122</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="102"/>
+      <c r="B2" s="116" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="117">
+        <v>123</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="102"/>
+      <c r="B3" s="116" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="117">
+        <v>124</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="102"/>
+      <c r="B4" s="116" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" s="117">
+        <v>125</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="102"/>
+      <c r="B5" s="116" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="117">
+        <v>126</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="116" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="117">
+        <v>127</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="102"/>
+      <c r="B7" s="116" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="117">
+        <v>128</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="102"/>
+      <c r="B8" s="116" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="117">
+        <v>129</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="102"/>
+      <c r="B9" s="116" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="117">
+        <v>130</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="102"/>
+      <c r="B10" s="116" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="117">
+        <v>131</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="116" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="117">
+        <v>132</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>346</v>
+      </c>
+      <c r="G11" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="102"/>
+      <c r="B12" s="116" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="117">
+        <v>133</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12" s="101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="116" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="117">
+        <v>134</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="102"/>
+      <c r="B14" s="116" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="117">
+        <v>135</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="G14" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="102"/>
+      <c r="B15" s="116" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="117">
+        <v>136</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="G15" s="101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="102"/>
+      <c r="B16" s="116" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="117">
+        <v>137</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>347</v>
+      </c>
+      <c r="G16" s="101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="B29" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6673,7 +7464,7 @@
       <c r="B2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="57" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6802,296 +7593,296 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="33">
         <v>14</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>16</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>17</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>18</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>19</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>20</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="33">
         <v>21</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="33">
         <v>22</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>23</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>24</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>25</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="33">
         <v>26</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>27</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="33">
         <v>28</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>29</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>30</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="33">
         <v>31</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="33">
         <v>32</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="33">
         <v>33</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>34</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="33">
         <v>35</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>36</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="33">
         <v>37</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>38</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7102,7 +7893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -7122,10 +7913,10 @@
       <c r="A1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>277</v>
       </c>
       <c r="D1" t="s">
@@ -7136,13 +7927,13 @@
       <c r="A2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7150,69 +7941,69 @@
       <c r="A3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7223,7 +8014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -7736,7 +8527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
@@ -8013,7 +8804,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="97" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="17">
@@ -8193,7 +8984,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="92" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="17">
@@ -8213,7 +9004,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="92" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="17">
@@ -8293,7 +9084,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="74" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="17">
@@ -8433,7 +9224,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="51" t="s">
         <v>178</v>
       </c>
       <c r="B35" s="17">
@@ -8453,7 +9244,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="44" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="17">
@@ -8473,7 +9264,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="43" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="17">
@@ -8493,7 +9284,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="44" t="s">
         <v>182</v>
       </c>
       <c r="B38" s="17">
@@ -8513,7 +9304,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="43" t="s">
         <v>183</v>
       </c>
       <c r="B39" s="17">
@@ -8593,7 +9384,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="43" t="s">
         <v>184</v>
       </c>
       <c r="B43" s="17">
@@ -8613,7 +9404,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="43" t="s">
         <v>185</v>
       </c>
       <c r="B44" s="17">
@@ -8633,7 +9424,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="47" t="s">
         <v>192</v>
       </c>
       <c r="B45" s="17">
@@ -8653,7 +9444,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="47" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="17">
@@ -8673,7 +9464,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="87" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="17">
@@ -8693,7 +9484,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="100" t="s">
+      <c r="A48" s="89" t="s">
         <v>339</v>
       </c>
       <c r="B48" s="17">
@@ -8713,7 +9504,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="103" t="s">
         <v>338</v>
       </c>
       <c r="B49" s="17">
@@ -8733,7 +9524,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="97" t="s">
+      <c r="A50" s="86" t="s">
         <v>314</v>
       </c>
       <c r="B50" s="17">
@@ -8753,7 +9544,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="86" t="s">
         <v>315</v>
       </c>
       <c r="B51" s="17">
@@ -8773,7 +9564,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="97" t="s">
+      <c r="A52" s="86" t="s">
         <v>316</v>
       </c>
       <c r="B52" s="17">
@@ -8793,7 +9584,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="97" t="s">
+      <c r="A53" s="86" t="s">
         <v>317</v>
       </c>
       <c r="B53" s="17">
@@ -8813,7 +9604,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="97" t="s">
+      <c r="A54" s="86" t="s">
         <v>318</v>
       </c>
       <c r="B54" s="17">
@@ -8833,7 +9624,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="97" t="s">
+      <c r="A55" s="86" t="s">
         <v>319</v>
       </c>
       <c r="B55" s="17">
@@ -8853,7 +9644,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="86" t="s">
         <v>320</v>
       </c>
       <c r="B56" s="17">
@@ -8873,7 +9664,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="97" t="s">
+      <c r="A57" s="86" t="s">
         <v>321</v>
       </c>
       <c r="B57" s="17">
@@ -8893,7 +9684,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="97" t="s">
+      <c r="A58" s="86" t="s">
         <v>322</v>
       </c>
       <c r="B58" s="17">
@@ -8913,7 +9704,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="86" t="s">
         <v>323</v>
       </c>
       <c r="B59" s="17">
@@ -8933,7 +9724,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="86" t="s">
         <v>324</v>
       </c>
       <c r="B60" s="17">
@@ -8953,7 +9744,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="86" t="s">
         <v>325</v>
       </c>
       <c r="B61" s="17">
@@ -8973,7 +9764,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="97" t="s">
+      <c r="A62" s="86" t="s">
         <v>326</v>
       </c>
       <c r="B62" s="17">
@@ -8993,7 +9784,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="97" t="s">
+      <c r="A63" s="86" t="s">
         <v>327</v>
       </c>
       <c r="B63" s="17">
@@ -9013,7 +9804,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="97" t="s">
+      <c r="A64" s="86" t="s">
         <v>328</v>
       </c>
       <c r="B64" s="17">
@@ -9033,7 +9824,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="97" t="s">
+      <c r="A65" s="86" t="s">
         <v>333</v>
       </c>
       <c r="B65" s="17">
@@ -9053,7 +9844,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="97" t="s">
+      <c r="A66" s="86" t="s">
         <v>334</v>
       </c>
       <c r="B66" s="17">
@@ -9073,7 +9864,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="97" t="s">
+      <c r="A67" s="86" t="s">
         <v>329</v>
       </c>
       <c r="B67" s="17">
@@ -9093,7 +9884,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="97" t="s">
+      <c r="A68" s="86" t="s">
         <v>330</v>
       </c>
       <c r="B68" s="17">
@@ -9113,7 +9904,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="97" t="s">
+      <c r="A69" s="86" t="s">
         <v>331</v>
       </c>
       <c r="B69" s="17">
@@ -9133,7 +9924,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="97" t="s">
+      <c r="A70" s="86" t="s">
         <v>332</v>
       </c>
       <c r="B70" s="17">
@@ -9153,7 +9944,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="97" t="s">
+      <c r="A71" s="86" t="s">
         <v>335</v>
       </c>
       <c r="B71" s="17">
@@ -9173,7 +9964,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="97" t="s">
+      <c r="A72" s="86" t="s">
         <v>336</v>
       </c>
       <c r="B72" s="17">
@@ -9193,7 +9984,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="97" t="s">
+      <c r="A73" s="86" t="s">
         <v>337</v>
       </c>
       <c r="B73" s="17">
@@ -9213,7 +10004,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="58" t="s">
+      <c r="A74" s="53" t="s">
         <v>225</v>
       </c>
       <c r="B74" s="17">
@@ -9233,7 +10024,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="58" t="s">
+      <c r="A75" s="53" t="s">
         <v>226</v>
       </c>
       <c r="B75" s="17">
@@ -9253,7 +10044,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="53" t="s">
         <v>227</v>
       </c>
       <c r="B76" s="17">
@@ -9273,7 +10064,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="96" t="s">
+      <c r="A77" s="85" t="s">
         <v>313</v>
       </c>
       <c r="B77" s="17">
@@ -9319,12 +10110,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9357,28 +10148,28 @@
       <c r="C1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="33">
         <v>23</v>
       </c>
-      <c r="F1" s="34">
+      <c r="F1" s="33">
         <v>22</v>
       </c>
-      <c r="G1" s="34">
+      <c r="G1" s="33">
         <v>21</v>
       </c>
-      <c r="H1" s="34">
+      <c r="H1" s="33">
         <v>20</v>
       </c>
-      <c r="I1" s="34">
+      <c r="I1" s="33">
         <v>19</v>
       </c>
-      <c r="J1" s="34">
+      <c r="J1" s="33">
         <v>18</v>
       </c>
-      <c r="K1" s="34">
+      <c r="K1" s="33">
         <v>17</v>
       </c>
       <c r="L1">
@@ -9434,140 +10225,140 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="117" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="117" t="s">
+      <c r="O2" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="R2" s="117" t="s">
+      <c r="R2" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="S2" s="117" t="s">
+      <c r="S2" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="T2" s="117" t="s">
+      <c r="T2" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="U2" s="117" t="s">
+      <c r="U2" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="V2" s="117" t="s">
+      <c r="V2" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="W2" s="117" t="s">
+      <c r="W2" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="X2" s="117" t="s">
+      <c r="X2" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="Y2" s="117" t="s">
+      <c r="Y2" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="Z2" s="117" t="s">
+      <c r="Z2" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="117" t="s">
+      <c r="AA2" s="106" t="s">
         <v>203</v>
       </c>
-      <c r="AB2" s="117" t="s">
+      <c r="AB2" s="106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="33" t="s">
         <v>283</v>
       </c>
       <c r="AA3" t="s">
@@ -9578,13 +10369,13 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="72" t="s">
         <v>295</v>
       </c>
       <c r="D4" s="18"/>
@@ -9598,13 +10389,13 @@
       <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="72" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="18"/>
@@ -9618,13 +10409,13 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="72" t="s">
         <v>297</v>
       </c>
       <c r="D6" s="18"/>
@@ -9637,903 +10428,1056 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:28" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+    <row r="7" spans="1:28" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="107" t="s">
+      <c r="B7" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="96" t="s">
         <v>389</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="116">
-        <v>0</v>
-      </c>
-      <c r="F7" s="105">
-        <v>0</v>
-      </c>
-      <c r="G7" s="105">
-        <v>0</v>
-      </c>
-      <c r="H7" s="105">
-        <v>0</v>
-      </c>
-      <c r="I7" s="116">
-        <v>0</v>
-      </c>
-      <c r="J7" s="105">
-        <v>0</v>
-      </c>
-      <c r="K7" s="105">
-        <v>0</v>
-      </c>
-      <c r="L7" s="105">
-        <v>1</v>
-      </c>
-      <c r="M7" s="115">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="115">
-        <v>0</v>
-      </c>
-      <c r="R7" s="106">
-        <v>0</v>
-      </c>
-      <c r="S7" s="106">
-        <v>0</v>
-      </c>
-      <c r="T7" s="106">
-        <v>0</v>
-      </c>
-      <c r="U7" s="115">
-        <v>0</v>
-      </c>
-      <c r="V7" s="106">
-        <v>0</v>
-      </c>
-      <c r="W7" s="106">
-        <v>0</v>
-      </c>
-      <c r="X7" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="115">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="106">
+      <c r="D7" s="94"/>
+      <c r="E7" s="105">
+        <v>0</v>
+      </c>
+      <c r="F7" s="94">
+        <v>0</v>
+      </c>
+      <c r="G7" s="94">
+        <v>0</v>
+      </c>
+      <c r="H7" s="94">
+        <v>0</v>
+      </c>
+      <c r="I7" s="105">
+        <v>0</v>
+      </c>
+      <c r="J7" s="94">
+        <v>0</v>
+      </c>
+      <c r="K7" s="94">
+        <v>0</v>
+      </c>
+      <c r="L7" s="94">
+        <v>1</v>
+      </c>
+      <c r="M7" s="104">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="104">
+        <v>0</v>
+      </c>
+      <c r="R7" s="95">
+        <v>0</v>
+      </c>
+      <c r="S7" s="95">
+        <v>0</v>
+      </c>
+      <c r="T7" s="95">
+        <v>0</v>
+      </c>
+      <c r="U7" s="104">
+        <v>0</v>
+      </c>
+      <c r="V7" s="95">
+        <v>0</v>
+      </c>
+      <c r="W7" s="95">
+        <v>0</v>
+      </c>
+      <c r="X7" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="104">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="107" t="s">
+      <c r="B8" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="96" t="s">
         <v>390</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="116">
-        <v>0</v>
-      </c>
-      <c r="F8" s="105">
-        <v>0</v>
-      </c>
-      <c r="G8" s="105">
-        <v>0</v>
-      </c>
-      <c r="H8" s="105">
-        <v>0</v>
-      </c>
-      <c r="I8" s="116">
-        <v>0</v>
-      </c>
-      <c r="J8" s="105">
-        <v>0</v>
-      </c>
-      <c r="K8" s="105">
-        <v>1</v>
-      </c>
-      <c r="L8" s="105">
-        <v>0</v>
-      </c>
-      <c r="M8" s="115">
-        <v>1</v>
-      </c>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="115">
-        <v>0</v>
-      </c>
-      <c r="R8" s="106">
-        <v>0</v>
-      </c>
-      <c r="S8" s="106">
-        <v>0</v>
-      </c>
-      <c r="T8" s="106">
-        <v>0</v>
-      </c>
-      <c r="U8" s="115">
-        <v>0</v>
-      </c>
-      <c r="V8" s="106">
-        <v>0</v>
-      </c>
-      <c r="W8" s="106">
-        <v>0</v>
-      </c>
-      <c r="X8" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="115">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="106">
+      <c r="E8" s="105">
+        <v>0</v>
+      </c>
+      <c r="F8" s="94">
+        <v>0</v>
+      </c>
+      <c r="G8" s="94">
+        <v>0</v>
+      </c>
+      <c r="H8" s="94">
+        <v>0</v>
+      </c>
+      <c r="I8" s="105">
+        <v>0</v>
+      </c>
+      <c r="J8" s="94">
+        <v>0</v>
+      </c>
+      <c r="K8" s="94">
+        <v>1</v>
+      </c>
+      <c r="L8" s="94">
+        <v>0</v>
+      </c>
+      <c r="M8" s="104">
+        <v>1</v>
+      </c>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="104">
+        <v>0</v>
+      </c>
+      <c r="R8" s="95">
+        <v>0</v>
+      </c>
+      <c r="S8" s="95">
+        <v>0</v>
+      </c>
+      <c r="T8" s="95">
+        <v>0</v>
+      </c>
+      <c r="U8" s="104">
+        <v>0</v>
+      </c>
+      <c r="V8" s="95">
+        <v>0</v>
+      </c>
+      <c r="W8" s="95">
+        <v>0</v>
+      </c>
+      <c r="X8" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="104">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="B9" s="107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="107" t="s">
+      <c r="B9" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="96" t="s">
         <v>388</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
       </c>
-      <c r="E9" s="116">
-        <v>0</v>
-      </c>
-      <c r="F9" s="105">
-        <v>0</v>
-      </c>
-      <c r="G9" s="105">
-        <v>0</v>
-      </c>
-      <c r="H9" s="105">
-        <v>0</v>
-      </c>
-      <c r="I9" s="116">
-        <v>0</v>
-      </c>
-      <c r="J9" s="105">
-        <v>1</v>
-      </c>
-      <c r="K9" s="105">
-        <v>0</v>
-      </c>
-      <c r="L9" s="105">
-        <v>0</v>
-      </c>
-      <c r="M9" s="115">
-        <v>1</v>
-      </c>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="115">
-        <v>0</v>
-      </c>
-      <c r="R9" s="106">
-        <v>0</v>
-      </c>
-      <c r="S9" s="106">
-        <v>0</v>
-      </c>
-      <c r="T9" s="106">
-        <v>0</v>
-      </c>
-      <c r="U9" s="115">
-        <v>0</v>
-      </c>
-      <c r="V9" s="106">
-        <v>0</v>
-      </c>
-      <c r="W9" s="106">
-        <v>1</v>
-      </c>
-      <c r="X9" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="106">
+      <c r="E9" s="105">
+        <v>0</v>
+      </c>
+      <c r="F9" s="94">
+        <v>0</v>
+      </c>
+      <c r="G9" s="94">
+        <v>0</v>
+      </c>
+      <c r="H9" s="94">
+        <v>0</v>
+      </c>
+      <c r="I9" s="105">
+        <v>0</v>
+      </c>
+      <c r="J9" s="94">
+        <v>1</v>
+      </c>
+      <c r="K9" s="94">
+        <v>0</v>
+      </c>
+      <c r="L9" s="94">
+        <v>0</v>
+      </c>
+      <c r="M9" s="104">
+        <v>1</v>
+      </c>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="104">
+        <v>0</v>
+      </c>
+      <c r="R9" s="95">
+        <v>0</v>
+      </c>
+      <c r="S9" s="95">
+        <v>0</v>
+      </c>
+      <c r="T9" s="95">
+        <v>0</v>
+      </c>
+      <c r="U9" s="104">
+        <v>0</v>
+      </c>
+      <c r="V9" s="95">
+        <v>0</v>
+      </c>
+      <c r="W9" s="95">
+        <v>1</v>
+      </c>
+      <c r="X9" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="104">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C10" s="79" t="s">
+      <c r="B10" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>385</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
       </c>
-      <c r="E10" s="116">
-        <v>0</v>
-      </c>
-      <c r="F10" s="105">
-        <v>0</v>
-      </c>
-      <c r="G10" s="105">
-        <v>0</v>
-      </c>
-      <c r="H10" s="105">
-        <v>0</v>
-      </c>
-      <c r="I10" s="116">
-        <v>1</v>
-      </c>
-      <c r="J10" s="105">
-        <v>0</v>
-      </c>
-      <c r="K10" s="105">
-        <v>0</v>
-      </c>
-      <c r="L10" s="105">
-        <v>0</v>
-      </c>
-      <c r="M10" s="115">
-        <v>1</v>
-      </c>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="115">
-        <v>0</v>
-      </c>
-      <c r="R10" s="106">
-        <v>0</v>
-      </c>
-      <c r="S10" s="106">
-        <v>0</v>
-      </c>
-      <c r="T10" s="106">
-        <v>1</v>
-      </c>
-      <c r="U10" s="115">
-        <v>0</v>
-      </c>
-      <c r="V10" s="106">
-        <v>0</v>
-      </c>
-      <c r="W10" s="106">
-        <v>0</v>
-      </c>
-      <c r="X10" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="106">
+      <c r="E10" s="105">
+        <v>0</v>
+      </c>
+      <c r="F10" s="94">
+        <v>0</v>
+      </c>
+      <c r="G10" s="94">
+        <v>0</v>
+      </c>
+      <c r="H10" s="94">
+        <v>0</v>
+      </c>
+      <c r="I10" s="105">
+        <v>1</v>
+      </c>
+      <c r="J10" s="94">
+        <v>0</v>
+      </c>
+      <c r="K10" s="94">
+        <v>0</v>
+      </c>
+      <c r="L10" s="94">
+        <v>0</v>
+      </c>
+      <c r="M10" s="104">
+        <v>1</v>
+      </c>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="104">
+        <v>0</v>
+      </c>
+      <c r="R10" s="95">
+        <v>0</v>
+      </c>
+      <c r="S10" s="95">
+        <v>0</v>
+      </c>
+      <c r="T10" s="95">
+        <v>1</v>
+      </c>
+      <c r="U10" s="104">
+        <v>0</v>
+      </c>
+      <c r="V10" s="95">
+        <v>0</v>
+      </c>
+      <c r="W10" s="95">
+        <v>0</v>
+      </c>
+      <c r="X10" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="104">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C11" s="79" t="s">
+      <c r="B11" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="72" t="s">
         <v>386</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
       </c>
-      <c r="E11" s="116">
-        <v>0</v>
-      </c>
-      <c r="F11" s="105">
-        <v>0</v>
-      </c>
-      <c r="G11" s="105">
-        <v>0</v>
-      </c>
-      <c r="H11" s="105">
-        <v>0</v>
-      </c>
-      <c r="I11" s="116">
-        <v>0</v>
-      </c>
-      <c r="J11" s="105">
-        <v>0</v>
-      </c>
-      <c r="K11" s="105">
-        <v>0</v>
-      </c>
-      <c r="L11" s="105">
-        <v>0</v>
-      </c>
-      <c r="M11" s="115">
-        <v>1</v>
-      </c>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="115">
-        <v>0</v>
-      </c>
-      <c r="R11" s="106">
-        <v>0</v>
-      </c>
-      <c r="S11" s="106">
-        <v>0</v>
-      </c>
-      <c r="T11" s="106">
-        <v>0</v>
-      </c>
-      <c r="U11" s="115">
-        <v>0</v>
-      </c>
-      <c r="V11" s="106">
-        <v>0</v>
-      </c>
-      <c r="W11" s="106">
-        <v>0</v>
-      </c>
-      <c r="X11" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="106">
+      <c r="E11" s="105">
+        <v>0</v>
+      </c>
+      <c r="F11" s="94">
+        <v>0</v>
+      </c>
+      <c r="G11" s="94">
+        <v>0</v>
+      </c>
+      <c r="H11" s="94">
+        <v>0</v>
+      </c>
+      <c r="I11" s="105">
+        <v>0</v>
+      </c>
+      <c r="J11" s="94">
+        <v>0</v>
+      </c>
+      <c r="K11" s="94">
+        <v>0</v>
+      </c>
+      <c r="L11" s="94">
+        <v>0</v>
+      </c>
+      <c r="M11" s="104">
+        <v>1</v>
+      </c>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="104">
+        <v>0</v>
+      </c>
+      <c r="R11" s="95">
+        <v>0</v>
+      </c>
+      <c r="S11" s="95">
+        <v>0</v>
+      </c>
+      <c r="T11" s="95">
+        <v>0</v>
+      </c>
+      <c r="U11" s="104">
+        <v>0</v>
+      </c>
+      <c r="V11" s="95">
+        <v>0</v>
+      </c>
+      <c r="W11" s="95">
+        <v>0</v>
+      </c>
+      <c r="X11" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="104">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="107" t="s">
+      <c r="B12" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" s="96" t="s">
         <v>391</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <v>2130019</v>
       </c>
-      <c r="E12" s="116">
-        <v>0</v>
-      </c>
-      <c r="F12" s="105">
-        <v>0</v>
-      </c>
-      <c r="G12" s="105">
-        <v>1</v>
-      </c>
-      <c r="H12" s="105">
-        <v>0</v>
-      </c>
-      <c r="I12" s="116">
-        <v>0</v>
-      </c>
-      <c r="J12" s="105">
-        <v>0</v>
-      </c>
-      <c r="K12" s="105">
-        <v>0</v>
-      </c>
-      <c r="L12" s="105">
-        <v>0</v>
-      </c>
-      <c r="M12" s="115">
-        <v>1</v>
-      </c>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="115">
-        <v>0</v>
-      </c>
-      <c r="R12" s="106">
-        <v>0</v>
-      </c>
-      <c r="S12" s="106">
-        <v>0</v>
-      </c>
-      <c r="T12" s="106">
-        <v>0</v>
-      </c>
-      <c r="U12" s="115">
-        <v>0</v>
-      </c>
-      <c r="V12" s="106">
-        <v>1</v>
-      </c>
-      <c r="W12" s="106">
-        <v>1</v>
-      </c>
-      <c r="X12" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="106">
+      <c r="E12" s="105">
+        <v>0</v>
+      </c>
+      <c r="F12" s="94">
+        <v>0</v>
+      </c>
+      <c r="G12" s="94">
+        <v>1</v>
+      </c>
+      <c r="H12" s="94">
+        <v>0</v>
+      </c>
+      <c r="I12" s="105">
+        <v>0</v>
+      </c>
+      <c r="J12" s="94">
+        <v>0</v>
+      </c>
+      <c r="K12" s="94">
+        <v>0</v>
+      </c>
+      <c r="L12" s="94">
+        <v>0</v>
+      </c>
+      <c r="M12" s="104">
+        <v>1</v>
+      </c>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="104">
+        <v>0</v>
+      </c>
+      <c r="R12" s="95">
+        <v>0</v>
+      </c>
+      <c r="S12" s="95">
+        <v>0</v>
+      </c>
+      <c r="T12" s="95">
+        <v>0</v>
+      </c>
+      <c r="U12" s="104">
+        <v>0</v>
+      </c>
+      <c r="V12" s="95">
+        <v>1</v>
+      </c>
+      <c r="W12" s="95">
+        <v>1</v>
+      </c>
+      <c r="X12" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="104">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="107" t="s">
-        <v>408</v>
-      </c>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" s="96" t="s">
         <v>387</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
       </c>
-      <c r="E13" s="116">
-        <v>0</v>
-      </c>
-      <c r="F13" s="105">
-        <v>0</v>
-      </c>
-      <c r="G13" s="105">
-        <v>0</v>
-      </c>
-      <c r="H13" s="105">
-        <v>0</v>
-      </c>
-      <c r="I13" s="116">
-        <v>0</v>
-      </c>
-      <c r="J13" s="105">
-        <v>0</v>
-      </c>
-      <c r="K13" s="105">
-        <v>0</v>
-      </c>
-      <c r="L13" s="105">
-        <v>0</v>
-      </c>
-      <c r="M13" s="115">
-        <v>1</v>
-      </c>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="115">
-        <v>0</v>
-      </c>
-      <c r="R13" s="106">
-        <v>1</v>
-      </c>
-      <c r="S13" s="106">
-        <v>0</v>
-      </c>
-      <c r="T13" s="106">
-        <v>0</v>
-      </c>
-      <c r="U13" s="115">
-        <v>0</v>
-      </c>
-      <c r="V13" s="106">
-        <v>0</v>
-      </c>
-      <c r="W13" s="106">
-        <v>0</v>
-      </c>
-      <c r="X13" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="106">
+      <c r="E13" s="105">
+        <v>0</v>
+      </c>
+      <c r="F13" s="94">
+        <v>0</v>
+      </c>
+      <c r="G13" s="94">
+        <v>0</v>
+      </c>
+      <c r="H13" s="94">
+        <v>0</v>
+      </c>
+      <c r="I13" s="105">
+        <v>0</v>
+      </c>
+      <c r="J13" s="94">
+        <v>0</v>
+      </c>
+      <c r="K13" s="94">
+        <v>0</v>
+      </c>
+      <c r="L13" s="94">
+        <v>0</v>
+      </c>
+      <c r="M13" s="104">
+        <v>1</v>
+      </c>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="104">
+        <v>0</v>
+      </c>
+      <c r="R13" s="95">
+        <v>1</v>
+      </c>
+      <c r="S13" s="95">
+        <v>0</v>
+      </c>
+      <c r="T13" s="95">
+        <v>0</v>
+      </c>
+      <c r="U13" s="104">
+        <v>0</v>
+      </c>
+      <c r="V13" s="95">
+        <v>0</v>
+      </c>
+      <c r="W13" s="95">
+        <v>0</v>
+      </c>
+      <c r="X13" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="104">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="96" t="s">
         <v>396</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="72" t="s">
         <v>397</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>2059</v>
       </c>
-      <c r="E14" s="116">
-        <v>0</v>
-      </c>
-      <c r="F14" s="105">
-        <v>0</v>
-      </c>
-      <c r="G14" s="105">
-        <v>1</v>
-      </c>
-      <c r="H14" s="105">
-        <v>0</v>
-      </c>
-      <c r="I14" s="116">
-        <v>0</v>
-      </c>
-      <c r="J14" s="105">
-        <v>0</v>
-      </c>
-      <c r="K14" s="105">
-        <v>0</v>
-      </c>
-      <c r="L14" s="105">
-        <v>0</v>
-      </c>
-      <c r="M14" s="115">
-        <v>0</v>
-      </c>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="115">
-        <v>1</v>
-      </c>
-      <c r="R14" s="106">
-        <v>0</v>
-      </c>
-      <c r="S14" s="106">
-        <v>0</v>
-      </c>
-      <c r="T14" s="106">
-        <v>0</v>
-      </c>
-      <c r="U14" s="115">
-        <v>0</v>
-      </c>
-      <c r="V14" s="106">
-        <v>0</v>
-      </c>
-      <c r="W14" s="106">
-        <v>0</v>
-      </c>
-      <c r="X14" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="106">
+      <c r="E14" s="105">
+        <v>0</v>
+      </c>
+      <c r="F14" s="94">
+        <v>0</v>
+      </c>
+      <c r="G14" s="94">
+        <v>1</v>
+      </c>
+      <c r="H14" s="94">
+        <v>0</v>
+      </c>
+      <c r="I14" s="105">
+        <v>0</v>
+      </c>
+      <c r="J14" s="94">
+        <v>0</v>
+      </c>
+      <c r="K14" s="94">
+        <v>0</v>
+      </c>
+      <c r="L14" s="94">
+        <v>0</v>
+      </c>
+      <c r="M14" s="104">
+        <v>0</v>
+      </c>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="104">
+        <v>1</v>
+      </c>
+      <c r="R14" s="95">
+        <v>0</v>
+      </c>
+      <c r="S14" s="95">
+        <v>0</v>
+      </c>
+      <c r="T14" s="95">
+        <v>0</v>
+      </c>
+      <c r="U14" s="104">
+        <v>0</v>
+      </c>
+      <c r="V14" s="95">
+        <v>0</v>
+      </c>
+      <c r="W14" s="95">
+        <v>0</v>
+      </c>
+      <c r="X14" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="104">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="96" t="s">
         <v>396</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="72" t="s">
         <v>398</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>8451</v>
       </c>
-      <c r="E15" s="116">
-        <v>0</v>
-      </c>
-      <c r="F15" s="105">
-        <v>0</v>
-      </c>
-      <c r="G15" s="105">
-        <v>0</v>
-      </c>
-      <c r="H15" s="105">
-        <v>0</v>
-      </c>
-      <c r="I15" s="116">
-        <v>0</v>
-      </c>
-      <c r="J15" s="105">
-        <v>0</v>
-      </c>
-      <c r="K15" s="105">
-        <v>0</v>
-      </c>
-      <c r="L15" s="105">
-        <v>0</v>
-      </c>
-      <c r="M15" s="115">
-        <v>1</v>
-      </c>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106">
-        <v>1</v>
-      </c>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="115">
-        <v>0</v>
-      </c>
-      <c r="R15" s="106">
-        <v>0</v>
-      </c>
-      <c r="S15" s="106">
-        <v>0</v>
-      </c>
-      <c r="T15" s="106">
-        <v>1</v>
-      </c>
-      <c r="U15" s="115">
-        <v>0</v>
-      </c>
-      <c r="V15" s="106">
-        <v>0</v>
-      </c>
-      <c r="W15" s="106">
-        <v>0</v>
-      </c>
-      <c r="X15" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="106">
+      <c r="E15" s="105">
+        <v>0</v>
+      </c>
+      <c r="F15" s="94">
+        <v>0</v>
+      </c>
+      <c r="G15" s="94">
+        <v>0</v>
+      </c>
+      <c r="H15" s="94">
+        <v>0</v>
+      </c>
+      <c r="I15" s="105">
+        <v>0</v>
+      </c>
+      <c r="J15" s="94">
+        <v>0</v>
+      </c>
+      <c r="K15" s="94">
+        <v>0</v>
+      </c>
+      <c r="L15" s="94">
+        <v>0</v>
+      </c>
+      <c r="M15" s="104">
+        <v>1</v>
+      </c>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95">
+        <v>1</v>
+      </c>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="104">
+        <v>0</v>
+      </c>
+      <c r="R15" s="95">
+        <v>0</v>
+      </c>
+      <c r="S15" s="95">
+        <v>0</v>
+      </c>
+      <c r="T15" s="95">
+        <v>1</v>
+      </c>
+      <c r="U15" s="104">
+        <v>0</v>
+      </c>
+      <c r="V15" s="95">
+        <v>0</v>
+      </c>
+      <c r="W15" s="95">
+        <v>0</v>
+      </c>
+      <c r="X15" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="104">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="95">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="96" t="s">
         <v>396</v>
       </c>
-      <c r="C16" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="D16" s="34">
-        <v>2059</v>
-      </c>
-      <c r="E16" s="116">
-        <v>0</v>
-      </c>
-      <c r="F16" s="105">
-        <v>0</v>
-      </c>
-      <c r="G16" s="105">
-        <v>1</v>
-      </c>
-      <c r="H16" s="105">
-        <v>0</v>
-      </c>
-      <c r="I16" s="116">
-        <v>0</v>
-      </c>
-      <c r="J16" s="105">
-        <v>0</v>
-      </c>
-      <c r="K16" s="105">
-        <v>0</v>
-      </c>
-      <c r="L16" s="105">
-        <v>0</v>
-      </c>
-      <c r="M16" s="115">
-        <v>0</v>
-      </c>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="115">
-        <v>1</v>
-      </c>
-      <c r="R16" s="106">
-        <v>0</v>
-      </c>
-      <c r="S16" s="106">
-        <v>0</v>
-      </c>
-      <c r="T16" s="106">
-        <v>0</v>
-      </c>
-      <c r="U16" s="115">
-        <v>0</v>
-      </c>
-      <c r="V16" s="106">
-        <v>0</v>
-      </c>
-      <c r="W16" s="106">
-        <v>0</v>
-      </c>
-      <c r="X16" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="106">
+      <c r="C16" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="33">
+        <v>4137</v>
+      </c>
+      <c r="E16" s="105">
+        <v>0</v>
+      </c>
+      <c r="F16" s="94">
+        <v>0</v>
+      </c>
+      <c r="G16" s="94">
+        <v>1</v>
+      </c>
+      <c r="H16" s="94">
+        <v>0</v>
+      </c>
+      <c r="I16" s="105">
+        <v>0</v>
+      </c>
+      <c r="J16" s="94">
+        <v>0</v>
+      </c>
+      <c r="K16" s="94">
+        <v>0</v>
+      </c>
+      <c r="L16" s="94">
+        <v>0</v>
+      </c>
+      <c r="M16" s="104">
+        <v>0</v>
+      </c>
+      <c r="N16" s="95">
+        <v>0</v>
+      </c>
+      <c r="O16" s="95">
+        <v>0</v>
+      </c>
+      <c r="P16" s="95">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="104">
+        <v>0</v>
+      </c>
+      <c r="R16" s="95">
+        <v>0</v>
+      </c>
+      <c r="S16" s="95">
+        <v>0</v>
+      </c>
+      <c r="T16" s="95">
+        <v>0</v>
+      </c>
+      <c r="U16" s="104">
+        <v>0</v>
+      </c>
+      <c r="V16" s="95">
+        <v>0</v>
+      </c>
+      <c r="W16" s="95">
+        <v>1</v>
+      </c>
+      <c r="X16" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="104">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="96" t="s">
         <v>396</v>
       </c>
-      <c r="C17" s="79" t="s">
-        <v>398</v>
-      </c>
-      <c r="D17" s="34">
-        <v>8451</v>
-      </c>
-      <c r="E17" s="116">
-        <v>0</v>
-      </c>
-      <c r="F17" s="105">
-        <v>0</v>
-      </c>
-      <c r="G17" s="105">
-        <v>0</v>
-      </c>
-      <c r="H17" s="105">
-        <v>0</v>
-      </c>
-      <c r="I17" s="116">
-        <v>0</v>
-      </c>
-      <c r="J17" s="105">
-        <v>0</v>
-      </c>
-      <c r="K17" s="105">
-        <v>0</v>
-      </c>
-      <c r="L17" s="105">
-        <v>0</v>
-      </c>
-      <c r="M17" s="115">
-        <v>1</v>
-      </c>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106">
-        <v>1</v>
-      </c>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="115">
-        <v>0</v>
-      </c>
-      <c r="R17" s="106">
-        <v>0</v>
-      </c>
-      <c r="S17" s="106">
-        <v>0</v>
-      </c>
-      <c r="T17" s="106">
-        <v>1</v>
-      </c>
-      <c r="U17" s="115">
-        <v>0</v>
-      </c>
-      <c r="V17" s="106">
-        <v>0</v>
-      </c>
-      <c r="W17" s="106">
-        <v>0</v>
-      </c>
-      <c r="X17" s="106">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="115">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="106">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="106">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="106">
+      <c r="C17" s="72" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="33">
+        <v>17665</v>
+      </c>
+      <c r="E17" s="105">
+        <v>0</v>
+      </c>
+      <c r="F17" s="94">
+        <v>0</v>
+      </c>
+      <c r="G17" s="94">
+        <v>0</v>
+      </c>
+      <c r="H17" s="94">
+        <v>0</v>
+      </c>
+      <c r="I17" s="105">
+        <v>0</v>
+      </c>
+      <c r="J17" s="94">
+        <v>0</v>
+      </c>
+      <c r="K17" s="94">
+        <v>0</v>
+      </c>
+      <c r="L17" s="94">
+        <v>0</v>
+      </c>
+      <c r="M17" s="104">
+        <v>0</v>
+      </c>
+      <c r="N17" s="95">
+        <v>1</v>
+      </c>
+      <c r="O17" s="95">
+        <v>0</v>
+      </c>
+      <c r="P17" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="104">
+        <v>0</v>
+      </c>
+      <c r="R17" s="95">
+        <v>1</v>
+      </c>
+      <c r="S17" s="95">
+        <v>0</v>
+      </c>
+      <c r="T17" s="95">
+        <v>1</v>
+      </c>
+      <c r="U17" s="104">
+        <v>0</v>
+      </c>
+      <c r="V17" s="95">
+        <v>0</v>
+      </c>
+      <c r="W17" s="95">
+        <v>0</v>
+      </c>
+      <c r="X17" s="95">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="104">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="95">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="B18" s="79" t="s">
-        <v>406</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>406</v>
+      <c r="B18" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="B19" s="79" t="s">
-        <v>407</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>407</v>
+      <c r="A19" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B32" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="450">
   <si>
     <t>组序号</t>
   </si>
@@ -2303,63 +2303,71 @@
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
-    <t>1枪K1-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>1枪K2-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>2枪K1-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>2枪K2-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>1枪K3-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>1枪K4-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>2枪K3-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>2枪K4-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>K5-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>K6-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>K7-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>K8-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>K9-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
-    <t>K10-触电</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
     <t>default</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K1-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K2-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K1-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K2-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K3-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪K4-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K3-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪K4-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K5-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K6-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K7-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K8-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K9-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>K10-触点</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开所有继电器</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开所有继电器</t>
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
 </sst>
@@ -3252,7 +3260,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3586,6 +3594,9 @@
     </xf>
     <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3998,10 +4009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4339,11 +4350,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="132" t="s">
+      <c r="A15" s="133"/>
+      <c r="B15" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="133" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4360,9 +4371,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4377,9 +4388,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4394,9 +4405,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4411,9 +4422,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4474,11 +4485,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="126" t="s">
+      <c r="A22" s="127"/>
+      <c r="B22" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="127" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4495,9 +4506,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4512,9 +4523,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4529,9 +4540,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4546,9 +4557,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="133"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4605,11 +4616,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="137"/>
-      <c r="B29" s="134" t="s">
+      <c r="A29" s="138"/>
+      <c r="B29" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="135" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4626,9 +4637,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="135"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="135"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4643,9 +4654,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4660,9 +4671,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="135"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -4677,9 +4688,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -4694,11 +4705,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124" t="s">
+      <c r="A34" s="125"/>
+      <c r="B34" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="125" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -4715,9 +4726,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
+      <c r="A35" s="125"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -4732,11 +4743,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="124"/>
-      <c r="B36" s="124" t="s">
+      <c r="A36" s="125"/>
+      <c r="B36" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="132" t="s">
+      <c r="C36" s="133" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
@@ -4753,9 +4764,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -4770,11 +4781,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="124"/>
-      <c r="B38" s="131" t="s">
+      <c r="A38" s="125"/>
+      <c r="B38" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="132" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4791,9 +4802,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="124"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
+      <c r="A39" s="125"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -4808,11 +4819,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="124"/>
-      <c r="B40" s="124" t="s">
+      <c r="A40" s="125"/>
+      <c r="B40" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="131" t="s">
+      <c r="C40" s="132" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4829,9 +4840,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="124"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -4846,9 +4857,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="124"/>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -4863,9 +4874,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="124"/>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -4880,9 +4891,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -4897,11 +4908,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="124">
+      <c r="A45" s="125">
         <v>13</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124" t="s">
+      <c r="B45" s="125"/>
+      <c r="C45" s="125" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4981,11 +4992,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="125"/>
-      <c r="B49" s="129" t="s">
+      <c r="A49" s="126"/>
+      <c r="B49" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="130" t="s">
+      <c r="C49" s="131" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="20">
@@ -5002,9 +5013,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="124"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5019,9 +5030,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="124"/>
-      <c r="B51" s="124"/>
-      <c r="C51" s="124"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5120,11 +5131,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="126"/>
-      <c r="B56" s="128" t="s">
+      <c r="A56" s="127"/>
+      <c r="B56" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="126" t="s">
+      <c r="C56" s="127" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5141,9 +5152,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="127"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5158,9 +5169,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="127"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="127"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5175,9 +5186,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="127"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="127"/>
+      <c r="A59" s="128"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="128"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5192,9 +5203,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="127"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="127"/>
+      <c r="A60" s="128"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="128"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5209,9 +5220,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="127"/>
-      <c r="B61" s="127"/>
-      <c r="C61" s="127"/>
+      <c r="A61" s="128"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="128"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5226,9 +5237,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="127"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
+      <c r="A62" s="128"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="128"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5285,11 +5296,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="125"/>
-      <c r="B65" s="129" t="s">
+      <c r="A65" s="126"/>
+      <c r="B65" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="130" t="s">
+      <c r="C65" s="131" t="s">
         <v>289</v>
       </c>
       <c r="D65" s="20">
@@ -5306,9 +5317,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="124"/>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5323,9 +5334,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="124"/>
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="125"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5424,11 +5435,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="126"/>
-      <c r="B72" s="128" t="s">
+      <c r="A72" s="127"/>
+      <c r="B72" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="126" t="s">
+      <c r="C72" s="127" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5445,9 +5456,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="127"/>
-      <c r="B73" s="127"/>
-      <c r="C73" s="127"/>
+      <c r="A73" s="128"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="128"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5462,9 +5473,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="127"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
+      <c r="A74" s="128"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="128"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5479,9 +5490,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="127"/>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
+      <c r="A75" s="128"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="128"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5496,9 +5507,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="127"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="127"/>
+      <c r="A76" s="128"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5513,9 +5524,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="127"/>
-      <c r="B77" s="127"/>
-      <c r="C77" s="127"/>
+      <c r="A77" s="128"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5530,9 +5541,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="127"/>
-      <c r="B78" s="127"/>
-      <c r="C78" s="127"/>
+      <c r="A78" s="128"/>
+      <c r="B78" s="128"/>
+      <c r="C78" s="128"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5589,11 +5600,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="132"/>
-      <c r="B81" s="132" t="s">
+      <c r="A81" s="133"/>
+      <c r="B81" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="131" t="s">
+      <c r="C81" s="132" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5610,9 +5621,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="124"/>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
+      <c r="A82" s="125"/>
+      <c r="B82" s="125"/>
+      <c r="C82" s="125"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5627,9 +5638,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="124"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
+      <c r="A83" s="125"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5644,9 +5655,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="124"/>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
+      <c r="A84" s="125"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -5955,11 +5966,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="122"/>
-      <c r="B99" s="122" t="s">
+      <c r="A99" s="123"/>
+      <c r="B99" s="123" t="s">
         <v>299</v>
       </c>
-      <c r="C99" s="122" t="s">
+      <c r="C99" s="123" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -5976,9 +5987,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="122"/>
-      <c r="B100" s="122"/>
-      <c r="C100" s="122"/>
+      <c r="A100" s="123"/>
+      <c r="B100" s="123"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -5993,9 +6004,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="122"/>
-      <c r="B101" s="122"/>
-      <c r="C101" s="122"/>
+      <c r="A101" s="123"/>
+      <c r="B101" s="123"/>
+      <c r="C101" s="123"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6031,11 +6042,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="122"/>
-      <c r="B103" s="122" t="s">
+      <c r="A103" s="123"/>
+      <c r="B103" s="123" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="122" t="s">
+      <c r="C103" s="123" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6052,9 +6063,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="123"/>
-      <c r="B104" s="123"/>
-      <c r="C104" s="123"/>
+      <c r="A104" s="124"/>
+      <c r="B104" s="124"/>
+      <c r="C104" s="124"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6069,9 +6080,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="123"/>
-      <c r="B105" s="123"/>
-      <c r="C105" s="123"/>
+      <c r="A105" s="124"/>
+      <c r="B105" s="124"/>
+      <c r="C105" s="124"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -6739,16 +6750,16 @@
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="121"/>
       <c r="B137" s="121" t="s">
+        <v>434</v>
+      </c>
+      <c r="C137" s="121" t="s">
         <v>433</v>
-      </c>
-      <c r="C137" s="121" t="s">
-        <v>447</v>
       </c>
       <c r="D137" s="121">
         <v>136</v>
       </c>
-      <c r="E137" s="121" t="s">
-        <v>433</v>
+      <c r="E137" s="122" t="s">
+        <v>434</v>
       </c>
       <c r="F137" s="121" t="s">
         <v>402</v>
@@ -6760,16 +6771,16 @@
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="121"/>
       <c r="B138" s="121" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C138" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D138" s="121">
         <v>137</v>
       </c>
-      <c r="E138" s="121" t="s">
-        <v>434</v>
+      <c r="E138" s="122" t="s">
+        <v>435</v>
       </c>
       <c r="F138" s="121" t="s">
         <v>402</v>
@@ -6781,16 +6792,16 @@
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="121"/>
       <c r="B139" s="121" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C139" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D139" s="121">
         <v>138</v>
       </c>
-      <c r="E139" s="121" t="s">
-        <v>435</v>
+      <c r="E139" s="122" t="s">
+        <v>436</v>
       </c>
       <c r="F139" s="121" t="s">
         <v>402</v>
@@ -6802,16 +6813,16 @@
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="121"/>
       <c r="B140" s="121" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C140" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D140" s="121">
         <v>139</v>
       </c>
-      <c r="E140" s="121" t="s">
-        <v>436</v>
+      <c r="E140" s="122" t="s">
+        <v>437</v>
       </c>
       <c r="F140" s="121" t="s">
         <v>402</v>
@@ -6823,16 +6834,16 @@
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="121"/>
       <c r="B141" s="121" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C141" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D141" s="121">
         <v>140</v>
       </c>
-      <c r="E141" s="121" t="s">
-        <v>437</v>
+      <c r="E141" s="122" t="s">
+        <v>438</v>
       </c>
       <c r="F141" s="121" t="s">
         <v>402</v>
@@ -6844,16 +6855,16 @@
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="121"/>
       <c r="B142" s="121" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C142" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D142" s="121">
         <v>141</v>
       </c>
-      <c r="E142" s="121" t="s">
-        <v>438</v>
+      <c r="E142" s="122" t="s">
+        <v>439</v>
       </c>
       <c r="F142" s="121" t="s">
         <v>402</v>
@@ -6865,16 +6876,16 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="121"/>
       <c r="B143" s="121" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C143" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D143" s="121">
         <v>142</v>
       </c>
-      <c r="E143" s="121" t="s">
-        <v>439</v>
+      <c r="E143" s="122" t="s">
+        <v>440</v>
       </c>
       <c r="F143" s="121" t="s">
         <v>402</v>
@@ -6886,16 +6897,16 @@
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="121"/>
       <c r="B144" s="121" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C144" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D144" s="121">
         <v>143</v>
       </c>
-      <c r="E144" s="121" t="s">
-        <v>440</v>
+      <c r="E144" s="122" t="s">
+        <v>441</v>
       </c>
       <c r="F144" s="121" t="s">
         <v>402</v>
@@ -6907,16 +6918,16 @@
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="121"/>
       <c r="B145" s="121" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C145" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D145" s="121">
         <v>144</v>
       </c>
-      <c r="E145" s="121" t="s">
-        <v>441</v>
+      <c r="E145" s="122" t="s">
+        <v>442</v>
       </c>
       <c r="F145" s="121" t="s">
         <v>402</v>
@@ -6928,16 +6939,16 @@
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="121"/>
       <c r="B146" s="121" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C146" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D146" s="121">
         <v>145</v>
       </c>
-      <c r="E146" s="121" t="s">
-        <v>442</v>
+      <c r="E146" s="122" t="s">
+        <v>443</v>
       </c>
       <c r="F146" s="121" t="s">
         <v>402</v>
@@ -6949,16 +6960,16 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="121"/>
       <c r="B147" s="121" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C147" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D147" s="121">
         <v>146</v>
       </c>
-      <c r="E147" s="121" t="s">
-        <v>443</v>
+      <c r="E147" s="122" t="s">
+        <v>444</v>
       </c>
       <c r="F147" s="121" t="s">
         <v>402</v>
@@ -6970,16 +6981,16 @@
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="121"/>
       <c r="B148" s="121" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C148" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D148" s="121">
         <v>147</v>
       </c>
-      <c r="E148" s="121" t="s">
-        <v>444</v>
+      <c r="E148" s="122" t="s">
+        <v>445</v>
       </c>
       <c r="F148" s="121" t="s">
         <v>402</v>
@@ -6991,16 +7002,16 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="121"/>
       <c r="B149" s="121" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C149" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D149" s="121">
         <v>148</v>
       </c>
-      <c r="E149" s="121" t="s">
-        <v>445</v>
+      <c r="E149" s="122" t="s">
+        <v>446</v>
       </c>
       <c r="F149" s="121" t="s">
         <v>402</v>
@@ -7012,21 +7023,42 @@
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="121"/>
       <c r="B150" s="121" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C150" s="121" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D150" s="121">
         <v>149</v>
       </c>
-      <c r="E150" s="121" t="s">
-        <v>446</v>
+      <c r="E150" s="122" t="s">
+        <v>447</v>
       </c>
       <c r="F150" s="121" t="s">
         <v>402</v>
       </c>
       <c r="G150" s="121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="122"/>
+      <c r="B151" s="122" t="s">
+        <v>449</v>
+      </c>
+      <c r="C151" s="122" t="s">
+        <v>432</v>
+      </c>
+      <c r="D151" s="122">
+        <v>150</v>
+      </c>
+      <c r="E151" s="122" t="s">
+        <v>449</v>
+      </c>
+      <c r="F151" s="122" t="s">
+        <v>402</v>
+      </c>
+      <c r="G151" s="122" t="s">
         <v>402</v>
       </c>
     </row>
@@ -10112,10 +10144,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A32"/>
+    <sheetView topLeftCell="A4" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11328,21 +11360,21 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C20" s="72" t="s">
         <v>414</v>
@@ -11350,21 +11382,21 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>415</v>
@@ -11372,18 +11404,18 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B24" s="72" t="s">
         <v>422</v>
@@ -11394,18 +11426,18 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>342</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B26" s="72" t="s">
         <v>421</v>
@@ -11416,18 +11448,18 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>295</v>
+        <v>421</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B28" s="72" t="s">
         <v>295</v>
@@ -11438,18 +11470,18 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B30" s="72" t="s">
         <v>296</v>
@@ -11460,23 +11492,34 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B32" s="72" t="s">
         <v>342</v>
       </c>
       <c r="C32" s="72" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="C33" s="72" t="s">
         <v>425</v>
       </c>
     </row>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="453">
   <si>
     <t>组序号</t>
   </si>
@@ -1915,10 +1915,6 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>电源模块</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
     <t>PowerModule</t>
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
@@ -2368,6 +2364,22 @@
   </si>
   <si>
     <t>断开所有继电器</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>上电</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>断电</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块6(电表1)</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源模块6(电表2)</t>
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
 </sst>
@@ -3604,53 +3616,53 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4011,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4350,11 +4362,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
-      <c r="B15" s="133" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="123" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4371,9 +4383,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4388,9 +4400,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4405,9 +4417,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4422,9 +4434,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4485,11 +4497,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127" t="s">
+      <c r="A22" s="130"/>
+      <c r="B22" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="130" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4506,9 +4518,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="128"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4523,9 +4535,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="128"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4540,9 +4552,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="128"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4557,9 +4569,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="134"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
+      <c r="A26" s="131"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4616,7 +4628,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="138"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="135" t="s">
         <v>118</v>
       </c>
@@ -4637,9 +4649,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4654,9 +4666,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="136"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4671,9 +4683,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
-      <c r="B32" s="136"/>
-      <c r="C32" s="136"/>
+      <c r="A32" s="133"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -4688,9 +4700,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -4705,11 +4717,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="125"/>
-      <c r="B34" s="125" t="s">
+      <c r="A34" s="124"/>
+      <c r="B34" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="125" t="s">
+      <c r="C34" s="124" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -4726,9 +4738,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="125"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -4743,11 +4755,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
-      <c r="B36" s="125" t="s">
+      <c r="A36" s="124"/>
+      <c r="B36" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="133" t="s">
+      <c r="C36" s="123" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
@@ -4764,9 +4776,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="125"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -4781,11 +4793,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
-      <c r="B38" s="132" t="s">
+      <c r="A38" s="124"/>
+      <c r="B38" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="132" t="s">
+      <c r="C38" s="127" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4802,9 +4814,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -4819,11 +4831,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="125"/>
-      <c r="B40" s="125" t="s">
+      <c r="A40" s="124"/>
+      <c r="B40" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="132" t="s">
+      <c r="C40" s="127" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4840,9 +4852,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -4857,9 +4869,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="125"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -4874,9 +4886,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="125"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -4891,9 +4903,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="125"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -4908,11 +4920,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="125">
+      <c r="A45" s="124">
         <v>13</v>
       </c>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125" t="s">
+      <c r="B45" s="124"/>
+      <c r="C45" s="124" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -4992,11 +5004,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="126"/>
-      <c r="B49" s="130" t="s">
+      <c r="A49" s="138"/>
+      <c r="B49" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="131" t="s">
+      <c r="C49" s="129" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="20">
@@ -5013,9 +5025,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="125"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="125"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5030,9 +5042,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="125"/>
-      <c r="B51" s="125"/>
-      <c r="C51" s="125"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5131,11 +5143,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="127"/>
-      <c r="B56" s="129" t="s">
+      <c r="A56" s="130"/>
+      <c r="B56" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="130" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5152,9 +5164,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="128"/>
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
+      <c r="A57" s="126"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="126"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5169,9 +5181,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="128"/>
-      <c r="B58" s="128"/>
-      <c r="C58" s="128"/>
+      <c r="A58" s="126"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5186,9 +5198,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="128"/>
-      <c r="B59" s="128"/>
-      <c r="C59" s="128"/>
+      <c r="A59" s="126"/>
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5203,9 +5215,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="128"/>
-      <c r="B60" s="128"/>
-      <c r="C60" s="128"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="126"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5220,9 +5232,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="128"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="128"/>
+      <c r="A61" s="126"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5237,9 +5249,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="128"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="128"/>
+      <c r="A62" s="126"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5296,11 +5308,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="126"/>
-      <c r="B65" s="130" t="s">
+      <c r="A65" s="138"/>
+      <c r="B65" s="128" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="131" t="s">
+      <c r="C65" s="129" t="s">
         <v>289</v>
       </c>
       <c r="D65" s="20">
@@ -5317,9 +5329,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="125"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5334,9 +5346,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="125"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="125"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5435,11 +5447,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="127"/>
-      <c r="B72" s="129" t="s">
+      <c r="A72" s="130"/>
+      <c r="B72" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="127" t="s">
+      <c r="C72" s="130" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5456,9 +5468,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="128"/>
-      <c r="B73" s="128"/>
-      <c r="C73" s="128"/>
+      <c r="A73" s="126"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="126"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5473,9 +5485,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="128"/>
-      <c r="B74" s="128"/>
-      <c r="C74" s="128"/>
+      <c r="A74" s="126"/>
+      <c r="B74" s="126"/>
+      <c r="C74" s="126"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5490,9 +5502,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="128"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="128"/>
+      <c r="A75" s="126"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5507,9 +5519,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="128"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="128"/>
+      <c r="A76" s="126"/>
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5524,9 +5536,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="128"/>
-      <c r="B77" s="128"/>
-      <c r="C77" s="128"/>
+      <c r="A77" s="126"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5541,9 +5553,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="128"/>
-      <c r="B78" s="128"/>
-      <c r="C78" s="128"/>
+      <c r="A78" s="126"/>
+      <c r="B78" s="126"/>
+      <c r="C78" s="126"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5600,11 +5612,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="133"/>
-      <c r="B81" s="133" t="s">
+      <c r="A81" s="123"/>
+      <c r="B81" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="132" t="s">
+      <c r="C81" s="127" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5621,9 +5633,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="125"/>
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5638,9 +5650,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="125"/>
-      <c r="B83" s="125"/>
-      <c r="C83" s="125"/>
+      <c r="A83" s="124"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5655,9 +5667,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="125"/>
-      <c r="B84" s="125"/>
-      <c r="C84" s="125"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -5737,7 +5749,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="116" t="s">
-        <v>141</v>
+        <v>449</v>
       </c>
       <c r="C88" s="110" t="s">
         <v>156</v>
@@ -5779,7 +5791,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="116" t="s">
-        <v>143</v>
+        <v>450</v>
       </c>
       <c r="C90" s="110" t="s">
         <v>155</v>
@@ -5966,11 +5978,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="123"/>
-      <c r="B99" s="123" t="s">
+      <c r="A99" s="136"/>
+      <c r="B99" s="136" t="s">
         <v>299</v>
       </c>
-      <c r="C99" s="123" t="s">
+      <c r="C99" s="136" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -5987,9 +5999,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="123"/>
-      <c r="B100" s="123"/>
-      <c r="C100" s="123"/>
+      <c r="A100" s="136"/>
+      <c r="B100" s="136"/>
+      <c r="C100" s="136"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6004,9 +6016,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="123"/>
-      <c r="B101" s="123"/>
-      <c r="C101" s="123"/>
+      <c r="A101" s="136"/>
+      <c r="B101" s="136"/>
+      <c r="C101" s="136"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6042,11 +6054,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="123"/>
-      <c r="B103" s="123" t="s">
+      <c r="A103" s="136"/>
+      <c r="B103" s="136" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="123" t="s">
+      <c r="C103" s="136" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6063,9 +6075,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="124"/>
-      <c r="B104" s="124"/>
-      <c r="C104" s="124"/>
+      <c r="A104" s="137"/>
+      <c r="B104" s="137"/>
+      <c r="C104" s="137"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6080,9 +6092,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="124"/>
-      <c r="B105" s="124"/>
-      <c r="C105" s="124"/>
+      <c r="A105" s="137"/>
+      <c r="B105" s="137"/>
+      <c r="C105" s="137"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -6246,16 +6258,16 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="102"/>
       <c r="B113" s="116" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" s="110" t="s">
         <v>348</v>
-      </c>
-      <c r="C113" s="110" t="s">
-        <v>349</v>
       </c>
       <c r="D113" s="117">
         <v>112</v>
       </c>
       <c r="E113" s="98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F113" s="91" t="s">
         <v>73</v>
@@ -6267,16 +6279,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="102"/>
       <c r="B114" s="116" t="s">
+        <v>354</v>
+      </c>
+      <c r="C114" s="110" t="s">
         <v>348</v>
-      </c>
-      <c r="C114" s="110" t="s">
-        <v>349</v>
       </c>
       <c r="D114" s="117">
         <v>113</v>
       </c>
       <c r="E114" s="98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F114" s="91" t="s">
         <v>73</v>
@@ -6288,16 +6300,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="102"/>
       <c r="B115" s="116" t="s">
+        <v>355</v>
+      </c>
+      <c r="C115" s="110" t="s">
         <v>348</v>
-      </c>
-      <c r="C115" s="110" t="s">
-        <v>349</v>
       </c>
       <c r="D115" s="117">
         <v>114</v>
       </c>
       <c r="E115" s="98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F115" s="91" t="s">
         <v>73</v>
@@ -6309,16 +6321,16 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="102"/>
       <c r="B116" s="116" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" s="110" t="s">
         <v>348</v>
-      </c>
-      <c r="C116" s="110" t="s">
-        <v>349</v>
       </c>
       <c r="D116" s="117">
         <v>115</v>
       </c>
       <c r="E116" s="98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F116" s="91" t="s">
         <v>73</v>
@@ -6330,16 +6342,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="102"/>
       <c r="B117" s="116" t="s">
+        <v>356</v>
+      </c>
+      <c r="C117" s="110" t="s">
         <v>348</v>
-      </c>
-      <c r="C117" s="110" t="s">
-        <v>349</v>
       </c>
       <c r="D117" s="117">
         <v>116</v>
       </c>
       <c r="E117" s="98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F117" s="91" t="s">
         <v>73</v>
@@ -6351,16 +6363,16 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="102"/>
       <c r="B118" s="116" t="s">
+        <v>451</v>
+      </c>
+      <c r="C118" s="110" t="s">
         <v>348</v>
-      </c>
-      <c r="C118" s="110" t="s">
-        <v>349</v>
       </c>
       <c r="D118" s="117">
         <v>117</v>
       </c>
       <c r="E118" s="98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F118" s="91" t="s">
         <v>73</v>
@@ -6372,16 +6384,16 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="102"/>
       <c r="B119" s="116" t="s">
+        <v>452</v>
+      </c>
+      <c r="C119" s="110" t="s">
         <v>348</v>
-      </c>
-      <c r="C119" s="110" t="s">
-        <v>349</v>
       </c>
       <c r="D119" s="117">
         <v>118</v>
       </c>
       <c r="E119" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F119" s="91" t="s">
         <v>73</v>
@@ -6393,703 +6405,677 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="110"/>
       <c r="B120" s="116" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C120" s="110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D120" s="117">
         <v>119</v>
       </c>
       <c r="E120" s="110" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F120" s="110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G120" s="110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="114"/>
       <c r="B121" s="116" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C121" s="114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D121" s="117">
         <v>120</v>
       </c>
       <c r="E121" s="114" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F121" s="114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G121" s="114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="114"/>
       <c r="B122" s="116" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C122" s="114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D122" s="117">
         <v>121</v>
       </c>
       <c r="E122" s="114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F122" s="114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G122" s="114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="120"/>
       <c r="B123" s="120" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C123" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D123" s="119">
         <v>122</v>
       </c>
       <c r="E123" s="120" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F123" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G123" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="120"/>
       <c r="B124" s="120" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C124" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D124" s="119">
         <v>123</v>
       </c>
       <c r="E124" s="120" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F124" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G124" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="120"/>
       <c r="B125" s="120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C125" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D125" s="119">
         <v>124</v>
       </c>
       <c r="E125" s="120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F125" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G125" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="120"/>
       <c r="B126" s="120" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C126" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D126" s="119">
         <v>125</v>
       </c>
       <c r="E126" s="120" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F126" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G126" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="120"/>
       <c r="B127" s="120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C127" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D127" s="119">
         <v>126</v>
       </c>
       <c r="E127" s="120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F127" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G127" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="120"/>
       <c r="B128" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C128" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D128" s="119">
         <v>127</v>
       </c>
       <c r="E128" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F128" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G128" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="120"/>
       <c r="B129" s="120" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C129" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D129" s="119">
         <v>128</v>
       </c>
       <c r="E129" s="120" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F129" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G129" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="120"/>
       <c r="B130" s="120" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C130" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D130" s="119">
         <v>129</v>
       </c>
       <c r="E130" s="120" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F130" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G130" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="120"/>
       <c r="B131" s="120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C131" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D131" s="119">
         <v>130</v>
       </c>
       <c r="E131" s="120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F131" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G131" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="120"/>
       <c r="B132" s="120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C132" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D132" s="119">
         <v>131</v>
       </c>
       <c r="E132" s="120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F132" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G132" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="120"/>
       <c r="B133" s="120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C133" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D133" s="119">
         <v>132</v>
       </c>
       <c r="E133" s="120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F133" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G133" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="120"/>
       <c r="B134" s="120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C134" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D134" s="119">
         <v>133</v>
       </c>
       <c r="E134" s="120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F134" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G134" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="120"/>
       <c r="B135" s="120" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C135" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D135" s="119">
         <v>134</v>
       </c>
       <c r="E135" s="120" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F135" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G135" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="120"/>
       <c r="B136" s="120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C136" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D136" s="119">
         <v>135</v>
       </c>
       <c r="E136" s="120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F136" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G136" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="121"/>
       <c r="B137" s="121" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C137" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D137" s="121">
         <v>136</v>
       </c>
       <c r="E137" s="122" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F137" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G137" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="121"/>
       <c r="B138" s="121" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C138" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D138" s="121">
         <v>137</v>
       </c>
       <c r="E138" s="122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F138" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G138" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="121"/>
       <c r="B139" s="121" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C139" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D139" s="121">
         <v>138</v>
       </c>
       <c r="E139" s="122" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F139" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G139" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="121"/>
       <c r="B140" s="121" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C140" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D140" s="121">
         <v>139</v>
       </c>
       <c r="E140" s="122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F140" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G140" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="121"/>
       <c r="B141" s="121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C141" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D141" s="121">
         <v>140</v>
       </c>
       <c r="E141" s="122" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F141" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G141" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="121"/>
       <c r="B142" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C142" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D142" s="121">
         <v>141</v>
       </c>
       <c r="E142" s="122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F142" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G142" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="121"/>
       <c r="B143" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C143" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D143" s="121">
         <v>142</v>
       </c>
       <c r="E143" s="122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F143" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G143" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="121"/>
       <c r="B144" s="121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C144" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D144" s="121">
         <v>143</v>
       </c>
       <c r="E144" s="122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F144" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G144" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="121"/>
       <c r="B145" s="121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C145" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D145" s="121">
         <v>144</v>
       </c>
       <c r="E145" s="122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F145" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G145" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="121"/>
       <c r="B146" s="121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C146" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D146" s="121">
         <v>145</v>
       </c>
       <c r="E146" s="122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F146" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G146" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="121"/>
       <c r="B147" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C147" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D147" s="121">
         <v>146</v>
       </c>
       <c r="E147" s="122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F147" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G147" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="121"/>
       <c r="B148" s="121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C148" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D148" s="121">
         <v>147</v>
       </c>
       <c r="E148" s="122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F148" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G148" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="121"/>
       <c r="B149" s="121" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C149" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D149" s="121">
         <v>148</v>
       </c>
       <c r="E149" s="122" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F149" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G149" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="121"/>
       <c r="B150" s="121" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C150" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D150" s="121">
         <v>149</v>
       </c>
       <c r="E150" s="122" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F150" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G150" s="121" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="122"/>
       <c r="B151" s="122" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C151" s="122" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D151" s="122">
         <v>150</v>
       </c>
       <c r="E151" s="122" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F151" s="122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G151" s="122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A103:A105"/>
@@ -7106,6 +7092,32 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7127,7 +7139,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="102"/>
       <c r="B1" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C1" s="110" t="s">
         <v>298</v>
@@ -7148,7 +7160,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="B2" s="116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="110" t="s">
         <v>298</v>
@@ -7169,7 +7181,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="102"/>
       <c r="B3" s="116" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C3" s="110" t="s">
         <v>298</v>
@@ -7190,7 +7202,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="102"/>
       <c r="B4" s="116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" s="110" t="s">
         <v>298</v>
@@ -7211,7 +7223,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="102"/>
       <c r="B5" s="116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" s="110" t="s">
         <v>298</v>
@@ -7232,7 +7244,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="102"/>
       <c r="B6" s="116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" s="110" t="s">
         <v>298</v>
@@ -7253,7 +7265,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="102"/>
       <c r="B7" s="116" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C7" s="110" t="s">
         <v>298</v>
@@ -7274,7 +7286,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="102"/>
       <c r="B8" s="116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" s="110" t="s">
         <v>298</v>
@@ -7295,7 +7307,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="102"/>
       <c r="B9" s="116" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" s="110" t="s">
         <v>298</v>
@@ -7316,7 +7328,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="102"/>
       <c r="B10" s="116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="110" t="s">
         <v>298</v>
@@ -7337,7 +7349,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="102"/>
       <c r="B11" s="116" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="110" t="s">
         <v>298</v>
@@ -7358,7 +7370,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
       <c r="B12" s="116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="110" t="s">
         <v>298</v>
@@ -7379,7 +7391,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="102"/>
       <c r="B13" s="116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" s="110" t="s">
         <v>298</v>
@@ -7400,7 +7412,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="116" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C14" s="110" t="s">
         <v>298</v>
@@ -7421,7 +7433,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="102"/>
       <c r="B15" s="116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C15" s="110" t="s">
         <v>298</v>
@@ -7442,7 +7454,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="102"/>
       <c r="B16" s="116" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C16" s="110" t="s">
         <v>298</v>
@@ -7901,10 +7913,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7912,10 +7924,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -10340,31 +10352,31 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R3" s="33" t="s">
         <v>211</v>
@@ -10462,13 +10474,13 @@
     </row>
     <row r="7" spans="1:28" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C7" s="96" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="105">
@@ -10540,10 +10552,10 @@
         <v>322</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="105">
@@ -10618,10 +10630,10 @@
         <v>323</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
@@ -10695,13 +10707,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
@@ -10778,10 +10790,10 @@
         <v>325</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
@@ -10855,13 +10867,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D12" s="33">
         <v>2130019</v>
@@ -10935,13 +10947,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
@@ -11015,13 +11027,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B14" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>396</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>397</v>
       </c>
       <c r="D14" s="33">
         <v>2059</v>
@@ -11095,13 +11107,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D15" s="33">
         <v>8451</v>
@@ -11177,13 +11189,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" s="33">
         <v>4137</v>
@@ -11263,13 +11275,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D17" s="33">
         <v>17665</v>
@@ -11349,98 +11361,98 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C26" s="72" t="s">
         <v>342</v>
@@ -11448,10 +11460,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C27" s="72" t="s">
         <v>342</v>
@@ -11459,68 +11471,68 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B28" s="72" t="s">
         <v>295</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B29" s="72" t="s">
         <v>295</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B30" s="72" t="s">
         <v>296</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B31" s="72" t="s">
         <v>296</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B32" s="72" t="s">
         <v>342</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B33" s="72" t="s">
         <v>342</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="454">
   <si>
     <t>组序号</t>
   </si>
@@ -2103,10 +2103,6 @@
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
-    <t>0x0001</t>
-    <phoneticPr fontId="55" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>0x</t>
     </r>
@@ -2381,6 +2377,14 @@
   <si>
     <t>电源模块6(电表2)</t>
     <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunSelect</t>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4024,7 +4028,7 @@
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5749,7 +5753,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="116" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C88" s="110" t="s">
         <v>156</v>
@@ -5791,7 +5795,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="116" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C90" s="110" t="s">
         <v>155</v>
@@ -6135,7 +6139,7 @@
         <v>305</v>
       </c>
       <c r="C107" s="111" t="s">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="D107" s="100">
         <v>106</v>
@@ -6363,7 +6367,7 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="102"/>
       <c r="B118" s="116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C118" s="110" t="s">
         <v>348</v>
@@ -6384,7 +6388,7 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="102"/>
       <c r="B119" s="116" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C119" s="110" t="s">
         <v>348</v>
@@ -6405,7 +6409,7 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="110"/>
       <c r="B120" s="116" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C120" s="110" t="s">
         <v>348</v>
@@ -6414,19 +6418,19 @@
         <v>119</v>
       </c>
       <c r="E120" s="110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F120" s="110" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G120" s="110" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="114"/>
       <c r="B121" s="116" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C121" s="114" t="s">
         <v>348</v>
@@ -6435,19 +6439,19 @@
         <v>120</v>
       </c>
       <c r="E121" s="114" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F121" s="114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G121" s="114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="114"/>
       <c r="B122" s="116" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C122" s="114" t="s">
         <v>348</v>
@@ -6456,622 +6460,622 @@
         <v>121</v>
       </c>
       <c r="E122" s="114" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F122" s="114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G122" s="114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="120"/>
       <c r="B123" s="120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C123" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D123" s="119">
         <v>122</v>
       </c>
       <c r="E123" s="120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F123" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G123" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="120"/>
       <c r="B124" s="120" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C124" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D124" s="119">
         <v>123</v>
       </c>
       <c r="E124" s="120" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F124" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G124" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="120"/>
       <c r="B125" s="120" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C125" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D125" s="119">
         <v>124</v>
       </c>
       <c r="E125" s="120" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F125" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G125" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="120"/>
       <c r="B126" s="120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C126" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D126" s="119">
         <v>125</v>
       </c>
       <c r="E126" s="120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F126" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G126" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="120"/>
       <c r="B127" s="120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C127" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D127" s="119">
         <v>126</v>
       </c>
       <c r="E127" s="120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F127" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G127" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="120"/>
       <c r="B128" s="120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C128" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D128" s="119">
         <v>127</v>
       </c>
       <c r="E128" s="120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F128" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G128" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="120"/>
       <c r="B129" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C129" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D129" s="119">
         <v>128</v>
       </c>
       <c r="E129" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F129" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G129" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="120"/>
       <c r="B130" s="120" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C130" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D130" s="119">
         <v>129</v>
       </c>
       <c r="E130" s="120" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F130" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G130" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="120"/>
       <c r="B131" s="120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C131" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D131" s="119">
         <v>130</v>
       </c>
       <c r="E131" s="120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F131" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G131" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="120"/>
       <c r="B132" s="120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C132" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D132" s="119">
         <v>131</v>
       </c>
       <c r="E132" s="120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F132" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G132" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="120"/>
       <c r="B133" s="120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C133" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D133" s="119">
         <v>132</v>
       </c>
       <c r="E133" s="120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F133" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G133" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="120"/>
       <c r="B134" s="120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C134" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D134" s="119">
         <v>133</v>
       </c>
       <c r="E134" s="120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F134" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G134" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="120"/>
       <c r="B135" s="120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C135" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D135" s="119">
         <v>134</v>
       </c>
       <c r="E135" s="120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F135" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G135" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="120"/>
       <c r="B136" s="120" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C136" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D136" s="119">
         <v>135</v>
       </c>
       <c r="E136" s="120" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F136" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G136" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="121"/>
       <c r="B137" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C137" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D137" s="121">
         <v>136</v>
       </c>
       <c r="E137" s="122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F137" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G137" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="121"/>
       <c r="B138" s="121" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C138" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D138" s="121">
         <v>137</v>
       </c>
       <c r="E138" s="122" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F138" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G138" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="121"/>
       <c r="B139" s="121" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C139" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D139" s="121">
         <v>138</v>
       </c>
       <c r="E139" s="122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F139" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G139" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="121"/>
       <c r="B140" s="121" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C140" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D140" s="121">
         <v>139</v>
       </c>
       <c r="E140" s="122" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F140" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G140" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="121"/>
       <c r="B141" s="121" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C141" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D141" s="121">
         <v>140</v>
       </c>
       <c r="E141" s="122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F141" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G141" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="121"/>
       <c r="B142" s="121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C142" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D142" s="121">
         <v>141</v>
       </c>
       <c r="E142" s="122" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F142" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G142" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="121"/>
       <c r="B143" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C143" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D143" s="121">
         <v>142</v>
       </c>
       <c r="E143" s="122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F143" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G143" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="121"/>
       <c r="B144" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C144" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D144" s="121">
         <v>143</v>
       </c>
       <c r="E144" s="122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F144" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G144" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="121"/>
       <c r="B145" s="121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C145" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D145" s="121">
         <v>144</v>
       </c>
       <c r="E145" s="122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F145" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G145" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="121"/>
       <c r="B146" s="121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C146" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D146" s="121">
         <v>145</v>
       </c>
       <c r="E146" s="122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F146" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G146" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="121"/>
       <c r="B147" s="121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C147" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D147" s="121">
         <v>146</v>
       </c>
       <c r="E147" s="122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F147" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G147" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="121"/>
       <c r="B148" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C148" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D148" s="121">
         <v>147</v>
       </c>
       <c r="E148" s="122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F148" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G148" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="121"/>
       <c r="B149" s="121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C149" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D149" s="121">
         <v>148</v>
       </c>
       <c r="E149" s="122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F149" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G149" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="121"/>
       <c r="B150" s="121" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C150" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D150" s="121">
         <v>149</v>
       </c>
       <c r="E150" s="122" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F150" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G150" s="121" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="122"/>
       <c r="B151" s="122" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C151" s="122" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D151" s="122">
         <v>150</v>
       </c>
       <c r="E151" s="122" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F151" s="122" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G151" s="122" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -10158,8 +10162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10477,7 +10481,7 @@
         <v>350</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C7" s="96" t="s">
         <v>388</v>
@@ -10552,7 +10556,7 @@
         <v>322</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" s="96" t="s">
         <v>389</v>
@@ -10630,7 +10634,7 @@
         <v>323</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C9" s="96" t="s">
         <v>387</v>
@@ -10710,7 +10714,7 @@
         <v>351</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C10" s="72" t="s">
         <v>384</v>
@@ -10790,7 +10794,7 @@
         <v>325</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C11" s="72" t="s">
         <v>385</v>
@@ -10870,7 +10874,7 @@
         <v>352</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C12" s="96" t="s">
         <v>390</v>
@@ -10950,7 +10954,7 @@
         <v>353</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C13" s="96" t="s">
         <v>386</v>
@@ -11030,10 +11034,10 @@
         <v>391</v>
       </c>
       <c r="B14" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>395</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>396</v>
       </c>
       <c r="D14" s="33">
         <v>2059</v>
@@ -11110,10 +11114,10 @@
         <v>392</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D15" s="33">
         <v>8451</v>
@@ -11189,13 +11193,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D16" s="33">
         <v>4137</v>
@@ -11275,13 +11279,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D17" s="33">
         <v>17665</v>
@@ -11361,98 +11365,98 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C26" s="72" t="s">
         <v>342</v>
@@ -11460,10 +11464,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C27" s="72" t="s">
         <v>342</v>
@@ -11471,68 +11475,68 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B28" s="72" t="s">
         <v>295</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B29" s="72" t="s">
         <v>295</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B30" s="72" t="s">
         <v>296</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B31" s="72" t="s">
         <v>296</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B32" s="72" t="s">
         <v>342</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B33" s="72" t="s">
         <v>342</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="455">
   <si>
     <t>组序号</t>
   </si>
@@ -2385,6 +2385,10 @@
   <si>
     <t>gunSelect</t>
     <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示盖板</t>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3276,7 +3280,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3620,53 +3624,56 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4025,10 +4032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4366,11 +4373,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="123" t="s">
+      <c r="A15" s="134"/>
+      <c r="B15" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="134" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4387,9 +4394,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4404,9 +4411,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4421,9 +4428,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4438,9 +4445,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4501,11 +4508,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130" t="s">
+      <c r="A22" s="128"/>
+      <c r="B22" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="128" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4522,9 +4529,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4539,9 +4546,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="126"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4556,9 +4563,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4573,9 +4580,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4632,11 +4639,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
-      <c r="B29" s="135" t="s">
+      <c r="A29" s="139"/>
+      <c r="B29" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="136" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4653,9 +4660,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="133"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="133"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4670,9 +4677,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="133"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4687,9 +4694,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="133"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -4704,9 +4711,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
+      <c r="A33" s="138"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -4721,11 +4728,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124" t="s">
+      <c r="A34" s="126"/>
+      <c r="B34" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="126" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -4742,9 +4749,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -4759,11 +4766,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="124"/>
-      <c r="B36" s="124" t="s">
+      <c r="A36" s="126"/>
+      <c r="B36" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="134" t="s">
         <v>150</v>
       </c>
       <c r="D36" s="20">
@@ -4780,9 +4787,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -4797,11 +4804,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="124"/>
-      <c r="B38" s="127" t="s">
+      <c r="A38" s="126"/>
+      <c r="B38" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="127" t="s">
+      <c r="C38" s="133" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4818,9 +4825,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="124"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -4835,11 +4842,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="124"/>
-      <c r="B40" s="124" t="s">
+      <c r="A40" s="126"/>
+      <c r="B40" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="133" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4856,9 +4863,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="124"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -4873,9 +4880,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="124"/>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -4890,9 +4897,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="124"/>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
+      <c r="A43" s="126"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -4907,9 +4914,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -4924,11 +4931,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="124">
+      <c r="A45" s="126">
         <v>13</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124" t="s">
+      <c r="B45" s="126"/>
+      <c r="C45" s="126" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5008,11 +5015,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="138"/>
-      <c r="B49" s="128" t="s">
+      <c r="A49" s="127"/>
+      <c r="B49" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="129" t="s">
+      <c r="C49" s="132" t="s">
         <v>289</v>
       </c>
       <c r="D49" s="20">
@@ -5029,9 +5036,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="124"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5046,9 +5053,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="124"/>
-      <c r="B51" s="124"/>
-      <c r="C51" s="124"/>
+      <c r="A51" s="126"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5147,11 +5154,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="130"/>
-      <c r="B56" s="125" t="s">
+      <c r="A56" s="128"/>
+      <c r="B56" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="130" t="s">
+      <c r="C56" s="128" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5168,9 +5175,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
+      <c r="A57" s="129"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5185,9 +5192,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="126"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
+      <c r="A58" s="129"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5202,9 +5209,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="126"/>
-      <c r="B59" s="126"/>
-      <c r="C59" s="126"/>
+      <c r="A59" s="129"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5219,9 +5226,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="126"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="126"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5236,9 +5243,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="126"/>
-      <c r="B61" s="126"/>
-      <c r="C61" s="126"/>
+      <c r="A61" s="129"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5253,9 +5260,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="126"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="126"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5312,11 +5319,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="138"/>
-      <c r="B65" s="128" t="s">
+      <c r="A65" s="127"/>
+      <c r="B65" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="129" t="s">
+      <c r="C65" s="132" t="s">
         <v>289</v>
       </c>
       <c r="D65" s="20">
@@ -5333,9 +5340,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="124"/>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
+      <c r="A66" s="126"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5350,9 +5357,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="124"/>
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5451,11 +5458,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="130"/>
-      <c r="B72" s="125" t="s">
+      <c r="A72" s="128"/>
+      <c r="B72" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="130" t="s">
+      <c r="C72" s="128" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5472,9 +5479,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="126"/>
-      <c r="B73" s="126"/>
-      <c r="C73" s="126"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5489,9 +5496,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="126"/>
-      <c r="B74" s="126"/>
-      <c r="C74" s="126"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5506,9 +5513,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="126"/>
-      <c r="B75" s="126"/>
-      <c r="C75" s="126"/>
+      <c r="A75" s="129"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5523,9 +5530,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="126"/>
-      <c r="B76" s="126"/>
-      <c r="C76" s="126"/>
+      <c r="A76" s="129"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="129"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5540,9 +5547,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="126"/>
-      <c r="B77" s="126"/>
-      <c r="C77" s="126"/>
+      <c r="A77" s="129"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="129"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5557,9 +5564,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="126"/>
-      <c r="B78" s="126"/>
-      <c r="C78" s="126"/>
+      <c r="A78" s="129"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="129"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5616,11 +5623,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="123"/>
-      <c r="B81" s="123" t="s">
+      <c r="A81" s="134"/>
+      <c r="B81" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="127" t="s">
+      <c r="C81" s="133" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5637,9 +5644,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="124"/>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
+      <c r="A82" s="126"/>
+      <c r="B82" s="126"/>
+      <c r="C82" s="126"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5654,9 +5661,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="124"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
+      <c r="A83" s="126"/>
+      <c r="B83" s="126"/>
+      <c r="C83" s="126"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5671,9 +5678,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="124"/>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
+      <c r="A84" s="126"/>
+      <c r="B84" s="126"/>
+      <c r="C84" s="126"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -5982,11 +5989,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="136"/>
-      <c r="B99" s="136" t="s">
+      <c r="A99" s="124"/>
+      <c r="B99" s="124" t="s">
         <v>299</v>
       </c>
-      <c r="C99" s="136" t="s">
+      <c r="C99" s="124" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -6003,9 +6010,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="136"/>
-      <c r="B100" s="136"/>
-      <c r="C100" s="136"/>
+      <c r="A100" s="124"/>
+      <c r="B100" s="124"/>
+      <c r="C100" s="124"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6020,9 +6027,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="136"/>
-      <c r="B101" s="136"/>
-      <c r="C101" s="136"/>
+      <c r="A101" s="124"/>
+      <c r="B101" s="124"/>
+      <c r="C101" s="124"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6058,11 +6065,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="136"/>
-      <c r="B103" s="136" t="s">
+      <c r="A103" s="124"/>
+      <c r="B103" s="124" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="136" t="s">
+      <c r="C103" s="124" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6079,9 +6086,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="137"/>
-      <c r="B104" s="137"/>
-      <c r="C104" s="137"/>
+      <c r="A104" s="125"/>
+      <c r="B104" s="125"/>
+      <c r="C104" s="125"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6096,9 +6103,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="137"/>
-      <c r="B105" s="137"/>
-      <c r="C105" s="137"/>
+      <c r="A105" s="125"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="125"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -7078,8 +7085,55 @@
         <v>400</v>
       </c>
     </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="123"/>
+      <c r="B152" s="123" t="s">
+        <v>454</v>
+      </c>
+      <c r="C152" s="123" t="s">
+        <v>431</v>
+      </c>
+      <c r="D152" s="123">
+        <v>151</v>
+      </c>
+      <c r="E152" s="123" t="s">
+        <v>454</v>
+      </c>
+      <c r="F152" s="123" t="s">
+        <v>400</v>
+      </c>
+      <c r="G152" s="123" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A103:A105"/>
@@ -7096,32 +7150,6 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A99:A101"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="param" sheetId="64" r:id="rId6"/>
     <sheet name="BIBO" sheetId="66" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="456">
   <si>
     <t>组序号</t>
   </si>
@@ -725,15 +725,7 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>测试前</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试后</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
@@ -2103,6 +2095,10 @@
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
+    <t>0x0001</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>0x</t>
     </r>
@@ -2383,11 +2379,19 @@
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
+    <t>0x0000</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
     <t>gunSelect</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>显示盖板</t>
+    <t>断开网络</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetWorkCheck</t>
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
 </sst>
@@ -4034,8 +4038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView topLeftCell="A118" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4044,7 +4048,7 @@
     <col min="2" max="2" width="34.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="57.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.7265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" customWidth="1"/>
@@ -4718,7 +4722,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="98" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F33" s="69" t="s">
         <v>11</v>
@@ -4771,13 +4775,13 @@
         <v>126</v>
       </c>
       <c r="C36" s="134" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
       <c r="E36" s="101" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F36" s="71" t="s">
         <v>73</v>
@@ -4794,7 +4798,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F37" s="69" t="s">
         <v>11</v>
@@ -4806,7 +4810,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="126"/>
       <c r="B38" s="133" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" s="133" t="s">
         <v>58</v>
@@ -4815,7 +4819,7 @@
         <v>37</v>
       </c>
       <c r="E38" s="101" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F38" s="70" t="s">
         <v>11</v>
@@ -4832,7 +4836,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="101" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F39" s="69" t="s">
         <v>11</v>
@@ -4859,7 +4863,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4876,7 +4880,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -4893,7 +4897,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -4910,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -4927,7 +4931,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -4948,7 +4952,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -4957,7 +4961,7 @@
         <v>78</v>
       </c>
       <c r="C46" s="110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D46" s="20">
         <v>45</v>
@@ -4996,16 +5000,16 @@
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D48" s="20">
         <v>47</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F48" s="70" t="s">
         <v>77</v>
@@ -5017,19 +5021,19 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="127"/>
       <c r="B49" s="131" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C49" s="132" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F49" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>11</v>
@@ -5043,10 +5047,10 @@
         <v>49</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F50" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>11</v>
@@ -5060,10 +5064,10 @@
         <v>50</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F51" s="72" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>11</v>
@@ -5072,7 +5076,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="49"/>
       <c r="B52" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C52" s="108" t="s">
         <v>58</v>
@@ -5081,7 +5085,7 @@
         <v>51</v>
       </c>
       <c r="E52" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F52" s="71" t="s">
         <v>73</v>
@@ -5093,7 +5097,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="49"/>
       <c r="B53" s="45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C53" s="110" t="s">
         <v>58</v>
@@ -5102,7 +5106,7 @@
         <v>52</v>
       </c>
       <c r="E53" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F53" s="69" t="s">
         <v>11</v>
@@ -5303,7 +5307,7 @@
         <v>84</v>
       </c>
       <c r="C64" s="110" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D64" s="20">
         <v>63</v>
@@ -5321,19 +5325,19 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="127"/>
       <c r="B65" s="131" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C65" s="132" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F65" s="72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G65" s="48" t="s">
         <v>11</v>
@@ -5347,10 +5351,10 @@
         <v>65</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F66" s="72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G66" s="48" t="s">
         <v>11</v>
@@ -5364,10 +5368,10 @@
         <v>66</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F67" s="72" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G67" s="48" t="s">
         <v>11</v>
@@ -5376,7 +5380,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
       <c r="B68" s="65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C68" s="45" t="s">
         <v>58</v>
@@ -5385,7 +5389,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F68" s="71" t="s">
         <v>73</v>
@@ -5397,7 +5401,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
       <c r="B69" s="45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C69" s="110" t="s">
         <v>58</v>
@@ -5406,7 +5410,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F69" s="69" t="s">
         <v>11</v>
@@ -5469,7 +5473,7 @@
         <v>71</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F72" s="69" t="s">
         <v>11</v>
@@ -5486,7 +5490,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F73" s="69" t="s">
         <v>11</v>
@@ -5503,7 +5507,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F74" s="69" t="s">
         <v>11</v>
@@ -5520,7 +5524,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F75" s="69" t="s">
         <v>11</v>
@@ -5537,7 +5541,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F76" s="69" t="s">
         <v>11</v>
@@ -5554,7 +5558,7 @@
         <v>76</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F77" s="69" t="s">
         <v>11</v>
@@ -5571,7 +5575,7 @@
         <v>77</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F78" s="69" t="s">
         <v>11</v>
@@ -5607,7 +5611,7 @@
         <v>87</v>
       </c>
       <c r="C80" s="110" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D80" s="20">
         <v>79</v>
@@ -5742,7 +5746,7 @@
         <v>93</v>
       </c>
       <c r="C87" s="110" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D87" s="68">
         <v>86</v>
@@ -5760,16 +5764,16 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C88" s="110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D88" s="68">
         <v>87</v>
       </c>
       <c r="E88" s="98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F88" s="69">
         <v>20</v>
@@ -5781,16 +5785,16 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C89" s="110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D89" s="68">
         <v>88</v>
       </c>
       <c r="E89" s="98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F89" s="69">
         <v>20</v>
@@ -5802,16 +5806,16 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="116" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C90" s="110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D90" s="68">
         <v>89</v>
       </c>
       <c r="E90" s="98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F90" s="70">
         <v>3</v>
@@ -5823,7 +5827,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="116" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C91" s="111" t="s">
         <v>58</v>
@@ -5832,19 +5836,19 @@
         <v>90</v>
       </c>
       <c r="E91" s="98" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F91" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G91" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="116" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C92" s="111" t="s">
         <v>58</v>
@@ -5853,19 +5857,19 @@
         <v>91</v>
       </c>
       <c r="E92" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F92" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G92" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="116" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C93" s="111" t="s">
         <v>58</v>
@@ -5874,19 +5878,19 @@
         <v>92</v>
       </c>
       <c r="E93" s="98" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F93" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G93" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="116" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C94" s="111" t="s">
         <v>58</v>
@@ -5895,19 +5899,19 @@
         <v>93</v>
       </c>
       <c r="E94" s="98" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F94" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G94" s="55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C95" s="111" t="s">
         <v>58</v>
@@ -5916,19 +5920,19 @@
         <v>94</v>
       </c>
       <c r="E95" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F95" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G95" s="55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="116" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C96" s="111" t="s">
         <v>58</v>
@@ -5937,28 +5941,28 @@
         <v>95</v>
       </c>
       <c r="E96" s="98" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F96" s="70" t="s">
         <v>73</v>
       </c>
       <c r="G96" s="55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="68"/>
       <c r="B97" s="117" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C97" s="111" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="68">
         <v>96</v>
       </c>
       <c r="E97" s="98" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F97" s="70" t="s">
         <v>73</v>
@@ -5970,7 +5974,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="68"/>
       <c r="B98" s="117" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C98" s="111" t="s">
         <v>76</v>
@@ -5979,7 +5983,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="98" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F98" s="70" t="s">
         <v>73</v>
@@ -5991,7 +5995,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="124"/>
       <c r="B99" s="124" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C99" s="124" t="s">
         <v>76</v>
@@ -6000,7 +6004,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="98" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F99" s="82" t="s">
         <v>73</v>
@@ -6017,7 +6021,7 @@
         <v>99</v>
       </c>
       <c r="E100" s="98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F100" s="82" t="s">
         <v>73</v>
@@ -6034,7 +6038,7 @@
         <v>100</v>
       </c>
       <c r="E101" s="98" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F101" s="82" t="s">
         <v>73</v>
@@ -6046,16 +6050,16 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="84"/>
       <c r="B102" s="118" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C102" s="112" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D102" s="83">
         <v>101</v>
       </c>
       <c r="E102" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F102" s="82" t="s">
         <v>73</v>
@@ -6067,7 +6071,7 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="124"/>
       <c r="B103" s="124" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C103" s="124" t="s">
         <v>58</v>
@@ -6122,7 +6126,7 @@
     <row r="106" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="76"/>
       <c r="B106" s="116" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C106" s="111" t="s">
         <v>58</v>
@@ -6131,7 +6135,7 @@
         <v>105</v>
       </c>
       <c r="E106" s="98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F106" s="73" t="s">
         <v>73</v>
@@ -6143,7 +6147,7 @@
     <row r="107" spans="1:7" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="79"/>
       <c r="B107" s="117" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C107" s="111" t="s">
         <v>453</v>
@@ -6152,7 +6156,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="100" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F107" s="77" t="s">
         <v>73</v>
@@ -6164,7 +6168,7 @@
     <row r="108" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="79"/>
       <c r="B108" s="117" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C108" s="111" t="s">
         <v>76</v>
@@ -6173,7 +6177,7 @@
         <v>107</v>
       </c>
       <c r="E108" s="100" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F108" s="77" t="s">
         <v>73</v>
@@ -6185,7 +6189,7 @@
     <row r="109" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="79"/>
       <c r="B109" s="117" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C109" s="111" t="s">
         <v>76</v>
@@ -6194,7 +6198,7 @@
         <v>108</v>
       </c>
       <c r="E109" s="100" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F109" s="77" t="s">
         <v>73</v>
@@ -6206,7 +6210,7 @@
     <row r="110" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="79"/>
       <c r="B110" s="117" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C110" s="111" t="s">
         <v>76</v>
@@ -6215,7 +6219,7 @@
         <v>109</v>
       </c>
       <c r="E110" s="100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F110" s="77" t="s">
         <v>73</v>
@@ -6224,10 +6228,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="75" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" s="75" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="79"/>
       <c r="B111" s="116" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C111" s="111" t="s">
         <v>76</v>
@@ -6236,7 +6240,7 @@
         <v>110</v>
       </c>
       <c r="E111" s="98" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F111" s="77" t="s">
         <v>73</v>
@@ -6245,10 +6249,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="75" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" s="75" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="80"/>
       <c r="B112" s="116" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C112" s="111" t="s">
         <v>76</v>
@@ -6257,7 +6261,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="98" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F112" s="81" t="s">
         <v>73</v>
@@ -6269,16 +6273,16 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="102"/>
       <c r="B113" s="116" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C113" s="110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D113" s="117">
         <v>112</v>
       </c>
       <c r="E113" s="98" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F113" s="91" t="s">
         <v>73</v>
@@ -6290,16 +6294,16 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="102"/>
       <c r="B114" s="116" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C114" s="110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D114" s="117">
         <v>113</v>
       </c>
       <c r="E114" s="98" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F114" s="91" t="s">
         <v>73</v>
@@ -6311,16 +6315,16 @@
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="102"/>
       <c r="B115" s="116" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C115" s="110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D115" s="117">
         <v>114</v>
       </c>
       <c r="E115" s="98" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F115" s="91" t="s">
         <v>73</v>
@@ -6332,16 +6336,16 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="102"/>
       <c r="B116" s="116" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D116" s="117">
         <v>115</v>
       </c>
       <c r="E116" s="98" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F116" s="91" t="s">
         <v>73</v>
@@ -6353,16 +6357,16 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="102"/>
       <c r="B117" s="116" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C117" s="110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D117" s="117">
         <v>116</v>
       </c>
       <c r="E117" s="98" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F117" s="91" t="s">
         <v>73</v>
@@ -6374,16 +6378,16 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="102"/>
       <c r="B118" s="116" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C118" s="110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D118" s="117">
         <v>117</v>
       </c>
       <c r="E118" s="98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F118" s="91" t="s">
         <v>73</v>
@@ -6395,16 +6399,16 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="102"/>
       <c r="B119" s="116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C119" s="110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D119" s="117">
         <v>118</v>
       </c>
       <c r="E119" s="98" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F119" s="91" t="s">
         <v>73</v>
@@ -6416,673 +6420,673 @@
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="110"/>
       <c r="B120" s="116" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C120" s="110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D120" s="117">
         <v>119</v>
       </c>
       <c r="E120" s="110" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F120" s="110" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G120" s="110" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="114"/>
       <c r="B121" s="116" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C121" s="114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D121" s="117">
         <v>120</v>
       </c>
       <c r="E121" s="114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F121" s="114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G121" s="114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="114"/>
       <c r="B122" s="116" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C122" s="114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D122" s="117">
         <v>121</v>
       </c>
       <c r="E122" s="114" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F122" s="114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G122" s="114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="120"/>
       <c r="B123" s="120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C123" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D123" s="119">
         <v>122</v>
       </c>
       <c r="E123" s="120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F123" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G123" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="120"/>
       <c r="B124" s="120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C124" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D124" s="119">
         <v>123</v>
       </c>
       <c r="E124" s="120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F124" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G124" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="120"/>
       <c r="B125" s="120" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C125" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D125" s="119">
         <v>124</v>
       </c>
       <c r="E125" s="120" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F125" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G125" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="120"/>
       <c r="B126" s="120" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C126" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D126" s="119">
         <v>125</v>
       </c>
       <c r="E126" s="120" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F126" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G126" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="120"/>
       <c r="B127" s="120" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C127" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D127" s="119">
         <v>126</v>
       </c>
       <c r="E127" s="120" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F127" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G127" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="120"/>
       <c r="B128" s="120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C128" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D128" s="119">
         <v>127</v>
       </c>
       <c r="E128" s="120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F128" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G128" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="120"/>
       <c r="B129" s="120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C129" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D129" s="119">
         <v>128</v>
       </c>
       <c r="E129" s="120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F129" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G129" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="120"/>
       <c r="B130" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C130" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D130" s="119">
         <v>129</v>
       </c>
       <c r="E130" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F130" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G130" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="120"/>
       <c r="B131" s="120" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C131" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D131" s="119">
         <v>130</v>
       </c>
       <c r="E131" s="120" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F131" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G131" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="120"/>
       <c r="B132" s="120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C132" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D132" s="119">
         <v>131</v>
       </c>
       <c r="E132" s="120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F132" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G132" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="120"/>
       <c r="B133" s="120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C133" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D133" s="119">
         <v>132</v>
       </c>
       <c r="E133" s="120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F133" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G133" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="120"/>
       <c r="B134" s="120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C134" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D134" s="119">
         <v>133</v>
       </c>
       <c r="E134" s="120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F134" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G134" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="120"/>
       <c r="B135" s="120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C135" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D135" s="119">
         <v>134</v>
       </c>
       <c r="E135" s="120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F135" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G135" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="120"/>
       <c r="B136" s="120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C136" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D136" s="119">
         <v>135</v>
       </c>
       <c r="E136" s="120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F136" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G136" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="121"/>
       <c r="B137" s="121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C137" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D137" s="121">
         <v>136</v>
       </c>
       <c r="E137" s="122" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F137" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G137" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="121"/>
       <c r="B138" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C138" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D138" s="121">
         <v>137</v>
       </c>
       <c r="E138" s="122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F138" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G138" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="121"/>
       <c r="B139" s="121" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C139" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D139" s="121">
         <v>138</v>
       </c>
       <c r="E139" s="122" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F139" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G139" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="121"/>
       <c r="B140" s="121" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C140" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D140" s="121">
         <v>139</v>
       </c>
       <c r="E140" s="122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F140" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G140" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="121"/>
       <c r="B141" s="121" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C141" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D141" s="121">
         <v>140</v>
       </c>
       <c r="E141" s="122" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F141" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G141" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="121"/>
       <c r="B142" s="121" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C142" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D142" s="121">
         <v>141</v>
       </c>
       <c r="E142" s="122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F142" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G142" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="121"/>
       <c r="B143" s="121" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C143" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D143" s="121">
         <v>142</v>
       </c>
       <c r="E143" s="122" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F143" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G143" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="121"/>
       <c r="B144" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C144" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D144" s="121">
         <v>143</v>
       </c>
       <c r="E144" s="122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F144" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G144" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="121"/>
       <c r="B145" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C145" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D145" s="121">
         <v>144</v>
       </c>
       <c r="E145" s="122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F145" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G145" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="121"/>
       <c r="B146" s="121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C146" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D146" s="121">
         <v>145</v>
       </c>
       <c r="E146" s="122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F146" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G146" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="121"/>
       <c r="B147" s="121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C147" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D147" s="121">
         <v>146</v>
       </c>
       <c r="E147" s="122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F147" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G147" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="121"/>
       <c r="B148" s="121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C148" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D148" s="121">
         <v>147</v>
       </c>
       <c r="E148" s="122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F148" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G148" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="121"/>
       <c r="B149" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C149" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D149" s="121">
         <v>148</v>
       </c>
       <c r="E149" s="122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F149" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G149" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="121"/>
       <c r="B150" s="121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C150" s="121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D150" s="121">
         <v>149</v>
       </c>
       <c r="E150" s="122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F150" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G150" s="121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="122"/>
       <c r="B151" s="122" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C151" s="122" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D151" s="122">
         <v>150</v>
       </c>
       <c r="E151" s="122" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F151" s="122" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G151" s="122" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -7091,7 +7095,7 @@
         <v>454</v>
       </c>
       <c r="C152" s="123" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="D152" s="123">
         <v>151</v>
@@ -7100,10 +7104,10 @@
         <v>454</v>
       </c>
       <c r="F152" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G152" s="123" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -7171,337 +7175,337 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="102"/>
       <c r="B1" s="116" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D1" s="117">
         <v>122</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F1" s="88" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G1" s="88" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="B2" s="116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D2" s="117">
         <v>123</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="102"/>
       <c r="B3" s="116" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D3" s="117">
         <v>124</v>
       </c>
       <c r="E3" s="98" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="102"/>
       <c r="B4" s="116" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D4" s="117">
         <v>125</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F4" s="88" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="102"/>
       <c r="B5" s="116" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D5" s="117">
         <v>126</v>
       </c>
       <c r="E5" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G5" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="102"/>
       <c r="B6" s="116" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D6" s="117">
         <v>127</v>
       </c>
       <c r="E6" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G6" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="102"/>
       <c r="B7" s="116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D7" s="117">
         <v>128</v>
       </c>
       <c r="E7" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G7" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="102"/>
       <c r="B8" s="116" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C8" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="117">
         <v>129</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="102"/>
       <c r="B9" s="116" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D9" s="117">
         <v>130</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="102"/>
       <c r="B10" s="116" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D10" s="117">
         <v>131</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G10" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="102"/>
       <c r="B11" s="116" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D11" s="117">
         <v>132</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G11" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="102"/>
       <c r="B12" s="116" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D12" s="117">
         <v>133</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G12" s="101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="102"/>
       <c r="B13" s="116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C13" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D13" s="117">
         <v>134</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G13" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
       <c r="B14" s="116" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C14" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D14" s="117">
         <v>135</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G14" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="102"/>
       <c r="B15" s="116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D15" s="117">
         <v>136</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G15" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="102"/>
       <c r="B16" s="116" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D16" s="117">
         <v>137</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G16" s="101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -7522,7 +7526,7 @@
   <cols>
     <col min="1" max="1" width="9.26953125" customWidth="1"/>
     <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="3" width="90.81640625" customWidth="1"/>
+    <col min="3" max="3" width="90.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7541,7 +7545,7 @@
         <v>102</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7670,10 +7674,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7681,10 +7685,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7692,10 +7696,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7703,10 +7707,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7714,10 +7718,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7725,10 +7729,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7736,10 +7740,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7747,10 +7751,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7758,10 +7762,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7769,10 +7773,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7780,10 +7784,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7791,10 +7795,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7802,10 +7806,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7813,10 +7817,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7824,10 +7828,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7835,10 +7839,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7846,10 +7850,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7857,10 +7861,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7868,10 +7872,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7879,10 +7883,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7890,10 +7894,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7901,10 +7905,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7912,10 +7916,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7923,10 +7927,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7934,10 +7938,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7945,10 +7949,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>357</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7956,10 +7960,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="C40" s="34" t="s">
         <v>358</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -7974,14 +7978,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" customWidth="1"/>
     <col min="4" max="4" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7990,97 +7994,97 @@
         <v>99</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>142</v>
-      </c>
       <c r="C2" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>143</v>
+      <c r="A3" s="33" t="s">
+        <v>448</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>176</v>
-      </c>
       <c r="C6" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -8921,7 +8925,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -8941,7 +8945,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -8961,7 +8965,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -9101,7 +9105,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -9121,7 +9125,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -9221,7 +9225,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -9241,7 +9245,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -9261,7 +9265,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -9301,7 +9305,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -9321,7 +9325,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B36" s="17">
         <v>5</v>
@@ -9341,7 +9345,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -9361,7 +9365,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
@@ -9381,7 +9385,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -9401,7 +9405,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B40" s="17">
         <v>5</v>
@@ -9421,7 +9425,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B41" s="17">
         <v>5</v>
@@ -9441,7 +9445,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
@@ -9461,7 +9465,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B43" s="17">
         <v>3</v>
@@ -9481,7 +9485,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
@@ -9501,7 +9505,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -9521,7 +9525,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -9561,7 +9565,7 @@
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="89" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -9581,7 +9585,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="103" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -9601,7 +9605,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -9621,7 +9625,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
@@ -9641,7 +9645,7 @@
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B52" s="17">
         <v>3</v>
@@ -9661,7 +9665,7 @@
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="86" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B53" s="17">
         <v>3</v>
@@ -9681,7 +9685,7 @@
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="86" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B54" s="17">
         <v>3</v>
@@ -9701,7 +9705,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="86" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B55" s="17">
         <v>3</v>
@@ -9721,7 +9725,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="86" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B56" s="17">
         <v>3</v>
@@ -9741,7 +9745,7 @@
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="86" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B57" s="17">
         <v>3</v>
@@ -9761,7 +9765,7 @@
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="86" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B58" s="17">
         <v>3</v>
@@ -9781,7 +9785,7 @@
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B59" s="17">
         <v>3</v>
@@ -9801,7 +9805,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="86" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B60" s="17">
         <v>3</v>
@@ -9821,7 +9825,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="86" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B61" s="17">
         <v>3</v>
@@ -9841,7 +9845,7 @@
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="86" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B62" s="17">
         <v>3</v>
@@ -9861,7 +9865,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B63" s="17">
         <v>3</v>
@@ -9881,7 +9885,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="86" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B64" s="17">
         <v>3</v>
@@ -9901,7 +9905,7 @@
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="86" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B65" s="17">
         <v>3</v>
@@ -9921,7 +9925,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="86" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B66" s="17">
         <v>3</v>
@@ -9941,7 +9945,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="86" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B67" s="17">
         <v>3</v>
@@ -9961,7 +9965,7 @@
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="86" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B68" s="17">
         <v>3</v>
@@ -9981,7 +9985,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="86" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B69" s="17">
         <v>3</v>
@@ -10001,7 +10005,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="86" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B70" s="17">
         <v>3</v>
@@ -10021,7 +10025,7 @@
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="86" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B71" s="17">
         <v>3</v>
@@ -10041,7 +10045,7 @@
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="86" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B72" s="17">
         <v>3</v>
@@ -10061,7 +10065,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="86" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B73" s="17">
         <v>3</v>
@@ -10081,7 +10085,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B74" s="17">
         <v>3</v>
@@ -10101,7 +10105,7 @@
     </row>
     <row r="75" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="53" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B75" s="17">
         <v>3</v>
@@ -10121,7 +10125,7 @@
     </row>
     <row r="76" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B76" s="17">
         <v>3</v>
@@ -10141,7 +10145,7 @@
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B77" s="17">
         <v>0</v>
@@ -10161,7 +10165,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B78" s="16">
         <v>0</v>
@@ -10190,8 +10194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10200,14 +10204,14 @@
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="13.90625" style="1" customWidth="1"/>
     <col min="4" max="12" width="13.90625" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" customWidth="1"/>
-    <col min="15" max="15" width="18.81640625" customWidth="1"/>
+    <col min="14" max="14" width="15.90625" customWidth="1"/>
+    <col min="15" max="15" width="18.90625" customWidth="1"/>
     <col min="17" max="17" width="10.7265625" customWidth="1"/>
     <col min="18" max="18" width="11.6328125" customWidth="1"/>
     <col min="19" max="19" width="9.36328125" customWidth="1"/>
     <col min="20" max="20" width="13.26953125" customWidth="1"/>
     <col min="21" max="21" width="23.36328125" customWidth="1"/>
-    <col min="24" max="24" width="13.54296875" customWidth="1"/>
+    <col min="24" max="24" width="13.453125" customWidth="1"/>
     <col min="25" max="25" width="18.90625" customWidth="1"/>
     <col min="26" max="26" width="15.90625" customWidth="1"/>
     <col min="27" max="27" width="16.453125" customWidth="1"/>
@@ -10225,7 +10229,7 @@
         <v>98</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E1" s="33">
         <v>23</v>
@@ -10302,16 +10306,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E2" s="106"/>
       <c r="F2" s="106"/>
@@ -10323,136 +10327,136 @@
       <c r="L2" s="106"/>
       <c r="M2" s="107"/>
       <c r="N2" s="106" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O2" s="106" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P2" s="106" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q2" s="106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R2" s="106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S2" s="106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T2" s="106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U2" s="106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="V2" s="106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="W2" s="106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X2" s="106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y2" s="106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Z2" s="106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA2" s="106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AB2" s="106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V3" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="W3" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X3" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Z3" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AA3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -10466,13 +10470,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -10486,13 +10490,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -10506,13 +10510,13 @@
     </row>
     <row r="7" spans="1:28" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="96" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="105">
@@ -10581,13 +10585,13 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="105">
@@ -10659,13 +10663,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
@@ -10739,13 +10743,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
@@ -10819,13 +10823,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
@@ -10899,13 +10903,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D12" s="33">
         <v>2130019</v>
@@ -10979,13 +10983,13 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
@@ -11059,13 +11063,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B14" s="96" t="s">
         <v>452</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D14" s="33">
         <v>2059</v>
@@ -11139,13 +11143,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B15" s="96" t="s">
         <v>452</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D15" s="33">
         <v>8451</v>
@@ -11221,13 +11225,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="33">
         <v>4137</v>
@@ -11307,13 +11311,13 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B17" s="96" t="s">
-        <v>452</v>
+        <v>393</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D17" s="33">
         <v>17665</v>
@@ -11393,178 +11397,178 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -3284,7 +3284,7 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3631,53 +3631,56 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4038,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4377,11 +4380,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="134" t="s">
+      <c r="A15" s="125"/>
+      <c r="B15" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="125" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4512,11 +4515,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
-      <c r="B22" s="128" t="s">
+      <c r="A22" s="132"/>
+      <c r="B22" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="132" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4533,9 +4536,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="129"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4550,9 +4553,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4567,9 +4570,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
+      <c r="A25" s="128"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4584,9 +4587,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4643,11 +4646,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="139"/>
-      <c r="B29" s="136" t="s">
+      <c r="A29" s="134"/>
+      <c r="B29" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="137" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4664,9 +4667,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="137"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
+      <c r="A30" s="135"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4681,9 +4684,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="137"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4698,9 +4701,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="137"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -4715,9 +4718,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="138"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -4774,7 +4777,7 @@
       <c r="B36" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="134" t="s">
+      <c r="C36" s="125" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="20">
@@ -4809,10 +4812,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="126"/>
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="133" t="s">
+      <c r="C38" s="129" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4850,7 +4853,7 @@
       <c r="B40" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="133" t="s">
+      <c r="C40" s="129" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -4957,7 +4960,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="124" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="110" t="s">
@@ -5019,11 +5022,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="127"/>
-      <c r="B49" s="131" t="s">
+      <c r="A49" s="140"/>
+      <c r="B49" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="132" t="s">
+      <c r="C49" s="131" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="20">
@@ -5158,11 +5161,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="128"/>
-      <c r="B56" s="130" t="s">
+      <c r="A56" s="132"/>
+      <c r="B56" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="132" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5179,9 +5182,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="129"/>
-      <c r="B57" s="129"/>
-      <c r="C57" s="129"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5196,9 +5199,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="129"/>
-      <c r="B58" s="129"/>
-      <c r="C58" s="129"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5213,9 +5216,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="129"/>
-      <c r="B59" s="129"/>
-      <c r="C59" s="129"/>
+      <c r="A59" s="128"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="128"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5230,9 +5233,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="129"/>
-      <c r="B60" s="129"/>
-      <c r="C60" s="129"/>
+      <c r="A60" s="128"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="128"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5247,9 +5250,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="129"/>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
+      <c r="A61" s="128"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="128"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5264,9 +5267,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="129"/>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
+      <c r="A62" s="128"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="128"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5323,11 +5326,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="127"/>
-      <c r="B65" s="131" t="s">
+      <c r="A65" s="140"/>
+      <c r="B65" s="130" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="132" t="s">
+      <c r="C65" s="131" t="s">
         <v>287</v>
       </c>
       <c r="D65" s="20">
@@ -5462,11 +5465,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="128"/>
-      <c r="B72" s="130" t="s">
+      <c r="A72" s="132"/>
+      <c r="B72" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="128" t="s">
+      <c r="C72" s="132" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5483,9 +5486,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="129"/>
-      <c r="B73" s="129"/>
-      <c r="C73" s="129"/>
+      <c r="A73" s="128"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="128"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5500,9 +5503,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="129"/>
-      <c r="B74" s="129"/>
-      <c r="C74" s="129"/>
+      <c r="A74" s="128"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="128"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5517,9 +5520,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="129"/>
-      <c r="B75" s="129"/>
-      <c r="C75" s="129"/>
+      <c r="A75" s="128"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="128"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5534,9 +5537,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="129"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="129"/>
+      <c r="A76" s="128"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="128"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5551,9 +5554,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="129"/>
-      <c r="B77" s="129"/>
-      <c r="C77" s="129"/>
+      <c r="A77" s="128"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5568,9 +5571,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="129"/>
-      <c r="B78" s="129"/>
-      <c r="C78" s="129"/>
+      <c r="A78" s="128"/>
+      <c r="B78" s="128"/>
+      <c r="C78" s="128"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5627,11 +5630,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="134"/>
-      <c r="B81" s="134" t="s">
+      <c r="A81" s="125"/>
+      <c r="B81" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="133" t="s">
+      <c r="C81" s="129" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5993,11 +5996,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="124"/>
-      <c r="B99" s="124" t="s">
+      <c r="A99" s="138"/>
+      <c r="B99" s="138" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="124" t="s">
+      <c r="C99" s="138" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -6014,9 +6017,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="124"/>
-      <c r="B100" s="124"/>
-      <c r="C100" s="124"/>
+      <c r="A100" s="138"/>
+      <c r="B100" s="138"/>
+      <c r="C100" s="138"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6031,9 +6034,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="124"/>
-      <c r="B101" s="124"/>
-      <c r="C101" s="124"/>
+      <c r="A101" s="138"/>
+      <c r="B101" s="138"/>
+      <c r="C101" s="138"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6069,11 +6072,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="124"/>
-      <c r="B103" s="124" t="s">
+      <c r="A103" s="138"/>
+      <c r="B103" s="138" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="124" t="s">
+      <c r="C103" s="138" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6090,9 +6093,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="125"/>
-      <c r="B104" s="125"/>
-      <c r="C104" s="125"/>
+      <c r="A104" s="139"/>
+      <c r="B104" s="139"/>
+      <c r="C104" s="139"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6107,9 +6110,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="125"/>
-      <c r="B105" s="125"/>
-      <c r="C105" s="125"/>
+      <c r="A105" s="139"/>
+      <c r="B105" s="139"/>
+      <c r="C105" s="139"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -7112,32 +7115,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
     <mergeCell ref="C103:C105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="A103:A105"/>
@@ -7154,6 +7131,32 @@
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A99:A101"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10194,7 +10197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="82" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>

--- a/config/project/Integrate/IntegrateConfig.xlsx
+++ b/config/project/Integrate/IntegrateConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="461">
   <si>
     <t>组序号</t>
   </si>
@@ -58,15 +58,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -82,39 +82,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -130,107 +130,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -293,15 +293,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -320,62 +320,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -391,7 +391,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -407,7 +407,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -423,71 +423,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -503,27 +503,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -539,7 +539,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -555,222 +555,222 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -786,158 +786,158 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -970,7 +970,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1003,7 +1003,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1029,7 +1029,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1055,7 +1055,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1081,7 +1081,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1107,15 +1107,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1137,7 +1137,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1153,7 +1153,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1169,7 +1169,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1185,7 +1185,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1201,11 +1201,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1221,7 +1221,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1237,15 +1237,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1261,111 +1261,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1381,87 +1381,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1477,31 +1477,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1517,43 +1517,43 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1569,7 +1569,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1585,18 +1585,18 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1612,7 +1612,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1628,11 +1628,11 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1648,7 +1648,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1664,43 +1664,43 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1716,95 +1716,95 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>sim卡采集</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>sim卡编号采集</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>设备信息</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>显示板号</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>直流挡板</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>看门狗插片</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>显示盖板</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>CtrlBoxSet</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1K2控制</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3K4控制</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪K5K6控制</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>K7K8控制</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1K2控制</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3K4控制</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪K9K10控制</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
@@ -1832,271 +1832,271 @@
   </si>
   <si>
     <t>1枪K1反馈</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2反馈</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1反馈</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2反馈</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>KM1反馈</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>KM2反馈</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>K5K6反馈</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>K9K10反馈</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>K7K8反馈</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>KM控制</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>PowerModule</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>电源模块4</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_1</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_2</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>电源模块2</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>电源模块3</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>电源模块5</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K5_K7_K9</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K6_K8_K10</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>断开K5,K7,K9,闭合K6,K8,K10</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>断开K6,K8,K10,闭合K5,K7,K9</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2闭合</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2断开</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2闭合</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2断开</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6闭合</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6断开</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6闭合</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6断开</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8闭合</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8断开</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8闭合</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8断开</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10断开</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10闭合</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10断开</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10闭合</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>模块控制</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>模块1</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>模块2</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>模块3</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>模块4</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>模块5</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>模块6</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x208403</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x048023</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x208063</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测控制</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测控制</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2112,23 +2112,23 @@
       </rPr>
       <t>080B</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x2103</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>枪1泄放</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>枪2泄放</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2144,87 +2144,87 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x1029</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x4501</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K5</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K6</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K7</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K8</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K9</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K10</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0009</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0101</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0008</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2240,39 +2240,39 @@
       </rPr>
       <t>x0021</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0041</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0401</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0020</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0040</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2288,123 +2288,157 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K5-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K6-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K7-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K8-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K9-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>K10-触点</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>上电</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>断电</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表1)</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表2)</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>gunSelect</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>断开网络</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
   </si>
   <si>
     <t>NetWorkCheck</t>
-    <phoneticPr fontId="55" type="noConversion"/>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1启动类型</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2启动类型</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramSet</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本配置检查</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3156,530 +3190,550 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmt